--- a/Global_M2/TVDataFeed/FinalData/United States.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/United States.xlsx
@@ -453,10 +453,10 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>29768</v>
+        <v>29860</v>
       </c>
       <c r="B2" t="n">
-        <v>1681900000000</v>
+        <v>1721800000000</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -464,10 +464,10 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>29799</v>
+        <v>29891</v>
       </c>
       <c r="B3" t="n">
-        <v>1694300000000</v>
+        <v>1736100000000</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -475,10 +475,10 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>29830</v>
+        <v>29921</v>
       </c>
       <c r="B4" t="n">
-        <v>1706000000000</v>
+        <v>1755500000000</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -486,10 +486,10 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>29860</v>
+        <v>29952</v>
       </c>
       <c r="B5" t="n">
-        <v>1721800000000</v>
+        <v>1770400000000</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -497,10 +497,10 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>29891</v>
+        <v>29983</v>
       </c>
       <c r="B6" t="n">
-        <v>1736100000000</v>
+        <v>1774500000000</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -508,10 +508,10 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>29921</v>
+        <v>30011</v>
       </c>
       <c r="B7" t="n">
-        <v>1755500000000</v>
+        <v>1786500000000</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -519,10 +519,10 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>29952</v>
+        <v>30042</v>
       </c>
       <c r="B8" t="n">
-        <v>1770400000000</v>
+        <v>1803900000000</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -530,10 +530,10 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>29983</v>
+        <v>30072</v>
       </c>
       <c r="B9" t="n">
-        <v>1774500000000</v>
+        <v>1815400000000</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -541,10 +541,10 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>30011</v>
+        <v>30103</v>
       </c>
       <c r="B10" t="n">
-        <v>1786500000000</v>
+        <v>1826000000000</v>
       </c>
       <c r="C10" t="n">
         <v>1</v>
@@ -552,10 +552,10 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>30042</v>
+        <v>30133</v>
       </c>
       <c r="B11" t="n">
-        <v>1803900000000</v>
+        <v>1831500000000</v>
       </c>
       <c r="C11" t="n">
         <v>1</v>
@@ -563,10 +563,10 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>30072</v>
+        <v>30164</v>
       </c>
       <c r="B12" t="n">
-        <v>1815400000000</v>
+        <v>1845200000000</v>
       </c>
       <c r="C12" t="n">
         <v>1</v>
@@ -574,10 +574,10 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>30103</v>
+        <v>30195</v>
       </c>
       <c r="B13" t="n">
-        <v>1826000000000</v>
+        <v>1858400000000</v>
       </c>
       <c r="C13" t="n">
         <v>1</v>
@@ -585,10 +585,10 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>30133</v>
+        <v>30225</v>
       </c>
       <c r="B14" t="n">
-        <v>1831500000000</v>
+        <v>1869700000000</v>
       </c>
       <c r="C14" t="n">
         <v>1</v>
@@ -596,10 +596,10 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>30164</v>
+        <v>30256</v>
       </c>
       <c r="B15" t="n">
-        <v>1845200000000</v>
+        <v>1883700000000</v>
       </c>
       <c r="C15" t="n">
         <v>1</v>
@@ -607,10 +607,10 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>30195</v>
+        <v>30286</v>
       </c>
       <c r="B16" t="n">
-        <v>1858400000000</v>
+        <v>1905900000000</v>
       </c>
       <c r="C16" t="n">
         <v>1</v>
@@ -618,10 +618,10 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>30225</v>
+        <v>30317</v>
       </c>
       <c r="B17" t="n">
-        <v>1869700000000</v>
+        <v>1959400000000</v>
       </c>
       <c r="C17" t="n">
         <v>1</v>
@@ -629,10 +629,10 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>30256</v>
+        <v>30348</v>
       </c>
       <c r="B18" t="n">
-        <v>1883700000000</v>
+        <v>1996800000000</v>
       </c>
       <c r="C18" t="n">
         <v>1</v>
@@ -640,10 +640,10 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>30286</v>
+        <v>30376</v>
       </c>
       <c r="B19" t="n">
-        <v>1905900000000</v>
+        <v>2015200000000</v>
       </c>
       <c r="C19" t="n">
         <v>1</v>
@@ -651,10 +651,10 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>30317</v>
+        <v>30407</v>
       </c>
       <c r="B20" t="n">
-        <v>1959400000000</v>
+        <v>2028600000000</v>
       </c>
       <c r="C20" t="n">
         <v>1</v>
@@ -662,10 +662,10 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>30348</v>
+        <v>30437</v>
       </c>
       <c r="B21" t="n">
-        <v>1996800000000</v>
+        <v>2043100000000</v>
       </c>
       <c r="C21" t="n">
         <v>1</v>
@@ -673,10 +673,10 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>30376</v>
+        <v>30468</v>
       </c>
       <c r="B22" t="n">
-        <v>2015200000000</v>
+        <v>2053500000000</v>
       </c>
       <c r="C22" t="n">
         <v>1</v>
@@ -684,10 +684,10 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>30407</v>
+        <v>30498</v>
       </c>
       <c r="B23" t="n">
-        <v>2028600000000</v>
+        <v>2064800000000</v>
       </c>
       <c r="C23" t="n">
         <v>1</v>
@@ -695,10 +695,10 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>30437</v>
+        <v>30529</v>
       </c>
       <c r="B24" t="n">
-        <v>2043100000000</v>
+        <v>2074000000000</v>
       </c>
       <c r="C24" t="n">
         <v>1</v>
@@ -706,10 +706,10 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>30468</v>
+        <v>30560</v>
       </c>
       <c r="B25" t="n">
-        <v>2053500000000</v>
+        <v>2083200000000</v>
       </c>
       <c r="C25" t="n">
         <v>1</v>
@@ -717,10 +717,10 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>30498</v>
+        <v>30590</v>
       </c>
       <c r="B26" t="n">
-        <v>2064800000000</v>
+        <v>2099200000000</v>
       </c>
       <c r="C26" t="n">
         <v>1</v>
@@ -728,10 +728,10 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>30529</v>
+        <v>30621</v>
       </c>
       <c r="B27" t="n">
-        <v>2074000000000</v>
+        <v>2112300000000</v>
       </c>
       <c r="C27" t="n">
         <v>1</v>
@@ -739,10 +739,10 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>30560</v>
+        <v>30651</v>
       </c>
       <c r="B28" t="n">
-        <v>2083200000000</v>
+        <v>2123500000000</v>
       </c>
       <c r="C28" t="n">
         <v>1</v>
@@ -750,10 +750,10 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>30590</v>
+        <v>30682</v>
       </c>
       <c r="B29" t="n">
-        <v>2099300000000</v>
+        <v>2138200000000</v>
       </c>
       <c r="C29" t="n">
         <v>1</v>
@@ -761,10 +761,10 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>30621</v>
+        <v>30713</v>
       </c>
       <c r="B30" t="n">
-        <v>2112300000000</v>
+        <v>2158200000000</v>
       </c>
       <c r="C30" t="n">
         <v>1</v>
@@ -772,10 +772,10 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>30651</v>
+        <v>30742</v>
       </c>
       <c r="B31" t="n">
-        <v>2123500000000</v>
+        <v>2175200000000</v>
       </c>
       <c r="C31" t="n">
         <v>1</v>
@@ -783,10 +783,10 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>30682</v>
+        <v>30773</v>
       </c>
       <c r="B32" t="n">
-        <v>2138200000000</v>
+        <v>2191700000000</v>
       </c>
       <c r="C32" t="n">
         <v>1</v>
@@ -794,10 +794,10 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>30713</v>
+        <v>30803</v>
       </c>
       <c r="B33" t="n">
-        <v>2158200000000</v>
+        <v>2204100000000</v>
       </c>
       <c r="C33" t="n">
         <v>1</v>
@@ -805,10 +805,10 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>30742</v>
+        <v>30834</v>
       </c>
       <c r="B34" t="n">
-        <v>2175200000000</v>
+        <v>2215100000000</v>
       </c>
       <c r="C34" t="n">
         <v>1</v>
@@ -816,10 +816,10 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>30773</v>
+        <v>30864</v>
       </c>
       <c r="B35" t="n">
-        <v>2191700000000</v>
+        <v>2223500000000</v>
       </c>
       <c r="C35" t="n">
         <v>1</v>
@@ -827,10 +827,10 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>30803</v>
+        <v>30895</v>
       </c>
       <c r="B36" t="n">
-        <v>2204100000000</v>
+        <v>2230400000000</v>
       </c>
       <c r="C36" t="n">
         <v>1</v>
@@ -838,10 +838,10 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>30834</v>
+        <v>30926</v>
       </c>
       <c r="B37" t="n">
-        <v>2215100000000</v>
+        <v>2244400000000</v>
       </c>
       <c r="C37" t="n">
         <v>1</v>
@@ -849,10 +849,10 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>30864</v>
+        <v>30956</v>
       </c>
       <c r="B38" t="n">
-        <v>2223500000000</v>
+        <v>2258900000000</v>
       </c>
       <c r="C38" t="n">
         <v>1</v>
@@ -860,10 +860,10 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>30895</v>
+        <v>30987</v>
       </c>
       <c r="B39" t="n">
-        <v>2230400000000</v>
+        <v>2281400000000</v>
       </c>
       <c r="C39" t="n">
         <v>1</v>
@@ -871,10 +871,10 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>30926</v>
+        <v>31017</v>
       </c>
       <c r="B40" t="n">
-        <v>2244400000000</v>
+        <v>2306400000000</v>
       </c>
       <c r="C40" t="n">
         <v>1</v>
@@ -882,10 +882,10 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>30956</v>
+        <v>31048</v>
       </c>
       <c r="B41" t="n">
-        <v>2258900000000</v>
+        <v>2332400000000</v>
       </c>
       <c r="C41" t="n">
         <v>1</v>
@@ -893,10 +893,10 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>30987</v>
+        <v>31079</v>
       </c>
       <c r="B42" t="n">
-        <v>2281400000000</v>
+        <v>2354100000000</v>
       </c>
       <c r="C42" t="n">
         <v>1</v>
@@ -904,10 +904,10 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>31017</v>
+        <v>31107</v>
       </c>
       <c r="B43" t="n">
-        <v>2306400000000</v>
+        <v>2366200000000</v>
       </c>
       <c r="C43" t="n">
         <v>1</v>
@@ -915,10 +915,10 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>31048</v>
+        <v>31138</v>
       </c>
       <c r="B44" t="n">
-        <v>2332400000000</v>
+        <v>2375400000000</v>
       </c>
       <c r="C44" t="n">
         <v>1</v>
@@ -926,10 +926,10 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>31079</v>
+        <v>31168</v>
       </c>
       <c r="B45" t="n">
-        <v>2354100000000</v>
+        <v>2389500000000</v>
       </c>
       <c r="C45" t="n">
         <v>1</v>
@@ -937,10 +937,10 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>31107</v>
+        <v>31199</v>
       </c>
       <c r="B46" t="n">
-        <v>2366200000000</v>
+        <v>2412600000000</v>
       </c>
       <c r="C46" t="n">
         <v>1</v>
@@ -948,10 +948,10 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>31138</v>
+        <v>31229</v>
       </c>
       <c r="B47" t="n">
-        <v>2375400000000</v>
+        <v>2429500000000</v>
       </c>
       <c r="C47" t="n">
         <v>1</v>
@@ -959,10 +959,10 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>31168</v>
+        <v>31260</v>
       </c>
       <c r="B48" t="n">
-        <v>2389500000000</v>
+        <v>2444000000000</v>
       </c>
       <c r="C48" t="n">
         <v>1</v>
@@ -970,10 +970,10 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>31199</v>
+        <v>31291</v>
       </c>
       <c r="B49" t="n">
-        <v>2412600000000</v>
+        <v>2456400000000</v>
       </c>
       <c r="C49" t="n">
         <v>1</v>
@@ -981,10 +981,10 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>31229</v>
+        <v>31321</v>
       </c>
       <c r="B50" t="n">
-        <v>2429500000000</v>
+        <v>2468000000000</v>
       </c>
       <c r="C50" t="n">
         <v>1</v>
@@ -992,10 +992,10 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>31260</v>
+        <v>31352</v>
       </c>
       <c r="B51" t="n">
-        <v>2444000000000</v>
+        <v>2477800000000</v>
       </c>
       <c r="C51" t="n">
         <v>1</v>
@@ -1003,10 +1003,10 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>31291</v>
+        <v>31382</v>
       </c>
       <c r="B52" t="n">
-        <v>2456400000000</v>
+        <v>2492100000000</v>
       </c>
       <c r="C52" t="n">
         <v>1</v>
@@ -1014,10 +1014,10 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>31321</v>
+        <v>31413</v>
       </c>
       <c r="B53" t="n">
-        <v>2468000000000</v>
+        <v>2502100000000</v>
       </c>
       <c r="C53" t="n">
         <v>1</v>
@@ -1025,10 +1025,10 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>31352</v>
+        <v>31444</v>
       </c>
       <c r="B54" t="n">
-        <v>2477800000000</v>
+        <v>2512900000000</v>
       </c>
       <c r="C54" t="n">
         <v>1</v>
@@ -1036,10 +1036,10 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>31382</v>
+        <v>31472</v>
       </c>
       <c r="B55" t="n">
-        <v>2492100000000</v>
+        <v>2533100000000</v>
       </c>
       <c r="C55" t="n">
         <v>1</v>
@@ -1047,10 +1047,10 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>31413</v>
+        <v>31503</v>
       </c>
       <c r="B56" t="n">
-        <v>2502100000000</v>
+        <v>2557800000000</v>
       </c>
       <c r="C56" t="n">
         <v>1</v>
@@ -1058,10 +1058,10 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>31444</v>
+        <v>31533</v>
       </c>
       <c r="B57" t="n">
-        <v>2512900000000</v>
+        <v>2584800000000</v>
       </c>
       <c r="C57" t="n">
         <v>1</v>
@@ -1069,10 +1069,10 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>31472</v>
+        <v>31564</v>
       </c>
       <c r="B58" t="n">
-        <v>2533100000000</v>
+        <v>2605000000000</v>
       </c>
       <c r="C58" t="n">
         <v>1</v>
@@ -1080,10 +1080,10 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>31503</v>
+        <v>31594</v>
       </c>
       <c r="B59" t="n">
-        <v>2557800000000</v>
+        <v>2626600000000</v>
       </c>
       <c r="C59" t="n">
         <v>1</v>
@@ -1091,10 +1091,10 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>31533</v>
+        <v>31625</v>
       </c>
       <c r="B60" t="n">
-        <v>2584800000000</v>
+        <v>2646500000000</v>
       </c>
       <c r="C60" t="n">
         <v>1</v>
@@ -1102,10 +1102,10 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>31564</v>
+        <v>31656</v>
       </c>
       <c r="B61" t="n">
-        <v>2605000000000</v>
+        <v>2667800000000</v>
       </c>
       <c r="C61" t="n">
         <v>1</v>
@@ -1113,10 +1113,10 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>31594</v>
+        <v>31686</v>
       </c>
       <c r="B62" t="n">
-        <v>2626600000000</v>
+        <v>2687400000000</v>
       </c>
       <c r="C62" t="n">
         <v>1</v>
@@ -1124,10 +1124,10 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>31625</v>
+        <v>31717</v>
       </c>
       <c r="B63" t="n">
-        <v>2646500000000</v>
+        <v>2701300000000</v>
       </c>
       <c r="C63" t="n">
         <v>1</v>
@@ -1135,10 +1135,10 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>31656</v>
+        <v>31747</v>
       </c>
       <c r="B64" t="n">
-        <v>2667800000000</v>
+        <v>2728000000000</v>
       </c>
       <c r="C64" t="n">
         <v>1</v>
@@ -1146,10 +1146,10 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>31686</v>
+        <v>31778</v>
       </c>
       <c r="B65" t="n">
-        <v>2687400000000</v>
+        <v>2743900000000</v>
       </c>
       <c r="C65" t="n">
         <v>1</v>
@@ -1157,10 +1157,10 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>31717</v>
+        <v>31809</v>
       </c>
       <c r="B66" t="n">
-        <v>2701300000000</v>
+        <v>2747500000000</v>
       </c>
       <c r="C66" t="n">
         <v>1</v>
@@ -1168,10 +1168,10 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>31747</v>
+        <v>31837</v>
       </c>
       <c r="B67" t="n">
-        <v>2728000000000</v>
+        <v>2753700000000</v>
       </c>
       <c r="C67" t="n">
         <v>1</v>
@@ -1179,10 +1179,10 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>31778</v>
+        <v>31868</v>
       </c>
       <c r="B68" t="n">
-        <v>2743900000000</v>
+        <v>2767700000000</v>
       </c>
       <c r="C68" t="n">
         <v>1</v>
@@ -1190,10 +1190,10 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>31809</v>
+        <v>31898</v>
       </c>
       <c r="B69" t="n">
-        <v>2747500000000</v>
+        <v>2772900000000</v>
       </c>
       <c r="C69" t="n">
         <v>1</v>
@@ -1201,10 +1201,10 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>31837</v>
+        <v>31929</v>
       </c>
       <c r="B70" t="n">
-        <v>2753700000000</v>
+        <v>2774600000000</v>
       </c>
       <c r="C70" t="n">
         <v>1</v>
@@ -1212,10 +1212,10 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>31868</v>
+        <v>31959</v>
       </c>
       <c r="B71" t="n">
-        <v>2767700000000</v>
+        <v>2779000000000</v>
       </c>
       <c r="C71" t="n">
         <v>1</v>
@@ -1223,10 +1223,10 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>31898</v>
+        <v>31990</v>
       </c>
       <c r="B72" t="n">
-        <v>2772900000000</v>
+        <v>2788200000000</v>
       </c>
       <c r="C72" t="n">
         <v>1</v>
@@ -1234,10 +1234,10 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>31929</v>
+        <v>32021</v>
       </c>
       <c r="B73" t="n">
-        <v>2774600000000</v>
+        <v>2799500000000</v>
       </c>
       <c r="C73" t="n">
         <v>1</v>
@@ -1245,10 +1245,10 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>31959</v>
+        <v>32051</v>
       </c>
       <c r="B74" t="n">
-        <v>2779000000000</v>
+        <v>2814800000000</v>
       </c>
       <c r="C74" t="n">
         <v>1</v>
@@ -1256,10 +1256,10 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>31990</v>
+        <v>32082</v>
       </c>
       <c r="B75" t="n">
-        <v>2788200000000</v>
+        <v>2818900000000</v>
       </c>
       <c r="C75" t="n">
         <v>1</v>
@@ -1267,10 +1267,10 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>32021</v>
+        <v>32112</v>
       </c>
       <c r="B76" t="n">
-        <v>2799500000000</v>
+        <v>2826400000000</v>
       </c>
       <c r="C76" t="n">
         <v>1</v>
@@ -1278,10 +1278,10 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>32051</v>
+        <v>32143</v>
       </c>
       <c r="B77" t="n">
-        <v>2814800000000</v>
+        <v>2847400000000</v>
       </c>
       <c r="C77" t="n">
         <v>1</v>
@@ -1289,10 +1289,10 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>32082</v>
+        <v>32174</v>
       </c>
       <c r="B78" t="n">
-        <v>2818900000000</v>
+        <v>2870400000000</v>
       </c>
       <c r="C78" t="n">
         <v>1</v>
@@ -1300,10 +1300,10 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>32112</v>
+        <v>32203</v>
       </c>
       <c r="B79" t="n">
-        <v>2826400000000</v>
+        <v>2890700000000</v>
       </c>
       <c r="C79" t="n">
         <v>1</v>
@@ -1311,10 +1311,10 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>32143</v>
+        <v>32234</v>
       </c>
       <c r="B80" t="n">
-        <v>2847400000000</v>
+        <v>2910700000000</v>
       </c>
       <c r="C80" t="n">
         <v>1</v>
@@ -1322,10 +1322,10 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>32174</v>
+        <v>32264</v>
       </c>
       <c r="B81" t="n">
-        <v>2870400000000</v>
+        <v>2926000000000</v>
       </c>
       <c r="C81" t="n">
         <v>1</v>
@@ -1333,10 +1333,10 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>32203</v>
+        <v>32295</v>
       </c>
       <c r="B82" t="n">
-        <v>2890700000000</v>
+        <v>2938400000000</v>
       </c>
       <c r="C82" t="n">
         <v>1</v>
@@ -1344,10 +1344,10 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>32234</v>
+        <v>32325</v>
       </c>
       <c r="B83" t="n">
-        <v>2910700000000</v>
+        <v>2947200000000</v>
       </c>
       <c r="C83" t="n">
         <v>1</v>
@@ -1355,10 +1355,10 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>32264</v>
+        <v>32356</v>
       </c>
       <c r="B84" t="n">
-        <v>2926000000000</v>
+        <v>2952000000000</v>
       </c>
       <c r="C84" t="n">
         <v>1</v>
@@ -1366,10 +1366,10 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>32295</v>
+        <v>32387</v>
       </c>
       <c r="B85" t="n">
-        <v>2938400000000</v>
+        <v>2956900000000</v>
       </c>
       <c r="C85" t="n">
         <v>1</v>
@@ -1377,10 +1377,10 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>32325</v>
+        <v>32417</v>
       </c>
       <c r="B86" t="n">
-        <v>2947200000000</v>
+        <v>2965300000000</v>
       </c>
       <c r="C86" t="n">
         <v>1</v>
@@ -1388,10 +1388,10 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>32356</v>
+        <v>32448</v>
       </c>
       <c r="B87" t="n">
-        <v>2952000000000</v>
+        <v>2980200000000</v>
       </c>
       <c r="C87" t="n">
         <v>1</v>
@@ -1399,10 +1399,10 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>32387</v>
+        <v>32478</v>
       </c>
       <c r="B88" t="n">
-        <v>2956900000000</v>
+        <v>2988200000000</v>
       </c>
       <c r="C88" t="n">
         <v>1</v>
@@ -1410,10 +1410,10 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>32417</v>
+        <v>32509</v>
       </c>
       <c r="B89" t="n">
-        <v>2965300000000</v>
+        <v>2991700000000</v>
       </c>
       <c r="C89" t="n">
         <v>1</v>
@@ -1421,10 +1421,10 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>32448</v>
+        <v>32540</v>
       </c>
       <c r="B90" t="n">
-        <v>2980200000000</v>
+        <v>2992200000000</v>
       </c>
       <c r="C90" t="n">
         <v>1</v>
@@ -1432,10 +1432,10 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>32478</v>
+        <v>32568</v>
       </c>
       <c r="B91" t="n">
-        <v>2988200000000</v>
+        <v>2999700000000</v>
       </c>
       <c r="C91" t="n">
         <v>1</v>
@@ -1443,10 +1443,10 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>32509</v>
+        <v>32599</v>
       </c>
       <c r="B92" t="n">
-        <v>2991700000000</v>
+        <v>3006000000000</v>
       </c>
       <c r="C92" t="n">
         <v>1</v>
@@ -1454,10 +1454,10 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>32540</v>
+        <v>32629</v>
       </c>
       <c r="B93" t="n">
-        <v>2992200000000</v>
+        <v>3011600000000</v>
       </c>
       <c r="C93" t="n">
         <v>1</v>
@@ -1465,10 +1465,10 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>32568</v>
+        <v>32660</v>
       </c>
       <c r="B94" t="n">
-        <v>2999700000000</v>
+        <v>3027900000000</v>
       </c>
       <c r="C94" t="n">
         <v>1</v>
@@ -1476,10 +1476,10 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>32599</v>
+        <v>32690</v>
       </c>
       <c r="B95" t="n">
-        <v>3006000000000</v>
+        <v>3052400000000</v>
       </c>
       <c r="C95" t="n">
         <v>1</v>
@@ -1487,10 +1487,10 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>32629</v>
+        <v>32721</v>
       </c>
       <c r="B96" t="n">
-        <v>3011600000000</v>
+        <v>3074400000000</v>
       </c>
       <c r="C96" t="n">
         <v>1</v>
@@ -1498,10 +1498,10 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>32660</v>
+        <v>32752</v>
       </c>
       <c r="B97" t="n">
-        <v>3027900000000</v>
+        <v>3092500000000</v>
       </c>
       <c r="C97" t="n">
         <v>1</v>
@@ -1509,10 +1509,10 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>32690</v>
+        <v>32782</v>
       </c>
       <c r="B98" t="n">
-        <v>3052400000000</v>
+        <v>3114100000000</v>
       </c>
       <c r="C98" t="n">
         <v>1</v>
@@ -1520,10 +1520,10 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>32721</v>
+        <v>32813</v>
       </c>
       <c r="B99" t="n">
-        <v>3074400000000</v>
+        <v>3133300000000</v>
       </c>
       <c r="C99" t="n">
         <v>1</v>
@@ -1531,10 +1531,10 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>32752</v>
+        <v>32843</v>
       </c>
       <c r="B100" t="n">
-        <v>3092500000000</v>
+        <v>3152500000000</v>
       </c>
       <c r="C100" t="n">
         <v>1</v>
@@ -1542,10 +1542,10 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>32782</v>
+        <v>32874</v>
       </c>
       <c r="B101" t="n">
-        <v>3114100000000</v>
+        <v>3166800000000</v>
       </c>
       <c r="C101" t="n">
         <v>1</v>
@@ -1553,10 +1553,10 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
-        <v>32813</v>
+        <v>32905</v>
       </c>
       <c r="B102" t="n">
-        <v>3133300000000</v>
+        <v>3179200000000</v>
       </c>
       <c r="C102" t="n">
         <v>1</v>
@@ -1564,10 +1564,10 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
-        <v>32843</v>
+        <v>32933</v>
       </c>
       <c r="B103" t="n">
-        <v>3152500000000</v>
+        <v>3190100000000</v>
       </c>
       <c r="C103" t="n">
         <v>1</v>
@@ -1575,10 +1575,10 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
-        <v>32874</v>
+        <v>32964</v>
       </c>
       <c r="B104" t="n">
-        <v>3166800000000</v>
+        <v>3201600000000</v>
       </c>
       <c r="C104" t="n">
         <v>1</v>
@@ -1586,10 +1586,10 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
-        <v>32905</v>
+        <v>32994</v>
       </c>
       <c r="B105" t="n">
-        <v>3179200000000</v>
+        <v>3200600000000</v>
       </c>
       <c r="C105" t="n">
         <v>1</v>
@@ -1597,10 +1597,10 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
-        <v>32933</v>
+        <v>33025</v>
       </c>
       <c r="B106" t="n">
-        <v>3190100000000</v>
+        <v>3213700000000</v>
       </c>
       <c r="C106" t="n">
         <v>1</v>
@@ -1608,10 +1608,10 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
-        <v>32964</v>
+        <v>33055</v>
       </c>
       <c r="B107" t="n">
-        <v>3201600000000</v>
+        <v>3224500000000</v>
       </c>
       <c r="C107" t="n">
         <v>1</v>
@@ -1619,10 +1619,10 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
-        <v>32994</v>
+        <v>33086</v>
       </c>
       <c r="B108" t="n">
-        <v>3200600000000</v>
+        <v>3242000000000</v>
       </c>
       <c r="C108" t="n">
         <v>1</v>
@@ -1630,10 +1630,10 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
-        <v>33025</v>
+        <v>33117</v>
       </c>
       <c r="B109" t="n">
-        <v>3213700000000</v>
+        <v>3254600000000</v>
       </c>
       <c r="C109" t="n">
         <v>1</v>
@@ -1641,10 +1641,10 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
-        <v>33055</v>
+        <v>33147</v>
       </c>
       <c r="B110" t="n">
-        <v>3224500000000</v>
+        <v>3259300000000</v>
       </c>
       <c r="C110" t="n">
         <v>1</v>
@@ -1652,10 +1652,10 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
-        <v>33086</v>
+        <v>33178</v>
       </c>
       <c r="B111" t="n">
-        <v>3242000000000</v>
+        <v>3262600000000</v>
       </c>
       <c r="C111" t="n">
         <v>1</v>
@@ -1663,10 +1663,10 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
-        <v>33117</v>
+        <v>33208</v>
       </c>
       <c r="B112" t="n">
-        <v>3254600000000</v>
+        <v>3271800000000</v>
       </c>
       <c r="C112" t="n">
         <v>1</v>
@@ -1674,10 +1674,10 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
-        <v>33147</v>
+        <v>33239</v>
       </c>
       <c r="B113" t="n">
-        <v>3259300000000</v>
+        <v>3287700000000</v>
       </c>
       <c r="C113" t="n">
         <v>1</v>
@@ -1685,10 +1685,10 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
-        <v>33178</v>
+        <v>33270</v>
       </c>
       <c r="B114" t="n">
-        <v>3262600000000</v>
+        <v>3304500000000</v>
       </c>
       <c r="C114" t="n">
         <v>1</v>
@@ -1696,10 +1696,10 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
-        <v>33208</v>
+        <v>33298</v>
       </c>
       <c r="B115" t="n">
-        <v>3271800000000</v>
+        <v>3321900000000</v>
       </c>
       <c r="C115" t="n">
         <v>1</v>
@@ -1707,10 +1707,10 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
-        <v>33239</v>
+        <v>33329</v>
       </c>
       <c r="B116" t="n">
-        <v>3287700000000</v>
+        <v>3332400000000</v>
       </c>
       <c r="C116" t="n">
         <v>1</v>
@@ -1718,10 +1718,10 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
-        <v>33270</v>
+        <v>33359</v>
       </c>
       <c r="B117" t="n">
-        <v>3304500000000</v>
+        <v>3343000000000</v>
       </c>
       <c r="C117" t="n">
         <v>1</v>
@@ -1729,10 +1729,10 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
-        <v>33298</v>
+        <v>33390</v>
       </c>
       <c r="B118" t="n">
-        <v>3321900000000</v>
+        <v>3351900000000</v>
       </c>
       <c r="C118" t="n">
         <v>1</v>
@@ -1740,10 +1740,10 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
-        <v>33329</v>
+        <v>33420</v>
       </c>
       <c r="B119" t="n">
-        <v>3332400000000</v>
+        <v>3356100000000</v>
       </c>
       <c r="C119" t="n">
         <v>1</v>
@@ -1751,10 +1751,10 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
-        <v>33359</v>
+        <v>33451</v>
       </c>
       <c r="B120" t="n">
-        <v>3343000000000</v>
+        <v>3355000000000</v>
       </c>
       <c r="C120" t="n">
         <v>1</v>
@@ -1762,10 +1762,10 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
-        <v>33390</v>
+        <v>33482</v>
       </c>
       <c r="B121" t="n">
-        <v>3351900000000</v>
+        <v>3354900000000</v>
       </c>
       <c r="C121" t="n">
         <v>1</v>
@@ -1773,10 +1773,10 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
-        <v>33420</v>
+        <v>33512</v>
       </c>
       <c r="B122" t="n">
-        <v>3356100000000</v>
+        <v>3360100000000</v>
       </c>
       <c r="C122" t="n">
         <v>1</v>
@@ -1784,10 +1784,10 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
-        <v>33451</v>
+        <v>33543</v>
       </c>
       <c r="B123" t="n">
-        <v>3355000000000</v>
+        <v>3365500000000</v>
       </c>
       <c r="C123" t="n">
         <v>1</v>
@@ -1795,10 +1795,10 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
-        <v>33482</v>
+        <v>33573</v>
       </c>
       <c r="B124" t="n">
-        <v>3354900000000</v>
+        <v>3372200000000</v>
       </c>
       <c r="C124" t="n">
         <v>1</v>
@@ -1806,10 +1806,10 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
-        <v>33512</v>
+        <v>33604</v>
       </c>
       <c r="B125" t="n">
-        <v>3360100000000</v>
+        <v>3381200000000</v>
       </c>
       <c r="C125" t="n">
         <v>1</v>
@@ -1817,10 +1817,10 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
-        <v>33543</v>
+        <v>33635</v>
       </c>
       <c r="B126" t="n">
-        <v>3365500000000</v>
+        <v>3400000000000</v>
       </c>
       <c r="C126" t="n">
         <v>1</v>
@@ -1828,10 +1828,10 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="n">
-        <v>33573</v>
+        <v>33664</v>
       </c>
       <c r="B127" t="n">
-        <v>3372200000000</v>
+        <v>3403900000000</v>
       </c>
       <c r="C127" t="n">
         <v>1</v>
@@ -1839,10 +1839,10 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
-        <v>33604</v>
+        <v>33695</v>
       </c>
       <c r="B128" t="n">
-        <v>3381200000000</v>
+        <v>3399700000000</v>
       </c>
       <c r="C128" t="n">
         <v>1</v>
@@ -1850,10 +1850,10 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
-        <v>33635</v>
+        <v>33725</v>
       </c>
       <c r="B129" t="n">
-        <v>3400000000000</v>
+        <v>3398600000000</v>
       </c>
       <c r="C129" t="n">
         <v>1</v>
@@ -1861,10 +1861,10 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
-        <v>33664</v>
+        <v>33756</v>
       </c>
       <c r="B130" t="n">
-        <v>3403900000000</v>
+        <v>3393400000000</v>
       </c>
       <c r="C130" t="n">
         <v>1</v>
@@ -1872,10 +1872,10 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
-        <v>33695</v>
+        <v>33786</v>
       </c>
       <c r="B131" t="n">
-        <v>3399700000000</v>
+        <v>3393900000000</v>
       </c>
       <c r="C131" t="n">
         <v>1</v>
@@ -1883,10 +1883,10 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
-        <v>33725</v>
+        <v>33817</v>
       </c>
       <c r="B132" t="n">
-        <v>3398600000000</v>
+        <v>3398800000000</v>
       </c>
       <c r="C132" t="n">
         <v>1</v>
@@ -1894,10 +1894,10 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="n">
-        <v>33756</v>
+        <v>33848</v>
       </c>
       <c r="B133" t="n">
-        <v>3393400000000</v>
+        <v>3410300000000</v>
       </c>
       <c r="C133" t="n">
         <v>1</v>
@@ -1905,10 +1905,10 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="n">
-        <v>33786</v>
+        <v>33878</v>
       </c>
       <c r="B134" t="n">
-        <v>3393900000000</v>
+        <v>3423800000000</v>
       </c>
       <c r="C134" t="n">
         <v>1</v>
@@ -1916,10 +1916,10 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="n">
-        <v>33817</v>
+        <v>33909</v>
       </c>
       <c r="B135" t="n">
-        <v>3398800000000</v>
+        <v>3426500000000</v>
       </c>
       <c r="C135" t="n">
         <v>1</v>
@@ -1927,10 +1927,10 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="n">
-        <v>33848</v>
+        <v>33939</v>
       </c>
       <c r="B136" t="n">
-        <v>3410300000000</v>
+        <v>3424700000000</v>
       </c>
       <c r="C136" t="n">
         <v>1</v>
@@ -1938,10 +1938,10 @@
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
-        <v>33878</v>
+        <v>33970</v>
       </c>
       <c r="B137" t="n">
-        <v>3423800000000</v>
+        <v>3419100000000</v>
       </c>
       <c r="C137" t="n">
         <v>1</v>
@@ -1949,10 +1949,10 @@
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
-        <v>33909</v>
+        <v>34001</v>
       </c>
       <c r="B138" t="n">
-        <v>3426500000000</v>
+        <v>3414500000000</v>
       </c>
       <c r="C138" t="n">
         <v>1</v>
@@ -1960,10 +1960,10 @@
     </row>
     <row r="139">
       <c r="A139" s="2" t="n">
-        <v>33939</v>
+        <v>34029</v>
       </c>
       <c r="B139" t="n">
-        <v>3424700000000</v>
+        <v>3411700000000</v>
       </c>
       <c r="C139" t="n">
         <v>1</v>
@@ -1971,10 +1971,10 @@
     </row>
     <row r="140">
       <c r="A140" s="2" t="n">
-        <v>33970</v>
+        <v>34060</v>
       </c>
       <c r="B140" t="n">
-        <v>3419100000000</v>
+        <v>3411300000000</v>
       </c>
       <c r="C140" t="n">
         <v>1</v>
@@ -1982,10 +1982,10 @@
     </row>
     <row r="141">
       <c r="A141" s="2" t="n">
-        <v>34001</v>
+        <v>34090</v>
       </c>
       <c r="B141" t="n">
-        <v>3414500000000</v>
+        <v>3436900000000</v>
       </c>
       <c r="C141" t="n">
         <v>1</v>
@@ -1993,10 +1993,10 @@
     </row>
     <row r="142">
       <c r="A142" s="2" t="n">
-        <v>34029</v>
+        <v>34121</v>
       </c>
       <c r="B142" t="n">
-        <v>3411700000000</v>
+        <v>3442400000000</v>
       </c>
       <c r="C142" t="n">
         <v>1</v>
@@ -2004,10 +2004,10 @@
     </row>
     <row r="143">
       <c r="A143" s="2" t="n">
-        <v>34060</v>
+        <v>34151</v>
       </c>
       <c r="B143" t="n">
-        <v>3411300000000</v>
+        <v>3442000000000</v>
       </c>
       <c r="C143" t="n">
         <v>1</v>
@@ -2015,10 +2015,10 @@
     </row>
     <row r="144">
       <c r="A144" s="2" t="n">
-        <v>34090</v>
+        <v>34182</v>
       </c>
       <c r="B144" t="n">
-        <v>3436900000000</v>
+        <v>3445700000000</v>
       </c>
       <c r="C144" t="n">
         <v>1</v>
@@ -2026,10 +2026,10 @@
     </row>
     <row r="145">
       <c r="A145" s="2" t="n">
-        <v>34121</v>
+        <v>34213</v>
       </c>
       <c r="B145" t="n">
-        <v>3442400000000</v>
+        <v>3452200000000</v>
       </c>
       <c r="C145" t="n">
         <v>1</v>
@@ -2037,10 +2037,10 @@
     </row>
     <row r="146">
       <c r="A146" s="2" t="n">
-        <v>34151</v>
+        <v>34243</v>
       </c>
       <c r="B146" t="n">
-        <v>3442000000000</v>
+        <v>3456700000000</v>
       </c>
       <c r="C146" t="n">
         <v>1</v>
@@ -2048,10 +2048,10 @@
     </row>
     <row r="147">
       <c r="A147" s="2" t="n">
-        <v>34182</v>
+        <v>34274</v>
       </c>
       <c r="B147" t="n">
-        <v>3445700000000</v>
+        <v>3470100000000</v>
       </c>
       <c r="C147" t="n">
         <v>1</v>
@@ -2059,10 +2059,10 @@
     </row>
     <row r="148">
       <c r="A148" s="2" t="n">
-        <v>34213</v>
+        <v>34304</v>
       </c>
       <c r="B148" t="n">
-        <v>3452200000000</v>
+        <v>3474500000000</v>
       </c>
       <c r="C148" t="n">
         <v>1</v>
@@ -2070,10 +2070,10 @@
     </row>
     <row r="149">
       <c r="A149" s="2" t="n">
-        <v>34243</v>
+        <v>34335</v>
       </c>
       <c r="B149" t="n">
-        <v>3456700000000</v>
+        <v>3474900000000</v>
       </c>
       <c r="C149" t="n">
         <v>1</v>
@@ -2081,10 +2081,10 @@
     </row>
     <row r="150">
       <c r="A150" s="2" t="n">
-        <v>34274</v>
+        <v>34366</v>
       </c>
       <c r="B150" t="n">
-        <v>3470100000000</v>
+        <v>3475700000000</v>
       </c>
       <c r="C150" t="n">
         <v>1</v>
@@ -2092,10 +2092,10 @@
     </row>
     <row r="151">
       <c r="A151" s="2" t="n">
-        <v>34304</v>
+        <v>34394</v>
       </c>
       <c r="B151" t="n">
-        <v>3474500000000</v>
+        <v>3480100000000</v>
       </c>
       <c r="C151" t="n">
         <v>1</v>
@@ -2103,10 +2103,10 @@
     </row>
     <row r="152">
       <c r="A152" s="2" t="n">
-        <v>34335</v>
+        <v>34425</v>
       </c>
       <c r="B152" t="n">
-        <v>3474900000000</v>
+        <v>3481300000000</v>
       </c>
       <c r="C152" t="n">
         <v>1</v>
@@ -2114,10 +2114,10 @@
     </row>
     <row r="153">
       <c r="A153" s="2" t="n">
-        <v>34366</v>
+        <v>34455</v>
       </c>
       <c r="B153" t="n">
-        <v>3475700000000</v>
+        <v>3490800000000</v>
       </c>
       <c r="C153" t="n">
         <v>1</v>
@@ -2125,10 +2125,10 @@
     </row>
     <row r="154">
       <c r="A154" s="2" t="n">
-        <v>34394</v>
+        <v>34486</v>
       </c>
       <c r="B154" t="n">
-        <v>3480100000000</v>
+        <v>3479500000000</v>
       </c>
       <c r="C154" t="n">
         <v>1</v>
@@ -2136,10 +2136,10 @@
     </row>
     <row r="155">
       <c r="A155" s="2" t="n">
-        <v>34425</v>
+        <v>34516</v>
       </c>
       <c r="B155" t="n">
-        <v>3481300000000</v>
+        <v>3488200000000</v>
       </c>
       <c r="C155" t="n">
         <v>1</v>
@@ -2147,10 +2147,10 @@
     </row>
     <row r="156">
       <c r="A156" s="2" t="n">
-        <v>34455</v>
+        <v>34547</v>
       </c>
       <c r="B156" t="n">
-        <v>3490800000000</v>
+        <v>3485700000000</v>
       </c>
       <c r="C156" t="n">
         <v>1</v>
@@ -2158,10 +2158,10 @@
     </row>
     <row r="157">
       <c r="A157" s="2" t="n">
-        <v>34486</v>
+        <v>34578</v>
       </c>
       <c r="B157" t="n">
-        <v>3479500000000</v>
+        <v>3486100000000</v>
       </c>
       <c r="C157" t="n">
         <v>1</v>
@@ -2169,10 +2169,10 @@
     </row>
     <row r="158">
       <c r="A158" s="2" t="n">
-        <v>34516</v>
+        <v>34608</v>
       </c>
       <c r="B158" t="n">
-        <v>3488200000000</v>
+        <v>3484300000000</v>
       </c>
       <c r="C158" t="n">
         <v>1</v>
@@ -2180,10 +2180,10 @@
     </row>
     <row r="159">
       <c r="A159" s="2" t="n">
-        <v>34547</v>
+        <v>34639</v>
       </c>
       <c r="B159" t="n">
-        <v>3485700000000</v>
+        <v>3487200000000</v>
       </c>
       <c r="C159" t="n">
         <v>1</v>
@@ -2191,10 +2191,10 @@
     </row>
     <row r="160">
       <c r="A160" s="2" t="n">
-        <v>34578</v>
+        <v>34669</v>
       </c>
       <c r="B160" t="n">
-        <v>3486100000000</v>
+        <v>3486400000000</v>
       </c>
       <c r="C160" t="n">
         <v>1</v>
@@ -2202,10 +2202,10 @@
     </row>
     <row r="161">
       <c r="A161" s="2" t="n">
-        <v>34608</v>
+        <v>34700</v>
       </c>
       <c r="B161" t="n">
-        <v>3484300000000</v>
+        <v>3492400000000</v>
       </c>
       <c r="C161" t="n">
         <v>1</v>
@@ -2213,10 +2213,10 @@
     </row>
     <row r="162">
       <c r="A162" s="2" t="n">
-        <v>34639</v>
+        <v>34731</v>
       </c>
       <c r="B162" t="n">
-        <v>3487200000000</v>
+        <v>3489900000000</v>
       </c>
       <c r="C162" t="n">
         <v>1</v>
@@ -2224,10 +2224,10 @@
     </row>
     <row r="163">
       <c r="A163" s="2" t="n">
-        <v>34669</v>
+        <v>34759</v>
       </c>
       <c r="B163" t="n">
-        <v>3486400000000</v>
+        <v>3491100000000</v>
       </c>
       <c r="C163" t="n">
         <v>1</v>
@@ -2235,10 +2235,10 @@
     </row>
     <row r="164">
       <c r="A164" s="2" t="n">
-        <v>34700</v>
+        <v>34790</v>
       </c>
       <c r="B164" t="n">
-        <v>3492400000000</v>
+        <v>3499200000000</v>
       </c>
       <c r="C164" t="n">
         <v>1</v>
@@ -2246,10 +2246,10 @@
     </row>
     <row r="165">
       <c r="A165" s="2" t="n">
-        <v>34731</v>
+        <v>34820</v>
       </c>
       <c r="B165" t="n">
-        <v>3489900000000</v>
+        <v>3524200000000</v>
       </c>
       <c r="C165" t="n">
         <v>1</v>
@@ -2257,10 +2257,10 @@
     </row>
     <row r="166">
       <c r="A166" s="2" t="n">
-        <v>34759</v>
+        <v>34851</v>
       </c>
       <c r="B166" t="n">
-        <v>3491100000000</v>
+        <v>3548900000000</v>
       </c>
       <c r="C166" t="n">
         <v>1</v>
@@ -2268,10 +2268,10 @@
     </row>
     <row r="167">
       <c r="A167" s="2" t="n">
-        <v>34790</v>
+        <v>34881</v>
       </c>
       <c r="B167" t="n">
-        <v>3499200000000</v>
+        <v>3567400000000</v>
       </c>
       <c r="C167" t="n">
         <v>1</v>
@@ -2279,10 +2279,10 @@
     </row>
     <row r="168">
       <c r="A168" s="2" t="n">
-        <v>34820</v>
+        <v>34912</v>
       </c>
       <c r="B168" t="n">
-        <v>3524200000000</v>
+        <v>3589000000000</v>
       </c>
       <c r="C168" t="n">
         <v>1</v>
@@ -2290,10 +2290,10 @@
     </row>
     <row r="169">
       <c r="A169" s="2" t="n">
-        <v>34851</v>
+        <v>34943</v>
       </c>
       <c r="B169" t="n">
-        <v>3548900000000</v>
+        <v>3602100000000</v>
       </c>
       <c r="C169" t="n">
         <v>1</v>
@@ -2301,10 +2301,10 @@
     </row>
     <row r="170">
       <c r="A170" s="2" t="n">
-        <v>34881</v>
+        <v>34973</v>
       </c>
       <c r="B170" t="n">
-        <v>3567400000000</v>
+        <v>3613400000000</v>
       </c>
       <c r="C170" t="n">
         <v>1</v>
@@ -2312,10 +2312,10 @@
     </row>
     <row r="171">
       <c r="A171" s="2" t="n">
-        <v>34912</v>
+        <v>35004</v>
       </c>
       <c r="B171" t="n">
-        <v>3589000000000</v>
+        <v>3619900000000</v>
       </c>
       <c r="C171" t="n">
         <v>1</v>
@@ -2323,10 +2323,10 @@
     </row>
     <row r="172">
       <c r="A172" s="2" t="n">
-        <v>34943</v>
+        <v>35034</v>
       </c>
       <c r="B172" t="n">
-        <v>3602100000000</v>
+        <v>3629500000000</v>
       </c>
       <c r="C172" t="n">
         <v>1</v>
@@ -2334,10 +2334,10 @@
     </row>
     <row r="173">
       <c r="A173" s="2" t="n">
-        <v>34973</v>
+        <v>35065</v>
       </c>
       <c r="B173" t="n">
-        <v>3613400000000</v>
+        <v>3647900000000</v>
       </c>
       <c r="C173" t="n">
         <v>1</v>
@@ -2345,10 +2345,10 @@
     </row>
     <row r="174">
       <c r="A174" s="2" t="n">
-        <v>35004</v>
+        <v>35096</v>
       </c>
       <c r="B174" t="n">
-        <v>3619900000000</v>
+        <v>3661800000000</v>
       </c>
       <c r="C174" t="n">
         <v>1</v>
@@ -2356,10 +2356,10 @@
     </row>
     <row r="175">
       <c r="A175" s="2" t="n">
-        <v>35034</v>
+        <v>35125</v>
       </c>
       <c r="B175" t="n">
-        <v>3629500000000</v>
+        <v>3686900000000</v>
       </c>
       <c r="C175" t="n">
         <v>1</v>
@@ -2367,10 +2367,10 @@
     </row>
     <row r="176">
       <c r="A176" s="2" t="n">
-        <v>35065</v>
+        <v>35156</v>
       </c>
       <c r="B176" t="n">
-        <v>3647900000000</v>
+        <v>3697700000000</v>
       </c>
       <c r="C176" t="n">
         <v>1</v>
@@ -2378,10 +2378,10 @@
     </row>
     <row r="177">
       <c r="A177" s="2" t="n">
-        <v>35096</v>
+        <v>35186</v>
       </c>
       <c r="B177" t="n">
-        <v>3661800000000</v>
+        <v>3709600000000</v>
       </c>
       <c r="C177" t="n">
         <v>1</v>
@@ -2389,10 +2389,10 @@
     </row>
     <row r="178">
       <c r="A178" s="2" t="n">
-        <v>35125</v>
+        <v>35217</v>
       </c>
       <c r="B178" t="n">
-        <v>3687000000000</v>
+        <v>3722500000000</v>
       </c>
       <c r="C178" t="n">
         <v>1</v>
@@ -2400,10 +2400,10 @@
     </row>
     <row r="179">
       <c r="A179" s="2" t="n">
-        <v>35156</v>
+        <v>35247</v>
       </c>
       <c r="B179" t="n">
-        <v>3697800000000</v>
+        <v>3737100000000</v>
       </c>
       <c r="C179" t="n">
         <v>1</v>
@@ -2411,10 +2411,10 @@
     </row>
     <row r="180">
       <c r="A180" s="2" t="n">
-        <v>35186</v>
+        <v>35278</v>
       </c>
       <c r="B180" t="n">
-        <v>3709600000000</v>
+        <v>3744000000000</v>
       </c>
       <c r="C180" t="n">
         <v>1</v>
@@ -2422,10 +2422,10 @@
     </row>
     <row r="181">
       <c r="A181" s="2" t="n">
-        <v>35217</v>
+        <v>35309</v>
       </c>
       <c r="B181" t="n">
-        <v>3722500000000</v>
+        <v>3753400000000</v>
       </c>
       <c r="C181" t="n">
         <v>1</v>
@@ -2433,10 +2433,10 @@
     </row>
     <row r="182">
       <c r="A182" s="2" t="n">
-        <v>35247</v>
+        <v>35339</v>
       </c>
       <c r="B182" t="n">
-        <v>3737200000000</v>
+        <v>3772800000000</v>
       </c>
       <c r="C182" t="n">
         <v>1</v>
@@ -2444,10 +2444,10 @@
     </row>
     <row r="183">
       <c r="A183" s="2" t="n">
-        <v>35278</v>
+        <v>35370</v>
       </c>
       <c r="B183" t="n">
-        <v>3744100000000</v>
+        <v>3795100000000</v>
       </c>
       <c r="C183" t="n">
         <v>1</v>
@@ -2455,10 +2455,10 @@
     </row>
     <row r="184">
       <c r="A184" s="2" t="n">
-        <v>35309</v>
+        <v>35400</v>
       </c>
       <c r="B184" t="n">
-        <v>3753500000000</v>
+        <v>3818600000000</v>
       </c>
       <c r="C184" t="n">
         <v>1</v>
@@ -2466,10 +2466,10 @@
     </row>
     <row r="185">
       <c r="A185" s="2" t="n">
-        <v>35339</v>
+        <v>35431</v>
       </c>
       <c r="B185" t="n">
-        <v>3770900000000</v>
+        <v>3834600000000</v>
       </c>
       <c r="C185" t="n">
         <v>1</v>
@@ -2477,10 +2477,10 @@
     </row>
     <row r="186">
       <c r="A186" s="2" t="n">
-        <v>35370</v>
+        <v>35462</v>
       </c>
       <c r="B186" t="n">
-        <v>3790000000000</v>
+        <v>3846300000000</v>
       </c>
       <c r="C186" t="n">
         <v>1</v>
@@ -2488,10 +2488,10 @@
     </row>
     <row r="187">
       <c r="A187" s="2" t="n">
-        <v>35400</v>
+        <v>35490</v>
       </c>
       <c r="B187" t="n">
-        <v>3810400000000</v>
+        <v>3861200000000</v>
       </c>
       <c r="C187" t="n">
         <v>1</v>
@@ -2499,10 +2499,10 @@
     </row>
     <row r="188">
       <c r="A188" s="2" t="n">
-        <v>35431</v>
+        <v>35521</v>
       </c>
       <c r="B188" t="n">
-        <v>3824600000000</v>
+        <v>3877000000000</v>
       </c>
       <c r="C188" t="n">
         <v>1</v>
@@ -2510,10 +2510,10 @@
     </row>
     <row r="189">
       <c r="A189" s="2" t="n">
-        <v>35462</v>
+        <v>35551</v>
       </c>
       <c r="B189" t="n">
-        <v>3836300000000</v>
+        <v>3889200000000</v>
       </c>
       <c r="C189" t="n">
         <v>1</v>
@@ -2521,10 +2521,10 @@
     </row>
     <row r="190">
       <c r="A190" s="2" t="n">
-        <v>35490</v>
+        <v>35582</v>
       </c>
       <c r="B190" t="n">
-        <v>3851200000000</v>
+        <v>3906000000000</v>
       </c>
       <c r="C190" t="n">
         <v>1</v>
@@ -2532,10 +2532,10 @@
     </row>
     <row r="191">
       <c r="A191" s="2" t="n">
-        <v>35521</v>
+        <v>35612</v>
       </c>
       <c r="B191" t="n">
-        <v>3867200000000</v>
+        <v>3923900000000</v>
       </c>
       <c r="C191" t="n">
         <v>1</v>
@@ -2543,10 +2543,10 @@
     </row>
     <row r="192">
       <c r="A192" s="2" t="n">
-        <v>35551</v>
+        <v>35643</v>
       </c>
       <c r="B192" t="n">
-        <v>3879100000000</v>
+        <v>3957400000000</v>
       </c>
       <c r="C192" t="n">
         <v>1</v>
@@ -2554,10 +2554,10 @@
     </row>
     <row r="193">
       <c r="A193" s="2" t="n">
-        <v>35582</v>
+        <v>35674</v>
       </c>
       <c r="B193" t="n">
-        <v>3895800000000</v>
+        <v>3973100000000</v>
       </c>
       <c r="C193" t="n">
         <v>1</v>
@@ -2565,10 +2565,10 @@
     </row>
     <row r="194">
       <c r="A194" s="2" t="n">
-        <v>35612</v>
+        <v>35704</v>
       </c>
       <c r="B194" t="n">
-        <v>3913800000000</v>
+        <v>3992300000000</v>
       </c>
       <c r="C194" t="n">
         <v>1</v>
@@ -2576,10 +2576,10 @@
     </row>
     <row r="195">
       <c r="A195" s="2" t="n">
-        <v>35643</v>
+        <v>35735</v>
       </c>
       <c r="B195" t="n">
-        <v>3947300000000</v>
+        <v>4014800000000</v>
       </c>
       <c r="C195" t="n">
         <v>1</v>
@@ -2587,10 +2587,10 @@
     </row>
     <row r="196">
       <c r="A196" s="2" t="n">
-        <v>35674</v>
+        <v>35765</v>
       </c>
       <c r="B196" t="n">
-        <v>3963000000000</v>
+        <v>4032900000000</v>
       </c>
       <c r="C196" t="n">
         <v>1</v>
@@ -2598,10 +2598,10 @@
     </row>
     <row r="197">
       <c r="A197" s="2" t="n">
-        <v>35704</v>
+        <v>35796</v>
       </c>
       <c r="B197" t="n">
-        <v>3982100000000</v>
+        <v>4056200000000</v>
       </c>
       <c r="C197" t="n">
         <v>1</v>
@@ -2609,10 +2609,10 @@
     </row>
     <row r="198">
       <c r="A198" s="2" t="n">
-        <v>35735</v>
+        <v>35827</v>
       </c>
       <c r="B198" t="n">
-        <v>4004600000000</v>
+        <v>4088900000000</v>
       </c>
       <c r="C198" t="n">
         <v>1</v>
@@ -2620,10 +2620,10 @@
     </row>
     <row r="199">
       <c r="A199" s="2" t="n">
-        <v>35765</v>
+        <v>35855</v>
       </c>
       <c r="B199" t="n">
-        <v>4022800000000</v>
+        <v>4114300000000</v>
       </c>
       <c r="C199" t="n">
         <v>1</v>
@@ -2631,10 +2631,10 @@
     </row>
     <row r="200">
       <c r="A200" s="2" t="n">
-        <v>35796</v>
+        <v>35886</v>
       </c>
       <c r="B200" t="n">
-        <v>4046100000000</v>
+        <v>4140200000000</v>
       </c>
       <c r="C200" t="n">
         <v>1</v>
@@ -2642,10 +2642,10 @@
     </row>
     <row r="201">
       <c r="A201" s="2" t="n">
-        <v>35827</v>
+        <v>35916</v>
       </c>
       <c r="B201" t="n">
-        <v>4078800000000</v>
+        <v>4164400000000</v>
       </c>
       <c r="C201" t="n">
         <v>1</v>
@@ -2653,10 +2653,10 @@
     </row>
     <row r="202">
       <c r="A202" s="2" t="n">
-        <v>35855</v>
+        <v>35947</v>
       </c>
       <c r="B202" t="n">
-        <v>4104300000000</v>
+        <v>4184100000000</v>
       </c>
       <c r="C202" t="n">
         <v>1</v>
@@ -2664,10 +2664,10 @@
     </row>
     <row r="203">
       <c r="A203" s="2" t="n">
-        <v>35886</v>
+        <v>35977</v>
       </c>
       <c r="B203" t="n">
-        <v>4130100000000</v>
+        <v>4203800000000</v>
       </c>
       <c r="C203" t="n">
         <v>1</v>
@@ -2675,10 +2675,10 @@
     </row>
     <row r="204">
       <c r="A204" s="2" t="n">
-        <v>35916</v>
+        <v>36008</v>
       </c>
       <c r="B204" t="n">
-        <v>4154000000000</v>
+        <v>4228700000000</v>
       </c>
       <c r="C204" t="n">
         <v>1</v>
@@ -2686,10 +2686,10 @@
     </row>
     <row r="205">
       <c r="A205" s="2" t="n">
-        <v>35947</v>
+        <v>36039</v>
       </c>
       <c r="B205" t="n">
-        <v>4173800000000</v>
+        <v>4267600000000</v>
       </c>
       <c r="C205" t="n">
         <v>1</v>
@@ -2697,10 +2697,10 @@
     </row>
     <row r="206">
       <c r="A206" s="2" t="n">
-        <v>35977</v>
+        <v>36069</v>
       </c>
       <c r="B206" t="n">
-        <v>4193500000000</v>
+        <v>4307700000000</v>
       </c>
       <c r="C206" t="n">
         <v>1</v>
@@ -2708,10 +2708,10 @@
     </row>
     <row r="207">
       <c r="A207" s="2" t="n">
-        <v>36008</v>
+        <v>36100</v>
       </c>
       <c r="B207" t="n">
-        <v>4218500000000</v>
+        <v>4346400000000</v>
       </c>
       <c r="C207" t="n">
         <v>1</v>
@@ -2719,10 +2719,10 @@
     </row>
     <row r="208">
       <c r="A208" s="2" t="n">
-        <v>36039</v>
+        <v>36130</v>
       </c>
       <c r="B208" t="n">
-        <v>4257400000000</v>
+        <v>4375200000000</v>
       </c>
       <c r="C208" t="n">
         <v>1</v>
@@ -2730,10 +2730,10 @@
     </row>
     <row r="209">
       <c r="A209" s="2" t="n">
-        <v>36069</v>
+        <v>36161</v>
       </c>
       <c r="B209" t="n">
-        <v>4297500000000</v>
+        <v>4402600000000</v>
       </c>
       <c r="C209" t="n">
         <v>1</v>
@@ -2741,10 +2741,10 @@
     </row>
     <row r="210">
       <c r="A210" s="2" t="n">
-        <v>36100</v>
+        <v>36192</v>
       </c>
       <c r="B210" t="n">
-        <v>4336100000000</v>
+        <v>4425300000000</v>
       </c>
       <c r="C210" t="n">
         <v>1</v>
@@ -2752,10 +2752,10 @@
     </row>
     <row r="211">
       <c r="A211" s="2" t="n">
-        <v>36130</v>
+        <v>36220</v>
       </c>
       <c r="B211" t="n">
-        <v>4365000000000</v>
+        <v>4432100000000</v>
       </c>
       <c r="C211" t="n">
         <v>1</v>
@@ -2763,10 +2763,10 @@
     </row>
     <row r="212">
       <c r="A212" s="2" t="n">
-        <v>36161</v>
+        <v>36251</v>
       </c>
       <c r="B212" t="n">
-        <v>4392400000000</v>
+        <v>4460700000000</v>
       </c>
       <c r="C212" t="n">
         <v>1</v>
@@ -2774,10 +2774,10 @@
     </row>
     <row r="213">
       <c r="A213" s="2" t="n">
-        <v>36192</v>
+        <v>36281</v>
       </c>
       <c r="B213" t="n">
-        <v>4415200000000</v>
+        <v>4485300000000</v>
       </c>
       <c r="C213" t="n">
         <v>1</v>
@@ -2785,10 +2785,10 @@
     </row>
     <row r="214">
       <c r="A214" s="2" t="n">
-        <v>36220</v>
+        <v>36312</v>
       </c>
       <c r="B214" t="n">
-        <v>4422000000000</v>
+        <v>4507200000000</v>
       </c>
       <c r="C214" t="n">
         <v>1</v>
@@ -2796,10 +2796,10 @@
     </row>
     <row r="215">
       <c r="A215" s="2" t="n">
-        <v>36251</v>
+        <v>36342</v>
       </c>
       <c r="B215" t="n">
-        <v>4450600000000</v>
+        <v>4534500000000</v>
       </c>
       <c r="C215" t="n">
         <v>1</v>
@@ -2807,10 +2807,10 @@
     </row>
     <row r="216">
       <c r="A216" s="2" t="n">
-        <v>36281</v>
+        <v>36373</v>
       </c>
       <c r="B216" t="n">
-        <v>4474900000000</v>
+        <v>4551700000000</v>
       </c>
       <c r="C216" t="n">
         <v>1</v>
@@ -2818,10 +2818,10 @@
     </row>
     <row r="217">
       <c r="A217" s="2" t="n">
-        <v>36312</v>
+        <v>36404</v>
       </c>
       <c r="B217" t="n">
-        <v>4496700000000</v>
+        <v>4567700000000</v>
       </c>
       <c r="C217" t="n">
         <v>1</v>
@@ -2829,10 +2829,10 @@
     </row>
     <row r="218">
       <c r="A218" s="2" t="n">
-        <v>36342</v>
+        <v>36434</v>
       </c>
       <c r="B218" t="n">
-        <v>4523900000000</v>
+        <v>4591500000000</v>
       </c>
       <c r="C218" t="n">
         <v>1</v>
@@ -2840,10 +2840,10 @@
     </row>
     <row r="219">
       <c r="A219" s="2" t="n">
-        <v>36373</v>
+        <v>36465</v>
       </c>
       <c r="B219" t="n">
-        <v>4541200000000</v>
+        <v>4610500000000</v>
       </c>
       <c r="C219" t="n">
         <v>1</v>
@@ -2851,10 +2851,10 @@
     </row>
     <row r="220">
       <c r="A220" s="2" t="n">
-        <v>36404</v>
+        <v>36495</v>
       </c>
       <c r="B220" t="n">
-        <v>4557200000000</v>
+        <v>4638000000000</v>
       </c>
       <c r="C220" t="n">
         <v>1</v>
@@ -2862,10 +2862,10 @@
     </row>
     <row r="221">
       <c r="A221" s="2" t="n">
-        <v>36434</v>
+        <v>36526</v>
       </c>
       <c r="B221" t="n">
-        <v>4580900000000</v>
+        <v>4666200000000</v>
       </c>
       <c r="C221" t="n">
         <v>1</v>
@@ -2873,10 +2873,10 @@
     </row>
     <row r="222">
       <c r="A222" s="2" t="n">
-        <v>36465</v>
+        <v>36557</v>
       </c>
       <c r="B222" t="n">
-        <v>4599900000000</v>
+        <v>4679400000000</v>
       </c>
       <c r="C222" t="n">
         <v>1</v>
@@ -2884,10 +2884,10 @@
     </row>
     <row r="223">
       <c r="A223" s="2" t="n">
-        <v>36495</v>
+        <v>36586</v>
       </c>
       <c r="B223" t="n">
-        <v>4627400000000</v>
+        <v>4710200000000</v>
       </c>
       <c r="C223" t="n">
         <v>1</v>
@@ -2895,10 +2895,10 @@
     </row>
     <row r="224">
       <c r="A224" s="2" t="n">
-        <v>36526</v>
+        <v>36617</v>
       </c>
       <c r="B224" t="n">
-        <v>4655700000000</v>
+        <v>4766100000000</v>
       </c>
       <c r="C224" t="n">
         <v>1</v>
@@ -2906,10 +2906,10 @@
     </row>
     <row r="225">
       <c r="A225" s="2" t="n">
-        <v>36557</v>
+        <v>36647</v>
       </c>
       <c r="B225" t="n">
-        <v>4669000000000</v>
+        <v>4753900000000</v>
       </c>
       <c r="C225" t="n">
         <v>1</v>
@@ -2917,10 +2917,10 @@
     </row>
     <row r="226">
       <c r="A226" s="2" t="n">
-        <v>36586</v>
+        <v>36678</v>
       </c>
       <c r="B226" t="n">
-        <v>4699800000000</v>
+        <v>4771800000000</v>
       </c>
       <c r="C226" t="n">
         <v>1</v>
@@ -2928,10 +2928,10 @@
     </row>
     <row r="227">
       <c r="A227" s="2" t="n">
-        <v>36617</v>
+        <v>36708</v>
       </c>
       <c r="B227" t="n">
-        <v>4755600000000</v>
+        <v>4789400000000</v>
       </c>
       <c r="C227" t="n">
         <v>1</v>
@@ -2939,10 +2939,10 @@
     </row>
     <row r="228">
       <c r="A228" s="2" t="n">
-        <v>36647</v>
+        <v>36739</v>
       </c>
       <c r="B228" t="n">
-        <v>4743100000000</v>
+        <v>4817500000000</v>
       </c>
       <c r="C228" t="n">
         <v>1</v>
@@ -2950,10 +2950,10 @@
     </row>
     <row r="229">
       <c r="A229" s="2" t="n">
-        <v>36678</v>
+        <v>36770</v>
       </c>
       <c r="B229" t="n">
-        <v>4760900000000</v>
+        <v>4853200000000</v>
       </c>
       <c r="C229" t="n">
         <v>1</v>
@@ -2961,10 +2961,10 @@
     </row>
     <row r="230">
       <c r="A230" s="2" t="n">
-        <v>36708</v>
+        <v>36800</v>
       </c>
       <c r="B230" t="n">
-        <v>4778400000000</v>
+        <v>4869200000000</v>
       </c>
       <c r="C230" t="n">
         <v>1</v>
@@ -2972,10 +2972,10 @@
     </row>
     <row r="231">
       <c r="A231" s="2" t="n">
-        <v>36739</v>
+        <v>36831</v>
       </c>
       <c r="B231" t="n">
-        <v>4806600000000</v>
+        <v>4880300000000</v>
       </c>
       <c r="C231" t="n">
         <v>1</v>
@@ -2983,10 +2983,10 @@
     </row>
     <row r="232">
       <c r="A232" s="2" t="n">
-        <v>36770</v>
+        <v>36861</v>
       </c>
       <c r="B232" t="n">
-        <v>4842200000000</v>
+        <v>4925000000000</v>
       </c>
       <c r="C232" t="n">
         <v>1</v>
@@ -2994,10 +2994,10 @@
     </row>
     <row r="233">
       <c r="A233" s="2" t="n">
-        <v>36800</v>
+        <v>36892</v>
       </c>
       <c r="B233" t="n">
-        <v>4858200000000</v>
+        <v>4975700000000</v>
       </c>
       <c r="C233" t="n">
         <v>1</v>
@@ -3005,10 +3005,10 @@
     </row>
     <row r="234">
       <c r="A234" s="2" t="n">
-        <v>36831</v>
+        <v>36923</v>
       </c>
       <c r="B234" t="n">
-        <v>4869000000000</v>
+        <v>5014100000000</v>
       </c>
       <c r="C234" t="n">
         <v>1</v>
@@ -3016,10 +3016,10 @@
     </row>
     <row r="235">
       <c r="A235" s="2" t="n">
-        <v>36861</v>
+        <v>36951</v>
       </c>
       <c r="B235" t="n">
-        <v>4913700000000</v>
+        <v>5072000000000</v>
       </c>
       <c r="C235" t="n">
         <v>1</v>
@@ -3027,10 +3027,10 @@
     </row>
     <row r="236">
       <c r="A236" s="2" t="n">
-        <v>36892</v>
+        <v>36982</v>
       </c>
       <c r="B236" t="n">
-        <v>4964300000000</v>
+        <v>5135900000000</v>
       </c>
       <c r="C236" t="n">
         <v>1</v>
@@ -3038,10 +3038,10 @@
     </row>
     <row r="237">
       <c r="A237" s="2" t="n">
-        <v>36923</v>
+        <v>37012</v>
       </c>
       <c r="B237" t="n">
-        <v>5002600000000</v>
+        <v>5133000000000</v>
       </c>
       <c r="C237" t="n">
         <v>1</v>
@@ -3049,10 +3049,10 @@
     </row>
     <row r="238">
       <c r="A238" s="2" t="n">
-        <v>36951</v>
+        <v>37043</v>
       </c>
       <c r="B238" t="n">
-        <v>5060400000000</v>
+        <v>5173500000000</v>
       </c>
       <c r="C238" t="n">
         <v>1</v>
@@ -3060,10 +3060,10 @@
     </row>
     <row r="239">
       <c r="A239" s="2" t="n">
-        <v>36982</v>
+        <v>37073</v>
       </c>
       <c r="B239" t="n">
-        <v>5124400000000</v>
+        <v>5203400000000</v>
       </c>
       <c r="C239" t="n">
         <v>1</v>
@@ -3071,10 +3071,10 @@
     </row>
     <row r="240">
       <c r="A240" s="2" t="n">
-        <v>37012</v>
+        <v>37104</v>
       </c>
       <c r="B240" t="n">
-        <v>5121100000000</v>
+        <v>5237200000000</v>
       </c>
       <c r="C240" t="n">
         <v>1</v>
@@ -3082,10 +3082,10 @@
     </row>
     <row r="241">
       <c r="A241" s="2" t="n">
-        <v>37043</v>
+        <v>37135</v>
       </c>
       <c r="B241" t="n">
-        <v>5161300000000</v>
+        <v>5348400000000</v>
       </c>
       <c r="C241" t="n">
         <v>1</v>
@@ -3093,10 +3093,10 @@
     </row>
     <row r="242">
       <c r="A242" s="2" t="n">
-        <v>37073</v>
+        <v>37165</v>
       </c>
       <c r="B242" t="n">
-        <v>5191300000000</v>
+        <v>5337100000000</v>
       </c>
       <c r="C242" t="n">
         <v>1</v>
@@ -3104,10 +3104,10 @@
     </row>
     <row r="243">
       <c r="A243" s="2" t="n">
-        <v>37104</v>
+        <v>37196</v>
       </c>
       <c r="B243" t="n">
-        <v>5225200000000</v>
+        <v>5380800000000</v>
       </c>
       <c r="C243" t="n">
         <v>1</v>
@@ -3115,10 +3115,10 @@
     </row>
     <row r="244">
       <c r="A244" s="2" t="n">
-        <v>37135</v>
+        <v>37226</v>
       </c>
       <c r="B244" t="n">
-        <v>5336300000000</v>
+        <v>5433800000000</v>
       </c>
       <c r="C244" t="n">
         <v>1</v>
@@ -3126,10 +3126,10 @@
     </row>
     <row r="245">
       <c r="A245" s="2" t="n">
-        <v>37165</v>
+        <v>37257</v>
       </c>
       <c r="B245" t="n">
-        <v>5324900000000</v>
+        <v>5454100000000</v>
       </c>
       <c r="C245" t="n">
         <v>1</v>
@@ -3137,10 +3137,10 @@
     </row>
     <row r="246">
       <c r="A246" s="2" t="n">
-        <v>37196</v>
+        <v>37288</v>
       </c>
       <c r="B246" t="n">
-        <v>5368500000000</v>
+        <v>5483400000000</v>
       </c>
       <c r="C246" t="n">
         <v>1</v>
@@ -3148,10 +3148,10 @@
     </row>
     <row r="247">
       <c r="A247" s="2" t="n">
-        <v>37226</v>
+        <v>37316</v>
       </c>
       <c r="B247" t="n">
-        <v>5421600000000</v>
+        <v>5495200000000</v>
       </c>
       <c r="C247" t="n">
         <v>1</v>
@@ -3159,10 +3159,10 @@
     </row>
     <row r="248">
       <c r="A248" s="2" t="n">
-        <v>37257</v>
+        <v>37347</v>
       </c>
       <c r="B248" t="n">
-        <v>5442000000000</v>
+        <v>5495400000000</v>
       </c>
       <c r="C248" t="n">
         <v>1</v>
@@ -3170,10 +3170,10 @@
     </row>
     <row r="249">
       <c r="A249" s="2" t="n">
-        <v>37288</v>
+        <v>37377</v>
       </c>
       <c r="B249" t="n">
-        <v>5471400000000</v>
+        <v>5521500000000</v>
       </c>
       <c r="C249" t="n">
         <v>1</v>
@@ -3181,10 +3181,10 @@
     </row>
     <row r="250">
       <c r="A250" s="2" t="n">
-        <v>37316</v>
+        <v>37408</v>
       </c>
       <c r="B250" t="n">
-        <v>5483400000000</v>
+        <v>5546500000000</v>
       </c>
       <c r="C250" t="n">
         <v>1</v>
@@ -3192,10 +3192,10 @@
     </row>
     <row r="251">
       <c r="A251" s="2" t="n">
-        <v>37347</v>
+        <v>37438</v>
       </c>
       <c r="B251" t="n">
-        <v>5483500000000</v>
+        <v>5589100000000</v>
       </c>
       <c r="C251" t="n">
         <v>1</v>
@@ -3203,10 +3203,10 @@
     </row>
     <row r="252">
       <c r="A252" s="2" t="n">
-        <v>37377</v>
+        <v>37469</v>
       </c>
       <c r="B252" t="n">
-        <v>5509400000000</v>
+        <v>5631600000000</v>
       </c>
       <c r="C252" t="n">
         <v>1</v>
@@ -3214,10 +3214,10 @@
     </row>
     <row r="253">
       <c r="A253" s="2" t="n">
-        <v>37408</v>
+        <v>37500</v>
       </c>
       <c r="B253" t="n">
-        <v>5534300000000</v>
+        <v>5656000000000</v>
       </c>
       <c r="C253" t="n">
         <v>1</v>
@@ -3225,10 +3225,10 @@
     </row>
     <row r="254">
       <c r="A254" s="2" t="n">
-        <v>37438</v>
+        <v>37530</v>
       </c>
       <c r="B254" t="n">
-        <v>5576900000000</v>
+        <v>5700400000000</v>
       </c>
       <c r="C254" t="n">
         <v>1</v>
@@ -3236,10 +3236,10 @@
     </row>
     <row r="255">
       <c r="A255" s="2" t="n">
-        <v>37469</v>
+        <v>37561</v>
       </c>
       <c r="B255" t="n">
-        <v>5619400000000</v>
+        <v>5750600000000</v>
       </c>
       <c r="C255" t="n">
         <v>1</v>
@@ -3247,10 +3247,10 @@
     </row>
     <row r="256">
       <c r="A256" s="2" t="n">
-        <v>37500</v>
+        <v>37591</v>
       </c>
       <c r="B256" t="n">
-        <v>5643700000000</v>
+        <v>5772000000000</v>
       </c>
       <c r="C256" t="n">
         <v>1</v>
@@ -3258,10 +3258,10 @@
     </row>
     <row r="257">
       <c r="A257" s="2" t="n">
-        <v>37530</v>
+        <v>37622</v>
       </c>
       <c r="B257" t="n">
-        <v>5688300000000</v>
+        <v>5804600000000</v>
       </c>
       <c r="C257" t="n">
         <v>1</v>
@@ -3269,10 +3269,10 @@
     </row>
     <row r="258">
       <c r="A258" s="2" t="n">
-        <v>37561</v>
+        <v>37653</v>
       </c>
       <c r="B258" t="n">
-        <v>5738400000000</v>
+        <v>5840700000000</v>
       </c>
       <c r="C258" t="n">
         <v>1</v>
@@ -3280,10 +3280,10 @@
     </row>
     <row r="259">
       <c r="A259" s="2" t="n">
-        <v>37591</v>
+        <v>37681</v>
       </c>
       <c r="B259" t="n">
-        <v>5759700000000</v>
+        <v>5861400000000</v>
       </c>
       <c r="C259" t="n">
         <v>1</v>
@@ -3291,10 +3291,10 @@
     </row>
     <row r="260">
       <c r="A260" s="2" t="n">
-        <v>37622</v>
+        <v>37712</v>
       </c>
       <c r="B260" t="n">
-        <v>5792300000000</v>
+        <v>5898800000000</v>
       </c>
       <c r="C260" t="n">
         <v>1</v>
@@ -3302,10 +3302,10 @@
     </row>
     <row r="261">
       <c r="A261" s="2" t="n">
-        <v>37653</v>
+        <v>37742</v>
       </c>
       <c r="B261" t="n">
-        <v>5828500000000</v>
+        <v>5959300000000</v>
       </c>
       <c r="C261" t="n">
         <v>1</v>
@@ -3313,10 +3313,10 @@
     </row>
     <row r="262">
       <c r="A262" s="2" t="n">
-        <v>37681</v>
+        <v>37773</v>
       </c>
       <c r="B262" t="n">
-        <v>5849300000000</v>
+        <v>5996000000000</v>
       </c>
       <c r="C262" t="n">
         <v>1</v>
@@ -3324,10 +3324,10 @@
     </row>
     <row r="263">
       <c r="A263" s="2" t="n">
-        <v>37712</v>
+        <v>37803</v>
       </c>
       <c r="B263" t="n">
-        <v>5886500000000</v>
+        <v>6042700000000</v>
       </c>
       <c r="C263" t="n">
         <v>1</v>
@@ -3335,10 +3335,10 @@
     </row>
     <row r="264">
       <c r="A264" s="2" t="n">
-        <v>37742</v>
+        <v>37834</v>
       </c>
       <c r="B264" t="n">
-        <v>5946600000000</v>
+        <v>6100800000000</v>
       </c>
       <c r="C264" t="n">
         <v>1</v>
@@ -3346,10 +3346,10 @@
     </row>
     <row r="265">
       <c r="A265" s="2" t="n">
-        <v>37773</v>
+        <v>37865</v>
       </c>
       <c r="B265" t="n">
-        <v>5983300000000</v>
+        <v>6072800000000</v>
       </c>
       <c r="C265" t="n">
         <v>1</v>
@@ -3357,10 +3357,10 @@
     </row>
     <row r="266">
       <c r="A266" s="2" t="n">
-        <v>37803</v>
+        <v>37895</v>
       </c>
       <c r="B266" t="n">
-        <v>6030000000000</v>
+        <v>6063600000000</v>
       </c>
       <c r="C266" t="n">
         <v>1</v>
@@ -3368,10 +3368,10 @@
     </row>
     <row r="267">
       <c r="A267" s="2" t="n">
-        <v>37834</v>
+        <v>37926</v>
       </c>
       <c r="B267" t="n">
-        <v>6088200000000</v>
+        <v>6069100000000</v>
       </c>
       <c r="C267" t="n">
         <v>1</v>
@@ -3379,10 +3379,10 @@
     </row>
     <row r="268">
       <c r="A268" s="2" t="n">
-        <v>37865</v>
+        <v>37956</v>
       </c>
       <c r="B268" t="n">
-        <v>6060100000000</v>
+        <v>6067300000000</v>
       </c>
       <c r="C268" t="n">
         <v>1</v>
@@ -3390,10 +3390,10 @@
     </row>
     <row r="269">
       <c r="A269" s="2" t="n">
-        <v>37895</v>
+        <v>37987</v>
       </c>
       <c r="B269" t="n">
-        <v>6050900000000</v>
+        <v>6075500000000</v>
       </c>
       <c r="C269" t="n">
         <v>1</v>
@@ -3401,10 +3401,10 @@
     </row>
     <row r="270">
       <c r="A270" s="2" t="n">
-        <v>37926</v>
+        <v>38018</v>
       </c>
       <c r="B270" t="n">
-        <v>6056100000000</v>
+        <v>6114300000000</v>
       </c>
       <c r="C270" t="n">
         <v>1</v>
@@ -3412,10 +3412,10 @@
     </row>
     <row r="271">
       <c r="A271" s="2" t="n">
-        <v>37956</v>
+        <v>38047</v>
       </c>
       <c r="B271" t="n">
-        <v>6054200000000</v>
+        <v>6150100000000</v>
       </c>
       <c r="C271" t="n">
         <v>1</v>
@@ -3423,10 +3423,10 @@
     </row>
     <row r="272">
       <c r="A272" s="2" t="n">
-        <v>37987</v>
+        <v>38078</v>
       </c>
       <c r="B272" t="n">
-        <v>6062700000000</v>
+        <v>6191200000000</v>
       </c>
       <c r="C272" t="n">
         <v>1</v>
@@ -3434,10 +3434,10 @@
     </row>
     <row r="273">
       <c r="A273" s="2" t="n">
-        <v>38018</v>
+        <v>38108</v>
       </c>
       <c r="B273" t="n">
-        <v>6101600000000</v>
+        <v>6268100000000</v>
       </c>
       <c r="C273" t="n">
         <v>1</v>
@@ -3445,10 +3445,10 @@
     </row>
     <row r="274">
       <c r="A274" s="2" t="n">
-        <v>38047</v>
+        <v>38139</v>
       </c>
       <c r="B274" t="n">
-        <v>6137400000000</v>
+        <v>6270500000000</v>
       </c>
       <c r="C274" t="n">
         <v>1</v>
@@ -3456,10 +3456,10 @@
     </row>
     <row r="275">
       <c r="A275" s="2" t="n">
-        <v>38078</v>
+        <v>38169</v>
       </c>
       <c r="B275" t="n">
-        <v>6178400000000</v>
+        <v>6284300000000</v>
       </c>
       <c r="C275" t="n">
         <v>1</v>
@@ -3467,10 +3467,10 @@
     </row>
     <row r="276">
       <c r="A276" s="2" t="n">
-        <v>38108</v>
+        <v>38200</v>
       </c>
       <c r="B276" t="n">
-        <v>6255000000000</v>
+        <v>6310600000000</v>
       </c>
       <c r="C276" t="n">
         <v>1</v>
@@ -3478,10 +3478,10 @@
     </row>
     <row r="277">
       <c r="A277" s="2" t="n">
-        <v>38139</v>
+        <v>38231</v>
       </c>
       <c r="B277" t="n">
-        <v>6257300000000</v>
+        <v>6345300000000</v>
       </c>
       <c r="C277" t="n">
         <v>1</v>
@@ -3489,10 +3489,10 @@
     </row>
     <row r="278">
       <c r="A278" s="2" t="n">
-        <v>38169</v>
+        <v>38261</v>
       </c>
       <c r="B278" t="n">
-        <v>6271000000000</v>
+        <v>6373300000000</v>
       </c>
       <c r="C278" t="n">
         <v>1</v>
@@ -3500,10 +3500,10 @@
     </row>
     <row r="279">
       <c r="A279" s="2" t="n">
-        <v>38200</v>
+        <v>38292</v>
       </c>
       <c r="B279" t="n">
-        <v>6297100000000</v>
+        <v>6399800000000</v>
       </c>
       <c r="C279" t="n">
         <v>1</v>
@@ -3511,10 +3511,10 @@
     </row>
     <row r="280">
       <c r="A280" s="2" t="n">
-        <v>38231</v>
+        <v>38322</v>
       </c>
       <c r="B280" t="n">
-        <v>6331700000000</v>
+        <v>6418300000000</v>
       </c>
       <c r="C280" t="n">
         <v>1</v>
@@ -3522,10 +3522,10 @@
     </row>
     <row r="281">
       <c r="A281" s="2" t="n">
-        <v>38261</v>
+        <v>38353</v>
       </c>
       <c r="B281" t="n">
-        <v>6359900000000</v>
+        <v>6424500000000</v>
       </c>
       <c r="C281" t="n">
         <v>1</v>
@@ -3533,10 +3533,10 @@
     </row>
     <row r="282">
       <c r="A282" s="2" t="n">
-        <v>38292</v>
+        <v>38384</v>
       </c>
       <c r="B282" t="n">
-        <v>6386400000000</v>
+        <v>6432800000000</v>
       </c>
       <c r="C282" t="n">
         <v>1</v>
@@ -3544,10 +3544,10 @@
     </row>
     <row r="283">
       <c r="A283" s="2" t="n">
-        <v>38322</v>
+        <v>38412</v>
       </c>
       <c r="B283" t="n">
-        <v>6405000000000</v>
+        <v>6441900000000</v>
       </c>
       <c r="C283" t="n">
         <v>1</v>
@@ -3555,10 +3555,10 @@
     </row>
     <row r="284">
       <c r="A284" s="2" t="n">
-        <v>38353</v>
+        <v>38443</v>
       </c>
       <c r="B284" t="n">
-        <v>6411200000000</v>
+        <v>6455900000000</v>
       </c>
       <c r="C284" t="n">
         <v>1</v>
@@ -3566,10 +3566,10 @@
     </row>
     <row r="285">
       <c r="A285" s="2" t="n">
-        <v>38384</v>
+        <v>38473</v>
       </c>
       <c r="B285" t="n">
-        <v>6419600000000</v>
+        <v>6473300000000</v>
       </c>
       <c r="C285" t="n">
         <v>1</v>
@@ -3577,10 +3577,10 @@
     </row>
     <row r="286">
       <c r="A286" s="2" t="n">
-        <v>38412</v>
+        <v>38504</v>
       </c>
       <c r="B286" t="n">
-        <v>6428600000000</v>
+        <v>6505800000000</v>
       </c>
       <c r="C286" t="n">
         <v>1</v>
@@ -3588,10 +3588,10 @@
     </row>
     <row r="287">
       <c r="A287" s="2" t="n">
-        <v>38443</v>
+        <v>38534</v>
       </c>
       <c r="B287" t="n">
-        <v>6442600000000</v>
+        <v>6537400000000</v>
       </c>
       <c r="C287" t="n">
         <v>1</v>
@@ -3599,10 +3599,10 @@
     </row>
     <row r="288">
       <c r="A288" s="2" t="n">
-        <v>38473</v>
+        <v>38565</v>
       </c>
       <c r="B288" t="n">
-        <v>6459900000000</v>
+        <v>6570200000000</v>
       </c>
       <c r="C288" t="n">
         <v>1</v>
@@ -3610,10 +3610,10 @@
     </row>
     <row r="289">
       <c r="A289" s="2" t="n">
-        <v>38504</v>
+        <v>38596</v>
       </c>
       <c r="B289" t="n">
-        <v>6492300000000</v>
+        <v>6604300000000</v>
       </c>
       <c r="C289" t="n">
         <v>1</v>
@@ -3621,10 +3621,10 @@
     </row>
     <row r="290">
       <c r="A290" s="2" t="n">
-        <v>38534</v>
+        <v>38626</v>
       </c>
       <c r="B290" t="n">
-        <v>6523900000000</v>
+        <v>6638600000000</v>
       </c>
       <c r="C290" t="n">
         <v>1</v>
@@ -3632,10 +3632,10 @@
     </row>
     <row r="291">
       <c r="A291" s="2" t="n">
-        <v>38565</v>
+        <v>38657</v>
       </c>
       <c r="B291" t="n">
-        <v>6556600000000</v>
+        <v>6655000000000</v>
       </c>
       <c r="C291" t="n">
         <v>1</v>
@@ -3643,10 +3643,10 @@
     </row>
     <row r="292">
       <c r="A292" s="2" t="n">
-        <v>38596</v>
+        <v>38687</v>
       </c>
       <c r="B292" t="n">
-        <v>6590700000000</v>
+        <v>6681900000000</v>
       </c>
       <c r="C292" t="n">
         <v>1</v>
@@ -3654,10 +3654,10 @@
     </row>
     <row r="293">
       <c r="A293" s="2" t="n">
-        <v>38626</v>
+        <v>38718</v>
       </c>
       <c r="B293" t="n">
-        <v>6624700000000</v>
+        <v>6724300000000</v>
       </c>
       <c r="C293" t="n">
         <v>1</v>
@@ -3665,10 +3665,10 @@
     </row>
     <row r="294">
       <c r="A294" s="2" t="n">
-        <v>38657</v>
+        <v>38749</v>
       </c>
       <c r="B294" t="n">
-        <v>6641200000000</v>
+        <v>6748600000000</v>
       </c>
       <c r="C294" t="n">
         <v>1</v>
@@ -3676,10 +3676,10 @@
     </row>
     <row r="295">
       <c r="A295" s="2" t="n">
-        <v>38687</v>
+        <v>38777</v>
       </c>
       <c r="B295" t="n">
-        <v>6668000000000</v>
+        <v>6762900000000</v>
       </c>
       <c r="C295" t="n">
         <v>1</v>
@@ -3687,10 +3687,10 @@
     </row>
     <row r="296">
       <c r="A296" s="2" t="n">
-        <v>38718</v>
+        <v>38808</v>
       </c>
       <c r="B296" t="n">
-        <v>6710500000000</v>
+        <v>6800100000000</v>
       </c>
       <c r="C296" t="n">
         <v>1</v>
@@ -3698,10 +3698,10 @@
     </row>
     <row r="297">
       <c r="A297" s="2" t="n">
-        <v>38749</v>
+        <v>38838</v>
       </c>
       <c r="B297" t="n">
-        <v>6734800000000</v>
+        <v>6806900000000</v>
       </c>
       <c r="C297" t="n">
         <v>1</v>
@@ -3709,10 +3709,10 @@
     </row>
     <row r="298">
       <c r="A298" s="2" t="n">
-        <v>38777</v>
+        <v>38869</v>
       </c>
       <c r="B298" t="n">
-        <v>6749300000000</v>
+        <v>6844900000000</v>
       </c>
       <c r="C298" t="n">
         <v>1</v>
@@ -3720,10 +3720,10 @@
     </row>
     <row r="299">
       <c r="A299" s="2" t="n">
-        <v>38808</v>
+        <v>38899</v>
       </c>
       <c r="B299" t="n">
-        <v>6786400000000</v>
+        <v>6886300000000</v>
       </c>
       <c r="C299" t="n">
         <v>1</v>
@@ -3731,10 +3731,10 @@
     </row>
     <row r="300">
       <c r="A300" s="2" t="n">
-        <v>38838</v>
+        <v>38930</v>
       </c>
       <c r="B300" t="n">
-        <v>6793000000000</v>
+        <v>6917100000000</v>
       </c>
       <c r="C300" t="n">
         <v>1</v>
@@ -3742,10 +3742,10 @@
     </row>
     <row r="301">
       <c r="A301" s="2" t="n">
-        <v>38869</v>
+        <v>38961</v>
       </c>
       <c r="B301" t="n">
-        <v>6831000000000</v>
+        <v>6944200000000</v>
       </c>
       <c r="C301" t="n">
         <v>1</v>
@@ -3753,10 +3753,10 @@
     </row>
     <row r="302">
       <c r="A302" s="2" t="n">
-        <v>38899</v>
+        <v>38991</v>
       </c>
       <c r="B302" t="n">
-        <v>6872500000000</v>
+        <v>6993300000000</v>
       </c>
       <c r="C302" t="n">
         <v>1</v>
@@ -3764,10 +3764,10 @@
     </row>
     <row r="303">
       <c r="A303" s="2" t="n">
-        <v>38930</v>
+        <v>39022</v>
       </c>
       <c r="B303" t="n">
-        <v>6903300000000</v>
+        <v>7028400000000</v>
       </c>
       <c r="C303" t="n">
         <v>1</v>
@@ -3775,10 +3775,10 @@
     </row>
     <row r="304">
       <c r="A304" s="2" t="n">
-        <v>38961</v>
+        <v>39052</v>
       </c>
       <c r="B304" t="n">
-        <v>6930500000000</v>
+        <v>7071600000000</v>
       </c>
       <c r="C304" t="n">
         <v>1</v>
@@ -3786,10 +3786,10 @@
     </row>
     <row r="305">
       <c r="A305" s="2" t="n">
-        <v>38991</v>
+        <v>39083</v>
       </c>
       <c r="B305" t="n">
-        <v>6979500000000</v>
+        <v>7109600000000</v>
       </c>
       <c r="C305" t="n">
         <v>1</v>
@@ -3797,10 +3797,10 @@
     </row>
     <row r="306">
       <c r="A306" s="2" t="n">
-        <v>39022</v>
+        <v>39114</v>
       </c>
       <c r="B306" t="n">
-        <v>7014300000000</v>
+        <v>7125300000000</v>
       </c>
       <c r="C306" t="n">
         <v>1</v>
@@ -3808,10 +3808,10 @@
     </row>
     <row r="307">
       <c r="A307" s="2" t="n">
-        <v>39052</v>
+        <v>39142</v>
       </c>
       <c r="B307" t="n">
-        <v>7057500000000</v>
+        <v>7159100000000</v>
       </c>
       <c r="C307" t="n">
         <v>1</v>
@@ -3819,10 +3819,10 @@
     </row>
     <row r="308">
       <c r="A308" s="2" t="n">
-        <v>39083</v>
+        <v>39173</v>
       </c>
       <c r="B308" t="n">
-        <v>7095500000000</v>
+        <v>7231300000000</v>
       </c>
       <c r="C308" t="n">
         <v>1</v>
@@ -3830,10 +3830,10 @@
     </row>
     <row r="309">
       <c r="A309" s="2" t="n">
-        <v>39114</v>
+        <v>39203</v>
       </c>
       <c r="B309" t="n">
-        <v>7111300000000</v>
+        <v>7245400000000</v>
       </c>
       <c r="C309" t="n">
         <v>1</v>
@@ -3841,10 +3841,10 @@
     </row>
     <row r="310">
       <c r="A310" s="2" t="n">
-        <v>39142</v>
+        <v>39234</v>
       </c>
       <c r="B310" t="n">
-        <v>7145100000000</v>
+        <v>7278600000000</v>
       </c>
       <c r="C310" t="n">
         <v>1</v>
@@ -3852,10 +3852,10 @@
     </row>
     <row r="311">
       <c r="A311" s="2" t="n">
-        <v>39173</v>
+        <v>39264</v>
       </c>
       <c r="B311" t="n">
-        <v>7217400000000</v>
+        <v>7309000000000</v>
       </c>
       <c r="C311" t="n">
         <v>1</v>
@@ -3863,10 +3863,10 @@
     </row>
     <row r="312">
       <c r="A312" s="2" t="n">
-        <v>39203</v>
+        <v>39295</v>
       </c>
       <c r="B312" t="n">
-        <v>7231000000000</v>
+        <v>7385100000000</v>
       </c>
       <c r="C312" t="n">
         <v>1</v>
@@ -3874,10 +3874,10 @@
     </row>
     <row r="313">
       <c r="A313" s="2" t="n">
-        <v>39234</v>
+        <v>39326</v>
       </c>
       <c r="B313" t="n">
-        <v>7264200000000</v>
+        <v>7403200000000</v>
       </c>
       <c r="C313" t="n">
         <v>1</v>
@@ -3885,10 +3885,10 @@
     </row>
     <row r="314">
       <c r="A314" s="2" t="n">
-        <v>39264</v>
+        <v>39356</v>
       </c>
       <c r="B314" t="n">
-        <v>7294500000000</v>
+        <v>7417200000000</v>
       </c>
       <c r="C314" t="n">
         <v>1</v>
@@ -3896,10 +3896,10 @@
     </row>
     <row r="315">
       <c r="A315" s="2" t="n">
-        <v>39295</v>
+        <v>39387</v>
       </c>
       <c r="B315" t="n">
-        <v>7370900000000</v>
+        <v>7441800000000</v>
       </c>
       <c r="C315" t="n">
         <v>1</v>
@@ -3907,10 +3907,10 @@
     </row>
     <row r="316">
       <c r="A316" s="2" t="n">
-        <v>39326</v>
+        <v>39417</v>
       </c>
       <c r="B316" t="n">
-        <v>7389200000000</v>
+        <v>7471600000000</v>
       </c>
       <c r="C316" t="n">
         <v>1</v>
@@ -3918,10 +3918,10 @@
     </row>
     <row r="317">
       <c r="A317" s="2" t="n">
-        <v>39356</v>
+        <v>39448</v>
       </c>
       <c r="B317" t="n">
-        <v>7402800000000</v>
+        <v>7505500000000</v>
       </c>
       <c r="C317" t="n">
         <v>1</v>
@@ -3929,10 +3929,10 @@
     </row>
     <row r="318">
       <c r="A318" s="2" t="n">
-        <v>39387</v>
+        <v>39479</v>
       </c>
       <c r="B318" t="n">
-        <v>7427800000000</v>
+        <v>7590600000000</v>
       </c>
       <c r="C318" t="n">
         <v>1</v>
@@ -3940,10 +3940,10 @@
     </row>
     <row r="319">
       <c r="A319" s="2" t="n">
-        <v>39417</v>
+        <v>39508</v>
       </c>
       <c r="B319" t="n">
-        <v>7458000000000</v>
+        <v>7656200000000</v>
       </c>
       <c r="C319" t="n">
         <v>1</v>
@@ -3951,10 +3951,10 @@
     </row>
     <row r="320">
       <c r="A320" s="2" t="n">
-        <v>39448</v>
+        <v>39539</v>
       </c>
       <c r="B320" t="n">
-        <v>7491800000000</v>
+        <v>7699200000000</v>
       </c>
       <c r="C320" t="n">
         <v>1</v>
@@ -3962,10 +3962,10 @@
     </row>
     <row r="321">
       <c r="A321" s="2" t="n">
-        <v>39479</v>
+        <v>39569</v>
       </c>
       <c r="B321" t="n">
-        <v>7576500000000</v>
+        <v>7711200000000</v>
       </c>
       <c r="C321" t="n">
         <v>1</v>
@@ -3973,10 +3973,10 @@
     </row>
     <row r="322">
       <c r="A322" s="2" t="n">
-        <v>39508</v>
+        <v>39600</v>
       </c>
       <c r="B322" t="n">
-        <v>7642500000000</v>
+        <v>7728900000000</v>
       </c>
       <c r="C322" t="n">
         <v>1</v>
@@ -3984,10 +3984,10 @@
     </row>
     <row r="323">
       <c r="A323" s="2" t="n">
-        <v>39539</v>
+        <v>39630</v>
       </c>
       <c r="B323" t="n">
-        <v>7685200000000</v>
+        <v>7775400000000</v>
       </c>
       <c r="C323" t="n">
         <v>1</v>
@@ -3995,10 +3995,10 @@
     </row>
     <row r="324">
       <c r="A324" s="2" t="n">
-        <v>39569</v>
+        <v>39661</v>
       </c>
       <c r="B324" t="n">
-        <v>7697100000000</v>
+        <v>7790200000000</v>
       </c>
       <c r="C324" t="n">
         <v>1</v>
@@ -4006,10 +4006,10 @@
     </row>
     <row r="325">
       <c r="A325" s="2" t="n">
-        <v>39600</v>
+        <v>39692</v>
       </c>
       <c r="B325" t="n">
-        <v>7714600000000</v>
+        <v>7859500000000</v>
       </c>
       <c r="C325" t="n">
         <v>1</v>
@@ -4017,10 +4017,10 @@
     </row>
     <row r="326">
       <c r="A326" s="2" t="n">
-        <v>39630</v>
+        <v>39722</v>
       </c>
       <c r="B326" t="n">
-        <v>7761000000000</v>
+        <v>7965300000000</v>
       </c>
       <c r="C326" t="n">
         <v>1</v>
@@ -4028,10 +4028,10 @@
     </row>
     <row r="327">
       <c r="A327" s="2" t="n">
-        <v>39661</v>
+        <v>39753</v>
       </c>
       <c r="B327" t="n">
-        <v>7776000000000</v>
+        <v>8015800000000</v>
       </c>
       <c r="C327" t="n">
         <v>1</v>
@@ -4039,10 +4039,10 @@
     </row>
     <row r="328">
       <c r="A328" s="2" t="n">
-        <v>39692</v>
+        <v>39783</v>
       </c>
       <c r="B328" t="n">
-        <v>7845900000000</v>
+        <v>8192100000000</v>
       </c>
       <c r="C328" t="n">
         <v>1</v>
@@ -4050,10 +4050,10 @@
     </row>
     <row r="329">
       <c r="A329" s="2" t="n">
-        <v>39722</v>
+        <v>39814</v>
       </c>
       <c r="B329" t="n">
-        <v>7954000000000</v>
+        <v>8273700000000</v>
       </c>
       <c r="C329" t="n">
         <v>1</v>
@@ -4061,10 +4061,10 @@
     </row>
     <row r="330">
       <c r="A330" s="2" t="n">
-        <v>39753</v>
+        <v>39845</v>
       </c>
       <c r="B330" t="n">
-        <v>8004600000000</v>
+        <v>8303100000000</v>
       </c>
       <c r="C330" t="n">
         <v>1</v>
@@ -4072,10 +4072,10 @@
     </row>
     <row r="331">
       <c r="A331" s="2" t="n">
-        <v>39783</v>
+        <v>39873</v>
       </c>
       <c r="B331" t="n">
-        <v>8181000000000</v>
+        <v>8369300000000</v>
       </c>
       <c r="C331" t="n">
         <v>1</v>
@@ -4083,10 +4083,10 @@
     </row>
     <row r="332">
       <c r="A332" s="2" t="n">
-        <v>39814</v>
+        <v>39904</v>
       </c>
       <c r="B332" t="n">
-        <v>8262400000000</v>
+        <v>8372900000000</v>
       </c>
       <c r="C332" t="n">
         <v>1</v>
@@ -4094,10 +4094,10 @@
     </row>
     <row r="333">
       <c r="A333" s="2" t="n">
-        <v>39845</v>
+        <v>39934</v>
       </c>
       <c r="B333" t="n">
-        <v>8291600000000</v>
+        <v>8430700000000</v>
       </c>
       <c r="C333" t="n">
         <v>1</v>
@@ -4105,10 +4105,10 @@
     </row>
     <row r="334">
       <c r="A334" s="2" t="n">
-        <v>39873</v>
+        <v>39965</v>
       </c>
       <c r="B334" t="n">
-        <v>8357600000000</v>
+        <v>8440500000000</v>
       </c>
       <c r="C334" t="n">
         <v>1</v>
@@ -4116,10 +4116,10 @@
     </row>
     <row r="335">
       <c r="A335" s="2" t="n">
-        <v>39904</v>
+        <v>39995</v>
       </c>
       <c r="B335" t="n">
-        <v>8360700000000.001</v>
+        <v>8445100000000</v>
       </c>
       <c r="C335" t="n">
         <v>1</v>
@@ -4127,10 +4127,10 @@
     </row>
     <row r="336">
       <c r="A336" s="2" t="n">
-        <v>39934</v>
+        <v>40026</v>
       </c>
       <c r="B336" t="n">
-        <v>8418200000000.001</v>
+        <v>8445000000000</v>
       </c>
       <c r="C336" t="n">
         <v>1</v>
@@ -4138,10 +4138,10 @@
     </row>
     <row r="337">
       <c r="A337" s="2" t="n">
-        <v>39965</v>
+        <v>40057</v>
       </c>
       <c r="B337" t="n">
-        <v>8427799999999.999</v>
+        <v>8444200000000</v>
       </c>
       <c r="C337" t="n">
         <v>1</v>
@@ -4149,10 +4149,10 @@
     </row>
     <row r="338">
       <c r="A338" s="2" t="n">
-        <v>39995</v>
+        <v>40087</v>
       </c>
       <c r="B338" t="n">
-        <v>8432500000000</v>
+        <v>8471100000000</v>
       </c>
       <c r="C338" t="n">
         <v>1</v>
@@ -4160,10 +4160,10 @@
     </row>
     <row r="339">
       <c r="A339" s="2" t="n">
-        <v>40026</v>
+        <v>40118</v>
       </c>
       <c r="B339" t="n">
-        <v>8432200000000.001</v>
+        <v>8500800000000</v>
       </c>
       <c r="C339" t="n">
         <v>1</v>
@@ -4171,10 +4171,10 @@
     </row>
     <row r="340">
       <c r="A340" s="2" t="n">
-        <v>40057</v>
+        <v>40148</v>
       </c>
       <c r="B340" t="n">
-        <v>8431500000000</v>
+        <v>8496000000000</v>
       </c>
       <c r="C340" t="n">
         <v>1</v>
@@ -4182,10 +4182,10 @@
     </row>
     <row r="341">
       <c r="A341" s="2" t="n">
-        <v>40087</v>
+        <v>40179</v>
       </c>
       <c r="B341" t="n">
-        <v>8458299999999.999</v>
+        <v>8458100000000</v>
       </c>
       <c r="C341" t="n">
         <v>1</v>
@@ -4193,10 +4193,10 @@
     </row>
     <row r="342">
       <c r="A342" s="2" t="n">
-        <v>40118</v>
+        <v>40210</v>
       </c>
       <c r="B342" t="n">
-        <v>8488400000000</v>
+        <v>8507400000000</v>
       </c>
       <c r="C342" t="n">
         <v>1</v>
@@ -4204,10 +4204,10 @@
     </row>
     <row r="343">
       <c r="A343" s="2" t="n">
-        <v>40148</v>
+        <v>40238</v>
       </c>
       <c r="B343" t="n">
-        <v>8483400000000</v>
+        <v>8504500000000</v>
       </c>
       <c r="C343" t="n">
         <v>1</v>
@@ -4215,10 +4215,10 @@
     </row>
     <row r="344">
       <c r="A344" s="2" t="n">
-        <v>40179</v>
+        <v>40269</v>
       </c>
       <c r="B344" t="n">
-        <v>8445700000000.001</v>
+        <v>8535200000000</v>
       </c>
       <c r="C344" t="n">
         <v>1</v>
@@ -4226,10 +4226,10 @@
     </row>
     <row r="345">
       <c r="A345" s="2" t="n">
-        <v>40210</v>
+        <v>40299</v>
       </c>
       <c r="B345" t="n">
-        <v>8495299999999.999</v>
+        <v>8589900000000</v>
       </c>
       <c r="C345" t="n">
         <v>1</v>
@@ -4237,10 +4237,10 @@
     </row>
     <row r="346">
       <c r="A346" s="2" t="n">
-        <v>40238</v>
+        <v>40330</v>
       </c>
       <c r="B346" t="n">
-        <v>8492400000000</v>
+        <v>8609000000000</v>
       </c>
       <c r="C346" t="n">
         <v>1</v>
@@ -4248,10 +4248,10 @@
     </row>
     <row r="347">
       <c r="A347" s="2" t="n">
-        <v>40269</v>
+        <v>40360</v>
       </c>
       <c r="B347" t="n">
-        <v>8522799999999.999</v>
+        <v>8618800000000</v>
       </c>
       <c r="C347" t="n">
         <v>1</v>
@@ -4259,10 +4259,10 @@
     </row>
     <row r="348">
       <c r="A348" s="2" t="n">
-        <v>40299</v>
+        <v>40391</v>
       </c>
       <c r="B348" t="n">
-        <v>8577500000000</v>
+        <v>8669100000000</v>
       </c>
       <c r="C348" t="n">
         <v>1</v>
@@ -4270,10 +4270,10 @@
     </row>
     <row r="349">
       <c r="A349" s="2" t="n">
-        <v>40330</v>
+        <v>40422</v>
       </c>
       <c r="B349" t="n">
-        <v>8596600000000</v>
+        <v>8700100000000</v>
       </c>
       <c r="C349" t="n">
         <v>1</v>
@@ -4281,10 +4281,10 @@
     </row>
     <row r="350">
       <c r="A350" s="2" t="n">
-        <v>40360</v>
+        <v>40452</v>
       </c>
       <c r="B350" t="n">
-        <v>8606200000000.001</v>
+        <v>8749400000000</v>
       </c>
       <c r="C350" t="n">
         <v>1</v>
@@ -4292,10 +4292,10 @@
     </row>
     <row r="351">
       <c r="A351" s="2" t="n">
-        <v>40391</v>
+        <v>40483</v>
       </c>
       <c r="B351" t="n">
-        <v>8656500000000</v>
+        <v>8770000000000</v>
       </c>
       <c r="C351" t="n">
         <v>1</v>
@@ -4303,10 +4303,10 @@
     </row>
     <row r="352">
       <c r="A352" s="2" t="n">
-        <v>40422</v>
+        <v>40513</v>
       </c>
       <c r="B352" t="n">
-        <v>8687700000000.001</v>
+        <v>8801800000000</v>
       </c>
       <c r="C352" t="n">
         <v>1</v>
@@ -4314,10 +4314,10 @@
     </row>
     <row r="353">
       <c r="A353" s="2" t="n">
-        <v>40452</v>
+        <v>40544</v>
       </c>
       <c r="B353" t="n">
-        <v>8736700000000.001</v>
+        <v>8823100000000</v>
       </c>
       <c r="C353" t="n">
         <v>1</v>
@@ -4325,10 +4325,10 @@
     </row>
     <row r="354">
       <c r="A354" s="2" t="n">
-        <v>40483</v>
+        <v>40575</v>
       </c>
       <c r="B354" t="n">
-        <v>8757400000000</v>
+        <v>8886900000000</v>
       </c>
       <c r="C354" t="n">
         <v>1</v>
@@ -4336,10 +4336,10 @@
     </row>
     <row r="355">
       <c r="A355" s="2" t="n">
-        <v>40513</v>
+        <v>40603</v>
       </c>
       <c r="B355" t="n">
-        <v>8789299999999.999</v>
+        <v>8943500000000</v>
       </c>
       <c r="C355" t="n">
         <v>1</v>
@@ -4347,10 +4347,10 @@
     </row>
     <row r="356">
       <c r="A356" s="2" t="n">
-        <v>40544</v>
+        <v>40634</v>
       </c>
       <c r="B356" t="n">
-        <v>8825900000000</v>
+        <v>9004900000000</v>
       </c>
       <c r="C356" t="n">
         <v>1</v>
@@ -4358,10 +4358,10 @@
     </row>
     <row r="357">
       <c r="A357" s="2" t="n">
-        <v>40575</v>
+        <v>40664</v>
       </c>
       <c r="B357" t="n">
-        <v>8871400000000</v>
+        <v>9075500000000</v>
       </c>
       <c r="C357" t="n">
         <v>1</v>
@@ -4369,10 +4369,10 @@
     </row>
     <row r="358">
       <c r="A358" s="2" t="n">
-        <v>40603</v>
+        <v>40695</v>
       </c>
       <c r="B358" t="n">
-        <v>8915700000000</v>
+        <v>9151000000000</v>
       </c>
       <c r="C358" t="n">
         <v>1</v>
@@ -4380,10 +4380,10 @@
     </row>
     <row r="359">
       <c r="A359" s="2" t="n">
-        <v>40634</v>
+        <v>40725</v>
       </c>
       <c r="B359" t="n">
-        <v>8977900000000</v>
+        <v>9316600000000</v>
       </c>
       <c r="C359" t="n">
         <v>1</v>
@@ -4391,10 +4391,10 @@
     </row>
     <row r="360">
       <c r="A360" s="2" t="n">
-        <v>40664</v>
+        <v>40756</v>
       </c>
       <c r="B360" t="n">
-        <v>9029200000000</v>
+        <v>9507600000000</v>
       </c>
       <c r="C360" t="n">
         <v>1</v>
@@ -4402,10 +4402,10 @@
     </row>
     <row r="361">
       <c r="A361" s="2" t="n">
-        <v>40695</v>
+        <v>40787</v>
       </c>
       <c r="B361" t="n">
-        <v>9113400000000</v>
+        <v>9528300000000</v>
       </c>
       <c r="C361" t="n">
         <v>1</v>
@@ -4413,10 +4413,10 @@
     </row>
     <row r="362">
       <c r="A362" s="2" t="n">
-        <v>40725</v>
+        <v>40817</v>
       </c>
       <c r="B362" t="n">
-        <v>9301400000000</v>
+        <v>9562100000000</v>
       </c>
       <c r="C362" t="n">
         <v>1</v>
@@ -4424,10 +4424,10 @@
     </row>
     <row r="363">
       <c r="A363" s="2" t="n">
-        <v>40756</v>
+        <v>40848</v>
       </c>
       <c r="B363" t="n">
-        <v>9515100000000</v>
+        <v>9612600000000</v>
       </c>
       <c r="C363" t="n">
         <v>1</v>
@@ -4435,10 +4435,10 @@
     </row>
     <row r="364">
       <c r="A364" s="2" t="n">
-        <v>40787</v>
+        <v>40878</v>
       </c>
       <c r="B364" t="n">
-        <v>9539700000000</v>
+        <v>9660100000000</v>
       </c>
       <c r="C364" t="n">
         <v>1</v>
@@ -4446,10 +4446,10 @@
     </row>
     <row r="365">
       <c r="A365" s="2" t="n">
-        <v>40817</v>
+        <v>40909</v>
       </c>
       <c r="B365" t="n">
-        <v>9571300000000</v>
+        <v>9733300000000</v>
       </c>
       <c r="C365" t="n">
         <v>1</v>
@@ -4457,10 +4457,10 @@
     </row>
     <row r="366">
       <c r="A366" s="2" t="n">
-        <v>40848</v>
+        <v>40940</v>
       </c>
       <c r="B366" t="n">
-        <v>9612300000000</v>
+        <v>9785700000000</v>
       </c>
       <c r="C366" t="n">
         <v>1</v>
@@ -4468,10 +4468,10 @@
     </row>
     <row r="367">
       <c r="A367" s="2" t="n">
-        <v>40878</v>
+        <v>40969</v>
       </c>
       <c r="B367" t="n">
-        <v>9651100000000</v>
+        <v>9830600000000</v>
       </c>
       <c r="C367" t="n">
         <v>1</v>
@@ -4479,10 +4479,10 @@
     </row>
     <row r="368">
       <c r="A368" s="2" t="n">
-        <v>40909</v>
+        <v>41000</v>
       </c>
       <c r="B368" t="n">
-        <v>9730300000000</v>
+        <v>9884600000000</v>
       </c>
       <c r="C368" t="n">
         <v>1</v>
@@ -4490,10 +4490,10 @@
     </row>
     <row r="369">
       <c r="A369" s="2" t="n">
-        <v>40940</v>
+        <v>41030</v>
       </c>
       <c r="B369" t="n">
-        <v>9773100000000</v>
+        <v>9928400000000</v>
       </c>
       <c r="C369" t="n">
         <v>1</v>
@@ -4501,10 +4501,10 @@
     </row>
     <row r="370">
       <c r="A370" s="2" t="n">
-        <v>40969</v>
+        <v>41061</v>
       </c>
       <c r="B370" t="n">
-        <v>9817800000000</v>
+        <v>9999300000000</v>
       </c>
       <c r="C370" t="n">
         <v>1</v>
@@ -4512,10 +4512,10 @@
     </row>
     <row r="371">
       <c r="A371" s="2" t="n">
-        <v>41000</v>
+        <v>41091</v>
       </c>
       <c r="B371" t="n">
-        <v>9872100000000</v>
+        <v>10051800000000</v>
       </c>
       <c r="C371" t="n">
         <v>1</v>
@@ -4523,10 +4523,10 @@
     </row>
     <row r="372">
       <c r="A372" s="2" t="n">
-        <v>41030</v>
+        <v>41122</v>
       </c>
       <c r="B372" t="n">
-        <v>9903800000000</v>
+        <v>10121300000000</v>
       </c>
       <c r="C372" t="n">
         <v>1</v>
@@ -4534,10 +4534,10 @@
     </row>
     <row r="373">
       <c r="A373" s="2" t="n">
-        <v>41061</v>
+        <v>41153</v>
       </c>
       <c r="B373" t="n">
-        <v>9973600000000</v>
+        <v>10200800000000</v>
       </c>
       <c r="C373" t="n">
         <v>1</v>
@@ -4545,10 +4545,10 @@
     </row>
     <row r="374">
       <c r="A374" s="2" t="n">
-        <v>41091</v>
+        <v>41183</v>
       </c>
       <c r="B374" t="n">
-        <v>10046800000000</v>
+        <v>10267300000000</v>
       </c>
       <c r="C374" t="n">
         <v>1</v>
@@ -4556,10 +4556,10 @@
     </row>
     <row r="375">
       <c r="A375" s="2" t="n">
-        <v>41122</v>
+        <v>41214</v>
       </c>
       <c r="B375" t="n">
-        <v>10117900000000</v>
+        <v>10337600000000</v>
       </c>
       <c r="C375" t="n">
         <v>1</v>
@@ -4567,10 +4567,10 @@
     </row>
     <row r="376">
       <c r="A376" s="2" t="n">
-        <v>41153</v>
+        <v>41244</v>
       </c>
       <c r="B376" t="n">
-        <v>10200200000000</v>
+        <v>10459700000000</v>
       </c>
       <c r="C376" t="n">
         <v>1</v>
@@ -4578,10 +4578,10 @@
     </row>
     <row r="377">
       <c r="A377" s="2" t="n">
-        <v>41183</v>
+        <v>41275</v>
       </c>
       <c r="B377" t="n">
-        <v>10261300000000</v>
+        <v>10482900000000</v>
       </c>
       <c r="C377" t="n">
         <v>1</v>
@@ -4589,10 +4589,10 @@
     </row>
     <row r="378">
       <c r="A378" s="2" t="n">
-        <v>41214</v>
+        <v>41306</v>
       </c>
       <c r="B378" t="n">
-        <v>10319900000000</v>
+        <v>10501300000000</v>
       </c>
       <c r="C378" t="n">
         <v>1</v>
@@ -4600,10 +4600,10 @@
     </row>
     <row r="379">
       <c r="A379" s="2" t="n">
-        <v>41244</v>
+        <v>41334</v>
       </c>
       <c r="B379" t="n">
-        <v>10445700000000</v>
+        <v>10558300000000</v>
       </c>
       <c r="C379" t="n">
         <v>1</v>
@@ -4611,10 +4611,10 @@
     </row>
     <row r="380">
       <c r="A380" s="2" t="n">
-        <v>41275</v>
+        <v>41365</v>
       </c>
       <c r="B380" t="n">
-        <v>10471200000000</v>
+        <v>10586300000000</v>
       </c>
       <c r="C380" t="n">
         <v>1</v>
@@ -4622,10 +4622,10 @@
     </row>
     <row r="381">
       <c r="A381" s="2" t="n">
-        <v>41306</v>
+        <v>41395</v>
       </c>
       <c r="B381" t="n">
-        <v>10468200000000</v>
+        <v>10621000000000</v>
       </c>
       <c r="C381" t="n">
         <v>1</v>
@@ -4633,10 +4633,10 @@
     </row>
     <row r="382">
       <c r="A382" s="2" t="n">
-        <v>41334</v>
+        <v>41426</v>
       </c>
       <c r="B382" t="n">
-        <v>10539700000000</v>
+        <v>10678700000000</v>
       </c>
       <c r="C382" t="n">
         <v>1</v>
@@ -4644,10 +4644,10 @@
     </row>
     <row r="383">
       <c r="A383" s="2" t="n">
-        <v>41365</v>
+        <v>41456</v>
       </c>
       <c r="B383" t="n">
-        <v>10575100000000</v>
+        <v>10718400000000</v>
       </c>
       <c r="C383" t="n">
         <v>1</v>
@@ -4655,10 +4655,10 @@
     </row>
     <row r="384">
       <c r="A384" s="2" t="n">
-        <v>41395</v>
+        <v>41487</v>
       </c>
       <c r="B384" t="n">
-        <v>10611300000000</v>
+        <v>10776600000000</v>
       </c>
       <c r="C384" t="n">
         <v>1</v>
@@ -4666,10 +4666,10 @@
     </row>
     <row r="385">
       <c r="A385" s="2" t="n">
-        <v>41426</v>
+        <v>41518</v>
       </c>
       <c r="B385" t="n">
-        <v>10665900000000</v>
+        <v>10837200000000</v>
       </c>
       <c r="C385" t="n">
         <v>1</v>
@@ -4677,10 +4677,10 @@
     </row>
     <row r="386">
       <c r="A386" s="2" t="n">
-        <v>41456</v>
+        <v>41548</v>
       </c>
       <c r="B386" t="n">
-        <v>10721900000000</v>
+        <v>10961600000000</v>
       </c>
       <c r="C386" t="n">
         <v>1</v>
@@ -4688,10 +4688,10 @@
     </row>
     <row r="387">
       <c r="A387" s="2" t="n">
-        <v>41487</v>
+        <v>41579</v>
       </c>
       <c r="B387" t="n">
-        <v>10780400000000</v>
+        <v>10969700000000</v>
       </c>
       <c r="C387" t="n">
         <v>1</v>
@@ -4699,10 +4699,10 @@
     </row>
     <row r="388">
       <c r="A388" s="2" t="n">
-        <v>41518</v>
+        <v>41609</v>
       </c>
       <c r="B388" t="n">
-        <v>10832600000000</v>
+        <v>11035000000000</v>
       </c>
       <c r="C388" t="n">
         <v>1</v>
@@ -4710,10 +4710,10 @@
     </row>
     <row r="389">
       <c r="A389" s="2" t="n">
-        <v>41548</v>
+        <v>41640</v>
       </c>
       <c r="B389" t="n">
-        <v>10945200000000</v>
+        <v>11080800000000</v>
       </c>
       <c r="C389" t="n">
         <v>1</v>
@@ -4721,10 +4721,10 @@
     </row>
     <row r="390">
       <c r="A390" s="2" t="n">
-        <v>41579</v>
+        <v>41671</v>
       </c>
       <c r="B390" t="n">
-        <v>10953000000000</v>
+        <v>11178800000000</v>
       </c>
       <c r="C390" t="n">
         <v>1</v>
@@ -4732,10 +4732,10 @@
     </row>
     <row r="391">
       <c r="A391" s="2" t="n">
-        <v>41609</v>
+        <v>41699</v>
       </c>
       <c r="B391" t="n">
-        <v>11015000000000</v>
+        <v>11208100000000</v>
       </c>
       <c r="C391" t="n">
         <v>1</v>
@@ -4743,10 +4743,10 @@
     </row>
     <row r="392">
       <c r="A392" s="2" t="n">
-        <v>41640</v>
+        <v>41730</v>
       </c>
       <c r="B392" t="n">
-        <v>11065600000000</v>
+        <v>11257700000000</v>
       </c>
       <c r="C392" t="n">
         <v>1</v>
@@ -4754,10 +4754,10 @@
     </row>
     <row r="393">
       <c r="A393" s="2" t="n">
-        <v>41671</v>
+        <v>41760</v>
       </c>
       <c r="B393" t="n">
-        <v>11148700000000</v>
+        <v>11321000000000</v>
       </c>
       <c r="C393" t="n">
         <v>1</v>
@@ -4765,10 +4765,10 @@
     </row>
     <row r="394">
       <c r="A394" s="2" t="n">
-        <v>41699</v>
+        <v>41791</v>
       </c>
       <c r="B394" t="n">
-        <v>11190300000000</v>
+        <v>11374900000000</v>
       </c>
       <c r="C394" t="n">
         <v>1</v>
@@ -4776,10 +4776,10 @@
     </row>
     <row r="395">
       <c r="A395" s="2" t="n">
-        <v>41730</v>
+        <v>41821</v>
       </c>
       <c r="B395" t="n">
-        <v>11246500000000</v>
+        <v>11429900000000</v>
       </c>
       <c r="C395" t="n">
         <v>1</v>
@@ -4787,10 +4787,10 @@
     </row>
     <row r="396">
       <c r="A396" s="2" t="n">
-        <v>41760</v>
+        <v>41852</v>
       </c>
       <c r="B396" t="n">
-        <v>11314800000000</v>
+        <v>11458900000000</v>
       </c>
       <c r="C396" t="n">
         <v>1</v>
@@ -4798,10 +4798,10 @@
     </row>
     <row r="397">
       <c r="A397" s="2" t="n">
-        <v>41791</v>
+        <v>41883</v>
       </c>
       <c r="B397" t="n">
-        <v>11367100000000</v>
+        <v>11499800000000</v>
       </c>
       <c r="C397" t="n">
         <v>1</v>
@@ -4809,10 +4809,10 @@
     </row>
     <row r="398">
       <c r="A398" s="2" t="n">
-        <v>41821</v>
+        <v>41913</v>
       </c>
       <c r="B398" t="n">
-        <v>11428400000000</v>
+        <v>11566000000000</v>
       </c>
       <c r="C398" t="n">
         <v>1</v>
@@ -4820,10 +4820,10 @@
     </row>
     <row r="399">
       <c r="A399" s="2" t="n">
-        <v>41852</v>
+        <v>41944</v>
       </c>
       <c r="B399" t="n">
-        <v>11457600000000</v>
+        <v>11604800000000</v>
       </c>
       <c r="C399" t="n">
         <v>1</v>
@@ -4831,10 +4831,10 @@
     </row>
     <row r="400">
       <c r="A400" s="2" t="n">
-        <v>41883</v>
+        <v>41974</v>
       </c>
       <c r="B400" t="n">
-        <v>11492000000000</v>
+        <v>11684900000000</v>
       </c>
       <c r="C400" t="n">
         <v>1</v>
@@ -4842,10 +4842,10 @@
     </row>
     <row r="401">
       <c r="A401" s="2" t="n">
-        <v>41913</v>
+        <v>42005</v>
       </c>
       <c r="B401" t="n">
-        <v>11551400000000</v>
+        <v>11745600000000</v>
       </c>
       <c r="C401" t="n">
         <v>1</v>
@@ -4853,10 +4853,10 @@
     </row>
     <row r="402">
       <c r="A402" s="2" t="n">
-        <v>41944</v>
+        <v>42036</v>
       </c>
       <c r="B402" t="n">
-        <v>11590600000000</v>
+        <v>11879000000000</v>
       </c>
       <c r="C402" t="n">
         <v>1</v>
@@ -4864,10 +4864,10 @@
     </row>
     <row r="403">
       <c r="A403" s="2" t="n">
-        <v>41974</v>
+        <v>42064</v>
       </c>
       <c r="B403" t="n">
-        <v>11668000000000</v>
+        <v>11886800000000</v>
       </c>
       <c r="C403" t="n">
         <v>1</v>
@@ -4875,10 +4875,10 @@
     </row>
     <row r="404">
       <c r="A404" s="2" t="n">
-        <v>42005</v>
+        <v>42095</v>
       </c>
       <c r="B404" t="n">
-        <v>11732100000000</v>
+        <v>11928900000000</v>
       </c>
       <c r="C404" t="n">
         <v>1</v>
@@ -4886,10 +4886,10 @@
     </row>
     <row r="405">
       <c r="A405" s="2" t="n">
-        <v>42036</v>
+        <v>42125</v>
       </c>
       <c r="B405" t="n">
-        <v>11852500000000</v>
+        <v>11957900000000</v>
       </c>
       <c r="C405" t="n">
         <v>1</v>
@@ -4897,10 +4897,10 @@
     </row>
     <row r="406">
       <c r="A406" s="2" t="n">
-        <v>42064</v>
+        <v>42156</v>
       </c>
       <c r="B406" t="n">
-        <v>11869400000000</v>
+        <v>12001700000000</v>
       </c>
       <c r="C406" t="n">
         <v>1</v>
@@ -4908,10 +4908,10 @@
     </row>
     <row r="407">
       <c r="A407" s="2" t="n">
-        <v>42095</v>
+        <v>42186</v>
       </c>
       <c r="B407" t="n">
-        <v>11916600000000</v>
+        <v>12051300000000</v>
       </c>
       <c r="C407" t="n">
         <v>1</v>
@@ -4919,10 +4919,10 @@
     </row>
     <row r="408">
       <c r="A408" s="2" t="n">
-        <v>42125</v>
+        <v>42217</v>
       </c>
       <c r="B408" t="n">
-        <v>11949300000000</v>
+        <v>12101900000000</v>
       </c>
       <c r="C408" t="n">
         <v>1</v>
@@ -4930,10 +4930,10 @@
     </row>
     <row r="409">
       <c r="A409" s="2" t="n">
-        <v>42156</v>
+        <v>42248</v>
       </c>
       <c r="B409" t="n">
-        <v>11994600000000</v>
+        <v>12160800000000</v>
       </c>
       <c r="C409" t="n">
         <v>1</v>
@@ -4941,10 +4941,10 @@
     </row>
     <row r="410">
       <c r="A410" s="2" t="n">
-        <v>42186</v>
+        <v>42278</v>
       </c>
       <c r="B410" t="n">
-        <v>12046600000000</v>
+        <v>12195900000000</v>
       </c>
       <c r="C410" t="n">
         <v>1</v>
@@ -4952,10 +4952,10 @@
     </row>
     <row r="411">
       <c r="A411" s="2" t="n">
-        <v>42217</v>
+        <v>42309</v>
       </c>
       <c r="B411" t="n">
-        <v>12097600000000</v>
+        <v>12284600000000</v>
       </c>
       <c r="C411" t="n">
         <v>1</v>
@@ -4963,10 +4963,10 @@
     </row>
     <row r="412">
       <c r="A412" s="2" t="n">
-        <v>42248</v>
+        <v>42339</v>
       </c>
       <c r="B412" t="n">
-        <v>12153100000000</v>
+        <v>12346800000000</v>
       </c>
       <c r="C412" t="n">
         <v>1</v>
@@ -4974,10 +4974,10 @@
     </row>
     <row r="413">
       <c r="A413" s="2" t="n">
-        <v>42278</v>
+        <v>42370</v>
       </c>
       <c r="B413" t="n">
-        <v>12185000000000</v>
+        <v>12469900000000</v>
       </c>
       <c r="C413" t="n">
         <v>1</v>
@@ -4985,10 +4985,10 @@
     </row>
     <row r="414">
       <c r="A414" s="2" t="n">
-        <v>42309</v>
+        <v>42401</v>
       </c>
       <c r="B414" t="n">
-        <v>12274200000000</v>
+        <v>12556700000000</v>
       </c>
       <c r="C414" t="n">
         <v>1</v>
@@ -4996,10 +4996,10 @@
     </row>
     <row r="415">
       <c r="A415" s="2" t="n">
-        <v>42339</v>
+        <v>42430</v>
       </c>
       <c r="B415" t="n">
-        <v>12330100000000</v>
+        <v>12616700000000</v>
       </c>
       <c r="C415" t="n">
         <v>1</v>
@@ -5007,10 +5007,10 @@
     </row>
     <row r="416">
       <c r="A416" s="2" t="n">
-        <v>42370</v>
+        <v>42461</v>
       </c>
       <c r="B416" t="n">
-        <v>12458000000000</v>
+        <v>12700400000000</v>
       </c>
       <c r="C416" t="n">
         <v>1</v>
@@ -5018,10 +5018,10 @@
     </row>
     <row r="417">
       <c r="A417" s="2" t="n">
-        <v>42401</v>
+        <v>42491</v>
       </c>
       <c r="B417" t="n">
-        <v>12534300000000</v>
+        <v>12766200000000</v>
       </c>
       <c r="C417" t="n">
         <v>1</v>
@@ -5029,10 +5029,10 @@
     </row>
     <row r="418">
       <c r="A418" s="2" t="n">
-        <v>42430</v>
+        <v>42522</v>
       </c>
       <c r="B418" t="n">
-        <v>12597900000000</v>
+        <v>12829400000000</v>
       </c>
       <c r="C418" t="n">
         <v>1</v>
@@ -5040,10 +5040,10 @@
     </row>
     <row r="419">
       <c r="A419" s="2" t="n">
-        <v>42461</v>
+        <v>42552</v>
       </c>
       <c r="B419" t="n">
-        <v>12687200000000</v>
+        <v>12887700000000</v>
       </c>
       <c r="C419" t="n">
         <v>1</v>
@@ -5051,10 +5051,10 @@
     </row>
     <row r="420">
       <c r="A420" s="2" t="n">
-        <v>42491</v>
+        <v>42583</v>
       </c>
       <c r="B420" t="n">
-        <v>12756000000000</v>
+        <v>12972800000000</v>
       </c>
       <c r="C420" t="n">
         <v>1</v>
@@ -5062,10 +5062,10 @@
     </row>
     <row r="421">
       <c r="A421" s="2" t="n">
-        <v>42522</v>
+        <v>42614</v>
       </c>
       <c r="B421" t="n">
-        <v>12823600000000</v>
+        <v>13033600000000</v>
       </c>
       <c r="C421" t="n">
         <v>1</v>
@@ -5073,10 +5073,10 @@
     </row>
     <row r="422">
       <c r="A422" s="2" t="n">
-        <v>42552</v>
+        <v>42644</v>
       </c>
       <c r="B422" t="n">
-        <v>12882300000000</v>
+        <v>13100500000000</v>
       </c>
       <c r="C422" t="n">
         <v>1</v>
@@ -5084,10 +5084,10 @@
     </row>
     <row r="423">
       <c r="A423" s="2" t="n">
-        <v>42583</v>
+        <v>42675</v>
       </c>
       <c r="B423" t="n">
-        <v>12969700000000</v>
+        <v>13173400000000</v>
       </c>
       <c r="C423" t="n">
         <v>1</v>
@@ -5095,10 +5095,10 @@
     </row>
     <row r="424">
       <c r="A424" s="2" t="n">
-        <v>42614</v>
+        <v>42705</v>
       </c>
       <c r="B424" t="n">
-        <v>13030700000000</v>
+        <v>13213400000000</v>
       </c>
       <c r="C424" t="n">
         <v>1</v>
@@ -5106,10 +5106,10 @@
     </row>
     <row r="425">
       <c r="A425" s="2" t="n">
-        <v>42644</v>
+        <v>42736</v>
       </c>
       <c r="B425" t="n">
-        <v>13099300000000</v>
+        <v>13283400000000</v>
       </c>
       <c r="C425" t="n">
         <v>1</v>
@@ -5117,10 +5117,10 @@
     </row>
     <row r="426">
       <c r="A426" s="2" t="n">
-        <v>42675</v>
+        <v>42767</v>
       </c>
       <c r="B426" t="n">
-        <v>13169600000000</v>
+        <v>13358800000000</v>
       </c>
       <c r="C426" t="n">
         <v>1</v>
@@ -5128,10 +5128,10 @@
     </row>
     <row r="427">
       <c r="A427" s="2" t="n">
-        <v>42705</v>
+        <v>42795</v>
       </c>
       <c r="B427" t="n">
-        <v>13198900000000</v>
+        <v>13426900000000</v>
       </c>
       <c r="C427" t="n">
         <v>1</v>
@@ -5139,10 +5139,10 @@
     </row>
     <row r="428">
       <c r="A428" s="2" t="n">
-        <v>42736</v>
+        <v>42826</v>
       </c>
       <c r="B428" t="n">
-        <v>13275400000000</v>
+        <v>13484900000000</v>
       </c>
       <c r="C428" t="n">
         <v>1</v>
@@ -5150,10 +5150,10 @@
     </row>
     <row r="429">
       <c r="A429" s="2" t="n">
-        <v>42767</v>
+        <v>42856</v>
       </c>
       <c r="B429" t="n">
-        <v>13341100000000</v>
+        <v>13538100000000</v>
       </c>
       <c r="C429" t="n">
         <v>1</v>
@@ -5161,10 +5161,10 @@
     </row>
     <row r="430">
       <c r="A430" s="2" t="n">
-        <v>42795</v>
+        <v>42887</v>
       </c>
       <c r="B430" t="n">
-        <v>13411400000000</v>
+        <v>13559200000000</v>
       </c>
       <c r="C430" t="n">
         <v>1</v>
@@ -5172,10 +5172,10 @@
     </row>
     <row r="431">
       <c r="A431" s="2" t="n">
-        <v>42826</v>
+        <v>42917</v>
       </c>
       <c r="B431" t="n">
-        <v>13476800000000</v>
+        <v>13618700000000</v>
       </c>
       <c r="C431" t="n">
         <v>1</v>
@@ -5183,10 +5183,10 @@
     </row>
     <row r="432">
       <c r="A432" s="2" t="n">
-        <v>42856</v>
+        <v>42948</v>
       </c>
       <c r="B432" t="n">
-        <v>13530500000000</v>
+        <v>13673700000000</v>
       </c>
       <c r="C432" t="n">
         <v>1</v>
@@ -5194,10 +5194,10 @@
     </row>
     <row r="433">
       <c r="A433" s="2" t="n">
-        <v>42887</v>
+        <v>42979</v>
       </c>
       <c r="B433" t="n">
-        <v>13558200000000</v>
+        <v>13717900000000</v>
       </c>
       <c r="C433" t="n">
         <v>1</v>
@@ -5205,10 +5205,10 @@
     </row>
     <row r="434">
       <c r="A434" s="2" t="n">
-        <v>42917</v>
+        <v>43009</v>
       </c>
       <c r="B434" t="n">
-        <v>13618300000000</v>
+        <v>13770100000000</v>
       </c>
       <c r="C434" t="n">
         <v>1</v>
@@ -5216,10 +5216,10 @@
     </row>
     <row r="435">
       <c r="A435" s="2" t="n">
-        <v>42948</v>
+        <v>43040</v>
       </c>
       <c r="B435" t="n">
-        <v>13673800000000</v>
+        <v>13799900000000</v>
       </c>
       <c r="C435" t="n">
         <v>1</v>
@@ -5227,10 +5227,10 @@
     </row>
     <row r="436">
       <c r="A436" s="2" t="n">
-        <v>42979</v>
+        <v>43070</v>
       </c>
       <c r="B436" t="n">
-        <v>13716400000000</v>
+        <v>13857900000000</v>
       </c>
       <c r="C436" t="n">
         <v>1</v>
@@ -5238,10 +5238,10 @@
     </row>
     <row r="437">
       <c r="A437" s="2" t="n">
-        <v>43009</v>
+        <v>43101</v>
       </c>
       <c r="B437" t="n">
-        <v>13769000000000</v>
+        <v>13869700000000</v>
       </c>
       <c r="C437" t="n">
         <v>1</v>
@@ -5249,10 +5249,10 @@
     </row>
     <row r="438">
       <c r="A438" s="2" t="n">
-        <v>43040</v>
+        <v>43132</v>
       </c>
       <c r="B438" t="n">
-        <v>13794000000000</v>
+        <v>13912300000000</v>
       </c>
       <c r="C438" t="n">
         <v>1</v>
@@ -5260,10 +5260,10 @@
     </row>
     <row r="439">
       <c r="A439" s="2" t="n">
-        <v>43070</v>
+        <v>43160</v>
       </c>
       <c r="B439" t="n">
-        <v>13835700000000</v>
+        <v>13970200000000</v>
       </c>
       <c r="C439" t="n">
         <v>1</v>
@@ -5271,10 +5271,10 @@
     </row>
     <row r="440">
       <c r="A440" s="2" t="n">
-        <v>43101</v>
+        <v>43191</v>
       </c>
       <c r="B440" t="n">
-        <v>13858400000000</v>
+        <v>13988800000000</v>
       </c>
       <c r="C440" t="n">
         <v>1</v>
@@ -5282,10 +5282,10 @@
     </row>
     <row r="441">
       <c r="A441" s="2" t="n">
-        <v>43132</v>
+        <v>43221</v>
       </c>
       <c r="B441" t="n">
-        <v>13892800000000</v>
+        <v>14047200000000</v>
       </c>
       <c r="C441" t="n">
         <v>1</v>
@@ -5293,10 +5293,10 @@
     </row>
     <row r="442">
       <c r="A442" s="2" t="n">
-        <v>43160</v>
+        <v>43252</v>
       </c>
       <c r="B442" t="n">
-        <v>13952600000000</v>
+        <v>14103600000000</v>
       </c>
       <c r="C442" t="n">
         <v>1</v>
@@ -5304,10 +5304,10 @@
     </row>
     <row r="443">
       <c r="A443" s="2" t="n">
-        <v>43191</v>
+        <v>43282</v>
       </c>
       <c r="B443" t="n">
-        <v>13989100000000</v>
+        <v>14139200000000</v>
       </c>
       <c r="C443" t="n">
         <v>1</v>
@@ -5315,10 +5315,10 @@
     </row>
     <row r="444">
       <c r="A444" s="2" t="n">
-        <v>43221</v>
+        <v>43313</v>
       </c>
       <c r="B444" t="n">
-        <v>14054900000000</v>
+        <v>14181300000000</v>
       </c>
       <c r="C444" t="n">
         <v>1</v>
@@ -5326,10 +5326,10 @@
     </row>
     <row r="445">
       <c r="A445" s="2" t="n">
-        <v>43252</v>
+        <v>43344</v>
       </c>
       <c r="B445" t="n">
-        <v>14120000000000</v>
+        <v>14212900000000</v>
       </c>
       <c r="C445" t="n">
         <v>1</v>
@@ -5337,10 +5337,10 @@
     </row>
     <row r="446">
       <c r="A446" s="2" t="n">
-        <v>43282</v>
+        <v>43374</v>
       </c>
       <c r="B446" t="n">
-        <v>14153000000000</v>
+        <v>14222500000000</v>
       </c>
       <c r="C446" t="n">
         <v>1</v>
@@ -5348,10 +5348,10 @@
     </row>
     <row r="447">
       <c r="A447" s="2" t="n">
-        <v>43313</v>
+        <v>43405</v>
       </c>
       <c r="B447" t="n">
-        <v>14197000000000</v>
+        <v>14236800000000</v>
       </c>
       <c r="C447" t="n">
         <v>1</v>
@@ -5359,10 +5359,10 @@
     </row>
     <row r="448">
       <c r="A448" s="2" t="n">
-        <v>43344</v>
+        <v>43435</v>
       </c>
       <c r="B448" t="n">
-        <v>14228500000000</v>
+        <v>14362700000000</v>
       </c>
       <c r="C448" t="n">
         <v>1</v>
@@ -5370,10 +5370,10 @@
     </row>
     <row r="449">
       <c r="A449" s="2" t="n">
-        <v>43374</v>
+        <v>43466</v>
       </c>
       <c r="B449" t="n">
-        <v>14235400000000</v>
+        <v>14430000000000</v>
       </c>
       <c r="C449" t="n">
         <v>1</v>
@@ -5381,10 +5381,10 @@
     </row>
     <row r="450">
       <c r="A450" s="2" t="n">
-        <v>43405</v>
+        <v>43497</v>
       </c>
       <c r="B450" t="n">
-        <v>14245400000000</v>
+        <v>14469900000000</v>
       </c>
       <c r="C450" t="n">
         <v>1</v>
@@ -5392,10 +5392,10 @@
     </row>
     <row r="451">
       <c r="A451" s="2" t="n">
-        <v>43435</v>
+        <v>43525</v>
       </c>
       <c r="B451" t="n">
-        <v>14351800000000</v>
+        <v>14509900000000</v>
       </c>
       <c r="C451" t="n">
         <v>1</v>
@@ -5403,10 +5403,10 @@
     </row>
     <row r="452">
       <c r="A452" s="2" t="n">
-        <v>43466</v>
+        <v>43556</v>
       </c>
       <c r="B452" t="n">
-        <v>14434600000000</v>
+        <v>14541000000000</v>
       </c>
       <c r="C452" t="n">
         <v>1</v>
@@ -5414,10 +5414,10 @@
     </row>
     <row r="453">
       <c r="A453" s="2" t="n">
-        <v>43497</v>
+        <v>43586</v>
       </c>
       <c r="B453" t="n">
-        <v>14464400000000</v>
+        <v>14643200000000</v>
       </c>
       <c r="C453" t="n">
         <v>1</v>
@@ -5425,10 +5425,10 @@
     </row>
     <row r="454">
       <c r="A454" s="2" t="n">
-        <v>43525</v>
+        <v>43617</v>
       </c>
       <c r="B454" t="n">
-        <v>14511800000000</v>
+        <v>14757700000000</v>
       </c>
       <c r="C454" t="n">
         <v>1</v>
@@ -5436,10 +5436,10 @@
     </row>
     <row r="455">
       <c r="A455" s="2" t="n">
-        <v>43556</v>
+        <v>43647</v>
       </c>
       <c r="B455" t="n">
-        <v>14558300000000</v>
+        <v>14840600000000</v>
       </c>
       <c r="C455" t="n">
         <v>1</v>
@@ -5447,10 +5447,10 @@
     </row>
     <row r="456">
       <c r="A456" s="2" t="n">
-        <v>43586</v>
+        <v>43678</v>
       </c>
       <c r="B456" t="n">
-        <v>14653200000000</v>
+        <v>14914600000000</v>
       </c>
       <c r="C456" t="n">
         <v>1</v>
@@ -5458,10 +5458,10 @@
     </row>
     <row r="457">
       <c r="A457" s="2" t="n">
-        <v>43617</v>
+        <v>43709</v>
       </c>
       <c r="B457" t="n">
-        <v>14780700000000</v>
+        <v>15008100000000</v>
       </c>
       <c r="C457" t="n">
         <v>1</v>
@@ -5469,10 +5469,10 @@
     </row>
     <row r="458">
       <c r="A458" s="2" t="n">
-        <v>43647</v>
+        <v>43739</v>
       </c>
       <c r="B458" t="n">
-        <v>14859900000000</v>
+        <v>15140800000000</v>
       </c>
       <c r="C458" t="n">
         <v>1</v>
@@ -5480,10 +5480,10 @@
     </row>
     <row r="459">
       <c r="A459" s="2" t="n">
-        <v>43678</v>
+        <v>43770</v>
       </c>
       <c r="B459" t="n">
-        <v>14931200000000</v>
+        <v>15242200000000</v>
       </c>
       <c r="C459" t="n">
         <v>1</v>
@@ -5491,10 +5491,10 @@
     </row>
     <row r="460">
       <c r="A460" s="2" t="n">
-        <v>43709</v>
+        <v>43800</v>
       </c>
       <c r="B460" t="n">
-        <v>15020800000000</v>
+        <v>15320700000000</v>
       </c>
       <c r="C460" t="n">
         <v>1</v>
@@ -5502,10 +5502,10 @@
     </row>
     <row r="461">
       <c r="A461" s="2" t="n">
-        <v>43739</v>
+        <v>43831</v>
       </c>
       <c r="B461" t="n">
-        <v>15153100000000</v>
+        <v>15396000000000</v>
       </c>
       <c r="C461" t="n">
         <v>1</v>
@@ -5513,10 +5513,10 @@
     </row>
     <row r="462">
       <c r="A462" s="2" t="n">
-        <v>43770</v>
+        <v>43862</v>
       </c>
       <c r="B462" t="n">
-        <v>15251300000000</v>
+        <v>15450300000000</v>
       </c>
       <c r="C462" t="n">
         <v>1</v>
@@ -5524,10 +5524,10 @@
     </row>
     <row r="463">
       <c r="A463" s="2" t="n">
-        <v>43800</v>
+        <v>43891</v>
       </c>
       <c r="B463" t="n">
-        <v>15325800000000</v>
+        <v>15978700000000</v>
       </c>
       <c r="C463" t="n">
         <v>1</v>
@@ -5535,10 +5535,10 @@
     </row>
     <row r="464">
       <c r="A464" s="2" t="n">
-        <v>43831</v>
+        <v>43922</v>
       </c>
       <c r="B464" t="n">
-        <v>15406800000000</v>
+        <v>16997600000000</v>
       </c>
       <c r="C464" t="n">
         <v>1</v>
@@ -5546,10 +5546,10 @@
     </row>
     <row r="465">
       <c r="A465" s="2" t="n">
-        <v>43862</v>
+        <v>43952</v>
       </c>
       <c r="B465" t="n">
-        <v>15470400000000</v>
+        <v>17851100000000</v>
       </c>
       <c r="C465" t="n">
         <v>1</v>
@@ -5557,10 +5557,10 @@
     </row>
     <row r="466">
       <c r="A466" s="2" t="n">
-        <v>43891</v>
+        <v>43983</v>
       </c>
       <c r="B466" t="n">
-        <v>16011400000000</v>
+        <v>18131700000000</v>
       </c>
       <c r="C466" t="n">
         <v>1</v>
@@ -5568,10 +5568,10 @@
     </row>
     <row r="467">
       <c r="A467" s="2" t="n">
-        <v>43922</v>
+        <v>44013</v>
       </c>
       <c r="B467" t="n">
-        <v>17039100000000</v>
+        <v>18286300000000</v>
       </c>
       <c r="C467" t="n">
         <v>1</v>
@@ -5579,10 +5579,10 @@
     </row>
     <row r="468">
       <c r="A468" s="2" t="n">
-        <v>43952</v>
+        <v>44044</v>
       </c>
       <c r="B468" t="n">
-        <v>17889200000000</v>
+        <v>18346000000000</v>
       </c>
       <c r="C468" t="n">
         <v>1</v>
@@ -5590,10 +5590,10 @@
     </row>
     <row r="469">
       <c r="A469" s="2" t="n">
-        <v>43983</v>
+        <v>44075</v>
       </c>
       <c r="B469" t="n">
-        <v>18175700000000</v>
+        <v>18577300000000</v>
       </c>
       <c r="C469" t="n">
         <v>1</v>
@@ -5601,10 +5601,10 @@
     </row>
     <row r="470">
       <c r="A470" s="2" t="n">
-        <v>44013</v>
+        <v>44105</v>
       </c>
       <c r="B470" t="n">
-        <v>18316600000000</v>
+        <v>18729100000000</v>
       </c>
       <c r="C470" t="n">
         <v>1</v>
@@ -5612,10 +5612,10 @@
     </row>
     <row r="471">
       <c r="A471" s="2" t="n">
-        <v>44044</v>
+        <v>44136</v>
       </c>
       <c r="B471" t="n">
-        <v>18378500000000</v>
+        <v>18949300000000</v>
       </c>
       <c r="C471" t="n">
         <v>1</v>
@@ -5623,10 +5623,10 @@
     </row>
     <row r="472">
       <c r="A472" s="2" t="n">
-        <v>44075</v>
+        <v>44166</v>
       </c>
       <c r="B472" t="n">
-        <v>18601600000000</v>
+        <v>19114300000000</v>
       </c>
       <c r="C472" t="n">
         <v>1</v>
@@ -5634,10 +5634,10 @@
     </row>
     <row r="473">
       <c r="A473" s="2" t="n">
-        <v>44105</v>
+        <v>44197</v>
       </c>
       <c r="B473" t="n">
-        <v>18747900000000</v>
+        <v>19356700000000</v>
       </c>
       <c r="C473" t="n">
         <v>1</v>
@@ -5645,10 +5645,10 @@
     </row>
     <row r="474">
       <c r="A474" s="2" t="n">
-        <v>44136</v>
+        <v>44228</v>
       </c>
       <c r="B474" t="n">
-        <v>18958700000000</v>
+        <v>19600300000000</v>
       </c>
       <c r="C474" t="n">
         <v>1</v>
@@ -5656,10 +5656,10 @@
     </row>
     <row r="475">
       <c r="A475" s="2" t="n">
-        <v>44166</v>
+        <v>44256</v>
       </c>
       <c r="B475" t="n">
-        <v>19129500000000</v>
+        <v>19841200000000</v>
       </c>
       <c r="C475" t="n">
         <v>1</v>
@@ -5667,10 +5667,10 @@
     </row>
     <row r="476">
       <c r="A476" s="2" t="n">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="B476" t="n">
-        <v>19393100000000</v>
+        <v>20116900000000</v>
       </c>
       <c r="C476" t="n">
         <v>1</v>
@@ -5678,10 +5678,10 @@
     </row>
     <row r="477">
       <c r="A477" s="2" t="n">
-        <v>44228</v>
+        <v>44317</v>
       </c>
       <c r="B477" t="n">
-        <v>19665400000000</v>
+        <v>20431100000000</v>
       </c>
       <c r="C477" t="n">
         <v>1</v>
@@ -5689,10 +5689,10 @@
     </row>
     <row r="478">
       <c r="A478" s="2" t="n">
-        <v>44256</v>
+        <v>44348</v>
       </c>
       <c r="B478" t="n">
-        <v>19913500000000</v>
+        <v>20506600000000</v>
       </c>
       <c r="C478" t="n">
         <v>1</v>
@@ -5700,10 +5700,10 @@
     </row>
     <row r="479">
       <c r="A479" s="2" t="n">
-        <v>44287</v>
+        <v>44378</v>
       </c>
       <c r="B479" t="n">
-        <v>20122700000000</v>
+        <v>20662900000000</v>
       </c>
       <c r="C479" t="n">
         <v>1</v>
@@ -5711,10 +5711,10 @@
     </row>
     <row r="480">
       <c r="A480" s="2" t="n">
-        <v>44317</v>
+        <v>44409</v>
       </c>
       <c r="B480" t="n">
-        <v>20372400000000</v>
+        <v>20847800000000</v>
       </c>
       <c r="C480" t="n">
         <v>1</v>
@@ -5722,10 +5722,10 @@
     </row>
     <row r="481">
       <c r="A481" s="2" t="n">
-        <v>44348</v>
+        <v>44440</v>
       </c>
       <c r="B481" t="n">
-        <v>20387400000000</v>
+        <v>20964300000000</v>
       </c>
       <c r="C481" t="n">
         <v>1</v>
@@ -5733,10 +5733,10 @@
     </row>
     <row r="482">
       <c r="A482" s="2" t="n">
-        <v>44378</v>
+        <v>44470</v>
       </c>
       <c r="B482" t="n">
-        <v>20534300000000</v>
+        <v>21116200000000</v>
       </c>
       <c r="C482" t="n">
         <v>1</v>
@@ -5744,10 +5744,10 @@
     </row>
     <row r="483">
       <c r="A483" s="2" t="n">
-        <v>44409</v>
+        <v>44501</v>
       </c>
       <c r="B483" t="n">
-        <v>20797000000000</v>
+        <v>21316100000000</v>
       </c>
       <c r="C483" t="n">
         <v>1</v>
@@ -5755,10 +5755,10 @@
     </row>
     <row r="484">
       <c r="A484" s="2" t="n">
-        <v>44440</v>
+        <v>44531</v>
       </c>
       <c r="B484" t="n">
-        <v>20982900000000</v>
+        <v>21549100000000</v>
       </c>
       <c r="C484" t="n">
         <v>1</v>
@@ -5766,10 +5766,10 @@
     </row>
     <row r="485">
       <c r="A485" s="2" t="n">
-        <v>44470</v>
+        <v>44562</v>
       </c>
       <c r="B485" t="n">
-        <v>21187100000000</v>
+        <v>21561800000000</v>
       </c>
       <c r="C485" t="n">
         <v>1</v>
@@ -5777,10 +5777,10 @@
     </row>
     <row r="486">
       <c r="A486" s="2" t="n">
-        <v>44501</v>
+        <v>44593</v>
       </c>
       <c r="B486" t="n">
-        <v>21436700000000</v>
+        <v>21570300000000</v>
       </c>
       <c r="C486" t="n">
         <v>1</v>
@@ -5788,10 +5788,10 @@
     </row>
     <row r="487">
       <c r="A487" s="2" t="n">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="B487" t="n">
-        <v>21638100000000</v>
+        <v>21697500000000</v>
       </c>
       <c r="C487" t="n">
         <v>1</v>
@@ -5799,10 +5799,10 @@
     </row>
     <row r="488">
       <c r="A488" s="2" t="n">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="B488" t="n">
-        <v>21840100000000</v>
+        <v>21677100000000</v>
       </c>
       <c r="C488" t="n">
         <v>1</v>
@@ -5810,10 +5810,10 @@
     </row>
     <row r="489">
       <c r="A489" s="2" t="n">
-        <v>44593</v>
+        <v>44682</v>
       </c>
       <c r="B489" t="n">
-        <v>21811800000000</v>
+        <v>21665200000000</v>
       </c>
       <c r="C489" t="n">
         <v>1</v>
@@ -5821,10 +5821,10 @@
     </row>
     <row r="490">
       <c r="A490" s="2" t="n">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="B490" t="n">
-        <v>21809700000000</v>
+        <v>21665700000000</v>
       </c>
       <c r="C490" t="n">
         <v>1</v>
@@ -5832,10 +5832,10 @@
     </row>
     <row r="491">
       <c r="A491" s="2" t="n">
-        <v>44652</v>
+        <v>44743</v>
       </c>
       <c r="B491" t="n">
-        <v>21728000000000</v>
+        <v>21702600000000</v>
       </c>
       <c r="C491" t="n">
         <v>1</v>
@@ -5843,10 +5843,10 @@
     </row>
     <row r="492">
       <c r="A492" s="2" t="n">
-        <v>44682</v>
+        <v>44774</v>
       </c>
       <c r="B492" t="n">
-        <v>21754200000000</v>
+        <v>21658900000000</v>
       </c>
       <c r="C492" t="n">
         <v>1</v>
@@ -5854,10 +5854,10 @@
     </row>
     <row r="493">
       <c r="A493" s="2" t="n">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="B493" t="n">
-        <v>21667500000000</v>
+        <v>21524200000000</v>
       </c>
       <c r="C493" t="n">
         <v>1</v>
@@ -5865,10 +5865,10 @@
     </row>
     <row r="494">
       <c r="A494" s="2" t="n">
-        <v>44743</v>
+        <v>44835</v>
       </c>
       <c r="B494" t="n">
-        <v>21709200000000</v>
+        <v>21432300000000</v>
       </c>
       <c r="C494" t="n">
         <v>1</v>
@@ -5876,10 +5876,10 @@
     </row>
     <row r="495">
       <c r="A495" s="2" t="n">
-        <v>44774</v>
+        <v>44866</v>
       </c>
       <c r="B495" t="n">
-        <v>21711400000000</v>
+        <v>21399000000000</v>
       </c>
       <c r="C495" t="n">
         <v>1</v>
@@ -5887,10 +5887,10 @@
     </row>
     <row r="496">
       <c r="A496" s="2" t="n">
-        <v>44805</v>
+        <v>44896</v>
       </c>
       <c r="B496" t="n">
-        <v>21503400000000</v>
+        <v>21358100000000</v>
       </c>
       <c r="C496" t="n">
         <v>1</v>
@@ -5898,10 +5898,10 @@
     </row>
     <row r="497">
       <c r="A497" s="2" t="n">
-        <v>44835</v>
+        <v>44927</v>
       </c>
       <c r="B497" t="n">
-        <v>21415200000000</v>
+        <v>21212700000000</v>
       </c>
       <c r="C497" t="n">
         <v>1</v>
@@ -5909,10 +5909,10 @@
     </row>
     <row r="498">
       <c r="A498" s="2" t="n">
-        <v>44866</v>
+        <v>44958</v>
       </c>
       <c r="B498" t="n">
-        <v>21351600000000</v>
+        <v>21077400000000</v>
       </c>
       <c r="C498" t="n">
         <v>1</v>
@@ -5920,10 +5920,10 @@
     </row>
     <row r="499">
       <c r="A499" s="2" t="n">
-        <v>44896</v>
+        <v>44986</v>
       </c>
       <c r="B499" t="n">
-        <v>21207400000000</v>
+        <v>20841100000000</v>
       </c>
       <c r="C499" t="n">
         <v>1</v>
@@ -5931,10 +5931,10 @@
     </row>
     <row r="500">
       <c r="A500" s="2" t="n">
-        <v>44927</v>
+        <v>45017</v>
       </c>
       <c r="B500" t="n">
-        <v>21267100000000</v>
+        <v>20674600000000</v>
       </c>
       <c r="C500" t="n">
         <v>1</v>
@@ -5942,10 +5942,10 @@
     </row>
     <row r="501">
       <c r="A501" s="2" t="n">
-        <v>44958</v>
+        <v>45047</v>
       </c>
       <c r="B501" t="n">
-        <v>21062500000000</v>
+        <v>20805500000000</v>
       </c>
       <c r="C501" t="n">
         <v>1</v>

--- a/Global_M2/TVDataFeed/FinalData/United States.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/United States.xlsx
@@ -453,10 +453,10 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>29860</v>
+        <v>29891</v>
       </c>
       <c r="B2" t="n">
-        <v>1721800000000</v>
+        <v>1736100000000</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -464,10 +464,10 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>29891</v>
+        <v>29921</v>
       </c>
       <c r="B3" t="n">
-        <v>1736100000000</v>
+        <v>1755500000000</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -475,10 +475,10 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>29921</v>
+        <v>29952</v>
       </c>
       <c r="B4" t="n">
-        <v>1755500000000</v>
+        <v>1770400000000</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -486,10 +486,10 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>29952</v>
+        <v>29983</v>
       </c>
       <c r="B5" t="n">
-        <v>1770400000000</v>
+        <v>1774500000000</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -497,10 +497,10 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>29983</v>
+        <v>30011</v>
       </c>
       <c r="B6" t="n">
-        <v>1774500000000</v>
+        <v>1786500000000</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -508,10 +508,10 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>30011</v>
+        <v>30042</v>
       </c>
       <c r="B7" t="n">
-        <v>1786500000000</v>
+        <v>1803900000000</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -519,10 +519,10 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>30042</v>
+        <v>30072</v>
       </c>
       <c r="B8" t="n">
-        <v>1803900000000</v>
+        <v>1815400000000</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -530,10 +530,10 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>30072</v>
+        <v>30103</v>
       </c>
       <c r="B9" t="n">
-        <v>1815400000000</v>
+        <v>1826000000000</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -541,10 +541,10 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>30103</v>
+        <v>30133</v>
       </c>
       <c r="B10" t="n">
-        <v>1826000000000</v>
+        <v>1831500000000</v>
       </c>
       <c r="C10" t="n">
         <v>1</v>
@@ -552,10 +552,10 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>30133</v>
+        <v>30164</v>
       </c>
       <c r="B11" t="n">
-        <v>1831500000000</v>
+        <v>1845200000000</v>
       </c>
       <c r="C11" t="n">
         <v>1</v>
@@ -563,10 +563,10 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>30164</v>
+        <v>30195</v>
       </c>
       <c r="B12" t="n">
-        <v>1845200000000</v>
+        <v>1858400000000</v>
       </c>
       <c r="C12" t="n">
         <v>1</v>
@@ -574,10 +574,10 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>30195</v>
+        <v>30225</v>
       </c>
       <c r="B13" t="n">
-        <v>1858400000000</v>
+        <v>1869700000000</v>
       </c>
       <c r="C13" t="n">
         <v>1</v>
@@ -585,10 +585,10 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>30225</v>
+        <v>30256</v>
       </c>
       <c r="B14" t="n">
-        <v>1869700000000</v>
+        <v>1883700000000</v>
       </c>
       <c r="C14" t="n">
         <v>1</v>
@@ -596,10 +596,10 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>30256</v>
+        <v>30286</v>
       </c>
       <c r="B15" t="n">
-        <v>1883700000000</v>
+        <v>1905900000000</v>
       </c>
       <c r="C15" t="n">
         <v>1</v>
@@ -607,10 +607,10 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>30286</v>
+        <v>30317</v>
       </c>
       <c r="B16" t="n">
-        <v>1905900000000</v>
+        <v>1959400000000</v>
       </c>
       <c r="C16" t="n">
         <v>1</v>
@@ -618,10 +618,10 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>30317</v>
+        <v>30348</v>
       </c>
       <c r="B17" t="n">
-        <v>1959400000000</v>
+        <v>1996800000000</v>
       </c>
       <c r="C17" t="n">
         <v>1</v>
@@ -629,10 +629,10 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>30348</v>
+        <v>30376</v>
       </c>
       <c r="B18" t="n">
-        <v>1996800000000</v>
+        <v>2015200000000</v>
       </c>
       <c r="C18" t="n">
         <v>1</v>
@@ -640,10 +640,10 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>30376</v>
+        <v>30407</v>
       </c>
       <c r="B19" t="n">
-        <v>2015200000000</v>
+        <v>2028600000000</v>
       </c>
       <c r="C19" t="n">
         <v>1</v>
@@ -651,10 +651,10 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>30407</v>
+        <v>30437</v>
       </c>
       <c r="B20" t="n">
-        <v>2028600000000</v>
+        <v>2043100000000</v>
       </c>
       <c r="C20" t="n">
         <v>1</v>
@@ -662,10 +662,10 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>30437</v>
+        <v>30468</v>
       </c>
       <c r="B21" t="n">
-        <v>2043100000000</v>
+        <v>2053500000000</v>
       </c>
       <c r="C21" t="n">
         <v>1</v>
@@ -673,10 +673,10 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>30468</v>
+        <v>30498</v>
       </c>
       <c r="B22" t="n">
-        <v>2053500000000</v>
+        <v>2064800000000</v>
       </c>
       <c r="C22" t="n">
         <v>1</v>
@@ -684,10 +684,10 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>30498</v>
+        <v>30529</v>
       </c>
       <c r="B23" t="n">
-        <v>2064800000000</v>
+        <v>2074000000000</v>
       </c>
       <c r="C23" t="n">
         <v>1</v>
@@ -695,10 +695,10 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>30529</v>
+        <v>30560</v>
       </c>
       <c r="B24" t="n">
-        <v>2074000000000</v>
+        <v>2083200000000</v>
       </c>
       <c r="C24" t="n">
         <v>1</v>
@@ -706,10 +706,10 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>30560</v>
+        <v>30590</v>
       </c>
       <c r="B25" t="n">
-        <v>2083200000000</v>
+        <v>2099200000000</v>
       </c>
       <c r="C25" t="n">
         <v>1</v>
@@ -717,10 +717,10 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>30590</v>
+        <v>30621</v>
       </c>
       <c r="B26" t="n">
-        <v>2099200000000</v>
+        <v>2112300000000</v>
       </c>
       <c r="C26" t="n">
         <v>1</v>
@@ -728,10 +728,10 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>30621</v>
+        <v>30651</v>
       </c>
       <c r="B27" t="n">
-        <v>2112300000000</v>
+        <v>2123500000000</v>
       </c>
       <c r="C27" t="n">
         <v>1</v>
@@ -739,10 +739,10 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>30651</v>
+        <v>30682</v>
       </c>
       <c r="B28" t="n">
-        <v>2123500000000</v>
+        <v>2138200000000</v>
       </c>
       <c r="C28" t="n">
         <v>1</v>
@@ -750,10 +750,10 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>30682</v>
+        <v>30713</v>
       </c>
       <c r="B29" t="n">
-        <v>2138200000000</v>
+        <v>2158200000000</v>
       </c>
       <c r="C29" t="n">
         <v>1</v>
@@ -761,10 +761,10 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>30713</v>
+        <v>30742</v>
       </c>
       <c r="B30" t="n">
-        <v>2158200000000</v>
+        <v>2175200000000</v>
       </c>
       <c r="C30" t="n">
         <v>1</v>
@@ -772,10 +772,10 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>30742</v>
+        <v>30773</v>
       </c>
       <c r="B31" t="n">
-        <v>2175200000000</v>
+        <v>2191700000000</v>
       </c>
       <c r="C31" t="n">
         <v>1</v>
@@ -783,10 +783,10 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>30773</v>
+        <v>30803</v>
       </c>
       <c r="B32" t="n">
-        <v>2191700000000</v>
+        <v>2204100000000</v>
       </c>
       <c r="C32" t="n">
         <v>1</v>
@@ -794,10 +794,10 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>30803</v>
+        <v>30834</v>
       </c>
       <c r="B33" t="n">
-        <v>2204100000000</v>
+        <v>2215100000000</v>
       </c>
       <c r="C33" t="n">
         <v>1</v>
@@ -805,10 +805,10 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>30834</v>
+        <v>30864</v>
       </c>
       <c r="B34" t="n">
-        <v>2215100000000</v>
+        <v>2223500000000</v>
       </c>
       <c r="C34" t="n">
         <v>1</v>
@@ -816,10 +816,10 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>30864</v>
+        <v>30895</v>
       </c>
       <c r="B35" t="n">
-        <v>2223500000000</v>
+        <v>2230400000000</v>
       </c>
       <c r="C35" t="n">
         <v>1</v>
@@ -827,10 +827,10 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>30895</v>
+        <v>30926</v>
       </c>
       <c r="B36" t="n">
-        <v>2230400000000</v>
+        <v>2244400000000</v>
       </c>
       <c r="C36" t="n">
         <v>1</v>
@@ -838,10 +838,10 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>30926</v>
+        <v>30956</v>
       </c>
       <c r="B37" t="n">
-        <v>2244400000000</v>
+        <v>2258900000000</v>
       </c>
       <c r="C37" t="n">
         <v>1</v>
@@ -849,10 +849,10 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>30956</v>
+        <v>30987</v>
       </c>
       <c r="B38" t="n">
-        <v>2258900000000</v>
+        <v>2281400000000</v>
       </c>
       <c r="C38" t="n">
         <v>1</v>
@@ -860,10 +860,10 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>30987</v>
+        <v>31017</v>
       </c>
       <c r="B39" t="n">
-        <v>2281400000000</v>
+        <v>2306400000000</v>
       </c>
       <c r="C39" t="n">
         <v>1</v>
@@ -871,10 +871,10 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>31017</v>
+        <v>31048</v>
       </c>
       <c r="B40" t="n">
-        <v>2306400000000</v>
+        <v>2332400000000</v>
       </c>
       <c r="C40" t="n">
         <v>1</v>
@@ -882,10 +882,10 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>31048</v>
+        <v>31079</v>
       </c>
       <c r="B41" t="n">
-        <v>2332400000000</v>
+        <v>2354100000000</v>
       </c>
       <c r="C41" t="n">
         <v>1</v>
@@ -893,10 +893,10 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>31079</v>
+        <v>31107</v>
       </c>
       <c r="B42" t="n">
-        <v>2354100000000</v>
+        <v>2366200000000</v>
       </c>
       <c r="C42" t="n">
         <v>1</v>
@@ -904,10 +904,10 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>31107</v>
+        <v>31138</v>
       </c>
       <c r="B43" t="n">
-        <v>2366200000000</v>
+        <v>2375400000000</v>
       </c>
       <c r="C43" t="n">
         <v>1</v>
@@ -915,10 +915,10 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>31138</v>
+        <v>31168</v>
       </c>
       <c r="B44" t="n">
-        <v>2375400000000</v>
+        <v>2389500000000</v>
       </c>
       <c r="C44" t="n">
         <v>1</v>
@@ -926,10 +926,10 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>31168</v>
+        <v>31199</v>
       </c>
       <c r="B45" t="n">
-        <v>2389500000000</v>
+        <v>2412600000000</v>
       </c>
       <c r="C45" t="n">
         <v>1</v>
@@ -937,10 +937,10 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>31199</v>
+        <v>31229</v>
       </c>
       <c r="B46" t="n">
-        <v>2412600000000</v>
+        <v>2429500000000</v>
       </c>
       <c r="C46" t="n">
         <v>1</v>
@@ -948,10 +948,10 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>31229</v>
+        <v>31260</v>
       </c>
       <c r="B47" t="n">
-        <v>2429500000000</v>
+        <v>2444000000000</v>
       </c>
       <c r="C47" t="n">
         <v>1</v>
@@ -959,10 +959,10 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>31260</v>
+        <v>31291</v>
       </c>
       <c r="B48" t="n">
-        <v>2444000000000</v>
+        <v>2456400000000</v>
       </c>
       <c r="C48" t="n">
         <v>1</v>
@@ -970,10 +970,10 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>31291</v>
+        <v>31321</v>
       </c>
       <c r="B49" t="n">
-        <v>2456400000000</v>
+        <v>2468000000000</v>
       </c>
       <c r="C49" t="n">
         <v>1</v>
@@ -981,10 +981,10 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>31321</v>
+        <v>31352</v>
       </c>
       <c r="B50" t="n">
-        <v>2468000000000</v>
+        <v>2477800000000</v>
       </c>
       <c r="C50" t="n">
         <v>1</v>
@@ -992,10 +992,10 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>31352</v>
+        <v>31382</v>
       </c>
       <c r="B51" t="n">
-        <v>2477800000000</v>
+        <v>2492100000000</v>
       </c>
       <c r="C51" t="n">
         <v>1</v>
@@ -1003,10 +1003,10 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>31382</v>
+        <v>31413</v>
       </c>
       <c r="B52" t="n">
-        <v>2492100000000</v>
+        <v>2502100000000</v>
       </c>
       <c r="C52" t="n">
         <v>1</v>
@@ -1014,10 +1014,10 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>31413</v>
+        <v>31444</v>
       </c>
       <c r="B53" t="n">
-        <v>2502100000000</v>
+        <v>2512900000000</v>
       </c>
       <c r="C53" t="n">
         <v>1</v>
@@ -1025,10 +1025,10 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>31444</v>
+        <v>31472</v>
       </c>
       <c r="B54" t="n">
-        <v>2512900000000</v>
+        <v>2533100000000</v>
       </c>
       <c r="C54" t="n">
         <v>1</v>
@@ -1036,10 +1036,10 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>31472</v>
+        <v>31503</v>
       </c>
       <c r="B55" t="n">
-        <v>2533100000000</v>
+        <v>2557800000000</v>
       </c>
       <c r="C55" t="n">
         <v>1</v>
@@ -1047,10 +1047,10 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>31503</v>
+        <v>31533</v>
       </c>
       <c r="B56" t="n">
-        <v>2557800000000</v>
+        <v>2584800000000</v>
       </c>
       <c r="C56" t="n">
         <v>1</v>
@@ -1058,10 +1058,10 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>31533</v>
+        <v>31564</v>
       </c>
       <c r="B57" t="n">
-        <v>2584800000000</v>
+        <v>2605000000000</v>
       </c>
       <c r="C57" t="n">
         <v>1</v>
@@ -1069,10 +1069,10 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>31564</v>
+        <v>31594</v>
       </c>
       <c r="B58" t="n">
-        <v>2605000000000</v>
+        <v>2626600000000</v>
       </c>
       <c r="C58" t="n">
         <v>1</v>
@@ -1080,10 +1080,10 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>31594</v>
+        <v>31625</v>
       </c>
       <c r="B59" t="n">
-        <v>2626600000000</v>
+        <v>2646500000000</v>
       </c>
       <c r="C59" t="n">
         <v>1</v>
@@ -1091,10 +1091,10 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>31625</v>
+        <v>31656</v>
       </c>
       <c r="B60" t="n">
-        <v>2646500000000</v>
+        <v>2667800000000</v>
       </c>
       <c r="C60" t="n">
         <v>1</v>
@@ -1102,10 +1102,10 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>31656</v>
+        <v>31686</v>
       </c>
       <c r="B61" t="n">
-        <v>2667800000000</v>
+        <v>2687400000000</v>
       </c>
       <c r="C61" t="n">
         <v>1</v>
@@ -1113,10 +1113,10 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>31686</v>
+        <v>31717</v>
       </c>
       <c r="B62" t="n">
-        <v>2687400000000</v>
+        <v>2701300000000</v>
       </c>
       <c r="C62" t="n">
         <v>1</v>
@@ -1124,10 +1124,10 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>31717</v>
+        <v>31747</v>
       </c>
       <c r="B63" t="n">
-        <v>2701300000000</v>
+        <v>2728000000000</v>
       </c>
       <c r="C63" t="n">
         <v>1</v>
@@ -1135,10 +1135,10 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>31747</v>
+        <v>31778</v>
       </c>
       <c r="B64" t="n">
-        <v>2728000000000</v>
+        <v>2743900000000</v>
       </c>
       <c r="C64" t="n">
         <v>1</v>
@@ -1146,10 +1146,10 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>31778</v>
+        <v>31809</v>
       </c>
       <c r="B65" t="n">
-        <v>2743900000000</v>
+        <v>2747500000000</v>
       </c>
       <c r="C65" t="n">
         <v>1</v>
@@ -1157,10 +1157,10 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>31809</v>
+        <v>31837</v>
       </c>
       <c r="B66" t="n">
-        <v>2747500000000</v>
+        <v>2753700000000</v>
       </c>
       <c r="C66" t="n">
         <v>1</v>
@@ -1168,10 +1168,10 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>31837</v>
+        <v>31868</v>
       </c>
       <c r="B67" t="n">
-        <v>2753700000000</v>
+        <v>2767700000000</v>
       </c>
       <c r="C67" t="n">
         <v>1</v>
@@ -1179,10 +1179,10 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>31868</v>
+        <v>31898</v>
       </c>
       <c r="B68" t="n">
-        <v>2767700000000</v>
+        <v>2772900000000</v>
       </c>
       <c r="C68" t="n">
         <v>1</v>
@@ -1190,10 +1190,10 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>31898</v>
+        <v>31929</v>
       </c>
       <c r="B69" t="n">
-        <v>2772900000000</v>
+        <v>2774600000000</v>
       </c>
       <c r="C69" t="n">
         <v>1</v>
@@ -1201,10 +1201,10 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>31929</v>
+        <v>31959</v>
       </c>
       <c r="B70" t="n">
-        <v>2774600000000</v>
+        <v>2779000000000</v>
       </c>
       <c r="C70" t="n">
         <v>1</v>
@@ -1212,10 +1212,10 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>31959</v>
+        <v>31990</v>
       </c>
       <c r="B71" t="n">
-        <v>2779000000000</v>
+        <v>2788200000000</v>
       </c>
       <c r="C71" t="n">
         <v>1</v>
@@ -1223,10 +1223,10 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>31990</v>
+        <v>32021</v>
       </c>
       <c r="B72" t="n">
-        <v>2788200000000</v>
+        <v>2799500000000</v>
       </c>
       <c r="C72" t="n">
         <v>1</v>
@@ -1234,10 +1234,10 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>32021</v>
+        <v>32051</v>
       </c>
       <c r="B73" t="n">
-        <v>2799500000000</v>
+        <v>2814800000000</v>
       </c>
       <c r="C73" t="n">
         <v>1</v>
@@ -1245,10 +1245,10 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>32051</v>
+        <v>32082</v>
       </c>
       <c r="B74" t="n">
-        <v>2814800000000</v>
+        <v>2818900000000</v>
       </c>
       <c r="C74" t="n">
         <v>1</v>
@@ -1256,10 +1256,10 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>32082</v>
+        <v>32112</v>
       </c>
       <c r="B75" t="n">
-        <v>2818900000000</v>
+        <v>2826400000000</v>
       </c>
       <c r="C75" t="n">
         <v>1</v>
@@ -1267,10 +1267,10 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>32112</v>
+        <v>32143</v>
       </c>
       <c r="B76" t="n">
-        <v>2826400000000</v>
+        <v>2847400000000</v>
       </c>
       <c r="C76" t="n">
         <v>1</v>
@@ -1278,10 +1278,10 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>32143</v>
+        <v>32174</v>
       </c>
       <c r="B77" t="n">
-        <v>2847400000000</v>
+        <v>2870400000000</v>
       </c>
       <c r="C77" t="n">
         <v>1</v>
@@ -1289,10 +1289,10 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>32174</v>
+        <v>32203</v>
       </c>
       <c r="B78" t="n">
-        <v>2870400000000</v>
+        <v>2890700000000</v>
       </c>
       <c r="C78" t="n">
         <v>1</v>
@@ -1300,10 +1300,10 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>32203</v>
+        <v>32234</v>
       </c>
       <c r="B79" t="n">
-        <v>2890700000000</v>
+        <v>2910700000000</v>
       </c>
       <c r="C79" t="n">
         <v>1</v>
@@ -1311,10 +1311,10 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>32234</v>
+        <v>32264</v>
       </c>
       <c r="B80" t="n">
-        <v>2910700000000</v>
+        <v>2926000000000</v>
       </c>
       <c r="C80" t="n">
         <v>1</v>
@@ -1322,10 +1322,10 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>32264</v>
+        <v>32295</v>
       </c>
       <c r="B81" t="n">
-        <v>2926000000000</v>
+        <v>2938400000000</v>
       </c>
       <c r="C81" t="n">
         <v>1</v>
@@ -1333,10 +1333,10 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>32295</v>
+        <v>32325</v>
       </c>
       <c r="B82" t="n">
-        <v>2938400000000</v>
+        <v>2947200000000</v>
       </c>
       <c r="C82" t="n">
         <v>1</v>
@@ -1344,10 +1344,10 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>32325</v>
+        <v>32356</v>
       </c>
       <c r="B83" t="n">
-        <v>2947200000000</v>
+        <v>2952000000000</v>
       </c>
       <c r="C83" t="n">
         <v>1</v>
@@ -1355,10 +1355,10 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>32356</v>
+        <v>32387</v>
       </c>
       <c r="B84" t="n">
-        <v>2952000000000</v>
+        <v>2956900000000</v>
       </c>
       <c r="C84" t="n">
         <v>1</v>
@@ -1366,10 +1366,10 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>32387</v>
+        <v>32417</v>
       </c>
       <c r="B85" t="n">
-        <v>2956900000000</v>
+        <v>2965300000000</v>
       </c>
       <c r="C85" t="n">
         <v>1</v>
@@ -1377,10 +1377,10 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>32417</v>
+        <v>32448</v>
       </c>
       <c r="B86" t="n">
-        <v>2965300000000</v>
+        <v>2980200000000</v>
       </c>
       <c r="C86" t="n">
         <v>1</v>
@@ -1388,10 +1388,10 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>32448</v>
+        <v>32478</v>
       </c>
       <c r="B87" t="n">
-        <v>2980200000000</v>
+        <v>2988200000000</v>
       </c>
       <c r="C87" t="n">
         <v>1</v>
@@ -1399,10 +1399,10 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>32478</v>
+        <v>32509</v>
       </c>
       <c r="B88" t="n">
-        <v>2988200000000</v>
+        <v>2991700000000</v>
       </c>
       <c r="C88" t="n">
         <v>1</v>
@@ -1410,10 +1410,10 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>32509</v>
+        <v>32540</v>
       </c>
       <c r="B89" t="n">
-        <v>2991700000000</v>
+        <v>2992200000000</v>
       </c>
       <c r="C89" t="n">
         <v>1</v>
@@ -1421,10 +1421,10 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>32540</v>
+        <v>32568</v>
       </c>
       <c r="B90" t="n">
-        <v>2992200000000</v>
+        <v>2999700000000</v>
       </c>
       <c r="C90" t="n">
         <v>1</v>
@@ -1432,10 +1432,10 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>32568</v>
+        <v>32599</v>
       </c>
       <c r="B91" t="n">
-        <v>2999700000000</v>
+        <v>3006000000000</v>
       </c>
       <c r="C91" t="n">
         <v>1</v>
@@ -1443,10 +1443,10 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>32599</v>
+        <v>32629</v>
       </c>
       <c r="B92" t="n">
-        <v>3006000000000</v>
+        <v>3011600000000</v>
       </c>
       <c r="C92" t="n">
         <v>1</v>
@@ -1454,10 +1454,10 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>32629</v>
+        <v>32660</v>
       </c>
       <c r="B93" t="n">
-        <v>3011600000000</v>
+        <v>3027900000000</v>
       </c>
       <c r="C93" t="n">
         <v>1</v>
@@ -1465,10 +1465,10 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>32660</v>
+        <v>32690</v>
       </c>
       <c r="B94" t="n">
-        <v>3027900000000</v>
+        <v>3052400000000</v>
       </c>
       <c r="C94" t="n">
         <v>1</v>
@@ -1476,10 +1476,10 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>32690</v>
+        <v>32721</v>
       </c>
       <c r="B95" t="n">
-        <v>3052400000000</v>
+        <v>3074400000000</v>
       </c>
       <c r="C95" t="n">
         <v>1</v>
@@ -1487,10 +1487,10 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>32721</v>
+        <v>32752</v>
       </c>
       <c r="B96" t="n">
-        <v>3074400000000</v>
+        <v>3092500000000</v>
       </c>
       <c r="C96" t="n">
         <v>1</v>
@@ -1498,10 +1498,10 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>32752</v>
+        <v>32782</v>
       </c>
       <c r="B97" t="n">
-        <v>3092500000000</v>
+        <v>3114100000000</v>
       </c>
       <c r="C97" t="n">
         <v>1</v>
@@ -1509,10 +1509,10 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>32782</v>
+        <v>32813</v>
       </c>
       <c r="B98" t="n">
-        <v>3114100000000</v>
+        <v>3133300000000</v>
       </c>
       <c r="C98" t="n">
         <v>1</v>
@@ -1520,10 +1520,10 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>32813</v>
+        <v>32843</v>
       </c>
       <c r="B99" t="n">
-        <v>3133300000000</v>
+        <v>3152500000000</v>
       </c>
       <c r="C99" t="n">
         <v>1</v>
@@ -1531,10 +1531,10 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>32843</v>
+        <v>32874</v>
       </c>
       <c r="B100" t="n">
-        <v>3152500000000</v>
+        <v>3166800000000</v>
       </c>
       <c r="C100" t="n">
         <v>1</v>
@@ -1542,10 +1542,10 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>32874</v>
+        <v>32905</v>
       </c>
       <c r="B101" t="n">
-        <v>3166800000000</v>
+        <v>3179200000000</v>
       </c>
       <c r="C101" t="n">
         <v>1</v>
@@ -1553,10 +1553,10 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
-        <v>32905</v>
+        <v>32933</v>
       </c>
       <c r="B102" t="n">
-        <v>3179200000000</v>
+        <v>3190100000000</v>
       </c>
       <c r="C102" t="n">
         <v>1</v>
@@ -1564,10 +1564,10 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
-        <v>32933</v>
+        <v>32964</v>
       </c>
       <c r="B103" t="n">
-        <v>3190100000000</v>
+        <v>3201600000000</v>
       </c>
       <c r="C103" t="n">
         <v>1</v>
@@ -1575,10 +1575,10 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
-        <v>32964</v>
+        <v>32994</v>
       </c>
       <c r="B104" t="n">
-        <v>3201600000000</v>
+        <v>3200600000000</v>
       </c>
       <c r="C104" t="n">
         <v>1</v>
@@ -1586,10 +1586,10 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
-        <v>32994</v>
+        <v>33025</v>
       </c>
       <c r="B105" t="n">
-        <v>3200600000000</v>
+        <v>3213700000000</v>
       </c>
       <c r="C105" t="n">
         <v>1</v>
@@ -1597,10 +1597,10 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
-        <v>33025</v>
+        <v>33055</v>
       </c>
       <c r="B106" t="n">
-        <v>3213700000000</v>
+        <v>3224500000000</v>
       </c>
       <c r="C106" t="n">
         <v>1</v>
@@ -1608,10 +1608,10 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
-        <v>33055</v>
+        <v>33086</v>
       </c>
       <c r="B107" t="n">
-        <v>3224500000000</v>
+        <v>3242000000000</v>
       </c>
       <c r="C107" t="n">
         <v>1</v>
@@ -1619,10 +1619,10 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
-        <v>33086</v>
+        <v>33117</v>
       </c>
       <c r="B108" t="n">
-        <v>3242000000000</v>
+        <v>3254600000000</v>
       </c>
       <c r="C108" t="n">
         <v>1</v>
@@ -1630,10 +1630,10 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
-        <v>33117</v>
+        <v>33147</v>
       </c>
       <c r="B109" t="n">
-        <v>3254600000000</v>
+        <v>3259300000000</v>
       </c>
       <c r="C109" t="n">
         <v>1</v>
@@ -1641,10 +1641,10 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
-        <v>33147</v>
+        <v>33178</v>
       </c>
       <c r="B110" t="n">
-        <v>3259300000000</v>
+        <v>3262600000000</v>
       </c>
       <c r="C110" t="n">
         <v>1</v>
@@ -1652,10 +1652,10 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
-        <v>33178</v>
+        <v>33208</v>
       </c>
       <c r="B111" t="n">
-        <v>3262600000000</v>
+        <v>3271800000000</v>
       </c>
       <c r="C111" t="n">
         <v>1</v>
@@ -1663,10 +1663,10 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
-        <v>33208</v>
+        <v>33239</v>
       </c>
       <c r="B112" t="n">
-        <v>3271800000000</v>
+        <v>3287700000000</v>
       </c>
       <c r="C112" t="n">
         <v>1</v>
@@ -1674,10 +1674,10 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
-        <v>33239</v>
+        <v>33270</v>
       </c>
       <c r="B113" t="n">
-        <v>3287700000000</v>
+        <v>3304500000000</v>
       </c>
       <c r="C113" t="n">
         <v>1</v>
@@ -1685,10 +1685,10 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
-        <v>33270</v>
+        <v>33298</v>
       </c>
       <c r="B114" t="n">
-        <v>3304500000000</v>
+        <v>3321900000000</v>
       </c>
       <c r="C114" t="n">
         <v>1</v>
@@ -1696,10 +1696,10 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
-        <v>33298</v>
+        <v>33329</v>
       </c>
       <c r="B115" t="n">
-        <v>3321900000000</v>
+        <v>3332400000000</v>
       </c>
       <c r="C115" t="n">
         <v>1</v>
@@ -1707,10 +1707,10 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
-        <v>33329</v>
+        <v>33359</v>
       </c>
       <c r="B116" t="n">
-        <v>3332400000000</v>
+        <v>3343000000000</v>
       </c>
       <c r="C116" t="n">
         <v>1</v>
@@ -1718,10 +1718,10 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
-        <v>33359</v>
+        <v>33390</v>
       </c>
       <c r="B117" t="n">
-        <v>3343000000000</v>
+        <v>3351900000000</v>
       </c>
       <c r="C117" t="n">
         <v>1</v>
@@ -1729,10 +1729,10 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
-        <v>33390</v>
+        <v>33420</v>
       </c>
       <c r="B118" t="n">
-        <v>3351900000000</v>
+        <v>3356100000000</v>
       </c>
       <c r="C118" t="n">
         <v>1</v>
@@ -1740,10 +1740,10 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
-        <v>33420</v>
+        <v>33451</v>
       </c>
       <c r="B119" t="n">
-        <v>3356100000000</v>
+        <v>3355000000000</v>
       </c>
       <c r="C119" t="n">
         <v>1</v>
@@ -1751,10 +1751,10 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
-        <v>33451</v>
+        <v>33482</v>
       </c>
       <c r="B120" t="n">
-        <v>3355000000000</v>
+        <v>3354900000000</v>
       </c>
       <c r="C120" t="n">
         <v>1</v>
@@ -1762,10 +1762,10 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
-        <v>33482</v>
+        <v>33512</v>
       </c>
       <c r="B121" t="n">
-        <v>3354900000000</v>
+        <v>3360100000000</v>
       </c>
       <c r="C121" t="n">
         <v>1</v>
@@ -1773,10 +1773,10 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
-        <v>33512</v>
+        <v>33543</v>
       </c>
       <c r="B122" t="n">
-        <v>3360100000000</v>
+        <v>3365500000000</v>
       </c>
       <c r="C122" t="n">
         <v>1</v>
@@ -1784,10 +1784,10 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
-        <v>33543</v>
+        <v>33573</v>
       </c>
       <c r="B123" t="n">
-        <v>3365500000000</v>
+        <v>3372200000000</v>
       </c>
       <c r="C123" t="n">
         <v>1</v>
@@ -1795,10 +1795,10 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
-        <v>33573</v>
+        <v>33604</v>
       </c>
       <c r="B124" t="n">
-        <v>3372200000000</v>
+        <v>3381200000000</v>
       </c>
       <c r="C124" t="n">
         <v>1</v>
@@ -1806,10 +1806,10 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
-        <v>33604</v>
+        <v>33635</v>
       </c>
       <c r="B125" t="n">
-        <v>3381200000000</v>
+        <v>3400000000000</v>
       </c>
       <c r="C125" t="n">
         <v>1</v>
@@ -1817,10 +1817,10 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
-        <v>33635</v>
+        <v>33664</v>
       </c>
       <c r="B126" t="n">
-        <v>3400000000000</v>
+        <v>3403900000000</v>
       </c>
       <c r="C126" t="n">
         <v>1</v>
@@ -1828,10 +1828,10 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="n">
-        <v>33664</v>
+        <v>33695</v>
       </c>
       <c r="B127" t="n">
-        <v>3403900000000</v>
+        <v>3399700000000</v>
       </c>
       <c r="C127" t="n">
         <v>1</v>
@@ -1839,10 +1839,10 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
-        <v>33695</v>
+        <v>33725</v>
       </c>
       <c r="B128" t="n">
-        <v>3399700000000</v>
+        <v>3398600000000</v>
       </c>
       <c r="C128" t="n">
         <v>1</v>
@@ -1850,10 +1850,10 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
-        <v>33725</v>
+        <v>33756</v>
       </c>
       <c r="B129" t="n">
-        <v>3398600000000</v>
+        <v>3393400000000</v>
       </c>
       <c r="C129" t="n">
         <v>1</v>
@@ -1861,10 +1861,10 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
-        <v>33756</v>
+        <v>33786</v>
       </c>
       <c r="B130" t="n">
-        <v>3393400000000</v>
+        <v>3393900000000</v>
       </c>
       <c r="C130" t="n">
         <v>1</v>
@@ -1872,10 +1872,10 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
-        <v>33786</v>
+        <v>33817</v>
       </c>
       <c r="B131" t="n">
-        <v>3393900000000</v>
+        <v>3398800000000</v>
       </c>
       <c r="C131" t="n">
         <v>1</v>
@@ -1883,10 +1883,10 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
-        <v>33817</v>
+        <v>33848</v>
       </c>
       <c r="B132" t="n">
-        <v>3398800000000</v>
+        <v>3410300000000</v>
       </c>
       <c r="C132" t="n">
         <v>1</v>
@@ -1894,10 +1894,10 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="n">
-        <v>33848</v>
+        <v>33878</v>
       </c>
       <c r="B133" t="n">
-        <v>3410300000000</v>
+        <v>3423800000000</v>
       </c>
       <c r="C133" t="n">
         <v>1</v>
@@ -1905,10 +1905,10 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="n">
-        <v>33878</v>
+        <v>33909</v>
       </c>
       <c r="B134" t="n">
-        <v>3423800000000</v>
+        <v>3426500000000</v>
       </c>
       <c r="C134" t="n">
         <v>1</v>
@@ -1916,10 +1916,10 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="n">
-        <v>33909</v>
+        <v>33939</v>
       </c>
       <c r="B135" t="n">
-        <v>3426500000000</v>
+        <v>3424700000000</v>
       </c>
       <c r="C135" t="n">
         <v>1</v>
@@ -1927,10 +1927,10 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="n">
-        <v>33939</v>
+        <v>33970</v>
       </c>
       <c r="B136" t="n">
-        <v>3424700000000</v>
+        <v>3419100000000</v>
       </c>
       <c r="C136" t="n">
         <v>1</v>
@@ -1938,10 +1938,10 @@
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
-        <v>33970</v>
+        <v>34001</v>
       </c>
       <c r="B137" t="n">
-        <v>3419100000000</v>
+        <v>3414500000000</v>
       </c>
       <c r="C137" t="n">
         <v>1</v>
@@ -1949,10 +1949,10 @@
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
-        <v>34001</v>
+        <v>34029</v>
       </c>
       <c r="B138" t="n">
-        <v>3414500000000</v>
+        <v>3411700000000</v>
       </c>
       <c r="C138" t="n">
         <v>1</v>
@@ -1960,10 +1960,10 @@
     </row>
     <row r="139">
       <c r="A139" s="2" t="n">
-        <v>34029</v>
+        <v>34060</v>
       </c>
       <c r="B139" t="n">
-        <v>3411700000000</v>
+        <v>3411300000000</v>
       </c>
       <c r="C139" t="n">
         <v>1</v>
@@ -1971,10 +1971,10 @@
     </row>
     <row r="140">
       <c r="A140" s="2" t="n">
-        <v>34060</v>
+        <v>34090</v>
       </c>
       <c r="B140" t="n">
-        <v>3411300000000</v>
+        <v>3436900000000</v>
       </c>
       <c r="C140" t="n">
         <v>1</v>
@@ -1982,10 +1982,10 @@
     </row>
     <row r="141">
       <c r="A141" s="2" t="n">
-        <v>34090</v>
+        <v>34121</v>
       </c>
       <c r="B141" t="n">
-        <v>3436900000000</v>
+        <v>3442400000000</v>
       </c>
       <c r="C141" t="n">
         <v>1</v>
@@ -1993,10 +1993,10 @@
     </row>
     <row r="142">
       <c r="A142" s="2" t="n">
-        <v>34121</v>
+        <v>34151</v>
       </c>
       <c r="B142" t="n">
-        <v>3442400000000</v>
+        <v>3442000000000</v>
       </c>
       <c r="C142" t="n">
         <v>1</v>
@@ -2004,10 +2004,10 @@
     </row>
     <row r="143">
       <c r="A143" s="2" t="n">
-        <v>34151</v>
+        <v>34182</v>
       </c>
       <c r="B143" t="n">
-        <v>3442000000000</v>
+        <v>3445700000000</v>
       </c>
       <c r="C143" t="n">
         <v>1</v>
@@ -2015,10 +2015,10 @@
     </row>
     <row r="144">
       <c r="A144" s="2" t="n">
-        <v>34182</v>
+        <v>34213</v>
       </c>
       <c r="B144" t="n">
-        <v>3445700000000</v>
+        <v>3452200000000</v>
       </c>
       <c r="C144" t="n">
         <v>1</v>
@@ -2026,10 +2026,10 @@
     </row>
     <row r="145">
       <c r="A145" s="2" t="n">
-        <v>34213</v>
+        <v>34243</v>
       </c>
       <c r="B145" t="n">
-        <v>3452200000000</v>
+        <v>3456700000000</v>
       </c>
       <c r="C145" t="n">
         <v>1</v>
@@ -2037,10 +2037,10 @@
     </row>
     <row r="146">
       <c r="A146" s="2" t="n">
-        <v>34243</v>
+        <v>34274</v>
       </c>
       <c r="B146" t="n">
-        <v>3456700000000</v>
+        <v>3470100000000</v>
       </c>
       <c r="C146" t="n">
         <v>1</v>
@@ -2048,10 +2048,10 @@
     </row>
     <row r="147">
       <c r="A147" s="2" t="n">
-        <v>34274</v>
+        <v>34304</v>
       </c>
       <c r="B147" t="n">
-        <v>3470100000000</v>
+        <v>3474500000000</v>
       </c>
       <c r="C147" t="n">
         <v>1</v>
@@ -2059,10 +2059,10 @@
     </row>
     <row r="148">
       <c r="A148" s="2" t="n">
-        <v>34304</v>
+        <v>34335</v>
       </c>
       <c r="B148" t="n">
-        <v>3474500000000</v>
+        <v>3474900000000</v>
       </c>
       <c r="C148" t="n">
         <v>1</v>
@@ -2070,10 +2070,10 @@
     </row>
     <row r="149">
       <c r="A149" s="2" t="n">
-        <v>34335</v>
+        <v>34366</v>
       </c>
       <c r="B149" t="n">
-        <v>3474900000000</v>
+        <v>3475700000000</v>
       </c>
       <c r="C149" t="n">
         <v>1</v>
@@ -2081,10 +2081,10 @@
     </row>
     <row r="150">
       <c r="A150" s="2" t="n">
-        <v>34366</v>
+        <v>34394</v>
       </c>
       <c r="B150" t="n">
-        <v>3475700000000</v>
+        <v>3480100000000</v>
       </c>
       <c r="C150" t="n">
         <v>1</v>
@@ -2092,10 +2092,10 @@
     </row>
     <row r="151">
       <c r="A151" s="2" t="n">
-        <v>34394</v>
+        <v>34425</v>
       </c>
       <c r="B151" t="n">
-        <v>3480100000000</v>
+        <v>3481300000000</v>
       </c>
       <c r="C151" t="n">
         <v>1</v>
@@ -2103,10 +2103,10 @@
     </row>
     <row r="152">
       <c r="A152" s="2" t="n">
-        <v>34425</v>
+        <v>34455</v>
       </c>
       <c r="B152" t="n">
-        <v>3481300000000</v>
+        <v>3490800000000</v>
       </c>
       <c r="C152" t="n">
         <v>1</v>
@@ -2114,10 +2114,10 @@
     </row>
     <row r="153">
       <c r="A153" s="2" t="n">
-        <v>34455</v>
+        <v>34486</v>
       </c>
       <c r="B153" t="n">
-        <v>3490800000000</v>
+        <v>3479500000000</v>
       </c>
       <c r="C153" t="n">
         <v>1</v>
@@ -2125,10 +2125,10 @@
     </row>
     <row r="154">
       <c r="A154" s="2" t="n">
-        <v>34486</v>
+        <v>34516</v>
       </c>
       <c r="B154" t="n">
-        <v>3479500000000</v>
+        <v>3488200000000</v>
       </c>
       <c r="C154" t="n">
         <v>1</v>
@@ -2136,10 +2136,10 @@
     </row>
     <row r="155">
       <c r="A155" s="2" t="n">
-        <v>34516</v>
+        <v>34547</v>
       </c>
       <c r="B155" t="n">
-        <v>3488200000000</v>
+        <v>3485700000000</v>
       </c>
       <c r="C155" t="n">
         <v>1</v>
@@ -2147,10 +2147,10 @@
     </row>
     <row r="156">
       <c r="A156" s="2" t="n">
-        <v>34547</v>
+        <v>34578</v>
       </c>
       <c r="B156" t="n">
-        <v>3485700000000</v>
+        <v>3486100000000</v>
       </c>
       <c r="C156" t="n">
         <v>1</v>
@@ -2158,10 +2158,10 @@
     </row>
     <row r="157">
       <c r="A157" s="2" t="n">
-        <v>34578</v>
+        <v>34608</v>
       </c>
       <c r="B157" t="n">
-        <v>3486100000000</v>
+        <v>3484300000000</v>
       </c>
       <c r="C157" t="n">
         <v>1</v>
@@ -2169,10 +2169,10 @@
     </row>
     <row r="158">
       <c r="A158" s="2" t="n">
-        <v>34608</v>
+        <v>34639</v>
       </c>
       <c r="B158" t="n">
-        <v>3484300000000</v>
+        <v>3487200000000</v>
       </c>
       <c r="C158" t="n">
         <v>1</v>
@@ -2180,10 +2180,10 @@
     </row>
     <row r="159">
       <c r="A159" s="2" t="n">
-        <v>34639</v>
+        <v>34669</v>
       </c>
       <c r="B159" t="n">
-        <v>3487200000000</v>
+        <v>3486400000000</v>
       </c>
       <c r="C159" t="n">
         <v>1</v>
@@ -2191,10 +2191,10 @@
     </row>
     <row r="160">
       <c r="A160" s="2" t="n">
-        <v>34669</v>
+        <v>34700</v>
       </c>
       <c r="B160" t="n">
-        <v>3486400000000</v>
+        <v>3492400000000</v>
       </c>
       <c r="C160" t="n">
         <v>1</v>
@@ -2202,10 +2202,10 @@
     </row>
     <row r="161">
       <c r="A161" s="2" t="n">
-        <v>34700</v>
+        <v>34731</v>
       </c>
       <c r="B161" t="n">
-        <v>3492400000000</v>
+        <v>3489900000000</v>
       </c>
       <c r="C161" t="n">
         <v>1</v>
@@ -2213,10 +2213,10 @@
     </row>
     <row r="162">
       <c r="A162" s="2" t="n">
-        <v>34731</v>
+        <v>34759</v>
       </c>
       <c r="B162" t="n">
-        <v>3489900000000</v>
+        <v>3491100000000</v>
       </c>
       <c r="C162" t="n">
         <v>1</v>
@@ -2224,10 +2224,10 @@
     </row>
     <row r="163">
       <c r="A163" s="2" t="n">
-        <v>34759</v>
+        <v>34790</v>
       </c>
       <c r="B163" t="n">
-        <v>3491100000000</v>
+        <v>3499200000000</v>
       </c>
       <c r="C163" t="n">
         <v>1</v>
@@ -2235,10 +2235,10 @@
     </row>
     <row r="164">
       <c r="A164" s="2" t="n">
-        <v>34790</v>
+        <v>34820</v>
       </c>
       <c r="B164" t="n">
-        <v>3499200000000</v>
+        <v>3524200000000</v>
       </c>
       <c r="C164" t="n">
         <v>1</v>
@@ -2246,10 +2246,10 @@
     </row>
     <row r="165">
       <c r="A165" s="2" t="n">
-        <v>34820</v>
+        <v>34851</v>
       </c>
       <c r="B165" t="n">
-        <v>3524200000000</v>
+        <v>3548900000000</v>
       </c>
       <c r="C165" t="n">
         <v>1</v>
@@ -2257,10 +2257,10 @@
     </row>
     <row r="166">
       <c r="A166" s="2" t="n">
-        <v>34851</v>
+        <v>34881</v>
       </c>
       <c r="B166" t="n">
-        <v>3548900000000</v>
+        <v>3567400000000</v>
       </c>
       <c r="C166" t="n">
         <v>1</v>
@@ -2268,10 +2268,10 @@
     </row>
     <row r="167">
       <c r="A167" s="2" t="n">
-        <v>34881</v>
+        <v>34912</v>
       </c>
       <c r="B167" t="n">
-        <v>3567400000000</v>
+        <v>3589000000000</v>
       </c>
       <c r="C167" t="n">
         <v>1</v>
@@ -2279,10 +2279,10 @@
     </row>
     <row r="168">
       <c r="A168" s="2" t="n">
-        <v>34912</v>
+        <v>34943</v>
       </c>
       <c r="B168" t="n">
-        <v>3589000000000</v>
+        <v>3602100000000</v>
       </c>
       <c r="C168" t="n">
         <v>1</v>
@@ -2290,10 +2290,10 @@
     </row>
     <row r="169">
       <c r="A169" s="2" t="n">
-        <v>34943</v>
+        <v>34973</v>
       </c>
       <c r="B169" t="n">
-        <v>3602100000000</v>
+        <v>3613400000000</v>
       </c>
       <c r="C169" t="n">
         <v>1</v>
@@ -2301,10 +2301,10 @@
     </row>
     <row r="170">
       <c r="A170" s="2" t="n">
-        <v>34973</v>
+        <v>35004</v>
       </c>
       <c r="B170" t="n">
-        <v>3613400000000</v>
+        <v>3619900000000</v>
       </c>
       <c r="C170" t="n">
         <v>1</v>
@@ -2312,10 +2312,10 @@
     </row>
     <row r="171">
       <c r="A171" s="2" t="n">
-        <v>35004</v>
+        <v>35034</v>
       </c>
       <c r="B171" t="n">
-        <v>3619900000000</v>
+        <v>3629500000000</v>
       </c>
       <c r="C171" t="n">
         <v>1</v>
@@ -2323,10 +2323,10 @@
     </row>
     <row r="172">
       <c r="A172" s="2" t="n">
-        <v>35034</v>
+        <v>35065</v>
       </c>
       <c r="B172" t="n">
-        <v>3629500000000</v>
+        <v>3647900000000</v>
       </c>
       <c r="C172" t="n">
         <v>1</v>
@@ -2334,10 +2334,10 @@
     </row>
     <row r="173">
       <c r="A173" s="2" t="n">
-        <v>35065</v>
+        <v>35096</v>
       </c>
       <c r="B173" t="n">
-        <v>3647900000000</v>
+        <v>3661800000000</v>
       </c>
       <c r="C173" t="n">
         <v>1</v>
@@ -2345,10 +2345,10 @@
     </row>
     <row r="174">
       <c r="A174" s="2" t="n">
-        <v>35096</v>
+        <v>35125</v>
       </c>
       <c r="B174" t="n">
-        <v>3661800000000</v>
+        <v>3686900000000</v>
       </c>
       <c r="C174" t="n">
         <v>1</v>
@@ -2356,10 +2356,10 @@
     </row>
     <row r="175">
       <c r="A175" s="2" t="n">
-        <v>35125</v>
+        <v>35156</v>
       </c>
       <c r="B175" t="n">
-        <v>3686900000000</v>
+        <v>3697700000000</v>
       </c>
       <c r="C175" t="n">
         <v>1</v>
@@ -2367,10 +2367,10 @@
     </row>
     <row r="176">
       <c r="A176" s="2" t="n">
-        <v>35156</v>
+        <v>35186</v>
       </c>
       <c r="B176" t="n">
-        <v>3697700000000</v>
+        <v>3709600000000</v>
       </c>
       <c r="C176" t="n">
         <v>1</v>
@@ -2378,10 +2378,10 @@
     </row>
     <row r="177">
       <c r="A177" s="2" t="n">
-        <v>35186</v>
+        <v>35217</v>
       </c>
       <c r="B177" t="n">
-        <v>3709600000000</v>
+        <v>3722500000000</v>
       </c>
       <c r="C177" t="n">
         <v>1</v>
@@ -2389,10 +2389,10 @@
     </row>
     <row r="178">
       <c r="A178" s="2" t="n">
-        <v>35217</v>
+        <v>35247</v>
       </c>
       <c r="B178" t="n">
-        <v>3722500000000</v>
+        <v>3737100000000</v>
       </c>
       <c r="C178" t="n">
         <v>1</v>
@@ -2400,10 +2400,10 @@
     </row>
     <row r="179">
       <c r="A179" s="2" t="n">
-        <v>35247</v>
+        <v>35278</v>
       </c>
       <c r="B179" t="n">
-        <v>3737100000000</v>
+        <v>3744000000000</v>
       </c>
       <c r="C179" t="n">
         <v>1</v>
@@ -2411,10 +2411,10 @@
     </row>
     <row r="180">
       <c r="A180" s="2" t="n">
-        <v>35278</v>
+        <v>35309</v>
       </c>
       <c r="B180" t="n">
-        <v>3744000000000</v>
+        <v>3753400000000</v>
       </c>
       <c r="C180" t="n">
         <v>1</v>
@@ -2422,10 +2422,10 @@
     </row>
     <row r="181">
       <c r="A181" s="2" t="n">
-        <v>35309</v>
+        <v>35339</v>
       </c>
       <c r="B181" t="n">
-        <v>3753400000000</v>
+        <v>3772800000000</v>
       </c>
       <c r="C181" t="n">
         <v>1</v>
@@ -2433,10 +2433,10 @@
     </row>
     <row r="182">
       <c r="A182" s="2" t="n">
-        <v>35339</v>
+        <v>35370</v>
       </c>
       <c r="B182" t="n">
-        <v>3772800000000</v>
+        <v>3795100000000</v>
       </c>
       <c r="C182" t="n">
         <v>1</v>
@@ -2444,10 +2444,10 @@
     </row>
     <row r="183">
       <c r="A183" s="2" t="n">
-        <v>35370</v>
+        <v>35400</v>
       </c>
       <c r="B183" t="n">
-        <v>3795100000000</v>
+        <v>3818600000000</v>
       </c>
       <c r="C183" t="n">
         <v>1</v>
@@ -2455,10 +2455,10 @@
     </row>
     <row r="184">
       <c r="A184" s="2" t="n">
-        <v>35400</v>
+        <v>35431</v>
       </c>
       <c r="B184" t="n">
-        <v>3818600000000</v>
+        <v>3834600000000</v>
       </c>
       <c r="C184" t="n">
         <v>1</v>
@@ -2466,10 +2466,10 @@
     </row>
     <row r="185">
       <c r="A185" s="2" t="n">
-        <v>35431</v>
+        <v>35462</v>
       </c>
       <c r="B185" t="n">
-        <v>3834600000000</v>
+        <v>3846300000000</v>
       </c>
       <c r="C185" t="n">
         <v>1</v>
@@ -2477,10 +2477,10 @@
     </row>
     <row r="186">
       <c r="A186" s="2" t="n">
-        <v>35462</v>
+        <v>35490</v>
       </c>
       <c r="B186" t="n">
-        <v>3846300000000</v>
+        <v>3861200000000</v>
       </c>
       <c r="C186" t="n">
         <v>1</v>
@@ -2488,10 +2488,10 @@
     </row>
     <row r="187">
       <c r="A187" s="2" t="n">
-        <v>35490</v>
+        <v>35521</v>
       </c>
       <c r="B187" t="n">
-        <v>3861200000000</v>
+        <v>3877000000000</v>
       </c>
       <c r="C187" t="n">
         <v>1</v>
@@ -2499,10 +2499,10 @@
     </row>
     <row r="188">
       <c r="A188" s="2" t="n">
-        <v>35521</v>
+        <v>35551</v>
       </c>
       <c r="B188" t="n">
-        <v>3877000000000</v>
+        <v>3889200000000</v>
       </c>
       <c r="C188" t="n">
         <v>1</v>
@@ -2510,10 +2510,10 @@
     </row>
     <row r="189">
       <c r="A189" s="2" t="n">
-        <v>35551</v>
+        <v>35582</v>
       </c>
       <c r="B189" t="n">
-        <v>3889200000000</v>
+        <v>3906000000000</v>
       </c>
       <c r="C189" t="n">
         <v>1</v>
@@ -2521,10 +2521,10 @@
     </row>
     <row r="190">
       <c r="A190" s="2" t="n">
-        <v>35582</v>
+        <v>35612</v>
       </c>
       <c r="B190" t="n">
-        <v>3906000000000</v>
+        <v>3923900000000</v>
       </c>
       <c r="C190" t="n">
         <v>1</v>
@@ -2532,10 +2532,10 @@
     </row>
     <row r="191">
       <c r="A191" s="2" t="n">
-        <v>35612</v>
+        <v>35643</v>
       </c>
       <c r="B191" t="n">
-        <v>3923900000000</v>
+        <v>3957400000000</v>
       </c>
       <c r="C191" t="n">
         <v>1</v>
@@ -2543,10 +2543,10 @@
     </row>
     <row r="192">
       <c r="A192" s="2" t="n">
-        <v>35643</v>
+        <v>35674</v>
       </c>
       <c r="B192" t="n">
-        <v>3957400000000</v>
+        <v>3973100000000</v>
       </c>
       <c r="C192" t="n">
         <v>1</v>
@@ -2554,10 +2554,10 @@
     </row>
     <row r="193">
       <c r="A193" s="2" t="n">
-        <v>35674</v>
+        <v>35704</v>
       </c>
       <c r="B193" t="n">
-        <v>3973100000000</v>
+        <v>3992300000000</v>
       </c>
       <c r="C193" t="n">
         <v>1</v>
@@ -2565,10 +2565,10 @@
     </row>
     <row r="194">
       <c r="A194" s="2" t="n">
-        <v>35704</v>
+        <v>35735</v>
       </c>
       <c r="B194" t="n">
-        <v>3992300000000</v>
+        <v>4014800000000</v>
       </c>
       <c r="C194" t="n">
         <v>1</v>
@@ -2576,10 +2576,10 @@
     </row>
     <row r="195">
       <c r="A195" s="2" t="n">
-        <v>35735</v>
+        <v>35765</v>
       </c>
       <c r="B195" t="n">
-        <v>4014800000000</v>
+        <v>4032900000000</v>
       </c>
       <c r="C195" t="n">
         <v>1</v>
@@ -2587,10 +2587,10 @@
     </row>
     <row r="196">
       <c r="A196" s="2" t="n">
-        <v>35765</v>
+        <v>35796</v>
       </c>
       <c r="B196" t="n">
-        <v>4032900000000</v>
+        <v>4056200000000</v>
       </c>
       <c r="C196" t="n">
         <v>1</v>
@@ -2598,10 +2598,10 @@
     </row>
     <row r="197">
       <c r="A197" s="2" t="n">
-        <v>35796</v>
+        <v>35827</v>
       </c>
       <c r="B197" t="n">
-        <v>4056200000000</v>
+        <v>4088900000000</v>
       </c>
       <c r="C197" t="n">
         <v>1</v>
@@ -2609,10 +2609,10 @@
     </row>
     <row r="198">
       <c r="A198" s="2" t="n">
-        <v>35827</v>
+        <v>35855</v>
       </c>
       <c r="B198" t="n">
-        <v>4088900000000</v>
+        <v>4114300000000</v>
       </c>
       <c r="C198" t="n">
         <v>1</v>
@@ -2620,10 +2620,10 @@
     </row>
     <row r="199">
       <c r="A199" s="2" t="n">
-        <v>35855</v>
+        <v>35886</v>
       </c>
       <c r="B199" t="n">
-        <v>4114300000000</v>
+        <v>4140200000000</v>
       </c>
       <c r="C199" t="n">
         <v>1</v>
@@ -2631,10 +2631,10 @@
     </row>
     <row r="200">
       <c r="A200" s="2" t="n">
-        <v>35886</v>
+        <v>35916</v>
       </c>
       <c r="B200" t="n">
-        <v>4140200000000</v>
+        <v>4164400000000</v>
       </c>
       <c r="C200" t="n">
         <v>1</v>
@@ -2642,10 +2642,10 @@
     </row>
     <row r="201">
       <c r="A201" s="2" t="n">
-        <v>35916</v>
+        <v>35947</v>
       </c>
       <c r="B201" t="n">
-        <v>4164400000000</v>
+        <v>4184100000000</v>
       </c>
       <c r="C201" t="n">
         <v>1</v>
@@ -2653,10 +2653,10 @@
     </row>
     <row r="202">
       <c r="A202" s="2" t="n">
-        <v>35947</v>
+        <v>35977</v>
       </c>
       <c r="B202" t="n">
-        <v>4184100000000</v>
+        <v>4203800000000</v>
       </c>
       <c r="C202" t="n">
         <v>1</v>
@@ -2664,10 +2664,10 @@
     </row>
     <row r="203">
       <c r="A203" s="2" t="n">
-        <v>35977</v>
+        <v>36008</v>
       </c>
       <c r="B203" t="n">
-        <v>4203800000000</v>
+        <v>4228700000000</v>
       </c>
       <c r="C203" t="n">
         <v>1</v>
@@ -2675,10 +2675,10 @@
     </row>
     <row r="204">
       <c r="A204" s="2" t="n">
-        <v>36008</v>
+        <v>36039</v>
       </c>
       <c r="B204" t="n">
-        <v>4228700000000</v>
+        <v>4267600000000</v>
       </c>
       <c r="C204" t="n">
         <v>1</v>
@@ -2686,10 +2686,10 @@
     </row>
     <row r="205">
       <c r="A205" s="2" t="n">
-        <v>36039</v>
+        <v>36069</v>
       </c>
       <c r="B205" t="n">
-        <v>4267600000000</v>
+        <v>4307700000000</v>
       </c>
       <c r="C205" t="n">
         <v>1</v>
@@ -2697,10 +2697,10 @@
     </row>
     <row r="206">
       <c r="A206" s="2" t="n">
-        <v>36069</v>
+        <v>36100</v>
       </c>
       <c r="B206" t="n">
-        <v>4307700000000</v>
+        <v>4346400000000</v>
       </c>
       <c r="C206" t="n">
         <v>1</v>
@@ -2708,10 +2708,10 @@
     </row>
     <row r="207">
       <c r="A207" s="2" t="n">
-        <v>36100</v>
+        <v>36130</v>
       </c>
       <c r="B207" t="n">
-        <v>4346400000000</v>
+        <v>4375200000000</v>
       </c>
       <c r="C207" t="n">
         <v>1</v>
@@ -2719,10 +2719,10 @@
     </row>
     <row r="208">
       <c r="A208" s="2" t="n">
-        <v>36130</v>
+        <v>36161</v>
       </c>
       <c r="B208" t="n">
-        <v>4375200000000</v>
+        <v>4402600000000</v>
       </c>
       <c r="C208" t="n">
         <v>1</v>
@@ -2730,10 +2730,10 @@
     </row>
     <row r="209">
       <c r="A209" s="2" t="n">
-        <v>36161</v>
+        <v>36192</v>
       </c>
       <c r="B209" t="n">
-        <v>4402600000000</v>
+        <v>4425300000000</v>
       </c>
       <c r="C209" t="n">
         <v>1</v>
@@ -2741,10 +2741,10 @@
     </row>
     <row r="210">
       <c r="A210" s="2" t="n">
-        <v>36192</v>
+        <v>36220</v>
       </c>
       <c r="B210" t="n">
-        <v>4425300000000</v>
+        <v>4432100000000</v>
       </c>
       <c r="C210" t="n">
         <v>1</v>
@@ -2752,10 +2752,10 @@
     </row>
     <row r="211">
       <c r="A211" s="2" t="n">
-        <v>36220</v>
+        <v>36251</v>
       </c>
       <c r="B211" t="n">
-        <v>4432100000000</v>
+        <v>4460700000000</v>
       </c>
       <c r="C211" t="n">
         <v>1</v>
@@ -2763,10 +2763,10 @@
     </row>
     <row r="212">
       <c r="A212" s="2" t="n">
-        <v>36251</v>
+        <v>36281</v>
       </c>
       <c r="B212" t="n">
-        <v>4460700000000</v>
+        <v>4485300000000</v>
       </c>
       <c r="C212" t="n">
         <v>1</v>
@@ -2774,10 +2774,10 @@
     </row>
     <row r="213">
       <c r="A213" s="2" t="n">
-        <v>36281</v>
+        <v>36312</v>
       </c>
       <c r="B213" t="n">
-        <v>4485300000000</v>
+        <v>4507200000000</v>
       </c>
       <c r="C213" t="n">
         <v>1</v>
@@ -2785,10 +2785,10 @@
     </row>
     <row r="214">
       <c r="A214" s="2" t="n">
-        <v>36312</v>
+        <v>36342</v>
       </c>
       <c r="B214" t="n">
-        <v>4507200000000</v>
+        <v>4534500000000</v>
       </c>
       <c r="C214" t="n">
         <v>1</v>
@@ -2796,10 +2796,10 @@
     </row>
     <row r="215">
       <c r="A215" s="2" t="n">
-        <v>36342</v>
+        <v>36373</v>
       </c>
       <c r="B215" t="n">
-        <v>4534500000000</v>
+        <v>4551700000000</v>
       </c>
       <c r="C215" t="n">
         <v>1</v>
@@ -2807,10 +2807,10 @@
     </row>
     <row r="216">
       <c r="A216" s="2" t="n">
-        <v>36373</v>
+        <v>36404</v>
       </c>
       <c r="B216" t="n">
-        <v>4551700000000</v>
+        <v>4567700000000</v>
       </c>
       <c r="C216" t="n">
         <v>1</v>
@@ -2818,10 +2818,10 @@
     </row>
     <row r="217">
       <c r="A217" s="2" t="n">
-        <v>36404</v>
+        <v>36434</v>
       </c>
       <c r="B217" t="n">
-        <v>4567700000000</v>
+        <v>4591500000000</v>
       </c>
       <c r="C217" t="n">
         <v>1</v>
@@ -2829,10 +2829,10 @@
     </row>
     <row r="218">
       <c r="A218" s="2" t="n">
-        <v>36434</v>
+        <v>36465</v>
       </c>
       <c r="B218" t="n">
-        <v>4591500000000</v>
+        <v>4610500000000</v>
       </c>
       <c r="C218" t="n">
         <v>1</v>
@@ -2840,10 +2840,10 @@
     </row>
     <row r="219">
       <c r="A219" s="2" t="n">
-        <v>36465</v>
+        <v>36495</v>
       </c>
       <c r="B219" t="n">
-        <v>4610500000000</v>
+        <v>4638000000000</v>
       </c>
       <c r="C219" t="n">
         <v>1</v>
@@ -2851,10 +2851,10 @@
     </row>
     <row r="220">
       <c r="A220" s="2" t="n">
-        <v>36495</v>
+        <v>36526</v>
       </c>
       <c r="B220" t="n">
-        <v>4638000000000</v>
+        <v>4666200000000</v>
       </c>
       <c r="C220" t="n">
         <v>1</v>
@@ -2862,10 +2862,10 @@
     </row>
     <row r="221">
       <c r="A221" s="2" t="n">
-        <v>36526</v>
+        <v>36557</v>
       </c>
       <c r="B221" t="n">
-        <v>4666200000000</v>
+        <v>4679400000000</v>
       </c>
       <c r="C221" t="n">
         <v>1</v>
@@ -2873,10 +2873,10 @@
     </row>
     <row r="222">
       <c r="A222" s="2" t="n">
-        <v>36557</v>
+        <v>36586</v>
       </c>
       <c r="B222" t="n">
-        <v>4679400000000</v>
+        <v>4710200000000</v>
       </c>
       <c r="C222" t="n">
         <v>1</v>
@@ -2884,10 +2884,10 @@
     </row>
     <row r="223">
       <c r="A223" s="2" t="n">
-        <v>36586</v>
+        <v>36617</v>
       </c>
       <c r="B223" t="n">
-        <v>4710200000000</v>
+        <v>4766100000000</v>
       </c>
       <c r="C223" t="n">
         <v>1</v>
@@ -2895,10 +2895,10 @@
     </row>
     <row r="224">
       <c r="A224" s="2" t="n">
-        <v>36617</v>
+        <v>36647</v>
       </c>
       <c r="B224" t="n">
-        <v>4766100000000</v>
+        <v>4753900000000</v>
       </c>
       <c r="C224" t="n">
         <v>1</v>
@@ -2906,10 +2906,10 @@
     </row>
     <row r="225">
       <c r="A225" s="2" t="n">
-        <v>36647</v>
+        <v>36678</v>
       </c>
       <c r="B225" t="n">
-        <v>4753900000000</v>
+        <v>4771800000000</v>
       </c>
       <c r="C225" t="n">
         <v>1</v>
@@ -2917,10 +2917,10 @@
     </row>
     <row r="226">
       <c r="A226" s="2" t="n">
-        <v>36678</v>
+        <v>36708</v>
       </c>
       <c r="B226" t="n">
-        <v>4771800000000</v>
+        <v>4789400000000</v>
       </c>
       <c r="C226" t="n">
         <v>1</v>
@@ -2928,10 +2928,10 @@
     </row>
     <row r="227">
       <c r="A227" s="2" t="n">
-        <v>36708</v>
+        <v>36739</v>
       </c>
       <c r="B227" t="n">
-        <v>4789400000000</v>
+        <v>4817500000000</v>
       </c>
       <c r="C227" t="n">
         <v>1</v>
@@ -2939,10 +2939,10 @@
     </row>
     <row r="228">
       <c r="A228" s="2" t="n">
-        <v>36739</v>
+        <v>36770</v>
       </c>
       <c r="B228" t="n">
-        <v>4817500000000</v>
+        <v>4853200000000</v>
       </c>
       <c r="C228" t="n">
         <v>1</v>
@@ -2950,10 +2950,10 @@
     </row>
     <row r="229">
       <c r="A229" s="2" t="n">
-        <v>36770</v>
+        <v>36800</v>
       </c>
       <c r="B229" t="n">
-        <v>4853200000000</v>
+        <v>4869200000000</v>
       </c>
       <c r="C229" t="n">
         <v>1</v>
@@ -2961,10 +2961,10 @@
     </row>
     <row r="230">
       <c r="A230" s="2" t="n">
-        <v>36800</v>
+        <v>36831</v>
       </c>
       <c r="B230" t="n">
-        <v>4869200000000</v>
+        <v>4880300000000</v>
       </c>
       <c r="C230" t="n">
         <v>1</v>
@@ -2972,10 +2972,10 @@
     </row>
     <row r="231">
       <c r="A231" s="2" t="n">
-        <v>36831</v>
+        <v>36861</v>
       </c>
       <c r="B231" t="n">
-        <v>4880300000000</v>
+        <v>4925000000000</v>
       </c>
       <c r="C231" t="n">
         <v>1</v>
@@ -2983,10 +2983,10 @@
     </row>
     <row r="232">
       <c r="A232" s="2" t="n">
-        <v>36861</v>
+        <v>36892</v>
       </c>
       <c r="B232" t="n">
-        <v>4925000000000</v>
+        <v>4975700000000</v>
       </c>
       <c r="C232" t="n">
         <v>1</v>
@@ -2994,10 +2994,10 @@
     </row>
     <row r="233">
       <c r="A233" s="2" t="n">
-        <v>36892</v>
+        <v>36923</v>
       </c>
       <c r="B233" t="n">
-        <v>4975700000000</v>
+        <v>5014100000000</v>
       </c>
       <c r="C233" t="n">
         <v>1</v>
@@ -3005,10 +3005,10 @@
     </row>
     <row r="234">
       <c r="A234" s="2" t="n">
-        <v>36923</v>
+        <v>36951</v>
       </c>
       <c r="B234" t="n">
-        <v>5014100000000</v>
+        <v>5072000000000</v>
       </c>
       <c r="C234" t="n">
         <v>1</v>
@@ -3016,10 +3016,10 @@
     </row>
     <row r="235">
       <c r="A235" s="2" t="n">
-        <v>36951</v>
+        <v>36982</v>
       </c>
       <c r="B235" t="n">
-        <v>5072000000000</v>
+        <v>5135900000000</v>
       </c>
       <c r="C235" t="n">
         <v>1</v>
@@ -3027,10 +3027,10 @@
     </row>
     <row r="236">
       <c r="A236" s="2" t="n">
-        <v>36982</v>
+        <v>37012</v>
       </c>
       <c r="B236" t="n">
-        <v>5135900000000</v>
+        <v>5133000000000</v>
       </c>
       <c r="C236" t="n">
         <v>1</v>
@@ -3038,10 +3038,10 @@
     </row>
     <row r="237">
       <c r="A237" s="2" t="n">
-        <v>37012</v>
+        <v>37043</v>
       </c>
       <c r="B237" t="n">
-        <v>5133000000000</v>
+        <v>5173500000000</v>
       </c>
       <c r="C237" t="n">
         <v>1</v>
@@ -3049,10 +3049,10 @@
     </row>
     <row r="238">
       <c r="A238" s="2" t="n">
-        <v>37043</v>
+        <v>37073</v>
       </c>
       <c r="B238" t="n">
-        <v>5173500000000</v>
+        <v>5203400000000</v>
       </c>
       <c r="C238" t="n">
         <v>1</v>
@@ -3060,10 +3060,10 @@
     </row>
     <row r="239">
       <c r="A239" s="2" t="n">
-        <v>37073</v>
+        <v>37104</v>
       </c>
       <c r="B239" t="n">
-        <v>5203400000000</v>
+        <v>5237200000000</v>
       </c>
       <c r="C239" t="n">
         <v>1</v>
@@ -3071,10 +3071,10 @@
     </row>
     <row r="240">
       <c r="A240" s="2" t="n">
-        <v>37104</v>
+        <v>37135</v>
       </c>
       <c r="B240" t="n">
-        <v>5237200000000</v>
+        <v>5348400000000</v>
       </c>
       <c r="C240" t="n">
         <v>1</v>
@@ -3082,10 +3082,10 @@
     </row>
     <row r="241">
       <c r="A241" s="2" t="n">
-        <v>37135</v>
+        <v>37165</v>
       </c>
       <c r="B241" t="n">
-        <v>5348400000000</v>
+        <v>5337100000000</v>
       </c>
       <c r="C241" t="n">
         <v>1</v>
@@ -3093,10 +3093,10 @@
     </row>
     <row r="242">
       <c r="A242" s="2" t="n">
-        <v>37165</v>
+        <v>37196</v>
       </c>
       <c r="B242" t="n">
-        <v>5337100000000</v>
+        <v>5380800000000</v>
       </c>
       <c r="C242" t="n">
         <v>1</v>
@@ -3104,10 +3104,10 @@
     </row>
     <row r="243">
       <c r="A243" s="2" t="n">
-        <v>37196</v>
+        <v>37226</v>
       </c>
       <c r="B243" t="n">
-        <v>5380800000000</v>
+        <v>5433800000000</v>
       </c>
       <c r="C243" t="n">
         <v>1</v>
@@ -3115,10 +3115,10 @@
     </row>
     <row r="244">
       <c r="A244" s="2" t="n">
-        <v>37226</v>
+        <v>37257</v>
       </c>
       <c r="B244" t="n">
-        <v>5433800000000</v>
+        <v>5454100000000</v>
       </c>
       <c r="C244" t="n">
         <v>1</v>
@@ -3126,10 +3126,10 @@
     </row>
     <row r="245">
       <c r="A245" s="2" t="n">
-        <v>37257</v>
+        <v>37288</v>
       </c>
       <c r="B245" t="n">
-        <v>5454100000000</v>
+        <v>5483400000000</v>
       </c>
       <c r="C245" t="n">
         <v>1</v>
@@ -3137,10 +3137,10 @@
     </row>
     <row r="246">
       <c r="A246" s="2" t="n">
-        <v>37288</v>
+        <v>37316</v>
       </c>
       <c r="B246" t="n">
-        <v>5483400000000</v>
+        <v>5495200000000</v>
       </c>
       <c r="C246" t="n">
         <v>1</v>
@@ -3148,10 +3148,10 @@
     </row>
     <row r="247">
       <c r="A247" s="2" t="n">
-        <v>37316</v>
+        <v>37347</v>
       </c>
       <c r="B247" t="n">
-        <v>5495200000000</v>
+        <v>5495400000000</v>
       </c>
       <c r="C247" t="n">
         <v>1</v>
@@ -3159,10 +3159,10 @@
     </row>
     <row r="248">
       <c r="A248" s="2" t="n">
-        <v>37347</v>
+        <v>37377</v>
       </c>
       <c r="B248" t="n">
-        <v>5495400000000</v>
+        <v>5521500000000</v>
       </c>
       <c r="C248" t="n">
         <v>1</v>
@@ -3170,10 +3170,10 @@
     </row>
     <row r="249">
       <c r="A249" s="2" t="n">
-        <v>37377</v>
+        <v>37408</v>
       </c>
       <c r="B249" t="n">
-        <v>5521500000000</v>
+        <v>5546500000000</v>
       </c>
       <c r="C249" t="n">
         <v>1</v>
@@ -3181,10 +3181,10 @@
     </row>
     <row r="250">
       <c r="A250" s="2" t="n">
-        <v>37408</v>
+        <v>37438</v>
       </c>
       <c r="B250" t="n">
-        <v>5546500000000</v>
+        <v>5589100000000</v>
       </c>
       <c r="C250" t="n">
         <v>1</v>
@@ -3192,10 +3192,10 @@
     </row>
     <row r="251">
       <c r="A251" s="2" t="n">
-        <v>37438</v>
+        <v>37469</v>
       </c>
       <c r="B251" t="n">
-        <v>5589100000000</v>
+        <v>5631600000000</v>
       </c>
       <c r="C251" t="n">
         <v>1</v>
@@ -3203,10 +3203,10 @@
     </row>
     <row r="252">
       <c r="A252" s="2" t="n">
-        <v>37469</v>
+        <v>37500</v>
       </c>
       <c r="B252" t="n">
-        <v>5631600000000</v>
+        <v>5656000000000</v>
       </c>
       <c r="C252" t="n">
         <v>1</v>
@@ -3214,10 +3214,10 @@
     </row>
     <row r="253">
       <c r="A253" s="2" t="n">
-        <v>37500</v>
+        <v>37530</v>
       </c>
       <c r="B253" t="n">
-        <v>5656000000000</v>
+        <v>5700400000000</v>
       </c>
       <c r="C253" t="n">
         <v>1</v>
@@ -3225,10 +3225,10 @@
     </row>
     <row r="254">
       <c r="A254" s="2" t="n">
-        <v>37530</v>
+        <v>37561</v>
       </c>
       <c r="B254" t="n">
-        <v>5700400000000</v>
+        <v>5750600000000</v>
       </c>
       <c r="C254" t="n">
         <v>1</v>
@@ -3236,10 +3236,10 @@
     </row>
     <row r="255">
       <c r="A255" s="2" t="n">
-        <v>37561</v>
+        <v>37591</v>
       </c>
       <c r="B255" t="n">
-        <v>5750600000000</v>
+        <v>5772000000000</v>
       </c>
       <c r="C255" t="n">
         <v>1</v>
@@ -3247,10 +3247,10 @@
     </row>
     <row r="256">
       <c r="A256" s="2" t="n">
-        <v>37591</v>
+        <v>37622</v>
       </c>
       <c r="B256" t="n">
-        <v>5772000000000</v>
+        <v>5804600000000</v>
       </c>
       <c r="C256" t="n">
         <v>1</v>
@@ -3258,10 +3258,10 @@
     </row>
     <row r="257">
       <c r="A257" s="2" t="n">
-        <v>37622</v>
+        <v>37653</v>
       </c>
       <c r="B257" t="n">
-        <v>5804600000000</v>
+        <v>5840700000000</v>
       </c>
       <c r="C257" t="n">
         <v>1</v>
@@ -3269,10 +3269,10 @@
     </row>
     <row r="258">
       <c r="A258" s="2" t="n">
-        <v>37653</v>
+        <v>37681</v>
       </c>
       <c r="B258" t="n">
-        <v>5840700000000</v>
+        <v>5861400000000</v>
       </c>
       <c r="C258" t="n">
         <v>1</v>
@@ -3280,10 +3280,10 @@
     </row>
     <row r="259">
       <c r="A259" s="2" t="n">
-        <v>37681</v>
+        <v>37712</v>
       </c>
       <c r="B259" t="n">
-        <v>5861400000000</v>
+        <v>5898800000000</v>
       </c>
       <c r="C259" t="n">
         <v>1</v>
@@ -3291,10 +3291,10 @@
     </row>
     <row r="260">
       <c r="A260" s="2" t="n">
-        <v>37712</v>
+        <v>37742</v>
       </c>
       <c r="B260" t="n">
-        <v>5898800000000</v>
+        <v>5959300000000</v>
       </c>
       <c r="C260" t="n">
         <v>1</v>
@@ -3302,10 +3302,10 @@
     </row>
     <row r="261">
       <c r="A261" s="2" t="n">
-        <v>37742</v>
+        <v>37773</v>
       </c>
       <c r="B261" t="n">
-        <v>5959300000000</v>
+        <v>5996000000000</v>
       </c>
       <c r="C261" t="n">
         <v>1</v>
@@ -3313,10 +3313,10 @@
     </row>
     <row r="262">
       <c r="A262" s="2" t="n">
-        <v>37773</v>
+        <v>37803</v>
       </c>
       <c r="B262" t="n">
-        <v>5996000000000</v>
+        <v>6042700000000</v>
       </c>
       <c r="C262" t="n">
         <v>1</v>
@@ -3324,10 +3324,10 @@
     </row>
     <row r="263">
       <c r="A263" s="2" t="n">
-        <v>37803</v>
+        <v>37834</v>
       </c>
       <c r="B263" t="n">
-        <v>6042700000000</v>
+        <v>6100800000000</v>
       </c>
       <c r="C263" t="n">
         <v>1</v>
@@ -3335,10 +3335,10 @@
     </row>
     <row r="264">
       <c r="A264" s="2" t="n">
-        <v>37834</v>
+        <v>37865</v>
       </c>
       <c r="B264" t="n">
-        <v>6100800000000</v>
+        <v>6072800000000</v>
       </c>
       <c r="C264" t="n">
         <v>1</v>
@@ -3346,10 +3346,10 @@
     </row>
     <row r="265">
       <c r="A265" s="2" t="n">
-        <v>37865</v>
+        <v>37895</v>
       </c>
       <c r="B265" t="n">
-        <v>6072800000000</v>
+        <v>6063600000000</v>
       </c>
       <c r="C265" t="n">
         <v>1</v>
@@ -3357,10 +3357,10 @@
     </row>
     <row r="266">
       <c r="A266" s="2" t="n">
-        <v>37895</v>
+        <v>37926</v>
       </c>
       <c r="B266" t="n">
-        <v>6063600000000</v>
+        <v>6069100000000</v>
       </c>
       <c r="C266" t="n">
         <v>1</v>
@@ -3368,10 +3368,10 @@
     </row>
     <row r="267">
       <c r="A267" s="2" t="n">
-        <v>37926</v>
+        <v>37956</v>
       </c>
       <c r="B267" t="n">
-        <v>6069100000000</v>
+        <v>6067300000000</v>
       </c>
       <c r="C267" t="n">
         <v>1</v>
@@ -3379,10 +3379,10 @@
     </row>
     <row r="268">
       <c r="A268" s="2" t="n">
-        <v>37956</v>
+        <v>37987</v>
       </c>
       <c r="B268" t="n">
-        <v>6067300000000</v>
+        <v>6075500000000</v>
       </c>
       <c r="C268" t="n">
         <v>1</v>
@@ -3390,10 +3390,10 @@
     </row>
     <row r="269">
       <c r="A269" s="2" t="n">
-        <v>37987</v>
+        <v>38018</v>
       </c>
       <c r="B269" t="n">
-        <v>6075500000000</v>
+        <v>6114300000000</v>
       </c>
       <c r="C269" t="n">
         <v>1</v>
@@ -3401,10 +3401,10 @@
     </row>
     <row r="270">
       <c r="A270" s="2" t="n">
-        <v>38018</v>
+        <v>38047</v>
       </c>
       <c r="B270" t="n">
-        <v>6114300000000</v>
+        <v>6150100000000</v>
       </c>
       <c r="C270" t="n">
         <v>1</v>
@@ -3412,10 +3412,10 @@
     </row>
     <row r="271">
       <c r="A271" s="2" t="n">
-        <v>38047</v>
+        <v>38078</v>
       </c>
       <c r="B271" t="n">
-        <v>6150100000000</v>
+        <v>6191200000000</v>
       </c>
       <c r="C271" t="n">
         <v>1</v>
@@ -3423,10 +3423,10 @@
     </row>
     <row r="272">
       <c r="A272" s="2" t="n">
-        <v>38078</v>
+        <v>38108</v>
       </c>
       <c r="B272" t="n">
-        <v>6191200000000</v>
+        <v>6268100000000</v>
       </c>
       <c r="C272" t="n">
         <v>1</v>
@@ -3434,10 +3434,10 @@
     </row>
     <row r="273">
       <c r="A273" s="2" t="n">
-        <v>38108</v>
+        <v>38139</v>
       </c>
       <c r="B273" t="n">
-        <v>6268100000000</v>
+        <v>6270500000000</v>
       </c>
       <c r="C273" t="n">
         <v>1</v>
@@ -3445,10 +3445,10 @@
     </row>
     <row r="274">
       <c r="A274" s="2" t="n">
-        <v>38139</v>
+        <v>38169</v>
       </c>
       <c r="B274" t="n">
-        <v>6270500000000</v>
+        <v>6284300000000</v>
       </c>
       <c r="C274" t="n">
         <v>1</v>
@@ -3456,10 +3456,10 @@
     </row>
     <row r="275">
       <c r="A275" s="2" t="n">
-        <v>38169</v>
+        <v>38200</v>
       </c>
       <c r="B275" t="n">
-        <v>6284300000000</v>
+        <v>6310600000000</v>
       </c>
       <c r="C275" t="n">
         <v>1</v>
@@ -3467,10 +3467,10 @@
     </row>
     <row r="276">
       <c r="A276" s="2" t="n">
-        <v>38200</v>
+        <v>38231</v>
       </c>
       <c r="B276" t="n">
-        <v>6310600000000</v>
+        <v>6345300000000</v>
       </c>
       <c r="C276" t="n">
         <v>1</v>
@@ -3478,10 +3478,10 @@
     </row>
     <row r="277">
       <c r="A277" s="2" t="n">
-        <v>38231</v>
+        <v>38261</v>
       </c>
       <c r="B277" t="n">
-        <v>6345300000000</v>
+        <v>6373300000000</v>
       </c>
       <c r="C277" t="n">
         <v>1</v>
@@ -3489,10 +3489,10 @@
     </row>
     <row r="278">
       <c r="A278" s="2" t="n">
-        <v>38261</v>
+        <v>38292</v>
       </c>
       <c r="B278" t="n">
-        <v>6373300000000</v>
+        <v>6399800000000</v>
       </c>
       <c r="C278" t="n">
         <v>1</v>
@@ -3500,10 +3500,10 @@
     </row>
     <row r="279">
       <c r="A279" s="2" t="n">
-        <v>38292</v>
+        <v>38322</v>
       </c>
       <c r="B279" t="n">
-        <v>6399800000000</v>
+        <v>6418300000000</v>
       </c>
       <c r="C279" t="n">
         <v>1</v>
@@ -3511,10 +3511,10 @@
     </row>
     <row r="280">
       <c r="A280" s="2" t="n">
-        <v>38322</v>
+        <v>38353</v>
       </c>
       <c r="B280" t="n">
-        <v>6418300000000</v>
+        <v>6424500000000</v>
       </c>
       <c r="C280" t="n">
         <v>1</v>
@@ -3522,10 +3522,10 @@
     </row>
     <row r="281">
       <c r="A281" s="2" t="n">
-        <v>38353</v>
+        <v>38384</v>
       </c>
       <c r="B281" t="n">
-        <v>6424500000000</v>
+        <v>6432800000000</v>
       </c>
       <c r="C281" t="n">
         <v>1</v>
@@ -3533,10 +3533,10 @@
     </row>
     <row r="282">
       <c r="A282" s="2" t="n">
-        <v>38384</v>
+        <v>38412</v>
       </c>
       <c r="B282" t="n">
-        <v>6432800000000</v>
+        <v>6441900000000</v>
       </c>
       <c r="C282" t="n">
         <v>1</v>
@@ -3544,10 +3544,10 @@
     </row>
     <row r="283">
       <c r="A283" s="2" t="n">
-        <v>38412</v>
+        <v>38443</v>
       </c>
       <c r="B283" t="n">
-        <v>6441900000000</v>
+        <v>6455900000000</v>
       </c>
       <c r="C283" t="n">
         <v>1</v>
@@ -3555,10 +3555,10 @@
     </row>
     <row r="284">
       <c r="A284" s="2" t="n">
-        <v>38443</v>
+        <v>38473</v>
       </c>
       <c r="B284" t="n">
-        <v>6455900000000</v>
+        <v>6473300000000</v>
       </c>
       <c r="C284" t="n">
         <v>1</v>
@@ -3566,10 +3566,10 @@
     </row>
     <row r="285">
       <c r="A285" s="2" t="n">
-        <v>38473</v>
+        <v>38504</v>
       </c>
       <c r="B285" t="n">
-        <v>6473300000000</v>
+        <v>6505800000000</v>
       </c>
       <c r="C285" t="n">
         <v>1</v>
@@ -3577,10 +3577,10 @@
     </row>
     <row r="286">
       <c r="A286" s="2" t="n">
-        <v>38504</v>
+        <v>38534</v>
       </c>
       <c r="B286" t="n">
-        <v>6505800000000</v>
+        <v>6537400000000</v>
       </c>
       <c r="C286" t="n">
         <v>1</v>
@@ -3588,10 +3588,10 @@
     </row>
     <row r="287">
       <c r="A287" s="2" t="n">
-        <v>38534</v>
+        <v>38565</v>
       </c>
       <c r="B287" t="n">
-        <v>6537400000000</v>
+        <v>6570200000000</v>
       </c>
       <c r="C287" t="n">
         <v>1</v>
@@ -3599,10 +3599,10 @@
     </row>
     <row r="288">
       <c r="A288" s="2" t="n">
-        <v>38565</v>
+        <v>38596</v>
       </c>
       <c r="B288" t="n">
-        <v>6570200000000</v>
+        <v>6604300000000</v>
       </c>
       <c r="C288" t="n">
         <v>1</v>
@@ -3610,10 +3610,10 @@
     </row>
     <row r="289">
       <c r="A289" s="2" t="n">
-        <v>38596</v>
+        <v>38626</v>
       </c>
       <c r="B289" t="n">
-        <v>6604300000000</v>
+        <v>6638600000000</v>
       </c>
       <c r="C289" t="n">
         <v>1</v>
@@ -3621,10 +3621,10 @@
     </row>
     <row r="290">
       <c r="A290" s="2" t="n">
-        <v>38626</v>
+        <v>38657</v>
       </c>
       <c r="B290" t="n">
-        <v>6638600000000</v>
+        <v>6655000000000</v>
       </c>
       <c r="C290" t="n">
         <v>1</v>
@@ -3632,10 +3632,10 @@
     </row>
     <row r="291">
       <c r="A291" s="2" t="n">
-        <v>38657</v>
+        <v>38687</v>
       </c>
       <c r="B291" t="n">
-        <v>6655000000000</v>
+        <v>6681900000000</v>
       </c>
       <c r="C291" t="n">
         <v>1</v>
@@ -3643,10 +3643,10 @@
     </row>
     <row r="292">
       <c r="A292" s="2" t="n">
-        <v>38687</v>
+        <v>38718</v>
       </c>
       <c r="B292" t="n">
-        <v>6681900000000</v>
+        <v>6724300000000</v>
       </c>
       <c r="C292" t="n">
         <v>1</v>
@@ -3654,10 +3654,10 @@
     </row>
     <row r="293">
       <c r="A293" s="2" t="n">
-        <v>38718</v>
+        <v>38749</v>
       </c>
       <c r="B293" t="n">
-        <v>6724300000000</v>
+        <v>6748600000000</v>
       </c>
       <c r="C293" t="n">
         <v>1</v>
@@ -3665,10 +3665,10 @@
     </row>
     <row r="294">
       <c r="A294" s="2" t="n">
-        <v>38749</v>
+        <v>38777</v>
       </c>
       <c r="B294" t="n">
-        <v>6748600000000</v>
+        <v>6762900000000</v>
       </c>
       <c r="C294" t="n">
         <v>1</v>
@@ -3676,10 +3676,10 @@
     </row>
     <row r="295">
       <c r="A295" s="2" t="n">
-        <v>38777</v>
+        <v>38808</v>
       </c>
       <c r="B295" t="n">
-        <v>6762900000000</v>
+        <v>6800100000000</v>
       </c>
       <c r="C295" t="n">
         <v>1</v>
@@ -3687,10 +3687,10 @@
     </row>
     <row r="296">
       <c r="A296" s="2" t="n">
-        <v>38808</v>
+        <v>38838</v>
       </c>
       <c r="B296" t="n">
-        <v>6800100000000</v>
+        <v>6806900000000</v>
       </c>
       <c r="C296" t="n">
         <v>1</v>
@@ -3698,10 +3698,10 @@
     </row>
     <row r="297">
       <c r="A297" s="2" t="n">
-        <v>38838</v>
+        <v>38869</v>
       </c>
       <c r="B297" t="n">
-        <v>6806900000000</v>
+        <v>6844900000000</v>
       </c>
       <c r="C297" t="n">
         <v>1</v>
@@ -3709,10 +3709,10 @@
     </row>
     <row r="298">
       <c r="A298" s="2" t="n">
-        <v>38869</v>
+        <v>38899</v>
       </c>
       <c r="B298" t="n">
-        <v>6844900000000</v>
+        <v>6886300000000</v>
       </c>
       <c r="C298" t="n">
         <v>1</v>
@@ -3720,10 +3720,10 @@
     </row>
     <row r="299">
       <c r="A299" s="2" t="n">
-        <v>38899</v>
+        <v>38930</v>
       </c>
       <c r="B299" t="n">
-        <v>6886300000000</v>
+        <v>6917100000000</v>
       </c>
       <c r="C299" t="n">
         <v>1</v>
@@ -3731,10 +3731,10 @@
     </row>
     <row r="300">
       <c r="A300" s="2" t="n">
-        <v>38930</v>
+        <v>38961</v>
       </c>
       <c r="B300" t="n">
-        <v>6917100000000</v>
+        <v>6944200000000</v>
       </c>
       <c r="C300" t="n">
         <v>1</v>
@@ -3742,10 +3742,10 @@
     </row>
     <row r="301">
       <c r="A301" s="2" t="n">
-        <v>38961</v>
+        <v>38991</v>
       </c>
       <c r="B301" t="n">
-        <v>6944200000000</v>
+        <v>6993300000000</v>
       </c>
       <c r="C301" t="n">
         <v>1</v>
@@ -3753,10 +3753,10 @@
     </row>
     <row r="302">
       <c r="A302" s="2" t="n">
-        <v>38991</v>
+        <v>39022</v>
       </c>
       <c r="B302" t="n">
-        <v>6993300000000</v>
+        <v>7028400000000</v>
       </c>
       <c r="C302" t="n">
         <v>1</v>
@@ -3764,10 +3764,10 @@
     </row>
     <row r="303">
       <c r="A303" s="2" t="n">
-        <v>39022</v>
+        <v>39052</v>
       </c>
       <c r="B303" t="n">
-        <v>7028400000000</v>
+        <v>7071600000000</v>
       </c>
       <c r="C303" t="n">
         <v>1</v>
@@ -3775,10 +3775,10 @@
     </row>
     <row r="304">
       <c r="A304" s="2" t="n">
-        <v>39052</v>
+        <v>39083</v>
       </c>
       <c r="B304" t="n">
-        <v>7071600000000</v>
+        <v>7109600000000</v>
       </c>
       <c r="C304" t="n">
         <v>1</v>
@@ -3786,10 +3786,10 @@
     </row>
     <row r="305">
       <c r="A305" s="2" t="n">
-        <v>39083</v>
+        <v>39114</v>
       </c>
       <c r="B305" t="n">
-        <v>7109600000000</v>
+        <v>7125300000000</v>
       </c>
       <c r="C305" t="n">
         <v>1</v>
@@ -3797,10 +3797,10 @@
     </row>
     <row r="306">
       <c r="A306" s="2" t="n">
-        <v>39114</v>
+        <v>39142</v>
       </c>
       <c r="B306" t="n">
-        <v>7125300000000</v>
+        <v>7159100000000</v>
       </c>
       <c r="C306" t="n">
         <v>1</v>
@@ -3808,10 +3808,10 @@
     </row>
     <row r="307">
       <c r="A307" s="2" t="n">
-        <v>39142</v>
+        <v>39173</v>
       </c>
       <c r="B307" t="n">
-        <v>7159100000000</v>
+        <v>7231300000000</v>
       </c>
       <c r="C307" t="n">
         <v>1</v>
@@ -3819,10 +3819,10 @@
     </row>
     <row r="308">
       <c r="A308" s="2" t="n">
-        <v>39173</v>
+        <v>39203</v>
       </c>
       <c r="B308" t="n">
-        <v>7231300000000</v>
+        <v>7245400000000</v>
       </c>
       <c r="C308" t="n">
         <v>1</v>
@@ -3830,10 +3830,10 @@
     </row>
     <row r="309">
       <c r="A309" s="2" t="n">
-        <v>39203</v>
+        <v>39234</v>
       </c>
       <c r="B309" t="n">
-        <v>7245400000000</v>
+        <v>7278600000000</v>
       </c>
       <c r="C309" t="n">
         <v>1</v>
@@ -3841,10 +3841,10 @@
     </row>
     <row r="310">
       <c r="A310" s="2" t="n">
-        <v>39234</v>
+        <v>39264</v>
       </c>
       <c r="B310" t="n">
-        <v>7278600000000</v>
+        <v>7309000000000</v>
       </c>
       <c r="C310" t="n">
         <v>1</v>
@@ -3852,10 +3852,10 @@
     </row>
     <row r="311">
       <c r="A311" s="2" t="n">
-        <v>39264</v>
+        <v>39295</v>
       </c>
       <c r="B311" t="n">
-        <v>7309000000000</v>
+        <v>7385100000000</v>
       </c>
       <c r="C311" t="n">
         <v>1</v>
@@ -3863,10 +3863,10 @@
     </row>
     <row r="312">
       <c r="A312" s="2" t="n">
-        <v>39295</v>
+        <v>39326</v>
       </c>
       <c r="B312" t="n">
-        <v>7385100000000</v>
+        <v>7403200000000</v>
       </c>
       <c r="C312" t="n">
         <v>1</v>
@@ -3874,10 +3874,10 @@
     </row>
     <row r="313">
       <c r="A313" s="2" t="n">
-        <v>39326</v>
+        <v>39356</v>
       </c>
       <c r="B313" t="n">
-        <v>7403200000000</v>
+        <v>7417200000000</v>
       </c>
       <c r="C313" t="n">
         <v>1</v>
@@ -3885,10 +3885,10 @@
     </row>
     <row r="314">
       <c r="A314" s="2" t="n">
-        <v>39356</v>
+        <v>39387</v>
       </c>
       <c r="B314" t="n">
-        <v>7417200000000</v>
+        <v>7441800000000</v>
       </c>
       <c r="C314" t="n">
         <v>1</v>
@@ -3896,10 +3896,10 @@
     </row>
     <row r="315">
       <c r="A315" s="2" t="n">
-        <v>39387</v>
+        <v>39417</v>
       </c>
       <c r="B315" t="n">
-        <v>7441800000000</v>
+        <v>7471600000000</v>
       </c>
       <c r="C315" t="n">
         <v>1</v>
@@ -3907,10 +3907,10 @@
     </row>
     <row r="316">
       <c r="A316" s="2" t="n">
-        <v>39417</v>
+        <v>39448</v>
       </c>
       <c r="B316" t="n">
-        <v>7471600000000</v>
+        <v>7505500000000</v>
       </c>
       <c r="C316" t="n">
         <v>1</v>
@@ -3918,10 +3918,10 @@
     </row>
     <row r="317">
       <c r="A317" s="2" t="n">
-        <v>39448</v>
+        <v>39479</v>
       </c>
       <c r="B317" t="n">
-        <v>7505500000000</v>
+        <v>7590600000000</v>
       </c>
       <c r="C317" t="n">
         <v>1</v>
@@ -3929,10 +3929,10 @@
     </row>
     <row r="318">
       <c r="A318" s="2" t="n">
-        <v>39479</v>
+        <v>39508</v>
       </c>
       <c r="B318" t="n">
-        <v>7590600000000</v>
+        <v>7656200000000</v>
       </c>
       <c r="C318" t="n">
         <v>1</v>
@@ -3940,10 +3940,10 @@
     </row>
     <row r="319">
       <c r="A319" s="2" t="n">
-        <v>39508</v>
+        <v>39539</v>
       </c>
       <c r="B319" t="n">
-        <v>7656200000000</v>
+        <v>7699200000000</v>
       </c>
       <c r="C319" t="n">
         <v>1</v>
@@ -3951,10 +3951,10 @@
     </row>
     <row r="320">
       <c r="A320" s="2" t="n">
-        <v>39539</v>
+        <v>39569</v>
       </c>
       <c r="B320" t="n">
-        <v>7699200000000</v>
+        <v>7711200000000</v>
       </c>
       <c r="C320" t="n">
         <v>1</v>
@@ -3962,10 +3962,10 @@
     </row>
     <row r="321">
       <c r="A321" s="2" t="n">
-        <v>39569</v>
+        <v>39600</v>
       </c>
       <c r="B321" t="n">
-        <v>7711200000000</v>
+        <v>7728900000000</v>
       </c>
       <c r="C321" t="n">
         <v>1</v>
@@ -3973,10 +3973,10 @@
     </row>
     <row r="322">
       <c r="A322" s="2" t="n">
-        <v>39600</v>
+        <v>39630</v>
       </c>
       <c r="B322" t="n">
-        <v>7728900000000</v>
+        <v>7775400000000</v>
       </c>
       <c r="C322" t="n">
         <v>1</v>
@@ -3984,10 +3984,10 @@
     </row>
     <row r="323">
       <c r="A323" s="2" t="n">
-        <v>39630</v>
+        <v>39661</v>
       </c>
       <c r="B323" t="n">
-        <v>7775400000000</v>
+        <v>7790200000000</v>
       </c>
       <c r="C323" t="n">
         <v>1</v>
@@ -3995,10 +3995,10 @@
     </row>
     <row r="324">
       <c r="A324" s="2" t="n">
-        <v>39661</v>
+        <v>39692</v>
       </c>
       <c r="B324" t="n">
-        <v>7790200000000</v>
+        <v>7859500000000</v>
       </c>
       <c r="C324" t="n">
         <v>1</v>
@@ -4006,10 +4006,10 @@
     </row>
     <row r="325">
       <c r="A325" s="2" t="n">
-        <v>39692</v>
+        <v>39722</v>
       </c>
       <c r="B325" t="n">
-        <v>7859500000000</v>
+        <v>7965300000000</v>
       </c>
       <c r="C325" t="n">
         <v>1</v>
@@ -4017,10 +4017,10 @@
     </row>
     <row r="326">
       <c r="A326" s="2" t="n">
-        <v>39722</v>
+        <v>39753</v>
       </c>
       <c r="B326" t="n">
-        <v>7965300000000</v>
+        <v>8015800000000</v>
       </c>
       <c r="C326" t="n">
         <v>1</v>
@@ -4028,10 +4028,10 @@
     </row>
     <row r="327">
       <c r="A327" s="2" t="n">
-        <v>39753</v>
+        <v>39783</v>
       </c>
       <c r="B327" t="n">
-        <v>8015800000000</v>
+        <v>8192100000000</v>
       </c>
       <c r="C327" t="n">
         <v>1</v>
@@ -4039,10 +4039,10 @@
     </row>
     <row r="328">
       <c r="A328" s="2" t="n">
-        <v>39783</v>
+        <v>39814</v>
       </c>
       <c r="B328" t="n">
-        <v>8192100000000</v>
+        <v>8273700000000</v>
       </c>
       <c r="C328" t="n">
         <v>1</v>
@@ -4050,10 +4050,10 @@
     </row>
     <row r="329">
       <c r="A329" s="2" t="n">
-        <v>39814</v>
+        <v>39845</v>
       </c>
       <c r="B329" t="n">
-        <v>8273700000000</v>
+        <v>8303100000000</v>
       </c>
       <c r="C329" t="n">
         <v>1</v>
@@ -4061,10 +4061,10 @@
     </row>
     <row r="330">
       <c r="A330" s="2" t="n">
-        <v>39845</v>
+        <v>39873</v>
       </c>
       <c r="B330" t="n">
-        <v>8303100000000</v>
+        <v>8369300000000</v>
       </c>
       <c r="C330" t="n">
         <v>1</v>
@@ -4072,10 +4072,10 @@
     </row>
     <row r="331">
       <c r="A331" s="2" t="n">
-        <v>39873</v>
+        <v>39904</v>
       </c>
       <c r="B331" t="n">
-        <v>8369300000000</v>
+        <v>8372900000000</v>
       </c>
       <c r="C331" t="n">
         <v>1</v>
@@ -4083,10 +4083,10 @@
     </row>
     <row r="332">
       <c r="A332" s="2" t="n">
-        <v>39904</v>
+        <v>39934</v>
       </c>
       <c r="B332" t="n">
-        <v>8372900000000</v>
+        <v>8430700000000</v>
       </c>
       <c r="C332" t="n">
         <v>1</v>
@@ -4094,10 +4094,10 @@
     </row>
     <row r="333">
       <c r="A333" s="2" t="n">
-        <v>39934</v>
+        <v>39965</v>
       </c>
       <c r="B333" t="n">
-        <v>8430700000000</v>
+        <v>8440500000000</v>
       </c>
       <c r="C333" t="n">
         <v>1</v>
@@ -4105,10 +4105,10 @@
     </row>
     <row r="334">
       <c r="A334" s="2" t="n">
-        <v>39965</v>
+        <v>39995</v>
       </c>
       <c r="B334" t="n">
-        <v>8440500000000</v>
+        <v>8445100000000</v>
       </c>
       <c r="C334" t="n">
         <v>1</v>
@@ -4116,10 +4116,10 @@
     </row>
     <row r="335">
       <c r="A335" s="2" t="n">
-        <v>39995</v>
+        <v>40026</v>
       </c>
       <c r="B335" t="n">
-        <v>8445100000000</v>
+        <v>8445000000000</v>
       </c>
       <c r="C335" t="n">
         <v>1</v>
@@ -4127,10 +4127,10 @@
     </row>
     <row r="336">
       <c r="A336" s="2" t="n">
-        <v>40026</v>
+        <v>40057</v>
       </c>
       <c r="B336" t="n">
-        <v>8445000000000</v>
+        <v>8444200000000</v>
       </c>
       <c r="C336" t="n">
         <v>1</v>
@@ -4138,10 +4138,10 @@
     </row>
     <row r="337">
       <c r="A337" s="2" t="n">
-        <v>40057</v>
+        <v>40087</v>
       </c>
       <c r="B337" t="n">
-        <v>8444200000000</v>
+        <v>8471100000000</v>
       </c>
       <c r="C337" t="n">
         <v>1</v>
@@ -4149,10 +4149,10 @@
     </row>
     <row r="338">
       <c r="A338" s="2" t="n">
-        <v>40087</v>
+        <v>40118</v>
       </c>
       <c r="B338" t="n">
-        <v>8471100000000</v>
+        <v>8500800000000</v>
       </c>
       <c r="C338" t="n">
         <v>1</v>
@@ -4160,10 +4160,10 @@
     </row>
     <row r="339">
       <c r="A339" s="2" t="n">
-        <v>40118</v>
+        <v>40148</v>
       </c>
       <c r="B339" t="n">
-        <v>8500800000000</v>
+        <v>8496000000000</v>
       </c>
       <c r="C339" t="n">
         <v>1</v>
@@ -4171,10 +4171,10 @@
     </row>
     <row r="340">
       <c r="A340" s="2" t="n">
-        <v>40148</v>
+        <v>40179</v>
       </c>
       <c r="B340" t="n">
-        <v>8496000000000</v>
+        <v>8458100000000</v>
       </c>
       <c r="C340" t="n">
         <v>1</v>
@@ -4182,10 +4182,10 @@
     </row>
     <row r="341">
       <c r="A341" s="2" t="n">
-        <v>40179</v>
+        <v>40210</v>
       </c>
       <c r="B341" t="n">
-        <v>8458100000000</v>
+        <v>8507400000000</v>
       </c>
       <c r="C341" t="n">
         <v>1</v>
@@ -4193,10 +4193,10 @@
     </row>
     <row r="342">
       <c r="A342" s="2" t="n">
-        <v>40210</v>
+        <v>40238</v>
       </c>
       <c r="B342" t="n">
-        <v>8507400000000</v>
+        <v>8504500000000</v>
       </c>
       <c r="C342" t="n">
         <v>1</v>
@@ -4204,10 +4204,10 @@
     </row>
     <row r="343">
       <c r="A343" s="2" t="n">
-        <v>40238</v>
+        <v>40269</v>
       </c>
       <c r="B343" t="n">
-        <v>8504500000000</v>
+        <v>8535200000000</v>
       </c>
       <c r="C343" t="n">
         <v>1</v>
@@ -4215,10 +4215,10 @@
     </row>
     <row r="344">
       <c r="A344" s="2" t="n">
-        <v>40269</v>
+        <v>40299</v>
       </c>
       <c r="B344" t="n">
-        <v>8535200000000</v>
+        <v>8589900000000</v>
       </c>
       <c r="C344" t="n">
         <v>1</v>
@@ -4226,10 +4226,10 @@
     </row>
     <row r="345">
       <c r="A345" s="2" t="n">
-        <v>40299</v>
+        <v>40330</v>
       </c>
       <c r="B345" t="n">
-        <v>8589900000000</v>
+        <v>8609000000000</v>
       </c>
       <c r="C345" t="n">
         <v>1</v>
@@ -4237,10 +4237,10 @@
     </row>
     <row r="346">
       <c r="A346" s="2" t="n">
-        <v>40330</v>
+        <v>40360</v>
       </c>
       <c r="B346" t="n">
-        <v>8609000000000</v>
+        <v>8618800000000</v>
       </c>
       <c r="C346" t="n">
         <v>1</v>
@@ -4248,10 +4248,10 @@
     </row>
     <row r="347">
       <c r="A347" s="2" t="n">
-        <v>40360</v>
+        <v>40391</v>
       </c>
       <c r="B347" t="n">
-        <v>8618800000000</v>
+        <v>8669100000000</v>
       </c>
       <c r="C347" t="n">
         <v>1</v>
@@ -4259,10 +4259,10 @@
     </row>
     <row r="348">
       <c r="A348" s="2" t="n">
-        <v>40391</v>
+        <v>40422</v>
       </c>
       <c r="B348" t="n">
-        <v>8669100000000</v>
+        <v>8700100000000</v>
       </c>
       <c r="C348" t="n">
         <v>1</v>
@@ -4270,10 +4270,10 @@
     </row>
     <row r="349">
       <c r="A349" s="2" t="n">
-        <v>40422</v>
+        <v>40452</v>
       </c>
       <c r="B349" t="n">
-        <v>8700100000000</v>
+        <v>8749400000000</v>
       </c>
       <c r="C349" t="n">
         <v>1</v>
@@ -4281,10 +4281,10 @@
     </row>
     <row r="350">
       <c r="A350" s="2" t="n">
-        <v>40452</v>
+        <v>40483</v>
       </c>
       <c r="B350" t="n">
-        <v>8749400000000</v>
+        <v>8770000000000</v>
       </c>
       <c r="C350" t="n">
         <v>1</v>
@@ -4292,10 +4292,10 @@
     </row>
     <row r="351">
       <c r="A351" s="2" t="n">
-        <v>40483</v>
+        <v>40513</v>
       </c>
       <c r="B351" t="n">
-        <v>8770000000000</v>
+        <v>8801800000000</v>
       </c>
       <c r="C351" t="n">
         <v>1</v>
@@ -4303,10 +4303,10 @@
     </row>
     <row r="352">
       <c r="A352" s="2" t="n">
-        <v>40513</v>
+        <v>40544</v>
       </c>
       <c r="B352" t="n">
-        <v>8801800000000</v>
+        <v>8823100000000</v>
       </c>
       <c r="C352" t="n">
         <v>1</v>
@@ -4314,10 +4314,10 @@
     </row>
     <row r="353">
       <c r="A353" s="2" t="n">
-        <v>40544</v>
+        <v>40575</v>
       </c>
       <c r="B353" t="n">
-        <v>8823100000000</v>
+        <v>8886900000000</v>
       </c>
       <c r="C353" t="n">
         <v>1</v>
@@ -4325,10 +4325,10 @@
     </row>
     <row r="354">
       <c r="A354" s="2" t="n">
-        <v>40575</v>
+        <v>40603</v>
       </c>
       <c r="B354" t="n">
-        <v>8886900000000</v>
+        <v>8943500000000</v>
       </c>
       <c r="C354" t="n">
         <v>1</v>
@@ -4336,10 +4336,10 @@
     </row>
     <row r="355">
       <c r="A355" s="2" t="n">
-        <v>40603</v>
+        <v>40634</v>
       </c>
       <c r="B355" t="n">
-        <v>8943500000000</v>
+        <v>9004900000000</v>
       </c>
       <c r="C355" t="n">
         <v>1</v>
@@ -4347,10 +4347,10 @@
     </row>
     <row r="356">
       <c r="A356" s="2" t="n">
-        <v>40634</v>
+        <v>40664</v>
       </c>
       <c r="B356" t="n">
-        <v>9004900000000</v>
+        <v>9075500000000</v>
       </c>
       <c r="C356" t="n">
         <v>1</v>
@@ -4358,10 +4358,10 @@
     </row>
     <row r="357">
       <c r="A357" s="2" t="n">
-        <v>40664</v>
+        <v>40695</v>
       </c>
       <c r="B357" t="n">
-        <v>9075500000000</v>
+        <v>9151000000000</v>
       </c>
       <c r="C357" t="n">
         <v>1</v>
@@ -4369,10 +4369,10 @@
     </row>
     <row r="358">
       <c r="A358" s="2" t="n">
-        <v>40695</v>
+        <v>40725</v>
       </c>
       <c r="B358" t="n">
-        <v>9151000000000</v>
+        <v>9316600000000</v>
       </c>
       <c r="C358" t="n">
         <v>1</v>
@@ -4380,10 +4380,10 @@
     </row>
     <row r="359">
       <c r="A359" s="2" t="n">
-        <v>40725</v>
+        <v>40756</v>
       </c>
       <c r="B359" t="n">
-        <v>9316600000000</v>
+        <v>9507600000000</v>
       </c>
       <c r="C359" t="n">
         <v>1</v>
@@ -4391,10 +4391,10 @@
     </row>
     <row r="360">
       <c r="A360" s="2" t="n">
-        <v>40756</v>
+        <v>40787</v>
       </c>
       <c r="B360" t="n">
-        <v>9507600000000</v>
+        <v>9528300000000</v>
       </c>
       <c r="C360" t="n">
         <v>1</v>
@@ -4402,10 +4402,10 @@
     </row>
     <row r="361">
       <c r="A361" s="2" t="n">
-        <v>40787</v>
+        <v>40817</v>
       </c>
       <c r="B361" t="n">
-        <v>9528300000000</v>
+        <v>9562100000000</v>
       </c>
       <c r="C361" t="n">
         <v>1</v>
@@ -4413,10 +4413,10 @@
     </row>
     <row r="362">
       <c r="A362" s="2" t="n">
-        <v>40817</v>
+        <v>40848</v>
       </c>
       <c r="B362" t="n">
-        <v>9562100000000</v>
+        <v>9612600000000</v>
       </c>
       <c r="C362" t="n">
         <v>1</v>
@@ -4424,10 +4424,10 @@
     </row>
     <row r="363">
       <c r="A363" s="2" t="n">
-        <v>40848</v>
+        <v>40878</v>
       </c>
       <c r="B363" t="n">
-        <v>9612600000000</v>
+        <v>9660100000000</v>
       </c>
       <c r="C363" t="n">
         <v>1</v>
@@ -4435,10 +4435,10 @@
     </row>
     <row r="364">
       <c r="A364" s="2" t="n">
-        <v>40878</v>
+        <v>40909</v>
       </c>
       <c r="B364" t="n">
-        <v>9660100000000</v>
+        <v>9733300000000</v>
       </c>
       <c r="C364" t="n">
         <v>1</v>
@@ -4446,10 +4446,10 @@
     </row>
     <row r="365">
       <c r="A365" s="2" t="n">
-        <v>40909</v>
+        <v>40940</v>
       </c>
       <c r="B365" t="n">
-        <v>9733300000000</v>
+        <v>9785700000000</v>
       </c>
       <c r="C365" t="n">
         <v>1</v>
@@ -4457,10 +4457,10 @@
     </row>
     <row r="366">
       <c r="A366" s="2" t="n">
-        <v>40940</v>
+        <v>40969</v>
       </c>
       <c r="B366" t="n">
-        <v>9785700000000</v>
+        <v>9830600000000</v>
       </c>
       <c r="C366" t="n">
         <v>1</v>
@@ -4468,10 +4468,10 @@
     </row>
     <row r="367">
       <c r="A367" s="2" t="n">
-        <v>40969</v>
+        <v>41000</v>
       </c>
       <c r="B367" t="n">
-        <v>9830600000000</v>
+        <v>9884600000000</v>
       </c>
       <c r="C367" t="n">
         <v>1</v>
@@ -4479,10 +4479,10 @@
     </row>
     <row r="368">
       <c r="A368" s="2" t="n">
-        <v>41000</v>
+        <v>41030</v>
       </c>
       <c r="B368" t="n">
-        <v>9884600000000</v>
+        <v>9928400000000</v>
       </c>
       <c r="C368" t="n">
         <v>1</v>
@@ -4490,10 +4490,10 @@
     </row>
     <row r="369">
       <c r="A369" s="2" t="n">
-        <v>41030</v>
+        <v>41061</v>
       </c>
       <c r="B369" t="n">
-        <v>9928400000000</v>
+        <v>9999300000000</v>
       </c>
       <c r="C369" t="n">
         <v>1</v>
@@ -4501,10 +4501,10 @@
     </row>
     <row r="370">
       <c r="A370" s="2" t="n">
-        <v>41061</v>
+        <v>41091</v>
       </c>
       <c r="B370" t="n">
-        <v>9999300000000</v>
+        <v>10051800000000</v>
       </c>
       <c r="C370" t="n">
         <v>1</v>
@@ -4512,10 +4512,10 @@
     </row>
     <row r="371">
       <c r="A371" s="2" t="n">
-        <v>41091</v>
+        <v>41122</v>
       </c>
       <c r="B371" t="n">
-        <v>10051800000000</v>
+        <v>10121300000000</v>
       </c>
       <c r="C371" t="n">
         <v>1</v>
@@ -4523,10 +4523,10 @@
     </row>
     <row r="372">
       <c r="A372" s="2" t="n">
-        <v>41122</v>
+        <v>41153</v>
       </c>
       <c r="B372" t="n">
-        <v>10121300000000</v>
+        <v>10200800000000</v>
       </c>
       <c r="C372" t="n">
         <v>1</v>
@@ -4534,10 +4534,10 @@
     </row>
     <row r="373">
       <c r="A373" s="2" t="n">
-        <v>41153</v>
+        <v>41183</v>
       </c>
       <c r="B373" t="n">
-        <v>10200800000000</v>
+        <v>10267300000000</v>
       </c>
       <c r="C373" t="n">
         <v>1</v>
@@ -4545,10 +4545,10 @@
     </row>
     <row r="374">
       <c r="A374" s="2" t="n">
-        <v>41183</v>
+        <v>41214</v>
       </c>
       <c r="B374" t="n">
-        <v>10267300000000</v>
+        <v>10337600000000</v>
       </c>
       <c r="C374" t="n">
         <v>1</v>
@@ -4556,10 +4556,10 @@
     </row>
     <row r="375">
       <c r="A375" s="2" t="n">
-        <v>41214</v>
+        <v>41244</v>
       </c>
       <c r="B375" t="n">
-        <v>10337600000000</v>
+        <v>10459700000000</v>
       </c>
       <c r="C375" t="n">
         <v>1</v>
@@ -4567,10 +4567,10 @@
     </row>
     <row r="376">
       <c r="A376" s="2" t="n">
-        <v>41244</v>
+        <v>41275</v>
       </c>
       <c r="B376" t="n">
-        <v>10459700000000</v>
+        <v>10482900000000</v>
       </c>
       <c r="C376" t="n">
         <v>1</v>
@@ -4578,10 +4578,10 @@
     </row>
     <row r="377">
       <c r="A377" s="2" t="n">
-        <v>41275</v>
+        <v>41306</v>
       </c>
       <c r="B377" t="n">
-        <v>10482900000000</v>
+        <v>10501300000000</v>
       </c>
       <c r="C377" t="n">
         <v>1</v>
@@ -4589,10 +4589,10 @@
     </row>
     <row r="378">
       <c r="A378" s="2" t="n">
-        <v>41306</v>
+        <v>41334</v>
       </c>
       <c r="B378" t="n">
-        <v>10501300000000</v>
+        <v>10558300000000</v>
       </c>
       <c r="C378" t="n">
         <v>1</v>
@@ -4600,10 +4600,10 @@
     </row>
     <row r="379">
       <c r="A379" s="2" t="n">
-        <v>41334</v>
+        <v>41365</v>
       </c>
       <c r="B379" t="n">
-        <v>10558300000000</v>
+        <v>10586300000000</v>
       </c>
       <c r="C379" t="n">
         <v>1</v>
@@ -4611,10 +4611,10 @@
     </row>
     <row r="380">
       <c r="A380" s="2" t="n">
-        <v>41365</v>
+        <v>41395</v>
       </c>
       <c r="B380" t="n">
-        <v>10586300000000</v>
+        <v>10621000000000</v>
       </c>
       <c r="C380" t="n">
         <v>1</v>
@@ -4622,10 +4622,10 @@
     </row>
     <row r="381">
       <c r="A381" s="2" t="n">
-        <v>41395</v>
+        <v>41426</v>
       </c>
       <c r="B381" t="n">
-        <v>10621000000000</v>
+        <v>10678700000000</v>
       </c>
       <c r="C381" t="n">
         <v>1</v>
@@ -4633,10 +4633,10 @@
     </row>
     <row r="382">
       <c r="A382" s="2" t="n">
-        <v>41426</v>
+        <v>41456</v>
       </c>
       <c r="B382" t="n">
-        <v>10678700000000</v>
+        <v>10718400000000</v>
       </c>
       <c r="C382" t="n">
         <v>1</v>
@@ -4644,10 +4644,10 @@
     </row>
     <row r="383">
       <c r="A383" s="2" t="n">
-        <v>41456</v>
+        <v>41487</v>
       </c>
       <c r="B383" t="n">
-        <v>10718400000000</v>
+        <v>10776600000000</v>
       </c>
       <c r="C383" t="n">
         <v>1</v>
@@ -4655,10 +4655,10 @@
     </row>
     <row r="384">
       <c r="A384" s="2" t="n">
-        <v>41487</v>
+        <v>41518</v>
       </c>
       <c r="B384" t="n">
-        <v>10776600000000</v>
+        <v>10837200000000</v>
       </c>
       <c r="C384" t="n">
         <v>1</v>
@@ -4666,10 +4666,10 @@
     </row>
     <row r="385">
       <c r="A385" s="2" t="n">
-        <v>41518</v>
+        <v>41548</v>
       </c>
       <c r="B385" t="n">
-        <v>10837200000000</v>
+        <v>10961600000000</v>
       </c>
       <c r="C385" t="n">
         <v>1</v>
@@ -4677,10 +4677,10 @@
     </row>
     <row r="386">
       <c r="A386" s="2" t="n">
-        <v>41548</v>
+        <v>41579</v>
       </c>
       <c r="B386" t="n">
-        <v>10961600000000</v>
+        <v>10969700000000</v>
       </c>
       <c r="C386" t="n">
         <v>1</v>
@@ -4688,10 +4688,10 @@
     </row>
     <row r="387">
       <c r="A387" s="2" t="n">
-        <v>41579</v>
+        <v>41609</v>
       </c>
       <c r="B387" t="n">
-        <v>10969700000000</v>
+        <v>11035000000000</v>
       </c>
       <c r="C387" t="n">
         <v>1</v>
@@ -4699,10 +4699,10 @@
     </row>
     <row r="388">
       <c r="A388" s="2" t="n">
-        <v>41609</v>
+        <v>41640</v>
       </c>
       <c r="B388" t="n">
-        <v>11035000000000</v>
+        <v>11080800000000</v>
       </c>
       <c r="C388" t="n">
         <v>1</v>
@@ -4710,10 +4710,10 @@
     </row>
     <row r="389">
       <c r="A389" s="2" t="n">
-        <v>41640</v>
+        <v>41671</v>
       </c>
       <c r="B389" t="n">
-        <v>11080800000000</v>
+        <v>11178800000000</v>
       </c>
       <c r="C389" t="n">
         <v>1</v>
@@ -4721,10 +4721,10 @@
     </row>
     <row r="390">
       <c r="A390" s="2" t="n">
-        <v>41671</v>
+        <v>41699</v>
       </c>
       <c r="B390" t="n">
-        <v>11178800000000</v>
+        <v>11208100000000</v>
       </c>
       <c r="C390" t="n">
         <v>1</v>
@@ -4732,10 +4732,10 @@
     </row>
     <row r="391">
       <c r="A391" s="2" t="n">
-        <v>41699</v>
+        <v>41730</v>
       </c>
       <c r="B391" t="n">
-        <v>11208100000000</v>
+        <v>11257700000000</v>
       </c>
       <c r="C391" t="n">
         <v>1</v>
@@ -4743,10 +4743,10 @@
     </row>
     <row r="392">
       <c r="A392" s="2" t="n">
-        <v>41730</v>
+        <v>41760</v>
       </c>
       <c r="B392" t="n">
-        <v>11257700000000</v>
+        <v>11321000000000</v>
       </c>
       <c r="C392" t="n">
         <v>1</v>
@@ -4754,10 +4754,10 @@
     </row>
     <row r="393">
       <c r="A393" s="2" t="n">
-        <v>41760</v>
+        <v>41791</v>
       </c>
       <c r="B393" t="n">
-        <v>11321000000000</v>
+        <v>11374900000000</v>
       </c>
       <c r="C393" t="n">
         <v>1</v>
@@ -4765,10 +4765,10 @@
     </row>
     <row r="394">
       <c r="A394" s="2" t="n">
-        <v>41791</v>
+        <v>41821</v>
       </c>
       <c r="B394" t="n">
-        <v>11374900000000</v>
+        <v>11429900000000</v>
       </c>
       <c r="C394" t="n">
         <v>1</v>
@@ -4776,10 +4776,10 @@
     </row>
     <row r="395">
       <c r="A395" s="2" t="n">
-        <v>41821</v>
+        <v>41852</v>
       </c>
       <c r="B395" t="n">
-        <v>11429900000000</v>
+        <v>11458900000000</v>
       </c>
       <c r="C395" t="n">
         <v>1</v>
@@ -4787,10 +4787,10 @@
     </row>
     <row r="396">
       <c r="A396" s="2" t="n">
-        <v>41852</v>
+        <v>41883</v>
       </c>
       <c r="B396" t="n">
-        <v>11458900000000</v>
+        <v>11499800000000</v>
       </c>
       <c r="C396" t="n">
         <v>1</v>
@@ -4798,10 +4798,10 @@
     </row>
     <row r="397">
       <c r="A397" s="2" t="n">
-        <v>41883</v>
+        <v>41913</v>
       </c>
       <c r="B397" t="n">
-        <v>11499800000000</v>
+        <v>11566000000000</v>
       </c>
       <c r="C397" t="n">
         <v>1</v>
@@ -4809,10 +4809,10 @@
     </row>
     <row r="398">
       <c r="A398" s="2" t="n">
-        <v>41913</v>
+        <v>41944</v>
       </c>
       <c r="B398" t="n">
-        <v>11566000000000</v>
+        <v>11604800000000</v>
       </c>
       <c r="C398" t="n">
         <v>1</v>
@@ -4820,10 +4820,10 @@
     </row>
     <row r="399">
       <c r="A399" s="2" t="n">
-        <v>41944</v>
+        <v>41974</v>
       </c>
       <c r="B399" t="n">
-        <v>11604800000000</v>
+        <v>11684900000000</v>
       </c>
       <c r="C399" t="n">
         <v>1</v>
@@ -4831,10 +4831,10 @@
     </row>
     <row r="400">
       <c r="A400" s="2" t="n">
-        <v>41974</v>
+        <v>42005</v>
       </c>
       <c r="B400" t="n">
-        <v>11684900000000</v>
+        <v>11745600000000</v>
       </c>
       <c r="C400" t="n">
         <v>1</v>
@@ -4842,10 +4842,10 @@
     </row>
     <row r="401">
       <c r="A401" s="2" t="n">
-        <v>42005</v>
+        <v>42036</v>
       </c>
       <c r="B401" t="n">
-        <v>11745600000000</v>
+        <v>11879000000000</v>
       </c>
       <c r="C401" t="n">
         <v>1</v>
@@ -4853,10 +4853,10 @@
     </row>
     <row r="402">
       <c r="A402" s="2" t="n">
-        <v>42036</v>
+        <v>42064</v>
       </c>
       <c r="B402" t="n">
-        <v>11879000000000</v>
+        <v>11886800000000</v>
       </c>
       <c r="C402" t="n">
         <v>1</v>
@@ -4864,10 +4864,10 @@
     </row>
     <row r="403">
       <c r="A403" s="2" t="n">
-        <v>42064</v>
+        <v>42095</v>
       </c>
       <c r="B403" t="n">
-        <v>11886800000000</v>
+        <v>11928900000000</v>
       </c>
       <c r="C403" t="n">
         <v>1</v>
@@ -4875,10 +4875,10 @@
     </row>
     <row r="404">
       <c r="A404" s="2" t="n">
-        <v>42095</v>
+        <v>42125</v>
       </c>
       <c r="B404" t="n">
-        <v>11928900000000</v>
+        <v>11957900000000</v>
       </c>
       <c r="C404" t="n">
         <v>1</v>
@@ -4886,10 +4886,10 @@
     </row>
     <row r="405">
       <c r="A405" s="2" t="n">
-        <v>42125</v>
+        <v>42156</v>
       </c>
       <c r="B405" t="n">
-        <v>11957900000000</v>
+        <v>12001700000000</v>
       </c>
       <c r="C405" t="n">
         <v>1</v>
@@ -4897,10 +4897,10 @@
     </row>
     <row r="406">
       <c r="A406" s="2" t="n">
-        <v>42156</v>
+        <v>42186</v>
       </c>
       <c r="B406" t="n">
-        <v>12001700000000</v>
+        <v>12051300000000</v>
       </c>
       <c r="C406" t="n">
         <v>1</v>
@@ -4908,10 +4908,10 @@
     </row>
     <row r="407">
       <c r="A407" s="2" t="n">
-        <v>42186</v>
+        <v>42217</v>
       </c>
       <c r="B407" t="n">
-        <v>12051300000000</v>
+        <v>12101900000000</v>
       </c>
       <c r="C407" t="n">
         <v>1</v>
@@ -4919,10 +4919,10 @@
     </row>
     <row r="408">
       <c r="A408" s="2" t="n">
-        <v>42217</v>
+        <v>42248</v>
       </c>
       <c r="B408" t="n">
-        <v>12101900000000</v>
+        <v>12160800000000</v>
       </c>
       <c r="C408" t="n">
         <v>1</v>
@@ -4930,10 +4930,10 @@
     </row>
     <row r="409">
       <c r="A409" s="2" t="n">
-        <v>42248</v>
+        <v>42278</v>
       </c>
       <c r="B409" t="n">
-        <v>12160800000000</v>
+        <v>12195900000000</v>
       </c>
       <c r="C409" t="n">
         <v>1</v>
@@ -4941,10 +4941,10 @@
     </row>
     <row r="410">
       <c r="A410" s="2" t="n">
-        <v>42278</v>
+        <v>42309</v>
       </c>
       <c r="B410" t="n">
-        <v>12195900000000</v>
+        <v>12284600000000</v>
       </c>
       <c r="C410" t="n">
         <v>1</v>
@@ -4952,10 +4952,10 @@
     </row>
     <row r="411">
       <c r="A411" s="2" t="n">
-        <v>42309</v>
+        <v>42339</v>
       </c>
       <c r="B411" t="n">
-        <v>12284600000000</v>
+        <v>12346800000000</v>
       </c>
       <c r="C411" t="n">
         <v>1</v>
@@ -4963,10 +4963,10 @@
     </row>
     <row r="412">
       <c r="A412" s="2" t="n">
-        <v>42339</v>
+        <v>42370</v>
       </c>
       <c r="B412" t="n">
-        <v>12346800000000</v>
+        <v>12469900000000</v>
       </c>
       <c r="C412" t="n">
         <v>1</v>
@@ -4974,10 +4974,10 @@
     </row>
     <row r="413">
       <c r="A413" s="2" t="n">
-        <v>42370</v>
+        <v>42401</v>
       </c>
       <c r="B413" t="n">
-        <v>12469900000000</v>
+        <v>12556700000000</v>
       </c>
       <c r="C413" t="n">
         <v>1</v>
@@ -4985,10 +4985,10 @@
     </row>
     <row r="414">
       <c r="A414" s="2" t="n">
-        <v>42401</v>
+        <v>42430</v>
       </c>
       <c r="B414" t="n">
-        <v>12556700000000</v>
+        <v>12616700000000</v>
       </c>
       <c r="C414" t="n">
         <v>1</v>
@@ -4996,10 +4996,10 @@
     </row>
     <row r="415">
       <c r="A415" s="2" t="n">
-        <v>42430</v>
+        <v>42461</v>
       </c>
       <c r="B415" t="n">
-        <v>12616700000000</v>
+        <v>12700400000000</v>
       </c>
       <c r="C415" t="n">
         <v>1</v>
@@ -5007,10 +5007,10 @@
     </row>
     <row r="416">
       <c r="A416" s="2" t="n">
-        <v>42461</v>
+        <v>42491</v>
       </c>
       <c r="B416" t="n">
-        <v>12700400000000</v>
+        <v>12766200000000</v>
       </c>
       <c r="C416" t="n">
         <v>1</v>
@@ -5018,10 +5018,10 @@
     </row>
     <row r="417">
       <c r="A417" s="2" t="n">
-        <v>42491</v>
+        <v>42522</v>
       </c>
       <c r="B417" t="n">
-        <v>12766200000000</v>
+        <v>12829400000000</v>
       </c>
       <c r="C417" t="n">
         <v>1</v>
@@ -5029,10 +5029,10 @@
     </row>
     <row r="418">
       <c r="A418" s="2" t="n">
-        <v>42522</v>
+        <v>42552</v>
       </c>
       <c r="B418" t="n">
-        <v>12829400000000</v>
+        <v>12887700000000</v>
       </c>
       <c r="C418" t="n">
         <v>1</v>
@@ -5040,10 +5040,10 @@
     </row>
     <row r="419">
       <c r="A419" s="2" t="n">
-        <v>42552</v>
+        <v>42583</v>
       </c>
       <c r="B419" t="n">
-        <v>12887700000000</v>
+        <v>12972800000000</v>
       </c>
       <c r="C419" t="n">
         <v>1</v>
@@ -5051,10 +5051,10 @@
     </row>
     <row r="420">
       <c r="A420" s="2" t="n">
-        <v>42583</v>
+        <v>42614</v>
       </c>
       <c r="B420" t="n">
-        <v>12972800000000</v>
+        <v>13033600000000</v>
       </c>
       <c r="C420" t="n">
         <v>1</v>
@@ -5062,10 +5062,10 @@
     </row>
     <row r="421">
       <c r="A421" s="2" t="n">
-        <v>42614</v>
+        <v>42644</v>
       </c>
       <c r="B421" t="n">
-        <v>13033600000000</v>
+        <v>13100500000000</v>
       </c>
       <c r="C421" t="n">
         <v>1</v>
@@ -5073,10 +5073,10 @@
     </row>
     <row r="422">
       <c r="A422" s="2" t="n">
-        <v>42644</v>
+        <v>42675</v>
       </c>
       <c r="B422" t="n">
-        <v>13100500000000</v>
+        <v>13173400000000</v>
       </c>
       <c r="C422" t="n">
         <v>1</v>
@@ -5084,10 +5084,10 @@
     </row>
     <row r="423">
       <c r="A423" s="2" t="n">
-        <v>42675</v>
+        <v>42705</v>
       </c>
       <c r="B423" t="n">
-        <v>13173400000000</v>
+        <v>13213400000000</v>
       </c>
       <c r="C423" t="n">
         <v>1</v>
@@ -5095,10 +5095,10 @@
     </row>
     <row r="424">
       <c r="A424" s="2" t="n">
-        <v>42705</v>
+        <v>42736</v>
       </c>
       <c r="B424" t="n">
-        <v>13213400000000</v>
+        <v>13283400000000</v>
       </c>
       <c r="C424" t="n">
         <v>1</v>
@@ -5106,10 +5106,10 @@
     </row>
     <row r="425">
       <c r="A425" s="2" t="n">
-        <v>42736</v>
+        <v>42767</v>
       </c>
       <c r="B425" t="n">
-        <v>13283400000000</v>
+        <v>13358800000000</v>
       </c>
       <c r="C425" t="n">
         <v>1</v>
@@ -5117,10 +5117,10 @@
     </row>
     <row r="426">
       <c r="A426" s="2" t="n">
-        <v>42767</v>
+        <v>42795</v>
       </c>
       <c r="B426" t="n">
-        <v>13358800000000</v>
+        <v>13426900000000</v>
       </c>
       <c r="C426" t="n">
         <v>1</v>
@@ -5128,10 +5128,10 @@
     </row>
     <row r="427">
       <c r="A427" s="2" t="n">
-        <v>42795</v>
+        <v>42826</v>
       </c>
       <c r="B427" t="n">
-        <v>13426900000000</v>
+        <v>13484900000000</v>
       </c>
       <c r="C427" t="n">
         <v>1</v>
@@ -5139,10 +5139,10 @@
     </row>
     <row r="428">
       <c r="A428" s="2" t="n">
-        <v>42826</v>
+        <v>42856</v>
       </c>
       <c r="B428" t="n">
-        <v>13484900000000</v>
+        <v>13538100000000</v>
       </c>
       <c r="C428" t="n">
         <v>1</v>
@@ -5150,10 +5150,10 @@
     </row>
     <row r="429">
       <c r="A429" s="2" t="n">
-        <v>42856</v>
+        <v>42887</v>
       </c>
       <c r="B429" t="n">
-        <v>13538100000000</v>
+        <v>13559200000000</v>
       </c>
       <c r="C429" t="n">
         <v>1</v>
@@ -5161,10 +5161,10 @@
     </row>
     <row r="430">
       <c r="A430" s="2" t="n">
-        <v>42887</v>
+        <v>42917</v>
       </c>
       <c r="B430" t="n">
-        <v>13559200000000</v>
+        <v>13618700000000</v>
       </c>
       <c r="C430" t="n">
         <v>1</v>
@@ -5172,10 +5172,10 @@
     </row>
     <row r="431">
       <c r="A431" s="2" t="n">
-        <v>42917</v>
+        <v>42948</v>
       </c>
       <c r="B431" t="n">
-        <v>13618700000000</v>
+        <v>13673700000000</v>
       </c>
       <c r="C431" t="n">
         <v>1</v>
@@ -5183,10 +5183,10 @@
     </row>
     <row r="432">
       <c r="A432" s="2" t="n">
-        <v>42948</v>
+        <v>42979</v>
       </c>
       <c r="B432" t="n">
-        <v>13673700000000</v>
+        <v>13717900000000</v>
       </c>
       <c r="C432" t="n">
         <v>1</v>
@@ -5194,10 +5194,10 @@
     </row>
     <row r="433">
       <c r="A433" s="2" t="n">
-        <v>42979</v>
+        <v>43009</v>
       </c>
       <c r="B433" t="n">
-        <v>13717900000000</v>
+        <v>13770100000000</v>
       </c>
       <c r="C433" t="n">
         <v>1</v>
@@ -5205,10 +5205,10 @@
     </row>
     <row r="434">
       <c r="A434" s="2" t="n">
-        <v>43009</v>
+        <v>43040</v>
       </c>
       <c r="B434" t="n">
-        <v>13770100000000</v>
+        <v>13799900000000</v>
       </c>
       <c r="C434" t="n">
         <v>1</v>
@@ -5216,10 +5216,10 @@
     </row>
     <row r="435">
       <c r="A435" s="2" t="n">
-        <v>43040</v>
+        <v>43070</v>
       </c>
       <c r="B435" t="n">
-        <v>13799900000000</v>
+        <v>13857900000000</v>
       </c>
       <c r="C435" t="n">
         <v>1</v>
@@ -5227,10 +5227,10 @@
     </row>
     <row r="436">
       <c r="A436" s="2" t="n">
-        <v>43070</v>
+        <v>43101</v>
       </c>
       <c r="B436" t="n">
-        <v>13857900000000</v>
+        <v>13869700000000</v>
       </c>
       <c r="C436" t="n">
         <v>1</v>
@@ -5238,10 +5238,10 @@
     </row>
     <row r="437">
       <c r="A437" s="2" t="n">
-        <v>43101</v>
+        <v>43132</v>
       </c>
       <c r="B437" t="n">
-        <v>13869700000000</v>
+        <v>13912300000000</v>
       </c>
       <c r="C437" t="n">
         <v>1</v>
@@ -5249,10 +5249,10 @@
     </row>
     <row r="438">
       <c r="A438" s="2" t="n">
-        <v>43132</v>
+        <v>43160</v>
       </c>
       <c r="B438" t="n">
-        <v>13912300000000</v>
+        <v>13970200000000</v>
       </c>
       <c r="C438" t="n">
         <v>1</v>
@@ -5260,10 +5260,10 @@
     </row>
     <row r="439">
       <c r="A439" s="2" t="n">
-        <v>43160</v>
+        <v>43191</v>
       </c>
       <c r="B439" t="n">
-        <v>13970200000000</v>
+        <v>13988800000000</v>
       </c>
       <c r="C439" t="n">
         <v>1</v>
@@ -5271,10 +5271,10 @@
     </row>
     <row r="440">
       <c r="A440" s="2" t="n">
-        <v>43191</v>
+        <v>43221</v>
       </c>
       <c r="B440" t="n">
-        <v>13988800000000</v>
+        <v>14047200000000</v>
       </c>
       <c r="C440" t="n">
         <v>1</v>
@@ -5282,10 +5282,10 @@
     </row>
     <row r="441">
       <c r="A441" s="2" t="n">
-        <v>43221</v>
+        <v>43252</v>
       </c>
       <c r="B441" t="n">
-        <v>14047200000000</v>
+        <v>14103600000000</v>
       </c>
       <c r="C441" t="n">
         <v>1</v>
@@ -5293,10 +5293,10 @@
     </row>
     <row r="442">
       <c r="A442" s="2" t="n">
-        <v>43252</v>
+        <v>43282</v>
       </c>
       <c r="B442" t="n">
-        <v>14103600000000</v>
+        <v>14139200000000</v>
       </c>
       <c r="C442" t="n">
         <v>1</v>
@@ -5304,10 +5304,10 @@
     </row>
     <row r="443">
       <c r="A443" s="2" t="n">
-        <v>43282</v>
+        <v>43313</v>
       </c>
       <c r="B443" t="n">
-        <v>14139200000000</v>
+        <v>14181300000000</v>
       </c>
       <c r="C443" t="n">
         <v>1</v>
@@ -5315,10 +5315,10 @@
     </row>
     <row r="444">
       <c r="A444" s="2" t="n">
-        <v>43313</v>
+        <v>43344</v>
       </c>
       <c r="B444" t="n">
-        <v>14181300000000</v>
+        <v>14212900000000</v>
       </c>
       <c r="C444" t="n">
         <v>1</v>
@@ -5326,10 +5326,10 @@
     </row>
     <row r="445">
       <c r="A445" s="2" t="n">
-        <v>43344</v>
+        <v>43374</v>
       </c>
       <c r="B445" t="n">
-        <v>14212900000000</v>
+        <v>14222500000000</v>
       </c>
       <c r="C445" t="n">
         <v>1</v>
@@ -5337,10 +5337,10 @@
     </row>
     <row r="446">
       <c r="A446" s="2" t="n">
-        <v>43374</v>
+        <v>43405</v>
       </c>
       <c r="B446" t="n">
-        <v>14222500000000</v>
+        <v>14236800000000</v>
       </c>
       <c r="C446" t="n">
         <v>1</v>
@@ -5348,10 +5348,10 @@
     </row>
     <row r="447">
       <c r="A447" s="2" t="n">
-        <v>43405</v>
+        <v>43435</v>
       </c>
       <c r="B447" t="n">
-        <v>14236800000000</v>
+        <v>14362700000000</v>
       </c>
       <c r="C447" t="n">
         <v>1</v>
@@ -5359,10 +5359,10 @@
     </row>
     <row r="448">
       <c r="A448" s="2" t="n">
-        <v>43435</v>
+        <v>43466</v>
       </c>
       <c r="B448" t="n">
-        <v>14362700000000</v>
+        <v>14430000000000</v>
       </c>
       <c r="C448" t="n">
         <v>1</v>
@@ -5370,10 +5370,10 @@
     </row>
     <row r="449">
       <c r="A449" s="2" t="n">
-        <v>43466</v>
+        <v>43497</v>
       </c>
       <c r="B449" t="n">
-        <v>14430000000000</v>
+        <v>14469900000000</v>
       </c>
       <c r="C449" t="n">
         <v>1</v>
@@ -5381,10 +5381,10 @@
     </row>
     <row r="450">
       <c r="A450" s="2" t="n">
-        <v>43497</v>
+        <v>43525</v>
       </c>
       <c r="B450" t="n">
-        <v>14469900000000</v>
+        <v>14509900000000</v>
       </c>
       <c r="C450" t="n">
         <v>1</v>
@@ -5392,10 +5392,10 @@
     </row>
     <row r="451">
       <c r="A451" s="2" t="n">
-        <v>43525</v>
+        <v>43556</v>
       </c>
       <c r="B451" t="n">
-        <v>14509900000000</v>
+        <v>14541000000000</v>
       </c>
       <c r="C451" t="n">
         <v>1</v>
@@ -5403,10 +5403,10 @@
     </row>
     <row r="452">
       <c r="A452" s="2" t="n">
-        <v>43556</v>
+        <v>43586</v>
       </c>
       <c r="B452" t="n">
-        <v>14541000000000</v>
+        <v>14643200000000</v>
       </c>
       <c r="C452" t="n">
         <v>1</v>
@@ -5414,10 +5414,10 @@
     </row>
     <row r="453">
       <c r="A453" s="2" t="n">
-        <v>43586</v>
+        <v>43617</v>
       </c>
       <c r="B453" t="n">
-        <v>14643200000000</v>
+        <v>14757700000000</v>
       </c>
       <c r="C453" t="n">
         <v>1</v>
@@ -5425,10 +5425,10 @@
     </row>
     <row r="454">
       <c r="A454" s="2" t="n">
-        <v>43617</v>
+        <v>43647</v>
       </c>
       <c r="B454" t="n">
-        <v>14757700000000</v>
+        <v>14840600000000</v>
       </c>
       <c r="C454" t="n">
         <v>1</v>
@@ -5436,10 +5436,10 @@
     </row>
     <row r="455">
       <c r="A455" s="2" t="n">
-        <v>43647</v>
+        <v>43678</v>
       </c>
       <c r="B455" t="n">
-        <v>14840600000000</v>
+        <v>14914600000000</v>
       </c>
       <c r="C455" t="n">
         <v>1</v>
@@ -5447,10 +5447,10 @@
     </row>
     <row r="456">
       <c r="A456" s="2" t="n">
-        <v>43678</v>
+        <v>43709</v>
       </c>
       <c r="B456" t="n">
-        <v>14914600000000</v>
+        <v>15008100000000</v>
       </c>
       <c r="C456" t="n">
         <v>1</v>
@@ -5458,10 +5458,10 @@
     </row>
     <row r="457">
       <c r="A457" s="2" t="n">
-        <v>43709</v>
+        <v>43739</v>
       </c>
       <c r="B457" t="n">
-        <v>15008100000000</v>
+        <v>15140800000000</v>
       </c>
       <c r="C457" t="n">
         <v>1</v>
@@ -5469,10 +5469,10 @@
     </row>
     <row r="458">
       <c r="A458" s="2" t="n">
-        <v>43739</v>
+        <v>43770</v>
       </c>
       <c r="B458" t="n">
-        <v>15140800000000</v>
+        <v>15242200000000</v>
       </c>
       <c r="C458" t="n">
         <v>1</v>
@@ -5480,10 +5480,10 @@
     </row>
     <row r="459">
       <c r="A459" s="2" t="n">
-        <v>43770</v>
+        <v>43800</v>
       </c>
       <c r="B459" t="n">
-        <v>15242200000000</v>
+        <v>15320700000000</v>
       </c>
       <c r="C459" t="n">
         <v>1</v>
@@ -5491,10 +5491,10 @@
     </row>
     <row r="460">
       <c r="A460" s="2" t="n">
-        <v>43800</v>
+        <v>43831</v>
       </c>
       <c r="B460" t="n">
-        <v>15320700000000</v>
+        <v>15396000000000</v>
       </c>
       <c r="C460" t="n">
         <v>1</v>
@@ -5502,10 +5502,10 @@
     </row>
     <row r="461">
       <c r="A461" s="2" t="n">
-        <v>43831</v>
+        <v>43862</v>
       </c>
       <c r="B461" t="n">
-        <v>15396000000000</v>
+        <v>15450300000000</v>
       </c>
       <c r="C461" t="n">
         <v>1</v>
@@ -5513,10 +5513,10 @@
     </row>
     <row r="462">
       <c r="A462" s="2" t="n">
-        <v>43862</v>
+        <v>43891</v>
       </c>
       <c r="B462" t="n">
-        <v>15450300000000</v>
+        <v>15978700000000</v>
       </c>
       <c r="C462" t="n">
         <v>1</v>
@@ -5524,10 +5524,10 @@
     </row>
     <row r="463">
       <c r="A463" s="2" t="n">
-        <v>43891</v>
+        <v>43922</v>
       </c>
       <c r="B463" t="n">
-        <v>15978700000000</v>
+        <v>16997600000000</v>
       </c>
       <c r="C463" t="n">
         <v>1</v>
@@ -5535,10 +5535,10 @@
     </row>
     <row r="464">
       <c r="A464" s="2" t="n">
-        <v>43922</v>
+        <v>43952</v>
       </c>
       <c r="B464" t="n">
-        <v>16997600000000</v>
+        <v>17851100000000</v>
       </c>
       <c r="C464" t="n">
         <v>1</v>
@@ -5546,10 +5546,10 @@
     </row>
     <row r="465">
       <c r="A465" s="2" t="n">
-        <v>43952</v>
+        <v>43983</v>
       </c>
       <c r="B465" t="n">
-        <v>17851100000000</v>
+        <v>18131700000000</v>
       </c>
       <c r="C465" t="n">
         <v>1</v>
@@ -5557,10 +5557,10 @@
     </row>
     <row r="466">
       <c r="A466" s="2" t="n">
-        <v>43983</v>
+        <v>44013</v>
       </c>
       <c r="B466" t="n">
-        <v>18131700000000</v>
+        <v>18286300000000</v>
       </c>
       <c r="C466" t="n">
         <v>1</v>
@@ -5568,10 +5568,10 @@
     </row>
     <row r="467">
       <c r="A467" s="2" t="n">
-        <v>44013</v>
+        <v>44044</v>
       </c>
       <c r="B467" t="n">
-        <v>18286300000000</v>
+        <v>18346000000000</v>
       </c>
       <c r="C467" t="n">
         <v>1</v>
@@ -5579,10 +5579,10 @@
     </row>
     <row r="468">
       <c r="A468" s="2" t="n">
-        <v>44044</v>
+        <v>44075</v>
       </c>
       <c r="B468" t="n">
-        <v>18346000000000</v>
+        <v>18577300000000</v>
       </c>
       <c r="C468" t="n">
         <v>1</v>
@@ -5590,10 +5590,10 @@
     </row>
     <row r="469">
       <c r="A469" s="2" t="n">
-        <v>44075</v>
+        <v>44105</v>
       </c>
       <c r="B469" t="n">
-        <v>18577300000000</v>
+        <v>18729100000000</v>
       </c>
       <c r="C469" t="n">
         <v>1</v>
@@ -5601,10 +5601,10 @@
     </row>
     <row r="470">
       <c r="A470" s="2" t="n">
-        <v>44105</v>
+        <v>44136</v>
       </c>
       <c r="B470" t="n">
-        <v>18729100000000</v>
+        <v>18949300000000</v>
       </c>
       <c r="C470" t="n">
         <v>1</v>
@@ -5612,10 +5612,10 @@
     </row>
     <row r="471">
       <c r="A471" s="2" t="n">
-        <v>44136</v>
+        <v>44166</v>
       </c>
       <c r="B471" t="n">
-        <v>18949300000000</v>
+        <v>19114400000000</v>
       </c>
       <c r="C471" t="n">
         <v>1</v>
@@ -5623,10 +5623,10 @@
     </row>
     <row r="472">
       <c r="A472" s="2" t="n">
-        <v>44166</v>
+        <v>44197</v>
       </c>
       <c r="B472" t="n">
-        <v>19114300000000</v>
+        <v>19356900000000</v>
       </c>
       <c r="C472" t="n">
         <v>1</v>
@@ -5634,10 +5634,10 @@
     </row>
     <row r="473">
       <c r="A473" s="2" t="n">
-        <v>44197</v>
+        <v>44228</v>
       </c>
       <c r="B473" t="n">
-        <v>19356700000000</v>
+        <v>19600400000000</v>
       </c>
       <c r="C473" t="n">
         <v>1</v>
@@ -5645,10 +5645,10 @@
     </row>
     <row r="474">
       <c r="A474" s="2" t="n">
-        <v>44228</v>
+        <v>44256</v>
       </c>
       <c r="B474" t="n">
-        <v>19600300000000</v>
+        <v>19841000000000</v>
       </c>
       <c r="C474" t="n">
         <v>1</v>
@@ -5656,10 +5656,10 @@
     </row>
     <row r="475">
       <c r="A475" s="2" t="n">
-        <v>44256</v>
+        <v>44287</v>
       </c>
       <c r="B475" t="n">
-        <v>19841200000000</v>
+        <v>20116900000000</v>
       </c>
       <c r="C475" t="n">
         <v>1</v>
@@ -5667,10 +5667,10 @@
     </row>
     <row r="476">
       <c r="A476" s="2" t="n">
-        <v>44287</v>
+        <v>44317</v>
       </c>
       <c r="B476" t="n">
-        <v>20116900000000</v>
+        <v>20431100000000</v>
       </c>
       <c r="C476" t="n">
         <v>1</v>
@@ -5678,10 +5678,10 @@
     </row>
     <row r="477">
       <c r="A477" s="2" t="n">
-        <v>44317</v>
+        <v>44348</v>
       </c>
       <c r="B477" t="n">
-        <v>20431100000000</v>
+        <v>20506500000000</v>
       </c>
       <c r="C477" t="n">
         <v>1</v>
@@ -5689,10 +5689,10 @@
     </row>
     <row r="478">
       <c r="A478" s="2" t="n">
-        <v>44348</v>
+        <v>44378</v>
       </c>
       <c r="B478" t="n">
-        <v>20506600000000</v>
+        <v>20663000000000</v>
       </c>
       <c r="C478" t="n">
         <v>1</v>
@@ -5700,10 +5700,10 @@
     </row>
     <row r="479">
       <c r="A479" s="2" t="n">
-        <v>44378</v>
+        <v>44409</v>
       </c>
       <c r="B479" t="n">
-        <v>20662900000000</v>
+        <v>20847800000000</v>
       </c>
       <c r="C479" t="n">
         <v>1</v>
@@ -5711,10 +5711,10 @@
     </row>
     <row r="480">
       <c r="A480" s="2" t="n">
-        <v>44409</v>
+        <v>44440</v>
       </c>
       <c r="B480" t="n">
-        <v>20847800000000</v>
+        <v>20964300000000</v>
       </c>
       <c r="C480" t="n">
         <v>1</v>
@@ -5722,10 +5722,10 @@
     </row>
     <row r="481">
       <c r="A481" s="2" t="n">
-        <v>44440</v>
+        <v>44470</v>
       </c>
       <c r="B481" t="n">
-        <v>20964300000000</v>
+        <v>21116300000000</v>
       </c>
       <c r="C481" t="n">
         <v>1</v>
@@ -5733,10 +5733,10 @@
     </row>
     <row r="482">
       <c r="A482" s="2" t="n">
-        <v>44470</v>
+        <v>44501</v>
       </c>
       <c r="B482" t="n">
-        <v>21116200000000</v>
+        <v>21316300000000</v>
       </c>
       <c r="C482" t="n">
         <v>1</v>
@@ -5744,10 +5744,10 @@
     </row>
     <row r="483">
       <c r="A483" s="2" t="n">
-        <v>44501</v>
+        <v>44531</v>
       </c>
       <c r="B483" t="n">
-        <v>21316100000000</v>
+        <v>21549200000000</v>
       </c>
       <c r="C483" t="n">
         <v>1</v>
@@ -5755,10 +5755,10 @@
     </row>
     <row r="484">
       <c r="A484" s="2" t="n">
-        <v>44531</v>
+        <v>44562</v>
       </c>
       <c r="B484" t="n">
-        <v>21549100000000</v>
+        <v>21561900000000</v>
       </c>
       <c r="C484" t="n">
         <v>1</v>
@@ -5766,10 +5766,10 @@
     </row>
     <row r="485">
       <c r="A485" s="2" t="n">
-        <v>44562</v>
+        <v>44593</v>
       </c>
       <c r="B485" t="n">
-        <v>21561800000000</v>
+        <v>21570400000000</v>
       </c>
       <c r="C485" t="n">
         <v>1</v>
@@ -5777,10 +5777,10 @@
     </row>
     <row r="486">
       <c r="A486" s="2" t="n">
-        <v>44593</v>
+        <v>44621</v>
       </c>
       <c r="B486" t="n">
-        <v>21570300000000</v>
+        <v>21697500000000</v>
       </c>
       <c r="C486" t="n">
         <v>1</v>
@@ -5788,10 +5788,10 @@
     </row>
     <row r="487">
       <c r="A487" s="2" t="n">
-        <v>44621</v>
+        <v>44652</v>
       </c>
       <c r="B487" t="n">
-        <v>21697500000000</v>
+        <v>21677200000000</v>
       </c>
       <c r="C487" t="n">
         <v>1</v>
@@ -5799,10 +5799,10 @@
     </row>
     <row r="488">
       <c r="A488" s="2" t="n">
-        <v>44652</v>
+        <v>44682</v>
       </c>
       <c r="B488" t="n">
-        <v>21677100000000</v>
+        <v>21665500000000</v>
       </c>
       <c r="C488" t="n">
         <v>1</v>
@@ -5810,10 +5810,10 @@
     </row>
     <row r="489">
       <c r="A489" s="2" t="n">
-        <v>44682</v>
+        <v>44713</v>
       </c>
       <c r="B489" t="n">
-        <v>21665200000000</v>
+        <v>21666400000000</v>
       </c>
       <c r="C489" t="n">
         <v>1</v>
@@ -5821,10 +5821,10 @@
     </row>
     <row r="490">
       <c r="A490" s="2" t="n">
-        <v>44713</v>
+        <v>44743</v>
       </c>
       <c r="B490" t="n">
-        <v>21665700000000</v>
+        <v>21703600000000</v>
       </c>
       <c r="C490" t="n">
         <v>1</v>
@@ -5832,10 +5832,10 @@
     </row>
     <row r="491">
       <c r="A491" s="2" t="n">
-        <v>44743</v>
+        <v>44774</v>
       </c>
       <c r="B491" t="n">
-        <v>21702600000000</v>
+        <v>21659900000000</v>
       </c>
       <c r="C491" t="n">
         <v>1</v>
@@ -5843,10 +5843,10 @@
     </row>
     <row r="492">
       <c r="A492" s="2" t="n">
-        <v>44774</v>
+        <v>44805</v>
       </c>
       <c r="B492" t="n">
-        <v>21658900000000</v>
+        <v>21525200000000</v>
       </c>
       <c r="C492" t="n">
         <v>1</v>
@@ -5854,10 +5854,10 @@
     </row>
     <row r="493">
       <c r="A493" s="2" t="n">
-        <v>44805</v>
+        <v>44835</v>
       </c>
       <c r="B493" t="n">
-        <v>21524200000000</v>
+        <v>21433200000000</v>
       </c>
       <c r="C493" t="n">
         <v>1</v>
@@ -5865,10 +5865,10 @@
     </row>
     <row r="494">
       <c r="A494" s="2" t="n">
-        <v>44835</v>
+        <v>44866</v>
       </c>
       <c r="B494" t="n">
-        <v>21432300000000</v>
+        <v>21400100000000</v>
       </c>
       <c r="C494" t="n">
         <v>1</v>
@@ -5876,10 +5876,10 @@
     </row>
     <row r="495">
       <c r="A495" s="2" t="n">
-        <v>44866</v>
+        <v>44896</v>
       </c>
       <c r="B495" t="n">
-        <v>21399000000000</v>
+        <v>21359200000000</v>
       </c>
       <c r="C495" t="n">
         <v>1</v>
@@ -5887,10 +5887,10 @@
     </row>
     <row r="496">
       <c r="A496" s="2" t="n">
-        <v>44896</v>
+        <v>44927</v>
       </c>
       <c r="B496" t="n">
-        <v>21358100000000</v>
+        <v>21221500000000</v>
       </c>
       <c r="C496" t="n">
         <v>1</v>
@@ -5898,10 +5898,10 @@
     </row>
     <row r="497">
       <c r="A497" s="2" t="n">
-        <v>44927</v>
+        <v>44958</v>
       </c>
       <c r="B497" t="n">
-        <v>21212700000000</v>
+        <v>21099700000000</v>
       </c>
       <c r="C497" t="n">
         <v>1</v>
@@ -5909,10 +5909,10 @@
     </row>
     <row r="498">
       <c r="A498" s="2" t="n">
-        <v>44958</v>
+        <v>44986</v>
       </c>
       <c r="B498" t="n">
-        <v>21077400000000</v>
+        <v>20875400000000</v>
       </c>
       <c r="C498" t="n">
         <v>1</v>
@@ -5920,10 +5920,10 @@
     </row>
     <row r="499">
       <c r="A499" s="2" t="n">
-        <v>44986</v>
+        <v>45017</v>
       </c>
       <c r="B499" t="n">
-        <v>20841100000000</v>
+        <v>20712200000000</v>
       </c>
       <c r="C499" t="n">
         <v>1</v>
@@ -5931,10 +5931,10 @@
     </row>
     <row r="500">
       <c r="A500" s="2" t="n">
-        <v>45017</v>
+        <v>45047</v>
       </c>
       <c r="B500" t="n">
-        <v>20674600000000</v>
+        <v>20841700000000</v>
       </c>
       <c r="C500" t="n">
         <v>1</v>
@@ -5942,10 +5942,10 @@
     </row>
     <row r="501">
       <c r="A501" s="2" t="n">
-        <v>45047</v>
+        <v>45078</v>
       </c>
       <c r="B501" t="n">
-        <v>20805500000000</v>
+        <v>20889500000000</v>
       </c>
       <c r="C501" t="n">
         <v>1</v>

--- a/Global_M2/TVDataFeed/FinalData/United States.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/United States.xlsx
@@ -453,10 +453,10 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>29891</v>
+        <v>29921</v>
       </c>
       <c r="B2" t="n">
-        <v>1736100000000</v>
+        <v>1755500000000</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -464,10 +464,10 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>29921</v>
+        <v>29952</v>
       </c>
       <c r="B3" t="n">
-        <v>1755500000000</v>
+        <v>1770400000000</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -475,10 +475,10 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>29952</v>
+        <v>29983</v>
       </c>
       <c r="B4" t="n">
-        <v>1770400000000</v>
+        <v>1774500000000</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -486,10 +486,10 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>29983</v>
+        <v>30011</v>
       </c>
       <c r="B5" t="n">
-        <v>1774500000000</v>
+        <v>1786500000000</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -497,10 +497,10 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>30011</v>
+        <v>30042</v>
       </c>
       <c r="B6" t="n">
-        <v>1786500000000</v>
+        <v>1803900000000</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -508,10 +508,10 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>30042</v>
+        <v>30072</v>
       </c>
       <c r="B7" t="n">
-        <v>1803900000000</v>
+        <v>1815400000000</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -519,10 +519,10 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>30072</v>
+        <v>30103</v>
       </c>
       <c r="B8" t="n">
-        <v>1815400000000</v>
+        <v>1826000000000</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -530,10 +530,10 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>30103</v>
+        <v>30133</v>
       </c>
       <c r="B9" t="n">
-        <v>1826000000000</v>
+        <v>1831500000000</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -541,10 +541,10 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>30133</v>
+        <v>30164</v>
       </c>
       <c r="B10" t="n">
-        <v>1831500000000</v>
+        <v>1845200000000</v>
       </c>
       <c r="C10" t="n">
         <v>1</v>
@@ -552,10 +552,10 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>30164</v>
+        <v>30195</v>
       </c>
       <c r="B11" t="n">
-        <v>1845200000000</v>
+        <v>1858400000000</v>
       </c>
       <c r="C11" t="n">
         <v>1</v>
@@ -563,10 +563,10 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>30195</v>
+        <v>30225</v>
       </c>
       <c r="B12" t="n">
-        <v>1858400000000</v>
+        <v>1869700000000</v>
       </c>
       <c r="C12" t="n">
         <v>1</v>
@@ -574,10 +574,10 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>30225</v>
+        <v>30256</v>
       </c>
       <c r="B13" t="n">
-        <v>1869700000000</v>
+        <v>1883700000000</v>
       </c>
       <c r="C13" t="n">
         <v>1</v>
@@ -585,10 +585,10 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>30256</v>
+        <v>30286</v>
       </c>
       <c r="B14" t="n">
-        <v>1883700000000</v>
+        <v>1905900000000</v>
       </c>
       <c r="C14" t="n">
         <v>1</v>
@@ -596,10 +596,10 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>30286</v>
+        <v>30317</v>
       </c>
       <c r="B15" t="n">
-        <v>1905900000000</v>
+        <v>1959400000000</v>
       </c>
       <c r="C15" t="n">
         <v>1</v>
@@ -607,10 +607,10 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>30317</v>
+        <v>30348</v>
       </c>
       <c r="B16" t="n">
-        <v>1959400000000</v>
+        <v>1996800000000</v>
       </c>
       <c r="C16" t="n">
         <v>1</v>
@@ -618,10 +618,10 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>30348</v>
+        <v>30376</v>
       </c>
       <c r="B17" t="n">
-        <v>1996800000000</v>
+        <v>2015200000000</v>
       </c>
       <c r="C17" t="n">
         <v>1</v>
@@ -629,10 +629,10 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>30376</v>
+        <v>30407</v>
       </c>
       <c r="B18" t="n">
-        <v>2015200000000</v>
+        <v>2028600000000</v>
       </c>
       <c r="C18" t="n">
         <v>1</v>
@@ -640,10 +640,10 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>30407</v>
+        <v>30437</v>
       </c>
       <c r="B19" t="n">
-        <v>2028600000000</v>
+        <v>2043100000000</v>
       </c>
       <c r="C19" t="n">
         <v>1</v>
@@ -651,10 +651,10 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>30437</v>
+        <v>30468</v>
       </c>
       <c r="B20" t="n">
-        <v>2043100000000</v>
+        <v>2053500000000</v>
       </c>
       <c r="C20" t="n">
         <v>1</v>
@@ -662,10 +662,10 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>30468</v>
+        <v>30498</v>
       </c>
       <c r="B21" t="n">
-        <v>2053500000000</v>
+        <v>2064800000000</v>
       </c>
       <c r="C21" t="n">
         <v>1</v>
@@ -673,10 +673,10 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>30498</v>
+        <v>30529</v>
       </c>
       <c r="B22" t="n">
-        <v>2064800000000</v>
+        <v>2074000000000</v>
       </c>
       <c r="C22" t="n">
         <v>1</v>
@@ -684,10 +684,10 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>30529</v>
+        <v>30560</v>
       </c>
       <c r="B23" t="n">
-        <v>2074000000000</v>
+        <v>2083200000000</v>
       </c>
       <c r="C23" t="n">
         <v>1</v>
@@ -695,10 +695,10 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>30560</v>
+        <v>30590</v>
       </c>
       <c r="B24" t="n">
-        <v>2083200000000</v>
+        <v>2099200000000</v>
       </c>
       <c r="C24" t="n">
         <v>1</v>
@@ -706,10 +706,10 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>30590</v>
+        <v>30621</v>
       </c>
       <c r="B25" t="n">
-        <v>2099200000000</v>
+        <v>2112300000000</v>
       </c>
       <c r="C25" t="n">
         <v>1</v>
@@ -717,10 +717,10 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>30621</v>
+        <v>30651</v>
       </c>
       <c r="B26" t="n">
-        <v>2112300000000</v>
+        <v>2123500000000</v>
       </c>
       <c r="C26" t="n">
         <v>1</v>
@@ -728,10 +728,10 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>30651</v>
+        <v>30682</v>
       </c>
       <c r="B27" t="n">
-        <v>2123500000000</v>
+        <v>2138200000000</v>
       </c>
       <c r="C27" t="n">
         <v>1</v>
@@ -739,10 +739,10 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>30682</v>
+        <v>30713</v>
       </c>
       <c r="B28" t="n">
-        <v>2138200000000</v>
+        <v>2158200000000</v>
       </c>
       <c r="C28" t="n">
         <v>1</v>
@@ -750,10 +750,10 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>30713</v>
+        <v>30742</v>
       </c>
       <c r="B29" t="n">
-        <v>2158200000000</v>
+        <v>2175200000000</v>
       </c>
       <c r="C29" t="n">
         <v>1</v>
@@ -761,10 +761,10 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>30742</v>
+        <v>30773</v>
       </c>
       <c r="B30" t="n">
-        <v>2175200000000</v>
+        <v>2191700000000</v>
       </c>
       <c r="C30" t="n">
         <v>1</v>
@@ -772,10 +772,10 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>30773</v>
+        <v>30803</v>
       </c>
       <c r="B31" t="n">
-        <v>2191700000000</v>
+        <v>2204100000000</v>
       </c>
       <c r="C31" t="n">
         <v>1</v>
@@ -783,10 +783,10 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>30803</v>
+        <v>30834</v>
       </c>
       <c r="B32" t="n">
-        <v>2204100000000</v>
+        <v>2215100000000</v>
       </c>
       <c r="C32" t="n">
         <v>1</v>
@@ -794,10 +794,10 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>30834</v>
+        <v>30864</v>
       </c>
       <c r="B33" t="n">
-        <v>2215100000000</v>
+        <v>2223500000000</v>
       </c>
       <c r="C33" t="n">
         <v>1</v>
@@ -805,10 +805,10 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>30864</v>
+        <v>30895</v>
       </c>
       <c r="B34" t="n">
-        <v>2223500000000</v>
+        <v>2230400000000</v>
       </c>
       <c r="C34" t="n">
         <v>1</v>
@@ -816,10 +816,10 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>30895</v>
+        <v>30926</v>
       </c>
       <c r="B35" t="n">
-        <v>2230400000000</v>
+        <v>2244400000000</v>
       </c>
       <c r="C35" t="n">
         <v>1</v>
@@ -827,10 +827,10 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>30926</v>
+        <v>30956</v>
       </c>
       <c r="B36" t="n">
-        <v>2244400000000</v>
+        <v>2258900000000</v>
       </c>
       <c r="C36" t="n">
         <v>1</v>
@@ -838,10 +838,10 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>30956</v>
+        <v>30987</v>
       </c>
       <c r="B37" t="n">
-        <v>2258900000000</v>
+        <v>2281400000000</v>
       </c>
       <c r="C37" t="n">
         <v>1</v>
@@ -849,10 +849,10 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>30987</v>
+        <v>31017</v>
       </c>
       <c r="B38" t="n">
-        <v>2281400000000</v>
+        <v>2306400000000</v>
       </c>
       <c r="C38" t="n">
         <v>1</v>
@@ -860,10 +860,10 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>31017</v>
+        <v>31048</v>
       </c>
       <c r="B39" t="n">
-        <v>2306400000000</v>
+        <v>2332400000000</v>
       </c>
       <c r="C39" t="n">
         <v>1</v>
@@ -871,10 +871,10 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>31048</v>
+        <v>31079</v>
       </c>
       <c r="B40" t="n">
-        <v>2332400000000</v>
+        <v>2354100000000</v>
       </c>
       <c r="C40" t="n">
         <v>1</v>
@@ -882,10 +882,10 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>31079</v>
+        <v>31107</v>
       </c>
       <c r="B41" t="n">
-        <v>2354100000000</v>
+        <v>2366200000000</v>
       </c>
       <c r="C41" t="n">
         <v>1</v>
@@ -893,10 +893,10 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>31107</v>
+        <v>31138</v>
       </c>
       <c r="B42" t="n">
-        <v>2366200000000</v>
+        <v>2375400000000</v>
       </c>
       <c r="C42" t="n">
         <v>1</v>
@@ -904,10 +904,10 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>31138</v>
+        <v>31168</v>
       </c>
       <c r="B43" t="n">
-        <v>2375400000000</v>
+        <v>2389500000000</v>
       </c>
       <c r="C43" t="n">
         <v>1</v>
@@ -915,10 +915,10 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>31168</v>
+        <v>31199</v>
       </c>
       <c r="B44" t="n">
-        <v>2389500000000</v>
+        <v>2412600000000</v>
       </c>
       <c r="C44" t="n">
         <v>1</v>
@@ -926,10 +926,10 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>31199</v>
+        <v>31229</v>
       </c>
       <c r="B45" t="n">
-        <v>2412600000000</v>
+        <v>2429500000000</v>
       </c>
       <c r="C45" t="n">
         <v>1</v>
@@ -937,10 +937,10 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>31229</v>
+        <v>31260</v>
       </c>
       <c r="B46" t="n">
-        <v>2429500000000</v>
+        <v>2444000000000</v>
       </c>
       <c r="C46" t="n">
         <v>1</v>
@@ -948,10 +948,10 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>31260</v>
+        <v>31291</v>
       </c>
       <c r="B47" t="n">
-        <v>2444000000000</v>
+        <v>2456400000000</v>
       </c>
       <c r="C47" t="n">
         <v>1</v>
@@ -959,10 +959,10 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>31291</v>
+        <v>31321</v>
       </c>
       <c r="B48" t="n">
-        <v>2456400000000</v>
+        <v>2468000000000</v>
       </c>
       <c r="C48" t="n">
         <v>1</v>
@@ -970,10 +970,10 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>31321</v>
+        <v>31352</v>
       </c>
       <c r="B49" t="n">
-        <v>2468000000000</v>
+        <v>2477800000000</v>
       </c>
       <c r="C49" t="n">
         <v>1</v>
@@ -981,10 +981,10 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>31352</v>
+        <v>31382</v>
       </c>
       <c r="B50" t="n">
-        <v>2477800000000</v>
+        <v>2492100000000</v>
       </c>
       <c r="C50" t="n">
         <v>1</v>
@@ -992,10 +992,10 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>31382</v>
+        <v>31413</v>
       </c>
       <c r="B51" t="n">
-        <v>2492100000000</v>
+        <v>2502100000000</v>
       </c>
       <c r="C51" t="n">
         <v>1</v>
@@ -1003,10 +1003,10 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>31413</v>
+        <v>31444</v>
       </c>
       <c r="B52" t="n">
-        <v>2502100000000</v>
+        <v>2512900000000</v>
       </c>
       <c r="C52" t="n">
         <v>1</v>
@@ -1014,10 +1014,10 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>31444</v>
+        <v>31472</v>
       </c>
       <c r="B53" t="n">
-        <v>2512900000000</v>
+        <v>2533100000000</v>
       </c>
       <c r="C53" t="n">
         <v>1</v>
@@ -1025,10 +1025,10 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>31472</v>
+        <v>31503</v>
       </c>
       <c r="B54" t="n">
-        <v>2533100000000</v>
+        <v>2557800000000</v>
       </c>
       <c r="C54" t="n">
         <v>1</v>
@@ -1036,10 +1036,10 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>31503</v>
+        <v>31533</v>
       </c>
       <c r="B55" t="n">
-        <v>2557800000000</v>
+        <v>2584800000000</v>
       </c>
       <c r="C55" t="n">
         <v>1</v>
@@ -1047,10 +1047,10 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>31533</v>
+        <v>31564</v>
       </c>
       <c r="B56" t="n">
-        <v>2584800000000</v>
+        <v>2605000000000</v>
       </c>
       <c r="C56" t="n">
         <v>1</v>
@@ -1058,10 +1058,10 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>31564</v>
+        <v>31594</v>
       </c>
       <c r="B57" t="n">
-        <v>2605000000000</v>
+        <v>2626600000000</v>
       </c>
       <c r="C57" t="n">
         <v>1</v>
@@ -1069,10 +1069,10 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>31594</v>
+        <v>31625</v>
       </c>
       <c r="B58" t="n">
-        <v>2626600000000</v>
+        <v>2646500000000</v>
       </c>
       <c r="C58" t="n">
         <v>1</v>
@@ -1080,10 +1080,10 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>31625</v>
+        <v>31656</v>
       </c>
       <c r="B59" t="n">
-        <v>2646500000000</v>
+        <v>2667800000000</v>
       </c>
       <c r="C59" t="n">
         <v>1</v>
@@ -1091,10 +1091,10 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>31656</v>
+        <v>31686</v>
       </c>
       <c r="B60" t="n">
-        <v>2667800000000</v>
+        <v>2687400000000</v>
       </c>
       <c r="C60" t="n">
         <v>1</v>
@@ -1102,10 +1102,10 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>31686</v>
+        <v>31717</v>
       </c>
       <c r="B61" t="n">
-        <v>2687400000000</v>
+        <v>2701300000000</v>
       </c>
       <c r="C61" t="n">
         <v>1</v>
@@ -1113,10 +1113,10 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>31717</v>
+        <v>31747</v>
       </c>
       <c r="B62" t="n">
-        <v>2701300000000</v>
+        <v>2728000000000</v>
       </c>
       <c r="C62" t="n">
         <v>1</v>
@@ -1124,10 +1124,10 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>31747</v>
+        <v>31778</v>
       </c>
       <c r="B63" t="n">
-        <v>2728000000000</v>
+        <v>2743900000000</v>
       </c>
       <c r="C63" t="n">
         <v>1</v>
@@ -1135,10 +1135,10 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>31778</v>
+        <v>31809</v>
       </c>
       <c r="B64" t="n">
-        <v>2743900000000</v>
+        <v>2747500000000</v>
       </c>
       <c r="C64" t="n">
         <v>1</v>
@@ -1146,10 +1146,10 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>31809</v>
+        <v>31837</v>
       </c>
       <c r="B65" t="n">
-        <v>2747500000000</v>
+        <v>2753700000000</v>
       </c>
       <c r="C65" t="n">
         <v>1</v>
@@ -1157,10 +1157,10 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>31837</v>
+        <v>31868</v>
       </c>
       <c r="B66" t="n">
-        <v>2753700000000</v>
+        <v>2767700000000</v>
       </c>
       <c r="C66" t="n">
         <v>1</v>
@@ -1168,10 +1168,10 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>31868</v>
+        <v>31898</v>
       </c>
       <c r="B67" t="n">
-        <v>2767700000000</v>
+        <v>2772900000000</v>
       </c>
       <c r="C67" t="n">
         <v>1</v>
@@ -1179,10 +1179,10 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>31898</v>
+        <v>31929</v>
       </c>
       <c r="B68" t="n">
-        <v>2772900000000</v>
+        <v>2774600000000</v>
       </c>
       <c r="C68" t="n">
         <v>1</v>
@@ -1190,10 +1190,10 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>31929</v>
+        <v>31959</v>
       </c>
       <c r="B69" t="n">
-        <v>2774600000000</v>
+        <v>2779000000000</v>
       </c>
       <c r="C69" t="n">
         <v>1</v>
@@ -1201,10 +1201,10 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>31959</v>
+        <v>31990</v>
       </c>
       <c r="B70" t="n">
-        <v>2779000000000</v>
+        <v>2788200000000</v>
       </c>
       <c r="C70" t="n">
         <v>1</v>
@@ -1212,10 +1212,10 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>31990</v>
+        <v>32021</v>
       </c>
       <c r="B71" t="n">
-        <v>2788200000000</v>
+        <v>2799500000000</v>
       </c>
       <c r="C71" t="n">
         <v>1</v>
@@ -1223,10 +1223,10 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>32021</v>
+        <v>32051</v>
       </c>
       <c r="B72" t="n">
-        <v>2799500000000</v>
+        <v>2814800000000</v>
       </c>
       <c r="C72" t="n">
         <v>1</v>
@@ -1234,10 +1234,10 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>32051</v>
+        <v>32082</v>
       </c>
       <c r="B73" t="n">
-        <v>2814800000000</v>
+        <v>2818900000000</v>
       </c>
       <c r="C73" t="n">
         <v>1</v>
@@ -1245,10 +1245,10 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>32082</v>
+        <v>32112</v>
       </c>
       <c r="B74" t="n">
-        <v>2818900000000</v>
+        <v>2826400000000</v>
       </c>
       <c r="C74" t="n">
         <v>1</v>
@@ -1256,10 +1256,10 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>32112</v>
+        <v>32143</v>
       </c>
       <c r="B75" t="n">
-        <v>2826400000000</v>
+        <v>2847400000000</v>
       </c>
       <c r="C75" t="n">
         <v>1</v>
@@ -1267,10 +1267,10 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>32143</v>
+        <v>32174</v>
       </c>
       <c r="B76" t="n">
-        <v>2847400000000</v>
+        <v>2870400000000</v>
       </c>
       <c r="C76" t="n">
         <v>1</v>
@@ -1278,10 +1278,10 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>32174</v>
+        <v>32203</v>
       </c>
       <c r="B77" t="n">
-        <v>2870400000000</v>
+        <v>2890700000000</v>
       </c>
       <c r="C77" t="n">
         <v>1</v>
@@ -1289,10 +1289,10 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>32203</v>
+        <v>32234</v>
       </c>
       <c r="B78" t="n">
-        <v>2890700000000</v>
+        <v>2910700000000</v>
       </c>
       <c r="C78" t="n">
         <v>1</v>
@@ -1300,10 +1300,10 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>32234</v>
+        <v>32264</v>
       </c>
       <c r="B79" t="n">
-        <v>2910700000000</v>
+        <v>2926000000000</v>
       </c>
       <c r="C79" t="n">
         <v>1</v>
@@ -1311,10 +1311,10 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>32264</v>
+        <v>32295</v>
       </c>
       <c r="B80" t="n">
-        <v>2926000000000</v>
+        <v>2938400000000</v>
       </c>
       <c r="C80" t="n">
         <v>1</v>
@@ -1322,10 +1322,10 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>32295</v>
+        <v>32325</v>
       </c>
       <c r="B81" t="n">
-        <v>2938400000000</v>
+        <v>2947200000000</v>
       </c>
       <c r="C81" t="n">
         <v>1</v>
@@ -1333,10 +1333,10 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>32325</v>
+        <v>32356</v>
       </c>
       <c r="B82" t="n">
-        <v>2947200000000</v>
+        <v>2952000000000</v>
       </c>
       <c r="C82" t="n">
         <v>1</v>
@@ -1344,10 +1344,10 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>32356</v>
+        <v>32387</v>
       </c>
       <c r="B83" t="n">
-        <v>2952000000000</v>
+        <v>2956900000000</v>
       </c>
       <c r="C83" t="n">
         <v>1</v>
@@ -1355,10 +1355,10 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>32387</v>
+        <v>32417</v>
       </c>
       <c r="B84" t="n">
-        <v>2956900000000</v>
+        <v>2965300000000</v>
       </c>
       <c r="C84" t="n">
         <v>1</v>
@@ -1366,10 +1366,10 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>32417</v>
+        <v>32448</v>
       </c>
       <c r="B85" t="n">
-        <v>2965300000000</v>
+        <v>2980200000000</v>
       </c>
       <c r="C85" t="n">
         <v>1</v>
@@ -1377,10 +1377,10 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>32448</v>
+        <v>32478</v>
       </c>
       <c r="B86" t="n">
-        <v>2980200000000</v>
+        <v>2988200000000</v>
       </c>
       <c r="C86" t="n">
         <v>1</v>
@@ -1388,10 +1388,10 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>32478</v>
+        <v>32509</v>
       </c>
       <c r="B87" t="n">
-        <v>2988200000000</v>
+        <v>2991700000000</v>
       </c>
       <c r="C87" t="n">
         <v>1</v>
@@ -1399,10 +1399,10 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>32509</v>
+        <v>32540</v>
       </c>
       <c r="B88" t="n">
-        <v>2991700000000</v>
+        <v>2992200000000</v>
       </c>
       <c r="C88" t="n">
         <v>1</v>
@@ -1410,10 +1410,10 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>32540</v>
+        <v>32568</v>
       </c>
       <c r="B89" t="n">
-        <v>2992200000000</v>
+        <v>2999700000000</v>
       </c>
       <c r="C89" t="n">
         <v>1</v>
@@ -1421,10 +1421,10 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>32568</v>
+        <v>32599</v>
       </c>
       <c r="B90" t="n">
-        <v>2999700000000</v>
+        <v>3006000000000</v>
       </c>
       <c r="C90" t="n">
         <v>1</v>
@@ -1432,10 +1432,10 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>32599</v>
+        <v>32629</v>
       </c>
       <c r="B91" t="n">
-        <v>3006000000000</v>
+        <v>3011600000000</v>
       </c>
       <c r="C91" t="n">
         <v>1</v>
@@ -1443,10 +1443,10 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>32629</v>
+        <v>32660</v>
       </c>
       <c r="B92" t="n">
-        <v>3011600000000</v>
+        <v>3027900000000</v>
       </c>
       <c r="C92" t="n">
         <v>1</v>
@@ -1454,10 +1454,10 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>32660</v>
+        <v>32690</v>
       </c>
       <c r="B93" t="n">
-        <v>3027900000000</v>
+        <v>3052400000000</v>
       </c>
       <c r="C93" t="n">
         <v>1</v>
@@ -1465,10 +1465,10 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>32690</v>
+        <v>32721</v>
       </c>
       <c r="B94" t="n">
-        <v>3052400000000</v>
+        <v>3074400000000</v>
       </c>
       <c r="C94" t="n">
         <v>1</v>
@@ -1476,10 +1476,10 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>32721</v>
+        <v>32752</v>
       </c>
       <c r="B95" t="n">
-        <v>3074400000000</v>
+        <v>3092500000000</v>
       </c>
       <c r="C95" t="n">
         <v>1</v>
@@ -1487,10 +1487,10 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>32752</v>
+        <v>32782</v>
       </c>
       <c r="B96" t="n">
-        <v>3092500000000</v>
+        <v>3114100000000</v>
       </c>
       <c r="C96" t="n">
         <v>1</v>
@@ -1498,10 +1498,10 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>32782</v>
+        <v>32813</v>
       </c>
       <c r="B97" t="n">
-        <v>3114100000000</v>
+        <v>3133300000000</v>
       </c>
       <c r="C97" t="n">
         <v>1</v>
@@ -1509,10 +1509,10 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>32813</v>
+        <v>32843</v>
       </c>
       <c r="B98" t="n">
-        <v>3133300000000</v>
+        <v>3152500000000</v>
       </c>
       <c r="C98" t="n">
         <v>1</v>
@@ -1520,10 +1520,10 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>32843</v>
+        <v>32874</v>
       </c>
       <c r="B99" t="n">
-        <v>3152500000000</v>
+        <v>3166800000000</v>
       </c>
       <c r="C99" t="n">
         <v>1</v>
@@ -1531,10 +1531,10 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>32874</v>
+        <v>32905</v>
       </c>
       <c r="B100" t="n">
-        <v>3166800000000</v>
+        <v>3179200000000</v>
       </c>
       <c r="C100" t="n">
         <v>1</v>
@@ -1542,10 +1542,10 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>32905</v>
+        <v>32933</v>
       </c>
       <c r="B101" t="n">
-        <v>3179200000000</v>
+        <v>3190100000000</v>
       </c>
       <c r="C101" t="n">
         <v>1</v>
@@ -1553,10 +1553,10 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
-        <v>32933</v>
+        <v>32964</v>
       </c>
       <c r="B102" t="n">
-        <v>3190100000000</v>
+        <v>3201600000000</v>
       </c>
       <c r="C102" t="n">
         <v>1</v>
@@ -1564,10 +1564,10 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
-        <v>32964</v>
+        <v>32994</v>
       </c>
       <c r="B103" t="n">
-        <v>3201600000000</v>
+        <v>3200600000000</v>
       </c>
       <c r="C103" t="n">
         <v>1</v>
@@ -1575,10 +1575,10 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
-        <v>32994</v>
+        <v>33025</v>
       </c>
       <c r="B104" t="n">
-        <v>3200600000000</v>
+        <v>3213700000000</v>
       </c>
       <c r="C104" t="n">
         <v>1</v>
@@ -1586,10 +1586,10 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
-        <v>33025</v>
+        <v>33055</v>
       </c>
       <c r="B105" t="n">
-        <v>3213700000000</v>
+        <v>3224500000000</v>
       </c>
       <c r="C105" t="n">
         <v>1</v>
@@ -1597,10 +1597,10 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
-        <v>33055</v>
+        <v>33086</v>
       </c>
       <c r="B106" t="n">
-        <v>3224500000000</v>
+        <v>3242000000000</v>
       </c>
       <c r="C106" t="n">
         <v>1</v>
@@ -1608,10 +1608,10 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
-        <v>33086</v>
+        <v>33117</v>
       </c>
       <c r="B107" t="n">
-        <v>3242000000000</v>
+        <v>3254600000000</v>
       </c>
       <c r="C107" t="n">
         <v>1</v>
@@ -1619,10 +1619,10 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
-        <v>33117</v>
+        <v>33147</v>
       </c>
       <c r="B108" t="n">
-        <v>3254600000000</v>
+        <v>3259300000000</v>
       </c>
       <c r="C108" t="n">
         <v>1</v>
@@ -1630,10 +1630,10 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
-        <v>33147</v>
+        <v>33178</v>
       </c>
       <c r="B109" t="n">
-        <v>3259300000000</v>
+        <v>3262600000000</v>
       </c>
       <c r="C109" t="n">
         <v>1</v>
@@ -1641,10 +1641,10 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
-        <v>33178</v>
+        <v>33208</v>
       </c>
       <c r="B110" t="n">
-        <v>3262600000000</v>
+        <v>3271800000000</v>
       </c>
       <c r="C110" t="n">
         <v>1</v>
@@ -1652,10 +1652,10 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
-        <v>33208</v>
+        <v>33239</v>
       </c>
       <c r="B111" t="n">
-        <v>3271800000000</v>
+        <v>3287700000000</v>
       </c>
       <c r="C111" t="n">
         <v>1</v>
@@ -1663,10 +1663,10 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
-        <v>33239</v>
+        <v>33270</v>
       </c>
       <c r="B112" t="n">
-        <v>3287700000000</v>
+        <v>3304500000000</v>
       </c>
       <c r="C112" t="n">
         <v>1</v>
@@ -1674,10 +1674,10 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
-        <v>33270</v>
+        <v>33298</v>
       </c>
       <c r="B113" t="n">
-        <v>3304500000000</v>
+        <v>3321900000000</v>
       </c>
       <c r="C113" t="n">
         <v>1</v>
@@ -1685,10 +1685,10 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
-        <v>33298</v>
+        <v>33329</v>
       </c>
       <c r="B114" t="n">
-        <v>3321900000000</v>
+        <v>3332400000000</v>
       </c>
       <c r="C114" t="n">
         <v>1</v>
@@ -1696,10 +1696,10 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
-        <v>33329</v>
+        <v>33359</v>
       </c>
       <c r="B115" t="n">
-        <v>3332400000000</v>
+        <v>3343000000000</v>
       </c>
       <c r="C115" t="n">
         <v>1</v>
@@ -1707,10 +1707,10 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
-        <v>33359</v>
+        <v>33390</v>
       </c>
       <c r="B116" t="n">
-        <v>3343000000000</v>
+        <v>3351900000000</v>
       </c>
       <c r="C116" t="n">
         <v>1</v>
@@ -1718,10 +1718,10 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
-        <v>33390</v>
+        <v>33420</v>
       </c>
       <c r="B117" t="n">
-        <v>3351900000000</v>
+        <v>3356100000000</v>
       </c>
       <c r="C117" t="n">
         <v>1</v>
@@ -1729,10 +1729,10 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
-        <v>33420</v>
+        <v>33451</v>
       </c>
       <c r="B118" t="n">
-        <v>3356100000000</v>
+        <v>3355000000000</v>
       </c>
       <c r="C118" t="n">
         <v>1</v>
@@ -1740,10 +1740,10 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
-        <v>33451</v>
+        <v>33482</v>
       </c>
       <c r="B119" t="n">
-        <v>3355000000000</v>
+        <v>3354900000000</v>
       </c>
       <c r="C119" t="n">
         <v>1</v>
@@ -1751,10 +1751,10 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
-        <v>33482</v>
+        <v>33512</v>
       </c>
       <c r="B120" t="n">
-        <v>3354900000000</v>
+        <v>3360100000000</v>
       </c>
       <c r="C120" t="n">
         <v>1</v>
@@ -1762,10 +1762,10 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
-        <v>33512</v>
+        <v>33543</v>
       </c>
       <c r="B121" t="n">
-        <v>3360100000000</v>
+        <v>3365500000000</v>
       </c>
       <c r="C121" t="n">
         <v>1</v>
@@ -1773,10 +1773,10 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
-        <v>33543</v>
+        <v>33573</v>
       </c>
       <c r="B122" t="n">
-        <v>3365500000000</v>
+        <v>3372200000000</v>
       </c>
       <c r="C122" t="n">
         <v>1</v>
@@ -1784,10 +1784,10 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
-        <v>33573</v>
+        <v>33604</v>
       </c>
       <c r="B123" t="n">
-        <v>3372200000000</v>
+        <v>3381200000000</v>
       </c>
       <c r="C123" t="n">
         <v>1</v>
@@ -1795,10 +1795,10 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
-        <v>33604</v>
+        <v>33635</v>
       </c>
       <c r="B124" t="n">
-        <v>3381200000000</v>
+        <v>3400000000000</v>
       </c>
       <c r="C124" t="n">
         <v>1</v>
@@ -1806,10 +1806,10 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
-        <v>33635</v>
+        <v>33664</v>
       </c>
       <c r="B125" t="n">
-        <v>3400000000000</v>
+        <v>3403900000000</v>
       </c>
       <c r="C125" t="n">
         <v>1</v>
@@ -1817,10 +1817,10 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
-        <v>33664</v>
+        <v>33695</v>
       </c>
       <c r="B126" t="n">
-        <v>3403900000000</v>
+        <v>3399700000000</v>
       </c>
       <c r="C126" t="n">
         <v>1</v>
@@ -1828,10 +1828,10 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="n">
-        <v>33695</v>
+        <v>33725</v>
       </c>
       <c r="B127" t="n">
-        <v>3399700000000</v>
+        <v>3398600000000</v>
       </c>
       <c r="C127" t="n">
         <v>1</v>
@@ -1839,10 +1839,10 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
-        <v>33725</v>
+        <v>33756</v>
       </c>
       <c r="B128" t="n">
-        <v>3398600000000</v>
+        <v>3393400000000</v>
       </c>
       <c r="C128" t="n">
         <v>1</v>
@@ -1850,10 +1850,10 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
-        <v>33756</v>
+        <v>33786</v>
       </c>
       <c r="B129" t="n">
-        <v>3393400000000</v>
+        <v>3393900000000</v>
       </c>
       <c r="C129" t="n">
         <v>1</v>
@@ -1861,10 +1861,10 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
-        <v>33786</v>
+        <v>33817</v>
       </c>
       <c r="B130" t="n">
-        <v>3393900000000</v>
+        <v>3398800000000</v>
       </c>
       <c r="C130" t="n">
         <v>1</v>
@@ -1872,10 +1872,10 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
-        <v>33817</v>
+        <v>33848</v>
       </c>
       <c r="B131" t="n">
-        <v>3398800000000</v>
+        <v>3410300000000</v>
       </c>
       <c r="C131" t="n">
         <v>1</v>
@@ -1883,10 +1883,10 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
-        <v>33848</v>
+        <v>33878</v>
       </c>
       <c r="B132" t="n">
-        <v>3410300000000</v>
+        <v>3423800000000</v>
       </c>
       <c r="C132" t="n">
         <v>1</v>
@@ -1894,10 +1894,10 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="n">
-        <v>33878</v>
+        <v>33909</v>
       </c>
       <c r="B133" t="n">
-        <v>3423800000000</v>
+        <v>3426500000000</v>
       </c>
       <c r="C133" t="n">
         <v>1</v>
@@ -1905,10 +1905,10 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="n">
-        <v>33909</v>
+        <v>33939</v>
       </c>
       <c r="B134" t="n">
-        <v>3426500000000</v>
+        <v>3424700000000</v>
       </c>
       <c r="C134" t="n">
         <v>1</v>
@@ -1916,10 +1916,10 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="n">
-        <v>33939</v>
+        <v>33970</v>
       </c>
       <c r="B135" t="n">
-        <v>3424700000000</v>
+        <v>3419100000000</v>
       </c>
       <c r="C135" t="n">
         <v>1</v>
@@ -1927,10 +1927,10 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="n">
-        <v>33970</v>
+        <v>34001</v>
       </c>
       <c r="B136" t="n">
-        <v>3419100000000</v>
+        <v>3414500000000</v>
       </c>
       <c r="C136" t="n">
         <v>1</v>
@@ -1938,10 +1938,10 @@
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
-        <v>34001</v>
+        <v>34029</v>
       </c>
       <c r="B137" t="n">
-        <v>3414500000000</v>
+        <v>3411700000000</v>
       </c>
       <c r="C137" t="n">
         <v>1</v>
@@ -1949,10 +1949,10 @@
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
-        <v>34029</v>
+        <v>34060</v>
       </c>
       <c r="B138" t="n">
-        <v>3411700000000</v>
+        <v>3411300000000</v>
       </c>
       <c r="C138" t="n">
         <v>1</v>
@@ -1960,10 +1960,10 @@
     </row>
     <row r="139">
       <c r="A139" s="2" t="n">
-        <v>34060</v>
+        <v>34090</v>
       </c>
       <c r="B139" t="n">
-        <v>3411300000000</v>
+        <v>3436900000000</v>
       </c>
       <c r="C139" t="n">
         <v>1</v>
@@ -1971,10 +1971,10 @@
     </row>
     <row r="140">
       <c r="A140" s="2" t="n">
-        <v>34090</v>
+        <v>34121</v>
       </c>
       <c r="B140" t="n">
-        <v>3436900000000</v>
+        <v>3442400000000</v>
       </c>
       <c r="C140" t="n">
         <v>1</v>
@@ -1982,10 +1982,10 @@
     </row>
     <row r="141">
       <c r="A141" s="2" t="n">
-        <v>34121</v>
+        <v>34151</v>
       </c>
       <c r="B141" t="n">
-        <v>3442400000000</v>
+        <v>3442000000000</v>
       </c>
       <c r="C141" t="n">
         <v>1</v>
@@ -1993,10 +1993,10 @@
     </row>
     <row r="142">
       <c r="A142" s="2" t="n">
-        <v>34151</v>
+        <v>34182</v>
       </c>
       <c r="B142" t="n">
-        <v>3442000000000</v>
+        <v>3445700000000</v>
       </c>
       <c r="C142" t="n">
         <v>1</v>
@@ -2004,10 +2004,10 @@
     </row>
     <row r="143">
       <c r="A143" s="2" t="n">
-        <v>34182</v>
+        <v>34213</v>
       </c>
       <c r="B143" t="n">
-        <v>3445700000000</v>
+        <v>3452200000000</v>
       </c>
       <c r="C143" t="n">
         <v>1</v>
@@ -2015,10 +2015,10 @@
     </row>
     <row r="144">
       <c r="A144" s="2" t="n">
-        <v>34213</v>
+        <v>34243</v>
       </c>
       <c r="B144" t="n">
-        <v>3452200000000</v>
+        <v>3456700000000</v>
       </c>
       <c r="C144" t="n">
         <v>1</v>
@@ -2026,10 +2026,10 @@
     </row>
     <row r="145">
       <c r="A145" s="2" t="n">
-        <v>34243</v>
+        <v>34274</v>
       </c>
       <c r="B145" t="n">
-        <v>3456700000000</v>
+        <v>3470100000000</v>
       </c>
       <c r="C145" t="n">
         <v>1</v>
@@ -2037,10 +2037,10 @@
     </row>
     <row r="146">
       <c r="A146" s="2" t="n">
-        <v>34274</v>
+        <v>34304</v>
       </c>
       <c r="B146" t="n">
-        <v>3470100000000</v>
+        <v>3474500000000</v>
       </c>
       <c r="C146" t="n">
         <v>1</v>
@@ -2048,10 +2048,10 @@
     </row>
     <row r="147">
       <c r="A147" s="2" t="n">
-        <v>34304</v>
+        <v>34335</v>
       </c>
       <c r="B147" t="n">
-        <v>3474500000000</v>
+        <v>3474900000000</v>
       </c>
       <c r="C147" t="n">
         <v>1</v>
@@ -2059,10 +2059,10 @@
     </row>
     <row r="148">
       <c r="A148" s="2" t="n">
-        <v>34335</v>
+        <v>34366</v>
       </c>
       <c r="B148" t="n">
-        <v>3474900000000</v>
+        <v>3475700000000</v>
       </c>
       <c r="C148" t="n">
         <v>1</v>
@@ -2070,10 +2070,10 @@
     </row>
     <row r="149">
       <c r="A149" s="2" t="n">
-        <v>34366</v>
+        <v>34394</v>
       </c>
       <c r="B149" t="n">
-        <v>3475700000000</v>
+        <v>3480100000000</v>
       </c>
       <c r="C149" t="n">
         <v>1</v>
@@ -2081,10 +2081,10 @@
     </row>
     <row r="150">
       <c r="A150" s="2" t="n">
-        <v>34394</v>
+        <v>34425</v>
       </c>
       <c r="B150" t="n">
-        <v>3480100000000</v>
+        <v>3481300000000</v>
       </c>
       <c r="C150" t="n">
         <v>1</v>
@@ -2092,10 +2092,10 @@
     </row>
     <row r="151">
       <c r="A151" s="2" t="n">
-        <v>34425</v>
+        <v>34455</v>
       </c>
       <c r="B151" t="n">
-        <v>3481300000000</v>
+        <v>3490800000000</v>
       </c>
       <c r="C151" t="n">
         <v>1</v>
@@ -2103,10 +2103,10 @@
     </row>
     <row r="152">
       <c r="A152" s="2" t="n">
-        <v>34455</v>
+        <v>34486</v>
       </c>
       <c r="B152" t="n">
-        <v>3490800000000</v>
+        <v>3479500000000</v>
       </c>
       <c r="C152" t="n">
         <v>1</v>
@@ -2114,10 +2114,10 @@
     </row>
     <row r="153">
       <c r="A153" s="2" t="n">
-        <v>34486</v>
+        <v>34516</v>
       </c>
       <c r="B153" t="n">
-        <v>3479500000000</v>
+        <v>3488200000000</v>
       </c>
       <c r="C153" t="n">
         <v>1</v>
@@ -2125,10 +2125,10 @@
     </row>
     <row r="154">
       <c r="A154" s="2" t="n">
-        <v>34516</v>
+        <v>34547</v>
       </c>
       <c r="B154" t="n">
-        <v>3488200000000</v>
+        <v>3485700000000</v>
       </c>
       <c r="C154" t="n">
         <v>1</v>
@@ -2136,10 +2136,10 @@
     </row>
     <row r="155">
       <c r="A155" s="2" t="n">
-        <v>34547</v>
+        <v>34578</v>
       </c>
       <c r="B155" t="n">
-        <v>3485700000000</v>
+        <v>3486100000000</v>
       </c>
       <c r="C155" t="n">
         <v>1</v>
@@ -2147,10 +2147,10 @@
     </row>
     <row r="156">
       <c r="A156" s="2" t="n">
-        <v>34578</v>
+        <v>34608</v>
       </c>
       <c r="B156" t="n">
-        <v>3486100000000</v>
+        <v>3484300000000</v>
       </c>
       <c r="C156" t="n">
         <v>1</v>
@@ -2158,10 +2158,10 @@
     </row>
     <row r="157">
       <c r="A157" s="2" t="n">
-        <v>34608</v>
+        <v>34639</v>
       </c>
       <c r="B157" t="n">
-        <v>3484300000000</v>
+        <v>3487200000000</v>
       </c>
       <c r="C157" t="n">
         <v>1</v>
@@ -2169,10 +2169,10 @@
     </row>
     <row r="158">
       <c r="A158" s="2" t="n">
-        <v>34639</v>
+        <v>34669</v>
       </c>
       <c r="B158" t="n">
-        <v>3487200000000</v>
+        <v>3486400000000</v>
       </c>
       <c r="C158" t="n">
         <v>1</v>
@@ -2180,10 +2180,10 @@
     </row>
     <row r="159">
       <c r="A159" s="2" t="n">
-        <v>34669</v>
+        <v>34700</v>
       </c>
       <c r="B159" t="n">
-        <v>3486400000000</v>
+        <v>3492400000000</v>
       </c>
       <c r="C159" t="n">
         <v>1</v>
@@ -2191,10 +2191,10 @@
     </row>
     <row r="160">
       <c r="A160" s="2" t="n">
-        <v>34700</v>
+        <v>34731</v>
       </c>
       <c r="B160" t="n">
-        <v>3492400000000</v>
+        <v>3489900000000</v>
       </c>
       <c r="C160" t="n">
         <v>1</v>
@@ -2202,10 +2202,10 @@
     </row>
     <row r="161">
       <c r="A161" s="2" t="n">
-        <v>34731</v>
+        <v>34759</v>
       </c>
       <c r="B161" t="n">
-        <v>3489900000000</v>
+        <v>3491100000000</v>
       </c>
       <c r="C161" t="n">
         <v>1</v>
@@ -2213,10 +2213,10 @@
     </row>
     <row r="162">
       <c r="A162" s="2" t="n">
-        <v>34759</v>
+        <v>34790</v>
       </c>
       <c r="B162" t="n">
-        <v>3491100000000</v>
+        <v>3499200000000</v>
       </c>
       <c r="C162" t="n">
         <v>1</v>
@@ -2224,10 +2224,10 @@
     </row>
     <row r="163">
       <c r="A163" s="2" t="n">
-        <v>34790</v>
+        <v>34820</v>
       </c>
       <c r="B163" t="n">
-        <v>3499200000000</v>
+        <v>3524200000000</v>
       </c>
       <c r="C163" t="n">
         <v>1</v>
@@ -2235,10 +2235,10 @@
     </row>
     <row r="164">
       <c r="A164" s="2" t="n">
-        <v>34820</v>
+        <v>34851</v>
       </c>
       <c r="B164" t="n">
-        <v>3524200000000</v>
+        <v>3548900000000</v>
       </c>
       <c r="C164" t="n">
         <v>1</v>
@@ -2246,10 +2246,10 @@
     </row>
     <row r="165">
       <c r="A165" s="2" t="n">
-        <v>34851</v>
+        <v>34881</v>
       </c>
       <c r="B165" t="n">
-        <v>3548900000000</v>
+        <v>3567400000000</v>
       </c>
       <c r="C165" t="n">
         <v>1</v>
@@ -2257,10 +2257,10 @@
     </row>
     <row r="166">
       <c r="A166" s="2" t="n">
-        <v>34881</v>
+        <v>34912</v>
       </c>
       <c r="B166" t="n">
-        <v>3567400000000</v>
+        <v>3589000000000</v>
       </c>
       <c r="C166" t="n">
         <v>1</v>
@@ -2268,10 +2268,10 @@
     </row>
     <row r="167">
       <c r="A167" s="2" t="n">
-        <v>34912</v>
+        <v>34943</v>
       </c>
       <c r="B167" t="n">
-        <v>3589000000000</v>
+        <v>3602100000000</v>
       </c>
       <c r="C167" t="n">
         <v>1</v>
@@ -2279,10 +2279,10 @@
     </row>
     <row r="168">
       <c r="A168" s="2" t="n">
-        <v>34943</v>
+        <v>34973</v>
       </c>
       <c r="B168" t="n">
-        <v>3602100000000</v>
+        <v>3613400000000</v>
       </c>
       <c r="C168" t="n">
         <v>1</v>
@@ -2290,10 +2290,10 @@
     </row>
     <row r="169">
       <c r="A169" s="2" t="n">
-        <v>34973</v>
+        <v>35004</v>
       </c>
       <c r="B169" t="n">
-        <v>3613400000000</v>
+        <v>3619900000000</v>
       </c>
       <c r="C169" t="n">
         <v>1</v>
@@ -2301,10 +2301,10 @@
     </row>
     <row r="170">
       <c r="A170" s="2" t="n">
-        <v>35004</v>
+        <v>35034</v>
       </c>
       <c r="B170" t="n">
-        <v>3619900000000</v>
+        <v>3629500000000</v>
       </c>
       <c r="C170" t="n">
         <v>1</v>
@@ -2312,10 +2312,10 @@
     </row>
     <row r="171">
       <c r="A171" s="2" t="n">
-        <v>35034</v>
+        <v>35065</v>
       </c>
       <c r="B171" t="n">
-        <v>3629500000000</v>
+        <v>3647900000000</v>
       </c>
       <c r="C171" t="n">
         <v>1</v>
@@ -2323,10 +2323,10 @@
     </row>
     <row r="172">
       <c r="A172" s="2" t="n">
-        <v>35065</v>
+        <v>35096</v>
       </c>
       <c r="B172" t="n">
-        <v>3647900000000</v>
+        <v>3661800000000</v>
       </c>
       <c r="C172" t="n">
         <v>1</v>
@@ -2334,10 +2334,10 @@
     </row>
     <row r="173">
       <c r="A173" s="2" t="n">
-        <v>35096</v>
+        <v>35125</v>
       </c>
       <c r="B173" t="n">
-        <v>3661800000000</v>
+        <v>3686900000000</v>
       </c>
       <c r="C173" t="n">
         <v>1</v>
@@ -2345,10 +2345,10 @@
     </row>
     <row r="174">
       <c r="A174" s="2" t="n">
-        <v>35125</v>
+        <v>35156</v>
       </c>
       <c r="B174" t="n">
-        <v>3686900000000</v>
+        <v>3697700000000</v>
       </c>
       <c r="C174" t="n">
         <v>1</v>
@@ -2356,10 +2356,10 @@
     </row>
     <row r="175">
       <c r="A175" s="2" t="n">
-        <v>35156</v>
+        <v>35186</v>
       </c>
       <c r="B175" t="n">
-        <v>3697700000000</v>
+        <v>3709600000000</v>
       </c>
       <c r="C175" t="n">
         <v>1</v>
@@ -2367,10 +2367,10 @@
     </row>
     <row r="176">
       <c r="A176" s="2" t="n">
-        <v>35186</v>
+        <v>35217</v>
       </c>
       <c r="B176" t="n">
-        <v>3709600000000</v>
+        <v>3722500000000</v>
       </c>
       <c r="C176" t="n">
         <v>1</v>
@@ -2378,10 +2378,10 @@
     </row>
     <row r="177">
       <c r="A177" s="2" t="n">
-        <v>35217</v>
+        <v>35247</v>
       </c>
       <c r="B177" t="n">
-        <v>3722500000000</v>
+        <v>3737100000000</v>
       </c>
       <c r="C177" t="n">
         <v>1</v>
@@ -2389,10 +2389,10 @@
     </row>
     <row r="178">
       <c r="A178" s="2" t="n">
-        <v>35247</v>
+        <v>35278</v>
       </c>
       <c r="B178" t="n">
-        <v>3737100000000</v>
+        <v>3744000000000</v>
       </c>
       <c r="C178" t="n">
         <v>1</v>
@@ -2400,10 +2400,10 @@
     </row>
     <row r="179">
       <c r="A179" s="2" t="n">
-        <v>35278</v>
+        <v>35309</v>
       </c>
       <c r="B179" t="n">
-        <v>3744000000000</v>
+        <v>3753400000000</v>
       </c>
       <c r="C179" t="n">
         <v>1</v>
@@ -2411,10 +2411,10 @@
     </row>
     <row r="180">
       <c r="A180" s="2" t="n">
-        <v>35309</v>
+        <v>35339</v>
       </c>
       <c r="B180" t="n">
-        <v>3753400000000</v>
+        <v>3772800000000</v>
       </c>
       <c r="C180" t="n">
         <v>1</v>
@@ -2422,10 +2422,10 @@
     </row>
     <row r="181">
       <c r="A181" s="2" t="n">
-        <v>35339</v>
+        <v>35370</v>
       </c>
       <c r="B181" t="n">
-        <v>3772800000000</v>
+        <v>3795100000000</v>
       </c>
       <c r="C181" t="n">
         <v>1</v>
@@ -2433,10 +2433,10 @@
     </row>
     <row r="182">
       <c r="A182" s="2" t="n">
-        <v>35370</v>
+        <v>35400</v>
       </c>
       <c r="B182" t="n">
-        <v>3795100000000</v>
+        <v>3818600000000</v>
       </c>
       <c r="C182" t="n">
         <v>1</v>
@@ -2444,10 +2444,10 @@
     </row>
     <row r="183">
       <c r="A183" s="2" t="n">
-        <v>35400</v>
+        <v>35431</v>
       </c>
       <c r="B183" t="n">
-        <v>3818600000000</v>
+        <v>3834600000000</v>
       </c>
       <c r="C183" t="n">
         <v>1</v>
@@ -2455,10 +2455,10 @@
     </row>
     <row r="184">
       <c r="A184" s="2" t="n">
-        <v>35431</v>
+        <v>35462</v>
       </c>
       <c r="B184" t="n">
-        <v>3834600000000</v>
+        <v>3846300000000</v>
       </c>
       <c r="C184" t="n">
         <v>1</v>
@@ -2466,10 +2466,10 @@
     </row>
     <row r="185">
       <c r="A185" s="2" t="n">
-        <v>35462</v>
+        <v>35490</v>
       </c>
       <c r="B185" t="n">
-        <v>3846300000000</v>
+        <v>3861200000000</v>
       </c>
       <c r="C185" t="n">
         <v>1</v>
@@ -2477,10 +2477,10 @@
     </row>
     <row r="186">
       <c r="A186" s="2" t="n">
-        <v>35490</v>
+        <v>35521</v>
       </c>
       <c r="B186" t="n">
-        <v>3861200000000</v>
+        <v>3877000000000</v>
       </c>
       <c r="C186" t="n">
         <v>1</v>
@@ -2488,10 +2488,10 @@
     </row>
     <row r="187">
       <c r="A187" s="2" t="n">
-        <v>35521</v>
+        <v>35551</v>
       </c>
       <c r="B187" t="n">
-        <v>3877000000000</v>
+        <v>3889200000000</v>
       </c>
       <c r="C187" t="n">
         <v>1</v>
@@ -2499,10 +2499,10 @@
     </row>
     <row r="188">
       <c r="A188" s="2" t="n">
-        <v>35551</v>
+        <v>35582</v>
       </c>
       <c r="B188" t="n">
-        <v>3889200000000</v>
+        <v>3906000000000</v>
       </c>
       <c r="C188" t="n">
         <v>1</v>
@@ -2510,10 +2510,10 @@
     </row>
     <row r="189">
       <c r="A189" s="2" t="n">
-        <v>35582</v>
+        <v>35612</v>
       </c>
       <c r="B189" t="n">
-        <v>3906000000000</v>
+        <v>3923900000000</v>
       </c>
       <c r="C189" t="n">
         <v>1</v>
@@ -2521,10 +2521,10 @@
     </row>
     <row r="190">
       <c r="A190" s="2" t="n">
-        <v>35612</v>
+        <v>35643</v>
       </c>
       <c r="B190" t="n">
-        <v>3923900000000</v>
+        <v>3957400000000</v>
       </c>
       <c r="C190" t="n">
         <v>1</v>
@@ -2532,10 +2532,10 @@
     </row>
     <row r="191">
       <c r="A191" s="2" t="n">
-        <v>35643</v>
+        <v>35674</v>
       </c>
       <c r="B191" t="n">
-        <v>3957400000000</v>
+        <v>3973100000000</v>
       </c>
       <c r="C191" t="n">
         <v>1</v>
@@ -2543,10 +2543,10 @@
     </row>
     <row r="192">
       <c r="A192" s="2" t="n">
-        <v>35674</v>
+        <v>35704</v>
       </c>
       <c r="B192" t="n">
-        <v>3973100000000</v>
+        <v>3992300000000</v>
       </c>
       <c r="C192" t="n">
         <v>1</v>
@@ -2554,10 +2554,10 @@
     </row>
     <row r="193">
       <c r="A193" s="2" t="n">
-        <v>35704</v>
+        <v>35735</v>
       </c>
       <c r="B193" t="n">
-        <v>3992300000000</v>
+        <v>4014800000000</v>
       </c>
       <c r="C193" t="n">
         <v>1</v>
@@ -2565,10 +2565,10 @@
     </row>
     <row r="194">
       <c r="A194" s="2" t="n">
-        <v>35735</v>
+        <v>35765</v>
       </c>
       <c r="B194" t="n">
-        <v>4014800000000</v>
+        <v>4032900000000</v>
       </c>
       <c r="C194" t="n">
         <v>1</v>
@@ -2576,10 +2576,10 @@
     </row>
     <row r="195">
       <c r="A195" s="2" t="n">
-        <v>35765</v>
+        <v>35796</v>
       </c>
       <c r="B195" t="n">
-        <v>4032900000000</v>
+        <v>4056200000000</v>
       </c>
       <c r="C195" t="n">
         <v>1</v>
@@ -2587,10 +2587,10 @@
     </row>
     <row r="196">
       <c r="A196" s="2" t="n">
-        <v>35796</v>
+        <v>35827</v>
       </c>
       <c r="B196" t="n">
-        <v>4056200000000</v>
+        <v>4088900000000</v>
       </c>
       <c r="C196" t="n">
         <v>1</v>
@@ -2598,10 +2598,10 @@
     </row>
     <row r="197">
       <c r="A197" s="2" t="n">
-        <v>35827</v>
+        <v>35855</v>
       </c>
       <c r="B197" t="n">
-        <v>4088900000000</v>
+        <v>4114300000000</v>
       </c>
       <c r="C197" t="n">
         <v>1</v>
@@ -2609,10 +2609,10 @@
     </row>
     <row r="198">
       <c r="A198" s="2" t="n">
-        <v>35855</v>
+        <v>35886</v>
       </c>
       <c r="B198" t="n">
-        <v>4114300000000</v>
+        <v>4140200000000</v>
       </c>
       <c r="C198" t="n">
         <v>1</v>
@@ -2620,10 +2620,10 @@
     </row>
     <row r="199">
       <c r="A199" s="2" t="n">
-        <v>35886</v>
+        <v>35916</v>
       </c>
       <c r="B199" t="n">
-        <v>4140200000000</v>
+        <v>4164400000000</v>
       </c>
       <c r="C199" t="n">
         <v>1</v>
@@ -2631,10 +2631,10 @@
     </row>
     <row r="200">
       <c r="A200" s="2" t="n">
-        <v>35916</v>
+        <v>35947</v>
       </c>
       <c r="B200" t="n">
-        <v>4164400000000</v>
+        <v>4184100000000</v>
       </c>
       <c r="C200" t="n">
         <v>1</v>
@@ -2642,10 +2642,10 @@
     </row>
     <row r="201">
       <c r="A201" s="2" t="n">
-        <v>35947</v>
+        <v>35977</v>
       </c>
       <c r="B201" t="n">
-        <v>4184100000000</v>
+        <v>4203800000000</v>
       </c>
       <c r="C201" t="n">
         <v>1</v>
@@ -2653,10 +2653,10 @@
     </row>
     <row r="202">
       <c r="A202" s="2" t="n">
-        <v>35977</v>
+        <v>36008</v>
       </c>
       <c r="B202" t="n">
-        <v>4203800000000</v>
+        <v>4228700000000</v>
       </c>
       <c r="C202" t="n">
         <v>1</v>
@@ -2664,10 +2664,10 @@
     </row>
     <row r="203">
       <c r="A203" s="2" t="n">
-        <v>36008</v>
+        <v>36039</v>
       </c>
       <c r="B203" t="n">
-        <v>4228700000000</v>
+        <v>4267600000000</v>
       </c>
       <c r="C203" t="n">
         <v>1</v>
@@ -2675,10 +2675,10 @@
     </row>
     <row r="204">
       <c r="A204" s="2" t="n">
-        <v>36039</v>
+        <v>36069</v>
       </c>
       <c r="B204" t="n">
-        <v>4267600000000</v>
+        <v>4307700000000</v>
       </c>
       <c r="C204" t="n">
         <v>1</v>
@@ -2686,10 +2686,10 @@
     </row>
     <row r="205">
       <c r="A205" s="2" t="n">
-        <v>36069</v>
+        <v>36100</v>
       </c>
       <c r="B205" t="n">
-        <v>4307700000000</v>
+        <v>4346400000000</v>
       </c>
       <c r="C205" t="n">
         <v>1</v>
@@ -2697,10 +2697,10 @@
     </row>
     <row r="206">
       <c r="A206" s="2" t="n">
-        <v>36100</v>
+        <v>36130</v>
       </c>
       <c r="B206" t="n">
-        <v>4346400000000</v>
+        <v>4375200000000</v>
       </c>
       <c r="C206" t="n">
         <v>1</v>
@@ -2708,10 +2708,10 @@
     </row>
     <row r="207">
       <c r="A207" s="2" t="n">
-        <v>36130</v>
+        <v>36161</v>
       </c>
       <c r="B207" t="n">
-        <v>4375200000000</v>
+        <v>4402600000000</v>
       </c>
       <c r="C207" t="n">
         <v>1</v>
@@ -2719,10 +2719,10 @@
     </row>
     <row r="208">
       <c r="A208" s="2" t="n">
-        <v>36161</v>
+        <v>36192</v>
       </c>
       <c r="B208" t="n">
-        <v>4402600000000</v>
+        <v>4425300000000</v>
       </c>
       <c r="C208" t="n">
         <v>1</v>
@@ -2730,10 +2730,10 @@
     </row>
     <row r="209">
       <c r="A209" s="2" t="n">
-        <v>36192</v>
+        <v>36220</v>
       </c>
       <c r="B209" t="n">
-        <v>4425300000000</v>
+        <v>4432100000000</v>
       </c>
       <c r="C209" t="n">
         <v>1</v>
@@ -2741,10 +2741,10 @@
     </row>
     <row r="210">
       <c r="A210" s="2" t="n">
-        <v>36220</v>
+        <v>36251</v>
       </c>
       <c r="B210" t="n">
-        <v>4432100000000</v>
+        <v>4460700000000</v>
       </c>
       <c r="C210" t="n">
         <v>1</v>
@@ -2752,10 +2752,10 @@
     </row>
     <row r="211">
       <c r="A211" s="2" t="n">
-        <v>36251</v>
+        <v>36281</v>
       </c>
       <c r="B211" t="n">
-        <v>4460700000000</v>
+        <v>4485300000000</v>
       </c>
       <c r="C211" t="n">
         <v>1</v>
@@ -2763,10 +2763,10 @@
     </row>
     <row r="212">
       <c r="A212" s="2" t="n">
-        <v>36281</v>
+        <v>36312</v>
       </c>
       <c r="B212" t="n">
-        <v>4485300000000</v>
+        <v>4507200000000</v>
       </c>
       <c r="C212" t="n">
         <v>1</v>
@@ -2774,10 +2774,10 @@
     </row>
     <row r="213">
       <c r="A213" s="2" t="n">
-        <v>36312</v>
+        <v>36342</v>
       </c>
       <c r="B213" t="n">
-        <v>4507200000000</v>
+        <v>4534500000000</v>
       </c>
       <c r="C213" t="n">
         <v>1</v>
@@ -2785,10 +2785,10 @@
     </row>
     <row r="214">
       <c r="A214" s="2" t="n">
-        <v>36342</v>
+        <v>36373</v>
       </c>
       <c r="B214" t="n">
-        <v>4534500000000</v>
+        <v>4551700000000</v>
       </c>
       <c r="C214" t="n">
         <v>1</v>
@@ -2796,10 +2796,10 @@
     </row>
     <row r="215">
       <c r="A215" s="2" t="n">
-        <v>36373</v>
+        <v>36404</v>
       </c>
       <c r="B215" t="n">
-        <v>4551700000000</v>
+        <v>4567700000000</v>
       </c>
       <c r="C215" t="n">
         <v>1</v>
@@ -2807,10 +2807,10 @@
     </row>
     <row r="216">
       <c r="A216" s="2" t="n">
-        <v>36404</v>
+        <v>36434</v>
       </c>
       <c r="B216" t="n">
-        <v>4567700000000</v>
+        <v>4591500000000</v>
       </c>
       <c r="C216" t="n">
         <v>1</v>
@@ -2818,10 +2818,10 @@
     </row>
     <row r="217">
       <c r="A217" s="2" t="n">
-        <v>36434</v>
+        <v>36465</v>
       </c>
       <c r="B217" t="n">
-        <v>4591500000000</v>
+        <v>4610500000000</v>
       </c>
       <c r="C217" t="n">
         <v>1</v>
@@ -2829,10 +2829,10 @@
     </row>
     <row r="218">
       <c r="A218" s="2" t="n">
-        <v>36465</v>
+        <v>36495</v>
       </c>
       <c r="B218" t="n">
-        <v>4610500000000</v>
+        <v>4638000000000</v>
       </c>
       <c r="C218" t="n">
         <v>1</v>
@@ -2840,10 +2840,10 @@
     </row>
     <row r="219">
       <c r="A219" s="2" t="n">
-        <v>36495</v>
+        <v>36526</v>
       </c>
       <c r="B219" t="n">
-        <v>4638000000000</v>
+        <v>4666200000000</v>
       </c>
       <c r="C219" t="n">
         <v>1</v>
@@ -2851,10 +2851,10 @@
     </row>
     <row r="220">
       <c r="A220" s="2" t="n">
-        <v>36526</v>
+        <v>36557</v>
       </c>
       <c r="B220" t="n">
-        <v>4666200000000</v>
+        <v>4679400000000</v>
       </c>
       <c r="C220" t="n">
         <v>1</v>
@@ -2862,10 +2862,10 @@
     </row>
     <row r="221">
       <c r="A221" s="2" t="n">
-        <v>36557</v>
+        <v>36586</v>
       </c>
       <c r="B221" t="n">
-        <v>4679400000000</v>
+        <v>4710200000000</v>
       </c>
       <c r="C221" t="n">
         <v>1</v>
@@ -2873,10 +2873,10 @@
     </row>
     <row r="222">
       <c r="A222" s="2" t="n">
-        <v>36586</v>
+        <v>36617</v>
       </c>
       <c r="B222" t="n">
-        <v>4710200000000</v>
+        <v>4766100000000</v>
       </c>
       <c r="C222" t="n">
         <v>1</v>
@@ -2884,10 +2884,10 @@
     </row>
     <row r="223">
       <c r="A223" s="2" t="n">
-        <v>36617</v>
+        <v>36647</v>
       </c>
       <c r="B223" t="n">
-        <v>4766100000000</v>
+        <v>4753900000000</v>
       </c>
       <c r="C223" t="n">
         <v>1</v>
@@ -2895,10 +2895,10 @@
     </row>
     <row r="224">
       <c r="A224" s="2" t="n">
-        <v>36647</v>
+        <v>36678</v>
       </c>
       <c r="B224" t="n">
-        <v>4753900000000</v>
+        <v>4771800000000</v>
       </c>
       <c r="C224" t="n">
         <v>1</v>
@@ -2906,10 +2906,10 @@
     </row>
     <row r="225">
       <c r="A225" s="2" t="n">
-        <v>36678</v>
+        <v>36708</v>
       </c>
       <c r="B225" t="n">
-        <v>4771800000000</v>
+        <v>4789400000000</v>
       </c>
       <c r="C225" t="n">
         <v>1</v>
@@ -2917,10 +2917,10 @@
     </row>
     <row r="226">
       <c r="A226" s="2" t="n">
-        <v>36708</v>
+        <v>36739</v>
       </c>
       <c r="B226" t="n">
-        <v>4789400000000</v>
+        <v>4817500000000</v>
       </c>
       <c r="C226" t="n">
         <v>1</v>
@@ -2928,10 +2928,10 @@
     </row>
     <row r="227">
       <c r="A227" s="2" t="n">
-        <v>36739</v>
+        <v>36770</v>
       </c>
       <c r="B227" t="n">
-        <v>4817500000000</v>
+        <v>4853200000000</v>
       </c>
       <c r="C227" t="n">
         <v>1</v>
@@ -2939,10 +2939,10 @@
     </row>
     <row r="228">
       <c r="A228" s="2" t="n">
-        <v>36770</v>
+        <v>36800</v>
       </c>
       <c r="B228" t="n">
-        <v>4853200000000</v>
+        <v>4869200000000</v>
       </c>
       <c r="C228" t="n">
         <v>1</v>
@@ -2950,10 +2950,10 @@
     </row>
     <row r="229">
       <c r="A229" s="2" t="n">
-        <v>36800</v>
+        <v>36831</v>
       </c>
       <c r="B229" t="n">
-        <v>4869200000000</v>
+        <v>4880300000000</v>
       </c>
       <c r="C229" t="n">
         <v>1</v>
@@ -2961,10 +2961,10 @@
     </row>
     <row r="230">
       <c r="A230" s="2" t="n">
-        <v>36831</v>
+        <v>36861</v>
       </c>
       <c r="B230" t="n">
-        <v>4880300000000</v>
+        <v>4925000000000</v>
       </c>
       <c r="C230" t="n">
         <v>1</v>
@@ -2972,10 +2972,10 @@
     </row>
     <row r="231">
       <c r="A231" s="2" t="n">
-        <v>36861</v>
+        <v>36892</v>
       </c>
       <c r="B231" t="n">
-        <v>4925000000000</v>
+        <v>4975700000000</v>
       </c>
       <c r="C231" t="n">
         <v>1</v>
@@ -2983,10 +2983,10 @@
     </row>
     <row r="232">
       <c r="A232" s="2" t="n">
-        <v>36892</v>
+        <v>36923</v>
       </c>
       <c r="B232" t="n">
-        <v>4975700000000</v>
+        <v>5014100000000</v>
       </c>
       <c r="C232" t="n">
         <v>1</v>
@@ -2994,10 +2994,10 @@
     </row>
     <row r="233">
       <c r="A233" s="2" t="n">
-        <v>36923</v>
+        <v>36951</v>
       </c>
       <c r="B233" t="n">
-        <v>5014100000000</v>
+        <v>5072000000000</v>
       </c>
       <c r="C233" t="n">
         <v>1</v>
@@ -3005,10 +3005,10 @@
     </row>
     <row r="234">
       <c r="A234" s="2" t="n">
-        <v>36951</v>
+        <v>36982</v>
       </c>
       <c r="B234" t="n">
-        <v>5072000000000</v>
+        <v>5135900000000</v>
       </c>
       <c r="C234" t="n">
         <v>1</v>
@@ -3016,10 +3016,10 @@
     </row>
     <row r="235">
       <c r="A235" s="2" t="n">
-        <v>36982</v>
+        <v>37012</v>
       </c>
       <c r="B235" t="n">
-        <v>5135900000000</v>
+        <v>5133000000000</v>
       </c>
       <c r="C235" t="n">
         <v>1</v>
@@ -3027,10 +3027,10 @@
     </row>
     <row r="236">
       <c r="A236" s="2" t="n">
-        <v>37012</v>
+        <v>37043</v>
       </c>
       <c r="B236" t="n">
-        <v>5133000000000</v>
+        <v>5173500000000</v>
       </c>
       <c r="C236" t="n">
         <v>1</v>
@@ -3038,10 +3038,10 @@
     </row>
     <row r="237">
       <c r="A237" s="2" t="n">
-        <v>37043</v>
+        <v>37073</v>
       </c>
       <c r="B237" t="n">
-        <v>5173500000000</v>
+        <v>5203400000000</v>
       </c>
       <c r="C237" t="n">
         <v>1</v>
@@ -3049,10 +3049,10 @@
     </row>
     <row r="238">
       <c r="A238" s="2" t="n">
-        <v>37073</v>
+        <v>37104</v>
       </c>
       <c r="B238" t="n">
-        <v>5203400000000</v>
+        <v>5237200000000</v>
       </c>
       <c r="C238" t="n">
         <v>1</v>
@@ -3060,10 +3060,10 @@
     </row>
     <row r="239">
       <c r="A239" s="2" t="n">
-        <v>37104</v>
+        <v>37135</v>
       </c>
       <c r="B239" t="n">
-        <v>5237200000000</v>
+        <v>5348400000000</v>
       </c>
       <c r="C239" t="n">
         <v>1</v>
@@ -3071,10 +3071,10 @@
     </row>
     <row r="240">
       <c r="A240" s="2" t="n">
-        <v>37135</v>
+        <v>37165</v>
       </c>
       <c r="B240" t="n">
-        <v>5348400000000</v>
+        <v>5337100000000</v>
       </c>
       <c r="C240" t="n">
         <v>1</v>
@@ -3082,10 +3082,10 @@
     </row>
     <row r="241">
       <c r="A241" s="2" t="n">
-        <v>37165</v>
+        <v>37196</v>
       </c>
       <c r="B241" t="n">
-        <v>5337100000000</v>
+        <v>5380800000000</v>
       </c>
       <c r="C241" t="n">
         <v>1</v>
@@ -3093,10 +3093,10 @@
     </row>
     <row r="242">
       <c r="A242" s="2" t="n">
-        <v>37196</v>
+        <v>37226</v>
       </c>
       <c r="B242" t="n">
-        <v>5380800000000</v>
+        <v>5433800000000</v>
       </c>
       <c r="C242" t="n">
         <v>1</v>
@@ -3104,10 +3104,10 @@
     </row>
     <row r="243">
       <c r="A243" s="2" t="n">
-        <v>37226</v>
+        <v>37257</v>
       </c>
       <c r="B243" t="n">
-        <v>5433800000000</v>
+        <v>5454100000000</v>
       </c>
       <c r="C243" t="n">
         <v>1</v>
@@ -3115,10 +3115,10 @@
     </row>
     <row r="244">
       <c r="A244" s="2" t="n">
-        <v>37257</v>
+        <v>37288</v>
       </c>
       <c r="B244" t="n">
-        <v>5454100000000</v>
+        <v>5483400000000</v>
       </c>
       <c r="C244" t="n">
         <v>1</v>
@@ -3126,10 +3126,10 @@
     </row>
     <row r="245">
       <c r="A245" s="2" t="n">
-        <v>37288</v>
+        <v>37316</v>
       </c>
       <c r="B245" t="n">
-        <v>5483400000000</v>
+        <v>5495200000000</v>
       </c>
       <c r="C245" t="n">
         <v>1</v>
@@ -3137,10 +3137,10 @@
     </row>
     <row r="246">
       <c r="A246" s="2" t="n">
-        <v>37316</v>
+        <v>37347</v>
       </c>
       <c r="B246" t="n">
-        <v>5495200000000</v>
+        <v>5495400000000</v>
       </c>
       <c r="C246" t="n">
         <v>1</v>
@@ -3148,10 +3148,10 @@
     </row>
     <row r="247">
       <c r="A247" s="2" t="n">
-        <v>37347</v>
+        <v>37377</v>
       </c>
       <c r="B247" t="n">
-        <v>5495400000000</v>
+        <v>5521500000000</v>
       </c>
       <c r="C247" t="n">
         <v>1</v>
@@ -3159,10 +3159,10 @@
     </row>
     <row r="248">
       <c r="A248" s="2" t="n">
-        <v>37377</v>
+        <v>37408</v>
       </c>
       <c r="B248" t="n">
-        <v>5521500000000</v>
+        <v>5546500000000</v>
       </c>
       <c r="C248" t="n">
         <v>1</v>
@@ -3170,10 +3170,10 @@
     </row>
     <row r="249">
       <c r="A249" s="2" t="n">
-        <v>37408</v>
+        <v>37438</v>
       </c>
       <c r="B249" t="n">
-        <v>5546500000000</v>
+        <v>5589100000000</v>
       </c>
       <c r="C249" t="n">
         <v>1</v>
@@ -3181,10 +3181,10 @@
     </row>
     <row r="250">
       <c r="A250" s="2" t="n">
-        <v>37438</v>
+        <v>37469</v>
       </c>
       <c r="B250" t="n">
-        <v>5589100000000</v>
+        <v>5631600000000</v>
       </c>
       <c r="C250" t="n">
         <v>1</v>
@@ -3192,10 +3192,10 @@
     </row>
     <row r="251">
       <c r="A251" s="2" t="n">
-        <v>37469</v>
+        <v>37500</v>
       </c>
       <c r="B251" t="n">
-        <v>5631600000000</v>
+        <v>5656000000000</v>
       </c>
       <c r="C251" t="n">
         <v>1</v>
@@ -3203,10 +3203,10 @@
     </row>
     <row r="252">
       <c r="A252" s="2" t="n">
-        <v>37500</v>
+        <v>37530</v>
       </c>
       <c r="B252" t="n">
-        <v>5656000000000</v>
+        <v>5700400000000</v>
       </c>
       <c r="C252" t="n">
         <v>1</v>
@@ -3214,10 +3214,10 @@
     </row>
     <row r="253">
       <c r="A253" s="2" t="n">
-        <v>37530</v>
+        <v>37561</v>
       </c>
       <c r="B253" t="n">
-        <v>5700400000000</v>
+        <v>5750600000000</v>
       </c>
       <c r="C253" t="n">
         <v>1</v>
@@ -3225,10 +3225,10 @@
     </row>
     <row r="254">
       <c r="A254" s="2" t="n">
-        <v>37561</v>
+        <v>37591</v>
       </c>
       <c r="B254" t="n">
-        <v>5750600000000</v>
+        <v>5772000000000</v>
       </c>
       <c r="C254" t="n">
         <v>1</v>
@@ -3236,10 +3236,10 @@
     </row>
     <row r="255">
       <c r="A255" s="2" t="n">
-        <v>37591</v>
+        <v>37622</v>
       </c>
       <c r="B255" t="n">
-        <v>5772000000000</v>
+        <v>5804600000000</v>
       </c>
       <c r="C255" t="n">
         <v>1</v>
@@ -3247,10 +3247,10 @@
     </row>
     <row r="256">
       <c r="A256" s="2" t="n">
-        <v>37622</v>
+        <v>37653</v>
       </c>
       <c r="B256" t="n">
-        <v>5804600000000</v>
+        <v>5840700000000</v>
       </c>
       <c r="C256" t="n">
         <v>1</v>
@@ -3258,10 +3258,10 @@
     </row>
     <row r="257">
       <c r="A257" s="2" t="n">
-        <v>37653</v>
+        <v>37681</v>
       </c>
       <c r="B257" t="n">
-        <v>5840700000000</v>
+        <v>5861400000000</v>
       </c>
       <c r="C257" t="n">
         <v>1</v>
@@ -3269,10 +3269,10 @@
     </row>
     <row r="258">
       <c r="A258" s="2" t="n">
-        <v>37681</v>
+        <v>37712</v>
       </c>
       <c r="B258" t="n">
-        <v>5861400000000</v>
+        <v>5898800000000</v>
       </c>
       <c r="C258" t="n">
         <v>1</v>
@@ -3280,10 +3280,10 @@
     </row>
     <row r="259">
       <c r="A259" s="2" t="n">
-        <v>37712</v>
+        <v>37742</v>
       </c>
       <c r="B259" t="n">
-        <v>5898800000000</v>
+        <v>5959300000000</v>
       </c>
       <c r="C259" t="n">
         <v>1</v>
@@ -3291,10 +3291,10 @@
     </row>
     <row r="260">
       <c r="A260" s="2" t="n">
-        <v>37742</v>
+        <v>37773</v>
       </c>
       <c r="B260" t="n">
-        <v>5959300000000</v>
+        <v>5996000000000</v>
       </c>
       <c r="C260" t="n">
         <v>1</v>
@@ -3302,10 +3302,10 @@
     </row>
     <row r="261">
       <c r="A261" s="2" t="n">
-        <v>37773</v>
+        <v>37803</v>
       </c>
       <c r="B261" t="n">
-        <v>5996000000000</v>
+        <v>6042700000000</v>
       </c>
       <c r="C261" t="n">
         <v>1</v>
@@ -3313,10 +3313,10 @@
     </row>
     <row r="262">
       <c r="A262" s="2" t="n">
-        <v>37803</v>
+        <v>37834</v>
       </c>
       <c r="B262" t="n">
-        <v>6042700000000</v>
+        <v>6100800000000</v>
       </c>
       <c r="C262" t="n">
         <v>1</v>
@@ -3324,10 +3324,10 @@
     </row>
     <row r="263">
       <c r="A263" s="2" t="n">
-        <v>37834</v>
+        <v>37865</v>
       </c>
       <c r="B263" t="n">
-        <v>6100800000000</v>
+        <v>6072800000000</v>
       </c>
       <c r="C263" t="n">
         <v>1</v>
@@ -3335,10 +3335,10 @@
     </row>
     <row r="264">
       <c r="A264" s="2" t="n">
-        <v>37865</v>
+        <v>37895</v>
       </c>
       <c r="B264" t="n">
-        <v>6072800000000</v>
+        <v>6063600000000</v>
       </c>
       <c r="C264" t="n">
         <v>1</v>
@@ -3346,10 +3346,10 @@
     </row>
     <row r="265">
       <c r="A265" s="2" t="n">
-        <v>37895</v>
+        <v>37926</v>
       </c>
       <c r="B265" t="n">
-        <v>6063600000000</v>
+        <v>6069100000000</v>
       </c>
       <c r="C265" t="n">
         <v>1</v>
@@ -3357,10 +3357,10 @@
     </row>
     <row r="266">
       <c r="A266" s="2" t="n">
-        <v>37926</v>
+        <v>37956</v>
       </c>
       <c r="B266" t="n">
-        <v>6069100000000</v>
+        <v>6067300000000</v>
       </c>
       <c r="C266" t="n">
         <v>1</v>
@@ -3368,10 +3368,10 @@
     </row>
     <row r="267">
       <c r="A267" s="2" t="n">
-        <v>37956</v>
+        <v>37987</v>
       </c>
       <c r="B267" t="n">
-        <v>6067300000000</v>
+        <v>6075500000000</v>
       </c>
       <c r="C267" t="n">
         <v>1</v>
@@ -3379,10 +3379,10 @@
     </row>
     <row r="268">
       <c r="A268" s="2" t="n">
-        <v>37987</v>
+        <v>38018</v>
       </c>
       <c r="B268" t="n">
-        <v>6075500000000</v>
+        <v>6114300000000</v>
       </c>
       <c r="C268" t="n">
         <v>1</v>
@@ -3390,10 +3390,10 @@
     </row>
     <row r="269">
       <c r="A269" s="2" t="n">
-        <v>38018</v>
+        <v>38047</v>
       </c>
       <c r="B269" t="n">
-        <v>6114300000000</v>
+        <v>6150100000000</v>
       </c>
       <c r="C269" t="n">
         <v>1</v>
@@ -3401,10 +3401,10 @@
     </row>
     <row r="270">
       <c r="A270" s="2" t="n">
-        <v>38047</v>
+        <v>38078</v>
       </c>
       <c r="B270" t="n">
-        <v>6150100000000</v>
+        <v>6191200000000</v>
       </c>
       <c r="C270" t="n">
         <v>1</v>
@@ -3412,10 +3412,10 @@
     </row>
     <row r="271">
       <c r="A271" s="2" t="n">
-        <v>38078</v>
+        <v>38108</v>
       </c>
       <c r="B271" t="n">
-        <v>6191200000000</v>
+        <v>6268100000000</v>
       </c>
       <c r="C271" t="n">
         <v>1</v>
@@ -3423,10 +3423,10 @@
     </row>
     <row r="272">
       <c r="A272" s="2" t="n">
-        <v>38108</v>
+        <v>38139</v>
       </c>
       <c r="B272" t="n">
-        <v>6268100000000</v>
+        <v>6270500000000</v>
       </c>
       <c r="C272" t="n">
         <v>1</v>
@@ -3434,10 +3434,10 @@
     </row>
     <row r="273">
       <c r="A273" s="2" t="n">
-        <v>38139</v>
+        <v>38169</v>
       </c>
       <c r="B273" t="n">
-        <v>6270500000000</v>
+        <v>6284300000000</v>
       </c>
       <c r="C273" t="n">
         <v>1</v>
@@ -3445,10 +3445,10 @@
     </row>
     <row r="274">
       <c r="A274" s="2" t="n">
-        <v>38169</v>
+        <v>38200</v>
       </c>
       <c r="B274" t="n">
-        <v>6284300000000</v>
+        <v>6310600000000</v>
       </c>
       <c r="C274" t="n">
         <v>1</v>
@@ -3456,10 +3456,10 @@
     </row>
     <row r="275">
       <c r="A275" s="2" t="n">
-        <v>38200</v>
+        <v>38231</v>
       </c>
       <c r="B275" t="n">
-        <v>6310600000000</v>
+        <v>6345300000000</v>
       </c>
       <c r="C275" t="n">
         <v>1</v>
@@ -3467,10 +3467,10 @@
     </row>
     <row r="276">
       <c r="A276" s="2" t="n">
-        <v>38231</v>
+        <v>38261</v>
       </c>
       <c r="B276" t="n">
-        <v>6345300000000</v>
+        <v>6373300000000</v>
       </c>
       <c r="C276" t="n">
         <v>1</v>
@@ -3478,10 +3478,10 @@
     </row>
     <row r="277">
       <c r="A277" s="2" t="n">
-        <v>38261</v>
+        <v>38292</v>
       </c>
       <c r="B277" t="n">
-        <v>6373300000000</v>
+        <v>6399800000000</v>
       </c>
       <c r="C277" t="n">
         <v>1</v>
@@ -3489,10 +3489,10 @@
     </row>
     <row r="278">
       <c r="A278" s="2" t="n">
-        <v>38292</v>
+        <v>38322</v>
       </c>
       <c r="B278" t="n">
-        <v>6399800000000</v>
+        <v>6418300000000</v>
       </c>
       <c r="C278" t="n">
         <v>1</v>
@@ -3500,10 +3500,10 @@
     </row>
     <row r="279">
       <c r="A279" s="2" t="n">
-        <v>38322</v>
+        <v>38353</v>
       </c>
       <c r="B279" t="n">
-        <v>6418300000000</v>
+        <v>6424500000000</v>
       </c>
       <c r="C279" t="n">
         <v>1</v>
@@ -3511,10 +3511,10 @@
     </row>
     <row r="280">
       <c r="A280" s="2" t="n">
-        <v>38353</v>
+        <v>38384</v>
       </c>
       <c r="B280" t="n">
-        <v>6424500000000</v>
+        <v>6432800000000</v>
       </c>
       <c r="C280" t="n">
         <v>1</v>
@@ -3522,10 +3522,10 @@
     </row>
     <row r="281">
       <c r="A281" s="2" t="n">
-        <v>38384</v>
+        <v>38412</v>
       </c>
       <c r="B281" t="n">
-        <v>6432800000000</v>
+        <v>6441900000000</v>
       </c>
       <c r="C281" t="n">
         <v>1</v>
@@ -3533,10 +3533,10 @@
     </row>
     <row r="282">
       <c r="A282" s="2" t="n">
-        <v>38412</v>
+        <v>38443</v>
       </c>
       <c r="B282" t="n">
-        <v>6441900000000</v>
+        <v>6455900000000</v>
       </c>
       <c r="C282" t="n">
         <v>1</v>
@@ -3544,10 +3544,10 @@
     </row>
     <row r="283">
       <c r="A283" s="2" t="n">
-        <v>38443</v>
+        <v>38473</v>
       </c>
       <c r="B283" t="n">
-        <v>6455900000000</v>
+        <v>6473300000000</v>
       </c>
       <c r="C283" t="n">
         <v>1</v>
@@ -3555,10 +3555,10 @@
     </row>
     <row r="284">
       <c r="A284" s="2" t="n">
-        <v>38473</v>
+        <v>38504</v>
       </c>
       <c r="B284" t="n">
-        <v>6473300000000</v>
+        <v>6505800000000</v>
       </c>
       <c r="C284" t="n">
         <v>1</v>
@@ -3566,10 +3566,10 @@
     </row>
     <row r="285">
       <c r="A285" s="2" t="n">
-        <v>38504</v>
+        <v>38534</v>
       </c>
       <c r="B285" t="n">
-        <v>6505800000000</v>
+        <v>6537400000000</v>
       </c>
       <c r="C285" t="n">
         <v>1</v>
@@ -3577,10 +3577,10 @@
     </row>
     <row r="286">
       <c r="A286" s="2" t="n">
-        <v>38534</v>
+        <v>38565</v>
       </c>
       <c r="B286" t="n">
-        <v>6537400000000</v>
+        <v>6570200000000</v>
       </c>
       <c r="C286" t="n">
         <v>1</v>
@@ -3588,10 +3588,10 @@
     </row>
     <row r="287">
       <c r="A287" s="2" t="n">
-        <v>38565</v>
+        <v>38596</v>
       </c>
       <c r="B287" t="n">
-        <v>6570200000000</v>
+        <v>6604300000000</v>
       </c>
       <c r="C287" t="n">
         <v>1</v>
@@ -3599,10 +3599,10 @@
     </row>
     <row r="288">
       <c r="A288" s="2" t="n">
-        <v>38596</v>
+        <v>38626</v>
       </c>
       <c r="B288" t="n">
-        <v>6604300000000</v>
+        <v>6638600000000</v>
       </c>
       <c r="C288" t="n">
         <v>1</v>
@@ -3610,10 +3610,10 @@
     </row>
     <row r="289">
       <c r="A289" s="2" t="n">
-        <v>38626</v>
+        <v>38657</v>
       </c>
       <c r="B289" t="n">
-        <v>6638600000000</v>
+        <v>6655000000000</v>
       </c>
       <c r="C289" t="n">
         <v>1</v>
@@ -3621,10 +3621,10 @@
     </row>
     <row r="290">
       <c r="A290" s="2" t="n">
-        <v>38657</v>
+        <v>38687</v>
       </c>
       <c r="B290" t="n">
-        <v>6655000000000</v>
+        <v>6681900000000</v>
       </c>
       <c r="C290" t="n">
         <v>1</v>
@@ -3632,10 +3632,10 @@
     </row>
     <row r="291">
       <c r="A291" s="2" t="n">
-        <v>38687</v>
+        <v>38718</v>
       </c>
       <c r="B291" t="n">
-        <v>6681900000000</v>
+        <v>6724300000000</v>
       </c>
       <c r="C291" t="n">
         <v>1</v>
@@ -3643,10 +3643,10 @@
     </row>
     <row r="292">
       <c r="A292" s="2" t="n">
-        <v>38718</v>
+        <v>38749</v>
       </c>
       <c r="B292" t="n">
-        <v>6724300000000</v>
+        <v>6748600000000</v>
       </c>
       <c r="C292" t="n">
         <v>1</v>
@@ -3654,10 +3654,10 @@
     </row>
     <row r="293">
       <c r="A293" s="2" t="n">
-        <v>38749</v>
+        <v>38777</v>
       </c>
       <c r="B293" t="n">
-        <v>6748600000000</v>
+        <v>6762900000000</v>
       </c>
       <c r="C293" t="n">
         <v>1</v>
@@ -3665,10 +3665,10 @@
     </row>
     <row r="294">
       <c r="A294" s="2" t="n">
-        <v>38777</v>
+        <v>38808</v>
       </c>
       <c r="B294" t="n">
-        <v>6762900000000</v>
+        <v>6800100000000</v>
       </c>
       <c r="C294" t="n">
         <v>1</v>
@@ -3676,10 +3676,10 @@
     </row>
     <row r="295">
       <c r="A295" s="2" t="n">
-        <v>38808</v>
+        <v>38838</v>
       </c>
       <c r="B295" t="n">
-        <v>6800100000000</v>
+        <v>6806900000000</v>
       </c>
       <c r="C295" t="n">
         <v>1</v>
@@ -3687,10 +3687,10 @@
     </row>
     <row r="296">
       <c r="A296" s="2" t="n">
-        <v>38838</v>
+        <v>38869</v>
       </c>
       <c r="B296" t="n">
-        <v>6806900000000</v>
+        <v>6844900000000</v>
       </c>
       <c r="C296" t="n">
         <v>1</v>
@@ -3698,10 +3698,10 @@
     </row>
     <row r="297">
       <c r="A297" s="2" t="n">
-        <v>38869</v>
+        <v>38899</v>
       </c>
       <c r="B297" t="n">
-        <v>6844900000000</v>
+        <v>6886300000000</v>
       </c>
       <c r="C297" t="n">
         <v>1</v>
@@ -3709,10 +3709,10 @@
     </row>
     <row r="298">
       <c r="A298" s="2" t="n">
-        <v>38899</v>
+        <v>38930</v>
       </c>
       <c r="B298" t="n">
-        <v>6886300000000</v>
+        <v>6917100000000</v>
       </c>
       <c r="C298" t="n">
         <v>1</v>
@@ -3720,10 +3720,10 @@
     </row>
     <row r="299">
       <c r="A299" s="2" t="n">
-        <v>38930</v>
+        <v>38961</v>
       </c>
       <c r="B299" t="n">
-        <v>6917100000000</v>
+        <v>6944200000000</v>
       </c>
       <c r="C299" t="n">
         <v>1</v>
@@ -3731,10 +3731,10 @@
     </row>
     <row r="300">
       <c r="A300" s="2" t="n">
-        <v>38961</v>
+        <v>38991</v>
       </c>
       <c r="B300" t="n">
-        <v>6944200000000</v>
+        <v>6993300000000</v>
       </c>
       <c r="C300" t="n">
         <v>1</v>
@@ -3742,10 +3742,10 @@
     </row>
     <row r="301">
       <c r="A301" s="2" t="n">
-        <v>38991</v>
+        <v>39022</v>
       </c>
       <c r="B301" t="n">
-        <v>6993300000000</v>
+        <v>7028400000000</v>
       </c>
       <c r="C301" t="n">
         <v>1</v>
@@ -3753,10 +3753,10 @@
     </row>
     <row r="302">
       <c r="A302" s="2" t="n">
-        <v>39022</v>
+        <v>39052</v>
       </c>
       <c r="B302" t="n">
-        <v>7028400000000</v>
+        <v>7071600000000</v>
       </c>
       <c r="C302" t="n">
         <v>1</v>
@@ -3764,10 +3764,10 @@
     </row>
     <row r="303">
       <c r="A303" s="2" t="n">
-        <v>39052</v>
+        <v>39083</v>
       </c>
       <c r="B303" t="n">
-        <v>7071600000000</v>
+        <v>7109600000000</v>
       </c>
       <c r="C303" t="n">
         <v>1</v>
@@ -3775,10 +3775,10 @@
     </row>
     <row r="304">
       <c r="A304" s="2" t="n">
-        <v>39083</v>
+        <v>39114</v>
       </c>
       <c r="B304" t="n">
-        <v>7109600000000</v>
+        <v>7125300000000</v>
       </c>
       <c r="C304" t="n">
         <v>1</v>
@@ -3786,10 +3786,10 @@
     </row>
     <row r="305">
       <c r="A305" s="2" t="n">
-        <v>39114</v>
+        <v>39142</v>
       </c>
       <c r="B305" t="n">
-        <v>7125300000000</v>
+        <v>7159100000000</v>
       </c>
       <c r="C305" t="n">
         <v>1</v>
@@ -3797,10 +3797,10 @@
     </row>
     <row r="306">
       <c r="A306" s="2" t="n">
-        <v>39142</v>
+        <v>39173</v>
       </c>
       <c r="B306" t="n">
-        <v>7159100000000</v>
+        <v>7231300000000</v>
       </c>
       <c r="C306" t="n">
         <v>1</v>
@@ -3808,10 +3808,10 @@
     </row>
     <row r="307">
       <c r="A307" s="2" t="n">
-        <v>39173</v>
+        <v>39203</v>
       </c>
       <c r="B307" t="n">
-        <v>7231300000000</v>
+        <v>7245400000000</v>
       </c>
       <c r="C307" t="n">
         <v>1</v>
@@ -3819,10 +3819,10 @@
     </row>
     <row r="308">
       <c r="A308" s="2" t="n">
-        <v>39203</v>
+        <v>39234</v>
       </c>
       <c r="B308" t="n">
-        <v>7245400000000</v>
+        <v>7278600000000</v>
       </c>
       <c r="C308" t="n">
         <v>1</v>
@@ -3830,10 +3830,10 @@
     </row>
     <row r="309">
       <c r="A309" s="2" t="n">
-        <v>39234</v>
+        <v>39264</v>
       </c>
       <c r="B309" t="n">
-        <v>7278600000000</v>
+        <v>7309000000000</v>
       </c>
       <c r="C309" t="n">
         <v>1</v>
@@ -3841,10 +3841,10 @@
     </row>
     <row r="310">
       <c r="A310" s="2" t="n">
-        <v>39264</v>
+        <v>39295</v>
       </c>
       <c r="B310" t="n">
-        <v>7309000000000</v>
+        <v>7385100000000</v>
       </c>
       <c r="C310" t="n">
         <v>1</v>
@@ -3852,10 +3852,10 @@
     </row>
     <row r="311">
       <c r="A311" s="2" t="n">
-        <v>39295</v>
+        <v>39326</v>
       </c>
       <c r="B311" t="n">
-        <v>7385100000000</v>
+        <v>7403200000000</v>
       </c>
       <c r="C311" t="n">
         <v>1</v>
@@ -3863,10 +3863,10 @@
     </row>
     <row r="312">
       <c r="A312" s="2" t="n">
-        <v>39326</v>
+        <v>39356</v>
       </c>
       <c r="B312" t="n">
-        <v>7403200000000</v>
+        <v>7417200000000</v>
       </c>
       <c r="C312" t="n">
         <v>1</v>
@@ -3874,10 +3874,10 @@
     </row>
     <row r="313">
       <c r="A313" s="2" t="n">
-        <v>39356</v>
+        <v>39387</v>
       </c>
       <c r="B313" t="n">
-        <v>7417200000000</v>
+        <v>7441800000000</v>
       </c>
       <c r="C313" t="n">
         <v>1</v>
@@ -3885,10 +3885,10 @@
     </row>
     <row r="314">
       <c r="A314" s="2" t="n">
-        <v>39387</v>
+        <v>39417</v>
       </c>
       <c r="B314" t="n">
-        <v>7441800000000</v>
+        <v>7471600000000</v>
       </c>
       <c r="C314" t="n">
         <v>1</v>
@@ -3896,10 +3896,10 @@
     </row>
     <row r="315">
       <c r="A315" s="2" t="n">
-        <v>39417</v>
+        <v>39448</v>
       </c>
       <c r="B315" t="n">
-        <v>7471600000000</v>
+        <v>7505500000000</v>
       </c>
       <c r="C315" t="n">
         <v>1</v>
@@ -3907,10 +3907,10 @@
     </row>
     <row r="316">
       <c r="A316" s="2" t="n">
-        <v>39448</v>
+        <v>39479</v>
       </c>
       <c r="B316" t="n">
-        <v>7505500000000</v>
+        <v>7590600000000</v>
       </c>
       <c r="C316" t="n">
         <v>1</v>
@@ -3918,10 +3918,10 @@
     </row>
     <row r="317">
       <c r="A317" s="2" t="n">
-        <v>39479</v>
+        <v>39508</v>
       </c>
       <c r="B317" t="n">
-        <v>7590600000000</v>
+        <v>7656200000000</v>
       </c>
       <c r="C317" t="n">
         <v>1</v>
@@ -3929,10 +3929,10 @@
     </row>
     <row r="318">
       <c r="A318" s="2" t="n">
-        <v>39508</v>
+        <v>39539</v>
       </c>
       <c r="B318" t="n">
-        <v>7656200000000</v>
+        <v>7699200000000</v>
       </c>
       <c r="C318" t="n">
         <v>1</v>
@@ -3940,10 +3940,10 @@
     </row>
     <row r="319">
       <c r="A319" s="2" t="n">
-        <v>39539</v>
+        <v>39569</v>
       </c>
       <c r="B319" t="n">
-        <v>7699200000000</v>
+        <v>7711200000000</v>
       </c>
       <c r="C319" t="n">
         <v>1</v>
@@ -3951,10 +3951,10 @@
     </row>
     <row r="320">
       <c r="A320" s="2" t="n">
-        <v>39569</v>
+        <v>39600</v>
       </c>
       <c r="B320" t="n">
-        <v>7711200000000</v>
+        <v>7728900000000</v>
       </c>
       <c r="C320" t="n">
         <v>1</v>
@@ -3962,10 +3962,10 @@
     </row>
     <row r="321">
       <c r="A321" s="2" t="n">
-        <v>39600</v>
+        <v>39630</v>
       </c>
       <c r="B321" t="n">
-        <v>7728900000000</v>
+        <v>7775400000000</v>
       </c>
       <c r="C321" t="n">
         <v>1</v>
@@ -3973,10 +3973,10 @@
     </row>
     <row r="322">
       <c r="A322" s="2" t="n">
-        <v>39630</v>
+        <v>39661</v>
       </c>
       <c r="B322" t="n">
-        <v>7775400000000</v>
+        <v>7790200000000</v>
       </c>
       <c r="C322" t="n">
         <v>1</v>
@@ -3984,10 +3984,10 @@
     </row>
     <row r="323">
       <c r="A323" s="2" t="n">
-        <v>39661</v>
+        <v>39692</v>
       </c>
       <c r="B323" t="n">
-        <v>7790200000000</v>
+        <v>7859500000000</v>
       </c>
       <c r="C323" t="n">
         <v>1</v>
@@ -3995,10 +3995,10 @@
     </row>
     <row r="324">
       <c r="A324" s="2" t="n">
-        <v>39692</v>
+        <v>39722</v>
       </c>
       <c r="B324" t="n">
-        <v>7859500000000</v>
+        <v>7965300000000</v>
       </c>
       <c r="C324" t="n">
         <v>1</v>
@@ -4006,10 +4006,10 @@
     </row>
     <row r="325">
       <c r="A325" s="2" t="n">
-        <v>39722</v>
+        <v>39753</v>
       </c>
       <c r="B325" t="n">
-        <v>7965300000000</v>
+        <v>8015800000000</v>
       </c>
       <c r="C325" t="n">
         <v>1</v>
@@ -4017,10 +4017,10 @@
     </row>
     <row r="326">
       <c r="A326" s="2" t="n">
-        <v>39753</v>
+        <v>39783</v>
       </c>
       <c r="B326" t="n">
-        <v>8015800000000</v>
+        <v>8192100000000</v>
       </c>
       <c r="C326" t="n">
         <v>1</v>
@@ -4028,10 +4028,10 @@
     </row>
     <row r="327">
       <c r="A327" s="2" t="n">
-        <v>39783</v>
+        <v>39814</v>
       </c>
       <c r="B327" t="n">
-        <v>8192100000000</v>
+        <v>8273700000000</v>
       </c>
       <c r="C327" t="n">
         <v>1</v>
@@ -4039,10 +4039,10 @@
     </row>
     <row r="328">
       <c r="A328" s="2" t="n">
-        <v>39814</v>
+        <v>39845</v>
       </c>
       <c r="B328" t="n">
-        <v>8273700000000</v>
+        <v>8303100000000</v>
       </c>
       <c r="C328" t="n">
         <v>1</v>
@@ -4050,10 +4050,10 @@
     </row>
     <row r="329">
       <c r="A329" s="2" t="n">
-        <v>39845</v>
+        <v>39873</v>
       </c>
       <c r="B329" t="n">
-        <v>8303100000000</v>
+        <v>8369300000000</v>
       </c>
       <c r="C329" t="n">
         <v>1</v>
@@ -4061,10 +4061,10 @@
     </row>
     <row r="330">
       <c r="A330" s="2" t="n">
-        <v>39873</v>
+        <v>39904</v>
       </c>
       <c r="B330" t="n">
-        <v>8369300000000</v>
+        <v>8372900000000</v>
       </c>
       <c r="C330" t="n">
         <v>1</v>
@@ -4072,10 +4072,10 @@
     </row>
     <row r="331">
       <c r="A331" s="2" t="n">
-        <v>39904</v>
+        <v>39934</v>
       </c>
       <c r="B331" t="n">
-        <v>8372900000000</v>
+        <v>8430700000000</v>
       </c>
       <c r="C331" t="n">
         <v>1</v>
@@ -4083,10 +4083,10 @@
     </row>
     <row r="332">
       <c r="A332" s="2" t="n">
-        <v>39934</v>
+        <v>39965</v>
       </c>
       <c r="B332" t="n">
-        <v>8430700000000</v>
+        <v>8440500000000</v>
       </c>
       <c r="C332" t="n">
         <v>1</v>
@@ -4094,10 +4094,10 @@
     </row>
     <row r="333">
       <c r="A333" s="2" t="n">
-        <v>39965</v>
+        <v>39995</v>
       </c>
       <c r="B333" t="n">
-        <v>8440500000000</v>
+        <v>8445100000000</v>
       </c>
       <c r="C333" t="n">
         <v>1</v>
@@ -4105,10 +4105,10 @@
     </row>
     <row r="334">
       <c r="A334" s="2" t="n">
-        <v>39995</v>
+        <v>40026</v>
       </c>
       <c r="B334" t="n">
-        <v>8445100000000</v>
+        <v>8445000000000</v>
       </c>
       <c r="C334" t="n">
         <v>1</v>
@@ -4116,10 +4116,10 @@
     </row>
     <row r="335">
       <c r="A335" s="2" t="n">
-        <v>40026</v>
+        <v>40057</v>
       </c>
       <c r="B335" t="n">
-        <v>8445000000000</v>
+        <v>8444200000000</v>
       </c>
       <c r="C335" t="n">
         <v>1</v>
@@ -4127,10 +4127,10 @@
     </row>
     <row r="336">
       <c r="A336" s="2" t="n">
-        <v>40057</v>
+        <v>40087</v>
       </c>
       <c r="B336" t="n">
-        <v>8444200000000</v>
+        <v>8471100000000</v>
       </c>
       <c r="C336" t="n">
         <v>1</v>
@@ -4138,10 +4138,10 @@
     </row>
     <row r="337">
       <c r="A337" s="2" t="n">
-        <v>40087</v>
+        <v>40118</v>
       </c>
       <c r="B337" t="n">
-        <v>8471100000000</v>
+        <v>8500800000000</v>
       </c>
       <c r="C337" t="n">
         <v>1</v>
@@ -4149,10 +4149,10 @@
     </row>
     <row r="338">
       <c r="A338" s="2" t="n">
-        <v>40118</v>
+        <v>40148</v>
       </c>
       <c r="B338" t="n">
-        <v>8500800000000</v>
+        <v>8496000000000</v>
       </c>
       <c r="C338" t="n">
         <v>1</v>
@@ -4160,10 +4160,10 @@
     </row>
     <row r="339">
       <c r="A339" s="2" t="n">
-        <v>40148</v>
+        <v>40179</v>
       </c>
       <c r="B339" t="n">
-        <v>8496000000000</v>
+        <v>8458100000000</v>
       </c>
       <c r="C339" t="n">
         <v>1</v>
@@ -4171,10 +4171,10 @@
     </row>
     <row r="340">
       <c r="A340" s="2" t="n">
-        <v>40179</v>
+        <v>40210</v>
       </c>
       <c r="B340" t="n">
-        <v>8458100000000</v>
+        <v>8507400000000</v>
       </c>
       <c r="C340" t="n">
         <v>1</v>
@@ -4182,10 +4182,10 @@
     </row>
     <row r="341">
       <c r="A341" s="2" t="n">
-        <v>40210</v>
+        <v>40238</v>
       </c>
       <c r="B341" t="n">
-        <v>8507400000000</v>
+        <v>8504500000000</v>
       </c>
       <c r="C341" t="n">
         <v>1</v>
@@ -4193,10 +4193,10 @@
     </row>
     <row r="342">
       <c r="A342" s="2" t="n">
-        <v>40238</v>
+        <v>40269</v>
       </c>
       <c r="B342" t="n">
-        <v>8504500000000</v>
+        <v>8535200000000</v>
       </c>
       <c r="C342" t="n">
         <v>1</v>
@@ -4204,10 +4204,10 @@
     </row>
     <row r="343">
       <c r="A343" s="2" t="n">
-        <v>40269</v>
+        <v>40299</v>
       </c>
       <c r="B343" t="n">
-        <v>8535200000000</v>
+        <v>8589900000000</v>
       </c>
       <c r="C343" t="n">
         <v>1</v>
@@ -4215,10 +4215,10 @@
     </row>
     <row r="344">
       <c r="A344" s="2" t="n">
-        <v>40299</v>
+        <v>40330</v>
       </c>
       <c r="B344" t="n">
-        <v>8589900000000</v>
+        <v>8609000000000</v>
       </c>
       <c r="C344" t="n">
         <v>1</v>
@@ -4226,10 +4226,10 @@
     </row>
     <row r="345">
       <c r="A345" s="2" t="n">
-        <v>40330</v>
+        <v>40360</v>
       </c>
       <c r="B345" t="n">
-        <v>8609000000000</v>
+        <v>8618800000000</v>
       </c>
       <c r="C345" t="n">
         <v>1</v>
@@ -4237,10 +4237,10 @@
     </row>
     <row r="346">
       <c r="A346" s="2" t="n">
-        <v>40360</v>
+        <v>40391</v>
       </c>
       <c r="B346" t="n">
-        <v>8618800000000</v>
+        <v>8669100000000</v>
       </c>
       <c r="C346" t="n">
         <v>1</v>
@@ -4248,10 +4248,10 @@
     </row>
     <row r="347">
       <c r="A347" s="2" t="n">
-        <v>40391</v>
+        <v>40422</v>
       </c>
       <c r="B347" t="n">
-        <v>8669100000000</v>
+        <v>8700100000000</v>
       </c>
       <c r="C347" t="n">
         <v>1</v>
@@ -4259,10 +4259,10 @@
     </row>
     <row r="348">
       <c r="A348" s="2" t="n">
-        <v>40422</v>
+        <v>40452</v>
       </c>
       <c r="B348" t="n">
-        <v>8700100000000</v>
+        <v>8749400000000</v>
       </c>
       <c r="C348" t="n">
         <v>1</v>
@@ -4270,10 +4270,10 @@
     </row>
     <row r="349">
       <c r="A349" s="2" t="n">
-        <v>40452</v>
+        <v>40483</v>
       </c>
       <c r="B349" t="n">
-        <v>8749400000000</v>
+        <v>8770000000000</v>
       </c>
       <c r="C349" t="n">
         <v>1</v>
@@ -4281,10 +4281,10 @@
     </row>
     <row r="350">
       <c r="A350" s="2" t="n">
-        <v>40483</v>
+        <v>40513</v>
       </c>
       <c r="B350" t="n">
-        <v>8770000000000</v>
+        <v>8801800000000</v>
       </c>
       <c r="C350" t="n">
         <v>1</v>
@@ -4292,10 +4292,10 @@
     </row>
     <row r="351">
       <c r="A351" s="2" t="n">
-        <v>40513</v>
+        <v>40544</v>
       </c>
       <c r="B351" t="n">
-        <v>8801800000000</v>
+        <v>8823100000000</v>
       </c>
       <c r="C351" t="n">
         <v>1</v>
@@ -4303,10 +4303,10 @@
     </row>
     <row r="352">
       <c r="A352" s="2" t="n">
-        <v>40544</v>
+        <v>40575</v>
       </c>
       <c r="B352" t="n">
-        <v>8823100000000</v>
+        <v>8886900000000</v>
       </c>
       <c r="C352" t="n">
         <v>1</v>
@@ -4314,10 +4314,10 @@
     </row>
     <row r="353">
       <c r="A353" s="2" t="n">
-        <v>40575</v>
+        <v>40603</v>
       </c>
       <c r="B353" t="n">
-        <v>8886900000000</v>
+        <v>8943500000000</v>
       </c>
       <c r="C353" t="n">
         <v>1</v>
@@ -4325,10 +4325,10 @@
     </row>
     <row r="354">
       <c r="A354" s="2" t="n">
-        <v>40603</v>
+        <v>40634</v>
       </c>
       <c r="B354" t="n">
-        <v>8943500000000</v>
+        <v>9004900000000</v>
       </c>
       <c r="C354" t="n">
         <v>1</v>
@@ -4336,10 +4336,10 @@
     </row>
     <row r="355">
       <c r="A355" s="2" t="n">
-        <v>40634</v>
+        <v>40664</v>
       </c>
       <c r="B355" t="n">
-        <v>9004900000000</v>
+        <v>9075500000000</v>
       </c>
       <c r="C355" t="n">
         <v>1</v>
@@ -4347,10 +4347,10 @@
     </row>
     <row r="356">
       <c r="A356" s="2" t="n">
-        <v>40664</v>
+        <v>40695</v>
       </c>
       <c r="B356" t="n">
-        <v>9075500000000</v>
+        <v>9151000000000</v>
       </c>
       <c r="C356" t="n">
         <v>1</v>
@@ -4358,10 +4358,10 @@
     </row>
     <row r="357">
       <c r="A357" s="2" t="n">
-        <v>40695</v>
+        <v>40725</v>
       </c>
       <c r="B357" t="n">
-        <v>9151000000000</v>
+        <v>9316600000000</v>
       </c>
       <c r="C357" t="n">
         <v>1</v>
@@ -4369,10 +4369,10 @@
     </row>
     <row r="358">
       <c r="A358" s="2" t="n">
-        <v>40725</v>
+        <v>40756</v>
       </c>
       <c r="B358" t="n">
-        <v>9316600000000</v>
+        <v>9507600000000</v>
       </c>
       <c r="C358" t="n">
         <v>1</v>
@@ -4380,10 +4380,10 @@
     </row>
     <row r="359">
       <c r="A359" s="2" t="n">
-        <v>40756</v>
+        <v>40787</v>
       </c>
       <c r="B359" t="n">
-        <v>9507600000000</v>
+        <v>9528300000000</v>
       </c>
       <c r="C359" t="n">
         <v>1</v>
@@ -4391,10 +4391,10 @@
     </row>
     <row r="360">
       <c r="A360" s="2" t="n">
-        <v>40787</v>
+        <v>40817</v>
       </c>
       <c r="B360" t="n">
-        <v>9528300000000</v>
+        <v>9562100000000</v>
       </c>
       <c r="C360" t="n">
         <v>1</v>
@@ -4402,10 +4402,10 @@
     </row>
     <row r="361">
       <c r="A361" s="2" t="n">
-        <v>40817</v>
+        <v>40848</v>
       </c>
       <c r="B361" t="n">
-        <v>9562100000000</v>
+        <v>9612600000000</v>
       </c>
       <c r="C361" t="n">
         <v>1</v>
@@ -4413,10 +4413,10 @@
     </row>
     <row r="362">
       <c r="A362" s="2" t="n">
-        <v>40848</v>
+        <v>40878</v>
       </c>
       <c r="B362" t="n">
-        <v>9612600000000</v>
+        <v>9660100000000</v>
       </c>
       <c r="C362" t="n">
         <v>1</v>
@@ -4424,10 +4424,10 @@
     </row>
     <row r="363">
       <c r="A363" s="2" t="n">
-        <v>40878</v>
+        <v>40909</v>
       </c>
       <c r="B363" t="n">
-        <v>9660100000000</v>
+        <v>9733300000000</v>
       </c>
       <c r="C363" t="n">
         <v>1</v>
@@ -4435,10 +4435,10 @@
     </row>
     <row r="364">
       <c r="A364" s="2" t="n">
-        <v>40909</v>
+        <v>40940</v>
       </c>
       <c r="B364" t="n">
-        <v>9733300000000</v>
+        <v>9785700000000</v>
       </c>
       <c r="C364" t="n">
         <v>1</v>
@@ -4446,10 +4446,10 @@
     </row>
     <row r="365">
       <c r="A365" s="2" t="n">
-        <v>40940</v>
+        <v>40969</v>
       </c>
       <c r="B365" t="n">
-        <v>9785700000000</v>
+        <v>9830600000000</v>
       </c>
       <c r="C365" t="n">
         <v>1</v>
@@ -4457,10 +4457,10 @@
     </row>
     <row r="366">
       <c r="A366" s="2" t="n">
-        <v>40969</v>
+        <v>41000</v>
       </c>
       <c r="B366" t="n">
-        <v>9830600000000</v>
+        <v>9884600000000</v>
       </c>
       <c r="C366" t="n">
         <v>1</v>
@@ -4468,10 +4468,10 @@
     </row>
     <row r="367">
       <c r="A367" s="2" t="n">
-        <v>41000</v>
+        <v>41030</v>
       </c>
       <c r="B367" t="n">
-        <v>9884600000000</v>
+        <v>9928400000000</v>
       </c>
       <c r="C367" t="n">
         <v>1</v>
@@ -4479,10 +4479,10 @@
     </row>
     <row r="368">
       <c r="A368" s="2" t="n">
-        <v>41030</v>
+        <v>41061</v>
       </c>
       <c r="B368" t="n">
-        <v>9928400000000</v>
+        <v>9999300000000</v>
       </c>
       <c r="C368" t="n">
         <v>1</v>
@@ -4490,10 +4490,10 @@
     </row>
     <row r="369">
       <c r="A369" s="2" t="n">
-        <v>41061</v>
+        <v>41091</v>
       </c>
       <c r="B369" t="n">
-        <v>9999300000000</v>
+        <v>10051800000000</v>
       </c>
       <c r="C369" t="n">
         <v>1</v>
@@ -4501,10 +4501,10 @@
     </row>
     <row r="370">
       <c r="A370" s="2" t="n">
-        <v>41091</v>
+        <v>41122</v>
       </c>
       <c r="B370" t="n">
-        <v>10051800000000</v>
+        <v>10121300000000</v>
       </c>
       <c r="C370" t="n">
         <v>1</v>
@@ -4512,10 +4512,10 @@
     </row>
     <row r="371">
       <c r="A371" s="2" t="n">
-        <v>41122</v>
+        <v>41153</v>
       </c>
       <c r="B371" t="n">
-        <v>10121300000000</v>
+        <v>10200800000000</v>
       </c>
       <c r="C371" t="n">
         <v>1</v>
@@ -4523,10 +4523,10 @@
     </row>
     <row r="372">
       <c r="A372" s="2" t="n">
-        <v>41153</v>
+        <v>41183</v>
       </c>
       <c r="B372" t="n">
-        <v>10200800000000</v>
+        <v>10267300000000</v>
       </c>
       <c r="C372" t="n">
         <v>1</v>
@@ -4534,10 +4534,10 @@
     </row>
     <row r="373">
       <c r="A373" s="2" t="n">
-        <v>41183</v>
+        <v>41214</v>
       </c>
       <c r="B373" t="n">
-        <v>10267300000000</v>
+        <v>10337600000000</v>
       </c>
       <c r="C373" t="n">
         <v>1</v>
@@ -4545,10 +4545,10 @@
     </row>
     <row r="374">
       <c r="A374" s="2" t="n">
-        <v>41214</v>
+        <v>41244</v>
       </c>
       <c r="B374" t="n">
-        <v>10337600000000</v>
+        <v>10459700000000</v>
       </c>
       <c r="C374" t="n">
         <v>1</v>
@@ -4556,10 +4556,10 @@
     </row>
     <row r="375">
       <c r="A375" s="2" t="n">
-        <v>41244</v>
+        <v>41275</v>
       </c>
       <c r="B375" t="n">
-        <v>10459700000000</v>
+        <v>10482900000000</v>
       </c>
       <c r="C375" t="n">
         <v>1</v>
@@ -4567,10 +4567,10 @@
     </row>
     <row r="376">
       <c r="A376" s="2" t="n">
-        <v>41275</v>
+        <v>41306</v>
       </c>
       <c r="B376" t="n">
-        <v>10482900000000</v>
+        <v>10501300000000</v>
       </c>
       <c r="C376" t="n">
         <v>1</v>
@@ -4578,10 +4578,10 @@
     </row>
     <row r="377">
       <c r="A377" s="2" t="n">
-        <v>41306</v>
+        <v>41334</v>
       </c>
       <c r="B377" t="n">
-        <v>10501300000000</v>
+        <v>10558300000000</v>
       </c>
       <c r="C377" t="n">
         <v>1</v>
@@ -4589,10 +4589,10 @@
     </row>
     <row r="378">
       <c r="A378" s="2" t="n">
-        <v>41334</v>
+        <v>41365</v>
       </c>
       <c r="B378" t="n">
-        <v>10558300000000</v>
+        <v>10586300000000</v>
       </c>
       <c r="C378" t="n">
         <v>1</v>
@@ -4600,10 +4600,10 @@
     </row>
     <row r="379">
       <c r="A379" s="2" t="n">
-        <v>41365</v>
+        <v>41395</v>
       </c>
       <c r="B379" t="n">
-        <v>10586300000000</v>
+        <v>10621000000000</v>
       </c>
       <c r="C379" t="n">
         <v>1</v>
@@ -4611,10 +4611,10 @@
     </row>
     <row r="380">
       <c r="A380" s="2" t="n">
-        <v>41395</v>
+        <v>41426</v>
       </c>
       <c r="B380" t="n">
-        <v>10621000000000</v>
+        <v>10678700000000</v>
       </c>
       <c r="C380" t="n">
         <v>1</v>
@@ -4622,10 +4622,10 @@
     </row>
     <row r="381">
       <c r="A381" s="2" t="n">
-        <v>41426</v>
+        <v>41456</v>
       </c>
       <c r="B381" t="n">
-        <v>10678700000000</v>
+        <v>10718400000000</v>
       </c>
       <c r="C381" t="n">
         <v>1</v>
@@ -4633,10 +4633,10 @@
     </row>
     <row r="382">
       <c r="A382" s="2" t="n">
-        <v>41456</v>
+        <v>41487</v>
       </c>
       <c r="B382" t="n">
-        <v>10718400000000</v>
+        <v>10776600000000</v>
       </c>
       <c r="C382" t="n">
         <v>1</v>
@@ -4644,10 +4644,10 @@
     </row>
     <row r="383">
       <c r="A383" s="2" t="n">
-        <v>41487</v>
+        <v>41518</v>
       </c>
       <c r="B383" t="n">
-        <v>10776600000000</v>
+        <v>10837200000000</v>
       </c>
       <c r="C383" t="n">
         <v>1</v>
@@ -4655,10 +4655,10 @@
     </row>
     <row r="384">
       <c r="A384" s="2" t="n">
-        <v>41518</v>
+        <v>41548</v>
       </c>
       <c r="B384" t="n">
-        <v>10837200000000</v>
+        <v>10961600000000</v>
       </c>
       <c r="C384" t="n">
         <v>1</v>
@@ -4666,10 +4666,10 @@
     </row>
     <row r="385">
       <c r="A385" s="2" t="n">
-        <v>41548</v>
+        <v>41579</v>
       </c>
       <c r="B385" t="n">
-        <v>10961600000000</v>
+        <v>10969700000000</v>
       </c>
       <c r="C385" t="n">
         <v>1</v>
@@ -4677,10 +4677,10 @@
     </row>
     <row r="386">
       <c r="A386" s="2" t="n">
-        <v>41579</v>
+        <v>41609</v>
       </c>
       <c r="B386" t="n">
-        <v>10969700000000</v>
+        <v>11035000000000</v>
       </c>
       <c r="C386" t="n">
         <v>1</v>
@@ -4688,10 +4688,10 @@
     </row>
     <row r="387">
       <c r="A387" s="2" t="n">
-        <v>41609</v>
+        <v>41640</v>
       </c>
       <c r="B387" t="n">
-        <v>11035000000000</v>
+        <v>11080800000000</v>
       </c>
       <c r="C387" t="n">
         <v>1</v>
@@ -4699,10 +4699,10 @@
     </row>
     <row r="388">
       <c r="A388" s="2" t="n">
-        <v>41640</v>
+        <v>41671</v>
       </c>
       <c r="B388" t="n">
-        <v>11080800000000</v>
+        <v>11178800000000</v>
       </c>
       <c r="C388" t="n">
         <v>1</v>
@@ -4710,10 +4710,10 @@
     </row>
     <row r="389">
       <c r="A389" s="2" t="n">
-        <v>41671</v>
+        <v>41699</v>
       </c>
       <c r="B389" t="n">
-        <v>11178800000000</v>
+        <v>11208100000000</v>
       </c>
       <c r="C389" t="n">
         <v>1</v>
@@ -4721,10 +4721,10 @@
     </row>
     <row r="390">
       <c r="A390" s="2" t="n">
-        <v>41699</v>
+        <v>41730</v>
       </c>
       <c r="B390" t="n">
-        <v>11208100000000</v>
+        <v>11257700000000</v>
       </c>
       <c r="C390" t="n">
         <v>1</v>
@@ -4732,10 +4732,10 @@
     </row>
     <row r="391">
       <c r="A391" s="2" t="n">
-        <v>41730</v>
+        <v>41760</v>
       </c>
       <c r="B391" t="n">
-        <v>11257700000000</v>
+        <v>11321000000000</v>
       </c>
       <c r="C391" t="n">
         <v>1</v>
@@ -4743,10 +4743,10 @@
     </row>
     <row r="392">
       <c r="A392" s="2" t="n">
-        <v>41760</v>
+        <v>41791</v>
       </c>
       <c r="B392" t="n">
-        <v>11321000000000</v>
+        <v>11374900000000</v>
       </c>
       <c r="C392" t="n">
         <v>1</v>
@@ -4754,10 +4754,10 @@
     </row>
     <row r="393">
       <c r="A393" s="2" t="n">
-        <v>41791</v>
+        <v>41821</v>
       </c>
       <c r="B393" t="n">
-        <v>11374900000000</v>
+        <v>11429900000000</v>
       </c>
       <c r="C393" t="n">
         <v>1</v>
@@ -4765,10 +4765,10 @@
     </row>
     <row r="394">
       <c r="A394" s="2" t="n">
-        <v>41821</v>
+        <v>41852</v>
       </c>
       <c r="B394" t="n">
-        <v>11429900000000</v>
+        <v>11458900000000</v>
       </c>
       <c r="C394" t="n">
         <v>1</v>
@@ -4776,10 +4776,10 @@
     </row>
     <row r="395">
       <c r="A395" s="2" t="n">
-        <v>41852</v>
+        <v>41883</v>
       </c>
       <c r="B395" t="n">
-        <v>11458900000000</v>
+        <v>11499800000000</v>
       </c>
       <c r="C395" t="n">
         <v>1</v>
@@ -4787,10 +4787,10 @@
     </row>
     <row r="396">
       <c r="A396" s="2" t="n">
-        <v>41883</v>
+        <v>41913</v>
       </c>
       <c r="B396" t="n">
-        <v>11499800000000</v>
+        <v>11566000000000</v>
       </c>
       <c r="C396" t="n">
         <v>1</v>
@@ -4798,10 +4798,10 @@
     </row>
     <row r="397">
       <c r="A397" s="2" t="n">
-        <v>41913</v>
+        <v>41944</v>
       </c>
       <c r="B397" t="n">
-        <v>11566000000000</v>
+        <v>11604800000000</v>
       </c>
       <c r="C397" t="n">
         <v>1</v>
@@ -4809,10 +4809,10 @@
     </row>
     <row r="398">
       <c r="A398" s="2" t="n">
-        <v>41944</v>
+        <v>41974</v>
       </c>
       <c r="B398" t="n">
-        <v>11604800000000</v>
+        <v>11684900000000</v>
       </c>
       <c r="C398" t="n">
         <v>1</v>
@@ -4820,10 +4820,10 @@
     </row>
     <row r="399">
       <c r="A399" s="2" t="n">
-        <v>41974</v>
+        <v>42005</v>
       </c>
       <c r="B399" t="n">
-        <v>11684900000000</v>
+        <v>11745600000000</v>
       </c>
       <c r="C399" t="n">
         <v>1</v>
@@ -4831,10 +4831,10 @@
     </row>
     <row r="400">
       <c r="A400" s="2" t="n">
-        <v>42005</v>
+        <v>42036</v>
       </c>
       <c r="B400" t="n">
-        <v>11745600000000</v>
+        <v>11879000000000</v>
       </c>
       <c r="C400" t="n">
         <v>1</v>
@@ -4842,10 +4842,10 @@
     </row>
     <row r="401">
       <c r="A401" s="2" t="n">
-        <v>42036</v>
+        <v>42064</v>
       </c>
       <c r="B401" t="n">
-        <v>11879000000000</v>
+        <v>11886800000000</v>
       </c>
       <c r="C401" t="n">
         <v>1</v>
@@ -4853,10 +4853,10 @@
     </row>
     <row r="402">
       <c r="A402" s="2" t="n">
-        <v>42064</v>
+        <v>42095</v>
       </c>
       <c r="B402" t="n">
-        <v>11886800000000</v>
+        <v>11928900000000</v>
       </c>
       <c r="C402" t="n">
         <v>1</v>
@@ -4864,10 +4864,10 @@
     </row>
     <row r="403">
       <c r="A403" s="2" t="n">
-        <v>42095</v>
+        <v>42125</v>
       </c>
       <c r="B403" t="n">
-        <v>11928900000000</v>
+        <v>11957900000000</v>
       </c>
       <c r="C403" t="n">
         <v>1</v>
@@ -4875,10 +4875,10 @@
     </row>
     <row r="404">
       <c r="A404" s="2" t="n">
-        <v>42125</v>
+        <v>42156</v>
       </c>
       <c r="B404" t="n">
-        <v>11957900000000</v>
+        <v>12001700000000</v>
       </c>
       <c r="C404" t="n">
         <v>1</v>
@@ -4886,10 +4886,10 @@
     </row>
     <row r="405">
       <c r="A405" s="2" t="n">
-        <v>42156</v>
+        <v>42186</v>
       </c>
       <c r="B405" t="n">
-        <v>12001700000000</v>
+        <v>12051300000000</v>
       </c>
       <c r="C405" t="n">
         <v>1</v>
@@ -4897,10 +4897,10 @@
     </row>
     <row r="406">
       <c r="A406" s="2" t="n">
-        <v>42186</v>
+        <v>42217</v>
       </c>
       <c r="B406" t="n">
-        <v>12051300000000</v>
+        <v>12101900000000</v>
       </c>
       <c r="C406" t="n">
         <v>1</v>
@@ -4908,10 +4908,10 @@
     </row>
     <row r="407">
       <c r="A407" s="2" t="n">
-        <v>42217</v>
+        <v>42248</v>
       </c>
       <c r="B407" t="n">
-        <v>12101900000000</v>
+        <v>12160800000000</v>
       </c>
       <c r="C407" t="n">
         <v>1</v>
@@ -4919,10 +4919,10 @@
     </row>
     <row r="408">
       <c r="A408" s="2" t="n">
-        <v>42248</v>
+        <v>42278</v>
       </c>
       <c r="B408" t="n">
-        <v>12160800000000</v>
+        <v>12195900000000</v>
       </c>
       <c r="C408" t="n">
         <v>1</v>
@@ -4930,10 +4930,10 @@
     </row>
     <row r="409">
       <c r="A409" s="2" t="n">
-        <v>42278</v>
+        <v>42309</v>
       </c>
       <c r="B409" t="n">
-        <v>12195900000000</v>
+        <v>12284600000000</v>
       </c>
       <c r="C409" t="n">
         <v>1</v>
@@ -4941,10 +4941,10 @@
     </row>
     <row r="410">
       <c r="A410" s="2" t="n">
-        <v>42309</v>
+        <v>42339</v>
       </c>
       <c r="B410" t="n">
-        <v>12284600000000</v>
+        <v>12346800000000</v>
       </c>
       <c r="C410" t="n">
         <v>1</v>
@@ -4952,10 +4952,10 @@
     </row>
     <row r="411">
       <c r="A411" s="2" t="n">
-        <v>42339</v>
+        <v>42370</v>
       </c>
       <c r="B411" t="n">
-        <v>12346800000000</v>
+        <v>12469900000000</v>
       </c>
       <c r="C411" t="n">
         <v>1</v>
@@ -4963,10 +4963,10 @@
     </row>
     <row r="412">
       <c r="A412" s="2" t="n">
-        <v>42370</v>
+        <v>42401</v>
       </c>
       <c r="B412" t="n">
-        <v>12469900000000</v>
+        <v>12556700000000</v>
       </c>
       <c r="C412" t="n">
         <v>1</v>
@@ -4974,10 +4974,10 @@
     </row>
     <row r="413">
       <c r="A413" s="2" t="n">
-        <v>42401</v>
+        <v>42430</v>
       </c>
       <c r="B413" t="n">
-        <v>12556700000000</v>
+        <v>12616700000000</v>
       </c>
       <c r="C413" t="n">
         <v>1</v>
@@ -4985,10 +4985,10 @@
     </row>
     <row r="414">
       <c r="A414" s="2" t="n">
-        <v>42430</v>
+        <v>42461</v>
       </c>
       <c r="B414" t="n">
-        <v>12616700000000</v>
+        <v>12700400000000</v>
       </c>
       <c r="C414" t="n">
         <v>1</v>
@@ -4996,10 +4996,10 @@
     </row>
     <row r="415">
       <c r="A415" s="2" t="n">
-        <v>42461</v>
+        <v>42491</v>
       </c>
       <c r="B415" t="n">
-        <v>12700400000000</v>
+        <v>12766200000000</v>
       </c>
       <c r="C415" t="n">
         <v>1</v>
@@ -5007,10 +5007,10 @@
     </row>
     <row r="416">
       <c r="A416" s="2" t="n">
-        <v>42491</v>
+        <v>42522</v>
       </c>
       <c r="B416" t="n">
-        <v>12766200000000</v>
+        <v>12829400000000</v>
       </c>
       <c r="C416" t="n">
         <v>1</v>
@@ -5018,10 +5018,10 @@
     </row>
     <row r="417">
       <c r="A417" s="2" t="n">
-        <v>42522</v>
+        <v>42552</v>
       </c>
       <c r="B417" t="n">
-        <v>12829400000000</v>
+        <v>12887700000000</v>
       </c>
       <c r="C417" t="n">
         <v>1</v>
@@ -5029,10 +5029,10 @@
     </row>
     <row r="418">
       <c r="A418" s="2" t="n">
-        <v>42552</v>
+        <v>42583</v>
       </c>
       <c r="B418" t="n">
-        <v>12887700000000</v>
+        <v>12972800000000</v>
       </c>
       <c r="C418" t="n">
         <v>1</v>
@@ -5040,10 +5040,10 @@
     </row>
     <row r="419">
       <c r="A419" s="2" t="n">
-        <v>42583</v>
+        <v>42614</v>
       </c>
       <c r="B419" t="n">
-        <v>12972800000000</v>
+        <v>13033600000000</v>
       </c>
       <c r="C419" t="n">
         <v>1</v>
@@ -5051,10 +5051,10 @@
     </row>
     <row r="420">
       <c r="A420" s="2" t="n">
-        <v>42614</v>
+        <v>42644</v>
       </c>
       <c r="B420" t="n">
-        <v>13033600000000</v>
+        <v>13100500000000</v>
       </c>
       <c r="C420" t="n">
         <v>1</v>
@@ -5062,10 +5062,10 @@
     </row>
     <row r="421">
       <c r="A421" s="2" t="n">
-        <v>42644</v>
+        <v>42675</v>
       </c>
       <c r="B421" t="n">
-        <v>13100500000000</v>
+        <v>13173400000000</v>
       </c>
       <c r="C421" t="n">
         <v>1</v>
@@ -5073,10 +5073,10 @@
     </row>
     <row r="422">
       <c r="A422" s="2" t="n">
-        <v>42675</v>
+        <v>42705</v>
       </c>
       <c r="B422" t="n">
-        <v>13173400000000</v>
+        <v>13213400000000</v>
       </c>
       <c r="C422" t="n">
         <v>1</v>
@@ -5084,10 +5084,10 @@
     </row>
     <row r="423">
       <c r="A423" s="2" t="n">
-        <v>42705</v>
+        <v>42736</v>
       </c>
       <c r="B423" t="n">
-        <v>13213400000000</v>
+        <v>13283400000000</v>
       </c>
       <c r="C423" t="n">
         <v>1</v>
@@ -5095,10 +5095,10 @@
     </row>
     <row r="424">
       <c r="A424" s="2" t="n">
-        <v>42736</v>
+        <v>42767</v>
       </c>
       <c r="B424" t="n">
-        <v>13283400000000</v>
+        <v>13358800000000</v>
       </c>
       <c r="C424" t="n">
         <v>1</v>
@@ -5106,10 +5106,10 @@
     </row>
     <row r="425">
       <c r="A425" s="2" t="n">
-        <v>42767</v>
+        <v>42795</v>
       </c>
       <c r="B425" t="n">
-        <v>13358800000000</v>
+        <v>13426900000000</v>
       </c>
       <c r="C425" t="n">
         <v>1</v>
@@ -5117,10 +5117,10 @@
     </row>
     <row r="426">
       <c r="A426" s="2" t="n">
-        <v>42795</v>
+        <v>42826</v>
       </c>
       <c r="B426" t="n">
-        <v>13426900000000</v>
+        <v>13484900000000</v>
       </c>
       <c r="C426" t="n">
         <v>1</v>
@@ -5128,10 +5128,10 @@
     </row>
     <row r="427">
       <c r="A427" s="2" t="n">
-        <v>42826</v>
+        <v>42856</v>
       </c>
       <c r="B427" t="n">
-        <v>13484900000000</v>
+        <v>13538100000000</v>
       </c>
       <c r="C427" t="n">
         <v>1</v>
@@ -5139,10 +5139,10 @@
     </row>
     <row r="428">
       <c r="A428" s="2" t="n">
-        <v>42856</v>
+        <v>42887</v>
       </c>
       <c r="B428" t="n">
-        <v>13538100000000</v>
+        <v>13559200000000</v>
       </c>
       <c r="C428" t="n">
         <v>1</v>
@@ -5150,10 +5150,10 @@
     </row>
     <row r="429">
       <c r="A429" s="2" t="n">
-        <v>42887</v>
+        <v>42917</v>
       </c>
       <c r="B429" t="n">
-        <v>13559200000000</v>
+        <v>13618700000000</v>
       </c>
       <c r="C429" t="n">
         <v>1</v>
@@ -5161,10 +5161,10 @@
     </row>
     <row r="430">
       <c r="A430" s="2" t="n">
-        <v>42917</v>
+        <v>42948</v>
       </c>
       <c r="B430" t="n">
-        <v>13618700000000</v>
+        <v>13673700000000</v>
       </c>
       <c r="C430" t="n">
         <v>1</v>
@@ -5172,10 +5172,10 @@
     </row>
     <row r="431">
       <c r="A431" s="2" t="n">
-        <v>42948</v>
+        <v>42979</v>
       </c>
       <c r="B431" t="n">
-        <v>13673700000000</v>
+        <v>13717900000000</v>
       </c>
       <c r="C431" t="n">
         <v>1</v>
@@ -5183,10 +5183,10 @@
     </row>
     <row r="432">
       <c r="A432" s="2" t="n">
-        <v>42979</v>
+        <v>43009</v>
       </c>
       <c r="B432" t="n">
-        <v>13717900000000</v>
+        <v>13770100000000</v>
       </c>
       <c r="C432" t="n">
         <v>1</v>
@@ -5194,10 +5194,10 @@
     </row>
     <row r="433">
       <c r="A433" s="2" t="n">
-        <v>43009</v>
+        <v>43040</v>
       </c>
       <c r="B433" t="n">
-        <v>13770100000000</v>
+        <v>13799900000000</v>
       </c>
       <c r="C433" t="n">
         <v>1</v>
@@ -5205,10 +5205,10 @@
     </row>
     <row r="434">
       <c r="A434" s="2" t="n">
-        <v>43040</v>
+        <v>43070</v>
       </c>
       <c r="B434" t="n">
-        <v>13799900000000</v>
+        <v>13857900000000</v>
       </c>
       <c r="C434" t="n">
         <v>1</v>
@@ -5216,10 +5216,10 @@
     </row>
     <row r="435">
       <c r="A435" s="2" t="n">
-        <v>43070</v>
+        <v>43101</v>
       </c>
       <c r="B435" t="n">
-        <v>13857900000000</v>
+        <v>13869700000000</v>
       </c>
       <c r="C435" t="n">
         <v>1</v>
@@ -5227,10 +5227,10 @@
     </row>
     <row r="436">
       <c r="A436" s="2" t="n">
-        <v>43101</v>
+        <v>43132</v>
       </c>
       <c r="B436" t="n">
-        <v>13869700000000</v>
+        <v>13912300000000</v>
       </c>
       <c r="C436" t="n">
         <v>1</v>
@@ -5238,10 +5238,10 @@
     </row>
     <row r="437">
       <c r="A437" s="2" t="n">
-        <v>43132</v>
+        <v>43160</v>
       </c>
       <c r="B437" t="n">
-        <v>13912300000000</v>
+        <v>13970200000000</v>
       </c>
       <c r="C437" t="n">
         <v>1</v>
@@ -5249,10 +5249,10 @@
     </row>
     <row r="438">
       <c r="A438" s="2" t="n">
-        <v>43160</v>
+        <v>43191</v>
       </c>
       <c r="B438" t="n">
-        <v>13970200000000</v>
+        <v>13988800000000</v>
       </c>
       <c r="C438" t="n">
         <v>1</v>
@@ -5260,10 +5260,10 @@
     </row>
     <row r="439">
       <c r="A439" s="2" t="n">
-        <v>43191</v>
+        <v>43221</v>
       </c>
       <c r="B439" t="n">
-        <v>13988800000000</v>
+        <v>14047200000000</v>
       </c>
       <c r="C439" t="n">
         <v>1</v>
@@ -5271,10 +5271,10 @@
     </row>
     <row r="440">
       <c r="A440" s="2" t="n">
-        <v>43221</v>
+        <v>43252</v>
       </c>
       <c r="B440" t="n">
-        <v>14047200000000</v>
+        <v>14103600000000</v>
       </c>
       <c r="C440" t="n">
         <v>1</v>
@@ -5282,10 +5282,10 @@
     </row>
     <row r="441">
       <c r="A441" s="2" t="n">
-        <v>43252</v>
+        <v>43282</v>
       </c>
       <c r="B441" t="n">
-        <v>14103600000000</v>
+        <v>14139200000000</v>
       </c>
       <c r="C441" t="n">
         <v>1</v>
@@ -5293,10 +5293,10 @@
     </row>
     <row r="442">
       <c r="A442" s="2" t="n">
-        <v>43282</v>
+        <v>43313</v>
       </c>
       <c r="B442" t="n">
-        <v>14139200000000</v>
+        <v>14181300000000</v>
       </c>
       <c r="C442" t="n">
         <v>1</v>
@@ -5304,10 +5304,10 @@
     </row>
     <row r="443">
       <c r="A443" s="2" t="n">
-        <v>43313</v>
+        <v>43344</v>
       </c>
       <c r="B443" t="n">
-        <v>14181300000000</v>
+        <v>14212900000000</v>
       </c>
       <c r="C443" t="n">
         <v>1</v>
@@ -5315,10 +5315,10 @@
     </row>
     <row r="444">
       <c r="A444" s="2" t="n">
-        <v>43344</v>
+        <v>43374</v>
       </c>
       <c r="B444" t="n">
-        <v>14212900000000</v>
+        <v>14222500000000</v>
       </c>
       <c r="C444" t="n">
         <v>1</v>
@@ -5326,10 +5326,10 @@
     </row>
     <row r="445">
       <c r="A445" s="2" t="n">
-        <v>43374</v>
+        <v>43405</v>
       </c>
       <c r="B445" t="n">
-        <v>14222500000000</v>
+        <v>14236800000000</v>
       </c>
       <c r="C445" t="n">
         <v>1</v>
@@ -5337,10 +5337,10 @@
     </row>
     <row r="446">
       <c r="A446" s="2" t="n">
-        <v>43405</v>
+        <v>43435</v>
       </c>
       <c r="B446" t="n">
-        <v>14236800000000</v>
+        <v>14362700000000</v>
       </c>
       <c r="C446" t="n">
         <v>1</v>
@@ -5348,10 +5348,10 @@
     </row>
     <row r="447">
       <c r="A447" s="2" t="n">
-        <v>43435</v>
+        <v>43466</v>
       </c>
       <c r="B447" t="n">
-        <v>14362700000000</v>
+        <v>14430000000000</v>
       </c>
       <c r="C447" t="n">
         <v>1</v>
@@ -5359,10 +5359,10 @@
     </row>
     <row r="448">
       <c r="A448" s="2" t="n">
-        <v>43466</v>
+        <v>43497</v>
       </c>
       <c r="B448" t="n">
-        <v>14430000000000</v>
+        <v>14469900000000</v>
       </c>
       <c r="C448" t="n">
         <v>1</v>
@@ -5370,10 +5370,10 @@
     </row>
     <row r="449">
       <c r="A449" s="2" t="n">
-        <v>43497</v>
+        <v>43525</v>
       </c>
       <c r="B449" t="n">
-        <v>14469900000000</v>
+        <v>14509900000000</v>
       </c>
       <c r="C449" t="n">
         <v>1</v>
@@ -5381,10 +5381,10 @@
     </row>
     <row r="450">
       <c r="A450" s="2" t="n">
-        <v>43525</v>
+        <v>43556</v>
       </c>
       <c r="B450" t="n">
-        <v>14509900000000</v>
+        <v>14541000000000</v>
       </c>
       <c r="C450" t="n">
         <v>1</v>
@@ -5392,10 +5392,10 @@
     </row>
     <row r="451">
       <c r="A451" s="2" t="n">
-        <v>43556</v>
+        <v>43586</v>
       </c>
       <c r="B451" t="n">
-        <v>14541000000000</v>
+        <v>14643200000000</v>
       </c>
       <c r="C451" t="n">
         <v>1</v>
@@ -5403,10 +5403,10 @@
     </row>
     <row r="452">
       <c r="A452" s="2" t="n">
-        <v>43586</v>
+        <v>43617</v>
       </c>
       <c r="B452" t="n">
-        <v>14643200000000</v>
+        <v>14757700000000</v>
       </c>
       <c r="C452" t="n">
         <v>1</v>
@@ -5414,10 +5414,10 @@
     </row>
     <row r="453">
       <c r="A453" s="2" t="n">
-        <v>43617</v>
+        <v>43647</v>
       </c>
       <c r="B453" t="n">
-        <v>14757700000000</v>
+        <v>14840600000000</v>
       </c>
       <c r="C453" t="n">
         <v>1</v>
@@ -5425,10 +5425,10 @@
     </row>
     <row r="454">
       <c r="A454" s="2" t="n">
-        <v>43647</v>
+        <v>43678</v>
       </c>
       <c r="B454" t="n">
-        <v>14840600000000</v>
+        <v>14914600000000</v>
       </c>
       <c r="C454" t="n">
         <v>1</v>
@@ -5436,10 +5436,10 @@
     </row>
     <row r="455">
       <c r="A455" s="2" t="n">
-        <v>43678</v>
+        <v>43709</v>
       </c>
       <c r="B455" t="n">
-        <v>14914600000000</v>
+        <v>15008100000000</v>
       </c>
       <c r="C455" t="n">
         <v>1</v>
@@ -5447,10 +5447,10 @@
     </row>
     <row r="456">
       <c r="A456" s="2" t="n">
-        <v>43709</v>
+        <v>43739</v>
       </c>
       <c r="B456" t="n">
-        <v>15008100000000</v>
+        <v>15140800000000</v>
       </c>
       <c r="C456" t="n">
         <v>1</v>
@@ -5458,10 +5458,10 @@
     </row>
     <row r="457">
       <c r="A457" s="2" t="n">
-        <v>43739</v>
+        <v>43770</v>
       </c>
       <c r="B457" t="n">
-        <v>15140800000000</v>
+        <v>15242200000000</v>
       </c>
       <c r="C457" t="n">
         <v>1</v>
@@ -5469,10 +5469,10 @@
     </row>
     <row r="458">
       <c r="A458" s="2" t="n">
-        <v>43770</v>
+        <v>43800</v>
       </c>
       <c r="B458" t="n">
-        <v>15242200000000</v>
+        <v>15320700000000</v>
       </c>
       <c r="C458" t="n">
         <v>1</v>
@@ -5480,10 +5480,10 @@
     </row>
     <row r="459">
       <c r="A459" s="2" t="n">
-        <v>43800</v>
+        <v>43831</v>
       </c>
       <c r="B459" t="n">
-        <v>15320700000000</v>
+        <v>15396000000000</v>
       </c>
       <c r="C459" t="n">
         <v>1</v>
@@ -5491,10 +5491,10 @@
     </row>
     <row r="460">
       <c r="A460" s="2" t="n">
-        <v>43831</v>
+        <v>43862</v>
       </c>
       <c r="B460" t="n">
-        <v>15396000000000</v>
+        <v>15450300000000</v>
       </c>
       <c r="C460" t="n">
         <v>1</v>
@@ -5502,10 +5502,10 @@
     </row>
     <row r="461">
       <c r="A461" s="2" t="n">
-        <v>43862</v>
+        <v>43891</v>
       </c>
       <c r="B461" t="n">
-        <v>15450300000000</v>
+        <v>15978700000000</v>
       </c>
       <c r="C461" t="n">
         <v>1</v>
@@ -5513,10 +5513,10 @@
     </row>
     <row r="462">
       <c r="A462" s="2" t="n">
-        <v>43891</v>
+        <v>43922</v>
       </c>
       <c r="B462" t="n">
-        <v>15978700000000</v>
+        <v>16997600000000</v>
       </c>
       <c r="C462" t="n">
         <v>1</v>
@@ -5524,10 +5524,10 @@
     </row>
     <row r="463">
       <c r="A463" s="2" t="n">
-        <v>43922</v>
+        <v>43952</v>
       </c>
       <c r="B463" t="n">
-        <v>16997600000000</v>
+        <v>17851100000000</v>
       </c>
       <c r="C463" t="n">
         <v>1</v>
@@ -5535,10 +5535,10 @@
     </row>
     <row r="464">
       <c r="A464" s="2" t="n">
-        <v>43952</v>
+        <v>43983</v>
       </c>
       <c r="B464" t="n">
-        <v>17851100000000</v>
+        <v>18131700000000</v>
       </c>
       <c r="C464" t="n">
         <v>1</v>
@@ -5546,10 +5546,10 @@
     </row>
     <row r="465">
       <c r="A465" s="2" t="n">
-        <v>43983</v>
+        <v>44013</v>
       </c>
       <c r="B465" t="n">
-        <v>18131700000000</v>
+        <v>18286300000000</v>
       </c>
       <c r="C465" t="n">
         <v>1</v>
@@ -5557,10 +5557,10 @@
     </row>
     <row r="466">
       <c r="A466" s="2" t="n">
-        <v>44013</v>
+        <v>44044</v>
       </c>
       <c r="B466" t="n">
-        <v>18286300000000</v>
+        <v>18346000000000</v>
       </c>
       <c r="C466" t="n">
         <v>1</v>
@@ -5568,10 +5568,10 @@
     </row>
     <row r="467">
       <c r="A467" s="2" t="n">
-        <v>44044</v>
+        <v>44075</v>
       </c>
       <c r="B467" t="n">
-        <v>18346000000000</v>
+        <v>18577300000000</v>
       </c>
       <c r="C467" t="n">
         <v>1</v>
@@ -5579,10 +5579,10 @@
     </row>
     <row r="468">
       <c r="A468" s="2" t="n">
-        <v>44075</v>
+        <v>44105</v>
       </c>
       <c r="B468" t="n">
-        <v>18577300000000</v>
+        <v>18729100000000</v>
       </c>
       <c r="C468" t="n">
         <v>1</v>
@@ -5590,10 +5590,10 @@
     </row>
     <row r="469">
       <c r="A469" s="2" t="n">
-        <v>44105</v>
+        <v>44136</v>
       </c>
       <c r="B469" t="n">
-        <v>18729100000000</v>
+        <v>18949300000000</v>
       </c>
       <c r="C469" t="n">
         <v>1</v>
@@ -5601,10 +5601,10 @@
     </row>
     <row r="470">
       <c r="A470" s="2" t="n">
-        <v>44136</v>
+        <v>44166</v>
       </c>
       <c r="B470" t="n">
-        <v>18949300000000</v>
+        <v>19114400000000</v>
       </c>
       <c r="C470" t="n">
         <v>1</v>
@@ -5612,10 +5612,10 @@
     </row>
     <row r="471">
       <c r="A471" s="2" t="n">
-        <v>44166</v>
+        <v>44197</v>
       </c>
       <c r="B471" t="n">
-        <v>19114400000000</v>
+        <v>19356900000000</v>
       </c>
       <c r="C471" t="n">
         <v>1</v>
@@ -5623,10 +5623,10 @@
     </row>
     <row r="472">
       <c r="A472" s="2" t="n">
-        <v>44197</v>
+        <v>44228</v>
       </c>
       <c r="B472" t="n">
-        <v>19356900000000</v>
+        <v>19600400000000</v>
       </c>
       <c r="C472" t="n">
         <v>1</v>
@@ -5634,10 +5634,10 @@
     </row>
     <row r="473">
       <c r="A473" s="2" t="n">
-        <v>44228</v>
+        <v>44256</v>
       </c>
       <c r="B473" t="n">
-        <v>19600400000000</v>
+        <v>19841000000000</v>
       </c>
       <c r="C473" t="n">
         <v>1</v>
@@ -5645,10 +5645,10 @@
     </row>
     <row r="474">
       <c r="A474" s="2" t="n">
-        <v>44256</v>
+        <v>44287</v>
       </c>
       <c r="B474" t="n">
-        <v>19841000000000</v>
+        <v>20116900000000</v>
       </c>
       <c r="C474" t="n">
         <v>1</v>
@@ -5656,10 +5656,10 @@
     </row>
     <row r="475">
       <c r="A475" s="2" t="n">
-        <v>44287</v>
+        <v>44317</v>
       </c>
       <c r="B475" t="n">
-        <v>20116900000000</v>
+        <v>20431100000000</v>
       </c>
       <c r="C475" t="n">
         <v>1</v>
@@ -5667,10 +5667,10 @@
     </row>
     <row r="476">
       <c r="A476" s="2" t="n">
-        <v>44317</v>
+        <v>44348</v>
       </c>
       <c r="B476" t="n">
-        <v>20431100000000</v>
+        <v>20506500000000</v>
       </c>
       <c r="C476" t="n">
         <v>1</v>
@@ -5678,10 +5678,10 @@
     </row>
     <row r="477">
       <c r="A477" s="2" t="n">
-        <v>44348</v>
+        <v>44378</v>
       </c>
       <c r="B477" t="n">
-        <v>20506500000000</v>
+        <v>20663000000000</v>
       </c>
       <c r="C477" t="n">
         <v>1</v>
@@ -5689,10 +5689,10 @@
     </row>
     <row r="478">
       <c r="A478" s="2" t="n">
-        <v>44378</v>
+        <v>44409</v>
       </c>
       <c r="B478" t="n">
-        <v>20663000000000</v>
+        <v>20847800000000</v>
       </c>
       <c r="C478" t="n">
         <v>1</v>
@@ -5700,10 +5700,10 @@
     </row>
     <row r="479">
       <c r="A479" s="2" t="n">
-        <v>44409</v>
+        <v>44440</v>
       </c>
       <c r="B479" t="n">
-        <v>20847800000000</v>
+        <v>20964300000000</v>
       </c>
       <c r="C479" t="n">
         <v>1</v>
@@ -5711,10 +5711,10 @@
     </row>
     <row r="480">
       <c r="A480" s="2" t="n">
-        <v>44440</v>
+        <v>44470</v>
       </c>
       <c r="B480" t="n">
-        <v>20964300000000</v>
+        <v>21116300000000</v>
       </c>
       <c r="C480" t="n">
         <v>1</v>
@@ -5722,10 +5722,10 @@
     </row>
     <row r="481">
       <c r="A481" s="2" t="n">
-        <v>44470</v>
+        <v>44501</v>
       </c>
       <c r="B481" t="n">
-        <v>21116300000000</v>
+        <v>21316300000000</v>
       </c>
       <c r="C481" t="n">
         <v>1</v>
@@ -5733,10 +5733,10 @@
     </row>
     <row r="482">
       <c r="A482" s="2" t="n">
-        <v>44501</v>
+        <v>44531</v>
       </c>
       <c r="B482" t="n">
-        <v>21316300000000</v>
+        <v>21549200000000</v>
       </c>
       <c r="C482" t="n">
         <v>1</v>
@@ -5744,10 +5744,10 @@
     </row>
     <row r="483">
       <c r="A483" s="2" t="n">
-        <v>44531</v>
+        <v>44562</v>
       </c>
       <c r="B483" t="n">
-        <v>21549200000000</v>
+        <v>21561900000000</v>
       </c>
       <c r="C483" t="n">
         <v>1</v>
@@ -5755,10 +5755,10 @@
     </row>
     <row r="484">
       <c r="A484" s="2" t="n">
-        <v>44562</v>
+        <v>44593</v>
       </c>
       <c r="B484" t="n">
-        <v>21561900000000</v>
+        <v>21570400000000</v>
       </c>
       <c r="C484" t="n">
         <v>1</v>
@@ -5766,10 +5766,10 @@
     </row>
     <row r="485">
       <c r="A485" s="2" t="n">
-        <v>44593</v>
+        <v>44621</v>
       </c>
       <c r="B485" t="n">
-        <v>21570400000000</v>
+        <v>21697500000000</v>
       </c>
       <c r="C485" t="n">
         <v>1</v>
@@ -5777,10 +5777,10 @@
     </row>
     <row r="486">
       <c r="A486" s="2" t="n">
-        <v>44621</v>
+        <v>44652</v>
       </c>
       <c r="B486" t="n">
-        <v>21697500000000</v>
+        <v>21677200000000</v>
       </c>
       <c r="C486" t="n">
         <v>1</v>
@@ -5788,10 +5788,10 @@
     </row>
     <row r="487">
       <c r="A487" s="2" t="n">
-        <v>44652</v>
+        <v>44682</v>
       </c>
       <c r="B487" t="n">
-        <v>21677200000000</v>
+        <v>21665500000000</v>
       </c>
       <c r="C487" t="n">
         <v>1</v>
@@ -5799,10 +5799,10 @@
     </row>
     <row r="488">
       <c r="A488" s="2" t="n">
-        <v>44682</v>
+        <v>44713</v>
       </c>
       <c r="B488" t="n">
-        <v>21665500000000</v>
+        <v>21666400000000</v>
       </c>
       <c r="C488" t="n">
         <v>1</v>
@@ -5810,10 +5810,10 @@
     </row>
     <row r="489">
       <c r="A489" s="2" t="n">
-        <v>44713</v>
+        <v>44743</v>
       </c>
       <c r="B489" t="n">
-        <v>21666400000000</v>
+        <v>21703600000000</v>
       </c>
       <c r="C489" t="n">
         <v>1</v>
@@ -5821,10 +5821,10 @@
     </row>
     <row r="490">
       <c r="A490" s="2" t="n">
-        <v>44743</v>
+        <v>44774</v>
       </c>
       <c r="B490" t="n">
-        <v>21703600000000</v>
+        <v>21659900000000</v>
       </c>
       <c r="C490" t="n">
         <v>1</v>
@@ -5832,10 +5832,10 @@
     </row>
     <row r="491">
       <c r="A491" s="2" t="n">
-        <v>44774</v>
+        <v>44805</v>
       </c>
       <c r="B491" t="n">
-        <v>21659900000000</v>
+        <v>21525200000000</v>
       </c>
       <c r="C491" t="n">
         <v>1</v>
@@ -5843,10 +5843,10 @@
     </row>
     <row r="492">
       <c r="A492" s="2" t="n">
-        <v>44805</v>
+        <v>44835</v>
       </c>
       <c r="B492" t="n">
-        <v>21525200000000</v>
+        <v>21432700000000</v>
       </c>
       <c r="C492" t="n">
         <v>1</v>
@@ -5854,10 +5854,10 @@
     </row>
     <row r="493">
       <c r="A493" s="2" t="n">
-        <v>44835</v>
+        <v>44866</v>
       </c>
       <c r="B493" t="n">
-        <v>21433200000000</v>
+        <v>21398700000000</v>
       </c>
       <c r="C493" t="n">
         <v>1</v>
@@ -5865,10 +5865,10 @@
     </row>
     <row r="494">
       <c r="A494" s="2" t="n">
-        <v>44866</v>
+        <v>44896</v>
       </c>
       <c r="B494" t="n">
-        <v>21400100000000</v>
+        <v>21357600000000</v>
       </c>
       <c r="C494" t="n">
         <v>1</v>
@@ -5876,10 +5876,10 @@
     </row>
     <row r="495">
       <c r="A495" s="2" t="n">
-        <v>44896</v>
+        <v>44927</v>
       </c>
       <c r="B495" t="n">
-        <v>21359200000000</v>
+        <v>21221800000000</v>
       </c>
       <c r="C495" t="n">
         <v>1</v>
@@ -5887,10 +5887,10 @@
     </row>
     <row r="496">
       <c r="A496" s="2" t="n">
-        <v>44927</v>
+        <v>44958</v>
       </c>
       <c r="B496" t="n">
-        <v>21221500000000</v>
+        <v>21100700000000</v>
       </c>
       <c r="C496" t="n">
         <v>1</v>
@@ -5898,10 +5898,10 @@
     </row>
     <row r="497">
       <c r="A497" s="2" t="n">
-        <v>44958</v>
+        <v>44986</v>
       </c>
       <c r="B497" t="n">
-        <v>21099700000000</v>
+        <v>20876100000000</v>
       </c>
       <c r="C497" t="n">
         <v>1</v>
@@ -5909,10 +5909,10 @@
     </row>
     <row r="498">
       <c r="A498" s="2" t="n">
-        <v>44986</v>
+        <v>45017</v>
       </c>
       <c r="B498" t="n">
-        <v>20875400000000</v>
+        <v>20712100000000</v>
       </c>
       <c r="C498" t="n">
         <v>1</v>
@@ -5920,10 +5920,10 @@
     </row>
     <row r="499">
       <c r="A499" s="2" t="n">
-        <v>45017</v>
+        <v>45047</v>
       </c>
       <c r="B499" t="n">
-        <v>20712200000000</v>
+        <v>20841700000000</v>
       </c>
       <c r="C499" t="n">
         <v>1</v>
@@ -5931,10 +5931,10 @@
     </row>
     <row r="500">
       <c r="A500" s="2" t="n">
-        <v>45047</v>
+        <v>45078</v>
       </c>
       <c r="B500" t="n">
-        <v>20841700000000</v>
+        <v>20890000000000</v>
       </c>
       <c r="C500" t="n">
         <v>1</v>
@@ -5942,10 +5942,10 @@
     </row>
     <row r="501">
       <c r="A501" s="2" t="n">
-        <v>45078</v>
+        <v>45108</v>
       </c>
       <c r="B501" t="n">
-        <v>20889500000000</v>
+        <v>20902700000000</v>
       </c>
       <c r="C501" t="n">
         <v>1</v>

--- a/Global_M2/TVDataFeed/FinalData/United States.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/United States.xlsx
@@ -453,10 +453,10 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>29921</v>
+        <v>29983</v>
       </c>
       <c r="B2" t="n">
-        <v>1755500000000</v>
+        <v>1774500000000</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -464,10 +464,10 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>29952</v>
+        <v>30011</v>
       </c>
       <c r="B3" t="n">
-        <v>1770400000000</v>
+        <v>1786500000000</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -475,10 +475,10 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>29983</v>
+        <v>30042</v>
       </c>
       <c r="B4" t="n">
-        <v>1774500000000</v>
+        <v>1803900000000</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -486,10 +486,10 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>30011</v>
+        <v>30072</v>
       </c>
       <c r="B5" t="n">
-        <v>1786500000000</v>
+        <v>1815400000000</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -497,10 +497,10 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>30042</v>
+        <v>30103</v>
       </c>
       <c r="B6" t="n">
-        <v>1803900000000</v>
+        <v>1826000000000</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -508,10 +508,10 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>30072</v>
+        <v>30133</v>
       </c>
       <c r="B7" t="n">
-        <v>1815400000000</v>
+        <v>1831500000000</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -519,10 +519,10 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>30103</v>
+        <v>30164</v>
       </c>
       <c r="B8" t="n">
-        <v>1826000000000</v>
+        <v>1845200000000</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -530,10 +530,10 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>30133</v>
+        <v>30195</v>
       </c>
       <c r="B9" t="n">
-        <v>1831500000000</v>
+        <v>1858400000000</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -541,10 +541,10 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>30164</v>
+        <v>30225</v>
       </c>
       <c r="B10" t="n">
-        <v>1845200000000</v>
+        <v>1869700000000</v>
       </c>
       <c r="C10" t="n">
         <v>1</v>
@@ -552,10 +552,10 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>30195</v>
+        <v>30256</v>
       </c>
       <c r="B11" t="n">
-        <v>1858400000000</v>
+        <v>1883700000000</v>
       </c>
       <c r="C11" t="n">
         <v>1</v>
@@ -563,10 +563,10 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>30225</v>
+        <v>30286</v>
       </c>
       <c r="B12" t="n">
-        <v>1869700000000</v>
+        <v>1905900000000</v>
       </c>
       <c r="C12" t="n">
         <v>1</v>
@@ -574,10 +574,10 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>30256</v>
+        <v>30317</v>
       </c>
       <c r="B13" t="n">
-        <v>1883700000000</v>
+        <v>1959400000000</v>
       </c>
       <c r="C13" t="n">
         <v>1</v>
@@ -585,10 +585,10 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>30286</v>
+        <v>30348</v>
       </c>
       <c r="B14" t="n">
-        <v>1905900000000</v>
+        <v>1996800000000</v>
       </c>
       <c r="C14" t="n">
         <v>1</v>
@@ -596,10 +596,10 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>30317</v>
+        <v>30376</v>
       </c>
       <c r="B15" t="n">
-        <v>1959400000000</v>
+        <v>2015200000000</v>
       </c>
       <c r="C15" t="n">
         <v>1</v>
@@ -607,10 +607,10 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>30348</v>
+        <v>30407</v>
       </c>
       <c r="B16" t="n">
-        <v>1996800000000</v>
+        <v>2028600000000</v>
       </c>
       <c r="C16" t="n">
         <v>1</v>
@@ -618,10 +618,10 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>30376</v>
+        <v>30437</v>
       </c>
       <c r="B17" t="n">
-        <v>2015200000000</v>
+        <v>2043100000000</v>
       </c>
       <c r="C17" t="n">
         <v>1</v>
@@ -629,10 +629,10 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>30407</v>
+        <v>30468</v>
       </c>
       <c r="B18" t="n">
-        <v>2028600000000</v>
+        <v>2053500000000</v>
       </c>
       <c r="C18" t="n">
         <v>1</v>
@@ -640,10 +640,10 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>30437</v>
+        <v>30498</v>
       </c>
       <c r="B19" t="n">
-        <v>2043100000000</v>
+        <v>2064800000000</v>
       </c>
       <c r="C19" t="n">
         <v>1</v>
@@ -651,10 +651,10 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>30468</v>
+        <v>30529</v>
       </c>
       <c r="B20" t="n">
-        <v>2053500000000</v>
+        <v>2074000000000</v>
       </c>
       <c r="C20" t="n">
         <v>1</v>
@@ -662,10 +662,10 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>30498</v>
+        <v>30560</v>
       </c>
       <c r="B21" t="n">
-        <v>2064800000000</v>
+        <v>2083200000000</v>
       </c>
       <c r="C21" t="n">
         <v>1</v>
@@ -673,10 +673,10 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>30529</v>
+        <v>30590</v>
       </c>
       <c r="B22" t="n">
-        <v>2074000000000</v>
+        <v>2099200000000</v>
       </c>
       <c r="C22" t="n">
         <v>1</v>
@@ -684,10 +684,10 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>30560</v>
+        <v>30621</v>
       </c>
       <c r="B23" t="n">
-        <v>2083200000000</v>
+        <v>2112300000000</v>
       </c>
       <c r="C23" t="n">
         <v>1</v>
@@ -695,10 +695,10 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>30590</v>
+        <v>30651</v>
       </c>
       <c r="B24" t="n">
-        <v>2099200000000</v>
+        <v>2123500000000</v>
       </c>
       <c r="C24" t="n">
         <v>1</v>
@@ -706,10 +706,10 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>30621</v>
+        <v>30682</v>
       </c>
       <c r="B25" t="n">
-        <v>2112300000000</v>
+        <v>2138200000000</v>
       </c>
       <c r="C25" t="n">
         <v>1</v>
@@ -717,10 +717,10 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>30651</v>
+        <v>30713</v>
       </c>
       <c r="B26" t="n">
-        <v>2123500000000</v>
+        <v>2158200000000</v>
       </c>
       <c r="C26" t="n">
         <v>1</v>
@@ -728,10 +728,10 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>30682</v>
+        <v>30742</v>
       </c>
       <c r="B27" t="n">
-        <v>2138200000000</v>
+        <v>2175200000000</v>
       </c>
       <c r="C27" t="n">
         <v>1</v>
@@ -739,10 +739,10 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>30713</v>
+        <v>30773</v>
       </c>
       <c r="B28" t="n">
-        <v>2158200000000</v>
+        <v>2191700000000</v>
       </c>
       <c r="C28" t="n">
         <v>1</v>
@@ -750,10 +750,10 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>30742</v>
+        <v>30803</v>
       </c>
       <c r="B29" t="n">
-        <v>2175200000000</v>
+        <v>2204100000000</v>
       </c>
       <c r="C29" t="n">
         <v>1</v>
@@ -761,10 +761,10 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>30773</v>
+        <v>30834</v>
       </c>
       <c r="B30" t="n">
-        <v>2191700000000</v>
+        <v>2215100000000</v>
       </c>
       <c r="C30" t="n">
         <v>1</v>
@@ -772,10 +772,10 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>30803</v>
+        <v>30864</v>
       </c>
       <c r="B31" t="n">
-        <v>2204100000000</v>
+        <v>2223500000000</v>
       </c>
       <c r="C31" t="n">
         <v>1</v>
@@ -783,10 +783,10 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>30834</v>
+        <v>30895</v>
       </c>
       <c r="B32" t="n">
-        <v>2215100000000</v>
+        <v>2230400000000</v>
       </c>
       <c r="C32" t="n">
         <v>1</v>
@@ -794,10 +794,10 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>30864</v>
+        <v>30926</v>
       </c>
       <c r="B33" t="n">
-        <v>2223500000000</v>
+        <v>2244400000000</v>
       </c>
       <c r="C33" t="n">
         <v>1</v>
@@ -805,10 +805,10 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>30895</v>
+        <v>30956</v>
       </c>
       <c r="B34" t="n">
-        <v>2230400000000</v>
+        <v>2258900000000</v>
       </c>
       <c r="C34" t="n">
         <v>1</v>
@@ -816,10 +816,10 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>30926</v>
+        <v>30987</v>
       </c>
       <c r="B35" t="n">
-        <v>2244400000000</v>
+        <v>2281400000000</v>
       </c>
       <c r="C35" t="n">
         <v>1</v>
@@ -827,10 +827,10 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>30956</v>
+        <v>31017</v>
       </c>
       <c r="B36" t="n">
-        <v>2258900000000</v>
+        <v>2306400000000</v>
       </c>
       <c r="C36" t="n">
         <v>1</v>
@@ -838,10 +838,10 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>30987</v>
+        <v>31048</v>
       </c>
       <c r="B37" t="n">
-        <v>2281400000000</v>
+        <v>2332400000000</v>
       </c>
       <c r="C37" t="n">
         <v>1</v>
@@ -849,10 +849,10 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>31017</v>
+        <v>31079</v>
       </c>
       <c r="B38" t="n">
-        <v>2306400000000</v>
+        <v>2354100000000</v>
       </c>
       <c r="C38" t="n">
         <v>1</v>
@@ -860,10 +860,10 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>31048</v>
+        <v>31107</v>
       </c>
       <c r="B39" t="n">
-        <v>2332400000000</v>
+        <v>2366200000000</v>
       </c>
       <c r="C39" t="n">
         <v>1</v>
@@ -871,10 +871,10 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>31079</v>
+        <v>31138</v>
       </c>
       <c r="B40" t="n">
-        <v>2354100000000</v>
+        <v>2375400000000</v>
       </c>
       <c r="C40" t="n">
         <v>1</v>
@@ -882,10 +882,10 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>31107</v>
+        <v>31168</v>
       </c>
       <c r="B41" t="n">
-        <v>2366200000000</v>
+        <v>2389500000000</v>
       </c>
       <c r="C41" t="n">
         <v>1</v>
@@ -893,10 +893,10 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>31138</v>
+        <v>31199</v>
       </c>
       <c r="B42" t="n">
-        <v>2375400000000</v>
+        <v>2412600000000</v>
       </c>
       <c r="C42" t="n">
         <v>1</v>
@@ -904,10 +904,10 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>31168</v>
+        <v>31229</v>
       </c>
       <c r="B43" t="n">
-        <v>2389500000000</v>
+        <v>2429500000000</v>
       </c>
       <c r="C43" t="n">
         <v>1</v>
@@ -915,10 +915,10 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>31199</v>
+        <v>31260</v>
       </c>
       <c r="B44" t="n">
-        <v>2412600000000</v>
+        <v>2444000000000</v>
       </c>
       <c r="C44" t="n">
         <v>1</v>
@@ -926,10 +926,10 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>31229</v>
+        <v>31291</v>
       </c>
       <c r="B45" t="n">
-        <v>2429500000000</v>
+        <v>2456400000000</v>
       </c>
       <c r="C45" t="n">
         <v>1</v>
@@ -937,10 +937,10 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>31260</v>
+        <v>31321</v>
       </c>
       <c r="B46" t="n">
-        <v>2444000000000</v>
+        <v>2468000000000</v>
       </c>
       <c r="C46" t="n">
         <v>1</v>
@@ -948,10 +948,10 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>31291</v>
+        <v>31352</v>
       </c>
       <c r="B47" t="n">
-        <v>2456400000000</v>
+        <v>2477800000000</v>
       </c>
       <c r="C47" t="n">
         <v>1</v>
@@ -959,10 +959,10 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>31321</v>
+        <v>31382</v>
       </c>
       <c r="B48" t="n">
-        <v>2468000000000</v>
+        <v>2492100000000</v>
       </c>
       <c r="C48" t="n">
         <v>1</v>
@@ -970,10 +970,10 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>31352</v>
+        <v>31413</v>
       </c>
       <c r="B49" t="n">
-        <v>2477800000000</v>
+        <v>2502100000000</v>
       </c>
       <c r="C49" t="n">
         <v>1</v>
@@ -981,10 +981,10 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>31382</v>
+        <v>31444</v>
       </c>
       <c r="B50" t="n">
-        <v>2492100000000</v>
+        <v>2512900000000</v>
       </c>
       <c r="C50" t="n">
         <v>1</v>
@@ -992,10 +992,10 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>31413</v>
+        <v>31472</v>
       </c>
       <c r="B51" t="n">
-        <v>2502100000000</v>
+        <v>2533100000000</v>
       </c>
       <c r="C51" t="n">
         <v>1</v>
@@ -1003,10 +1003,10 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>31444</v>
+        <v>31503</v>
       </c>
       <c r="B52" t="n">
-        <v>2512900000000</v>
+        <v>2557800000000</v>
       </c>
       <c r="C52" t="n">
         <v>1</v>
@@ -1014,10 +1014,10 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>31472</v>
+        <v>31533</v>
       </c>
       <c r="B53" t="n">
-        <v>2533100000000</v>
+        <v>2584800000000</v>
       </c>
       <c r="C53" t="n">
         <v>1</v>
@@ -1025,10 +1025,10 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>31503</v>
+        <v>31564</v>
       </c>
       <c r="B54" t="n">
-        <v>2557800000000</v>
+        <v>2605000000000</v>
       </c>
       <c r="C54" t="n">
         <v>1</v>
@@ -1036,10 +1036,10 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>31533</v>
+        <v>31594</v>
       </c>
       <c r="B55" t="n">
-        <v>2584800000000</v>
+        <v>2626600000000</v>
       </c>
       <c r="C55" t="n">
         <v>1</v>
@@ -1047,10 +1047,10 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>31564</v>
+        <v>31625</v>
       </c>
       <c r="B56" t="n">
-        <v>2605000000000</v>
+        <v>2646500000000</v>
       </c>
       <c r="C56" t="n">
         <v>1</v>
@@ -1058,10 +1058,10 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>31594</v>
+        <v>31656</v>
       </c>
       <c r="B57" t="n">
-        <v>2626600000000</v>
+        <v>2667800000000</v>
       </c>
       <c r="C57" t="n">
         <v>1</v>
@@ -1069,10 +1069,10 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>31625</v>
+        <v>31686</v>
       </c>
       <c r="B58" t="n">
-        <v>2646500000000</v>
+        <v>2687400000000</v>
       </c>
       <c r="C58" t="n">
         <v>1</v>
@@ -1080,10 +1080,10 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>31656</v>
+        <v>31717</v>
       </c>
       <c r="B59" t="n">
-        <v>2667800000000</v>
+        <v>2701300000000</v>
       </c>
       <c r="C59" t="n">
         <v>1</v>
@@ -1091,10 +1091,10 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>31686</v>
+        <v>31747</v>
       </c>
       <c r="B60" t="n">
-        <v>2687400000000</v>
+        <v>2728000000000</v>
       </c>
       <c r="C60" t="n">
         <v>1</v>
@@ -1102,10 +1102,10 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>31717</v>
+        <v>31778</v>
       </c>
       <c r="B61" t="n">
-        <v>2701300000000</v>
+        <v>2743900000000</v>
       </c>
       <c r="C61" t="n">
         <v>1</v>
@@ -1113,10 +1113,10 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>31747</v>
+        <v>31809</v>
       </c>
       <c r="B62" t="n">
-        <v>2728000000000</v>
+        <v>2747500000000</v>
       </c>
       <c r="C62" t="n">
         <v>1</v>
@@ -1124,10 +1124,10 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>31778</v>
+        <v>31837</v>
       </c>
       <c r="B63" t="n">
-        <v>2743900000000</v>
+        <v>2753700000000</v>
       </c>
       <c r="C63" t="n">
         <v>1</v>
@@ -1135,10 +1135,10 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>31809</v>
+        <v>31868</v>
       </c>
       <c r="B64" t="n">
-        <v>2747500000000</v>
+        <v>2767700000000</v>
       </c>
       <c r="C64" t="n">
         <v>1</v>
@@ -1146,10 +1146,10 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>31837</v>
+        <v>31898</v>
       </c>
       <c r="B65" t="n">
-        <v>2753700000000</v>
+        <v>2772900000000</v>
       </c>
       <c r="C65" t="n">
         <v>1</v>
@@ -1157,10 +1157,10 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>31868</v>
+        <v>31929</v>
       </c>
       <c r="B66" t="n">
-        <v>2767700000000</v>
+        <v>2774600000000</v>
       </c>
       <c r="C66" t="n">
         <v>1</v>
@@ -1168,10 +1168,10 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>31898</v>
+        <v>31959</v>
       </c>
       <c r="B67" t="n">
-        <v>2772900000000</v>
+        <v>2779000000000</v>
       </c>
       <c r="C67" t="n">
         <v>1</v>
@@ -1179,10 +1179,10 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>31929</v>
+        <v>31990</v>
       </c>
       <c r="B68" t="n">
-        <v>2774600000000</v>
+        <v>2788200000000</v>
       </c>
       <c r="C68" t="n">
         <v>1</v>
@@ -1190,10 +1190,10 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>31959</v>
+        <v>32021</v>
       </c>
       <c r="B69" t="n">
-        <v>2779000000000</v>
+        <v>2799500000000</v>
       </c>
       <c r="C69" t="n">
         <v>1</v>
@@ -1201,10 +1201,10 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>31990</v>
+        <v>32051</v>
       </c>
       <c r="B70" t="n">
-        <v>2788200000000</v>
+        <v>2814800000000</v>
       </c>
       <c r="C70" t="n">
         <v>1</v>
@@ -1212,10 +1212,10 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>32021</v>
+        <v>32082</v>
       </c>
       <c r="B71" t="n">
-        <v>2799500000000</v>
+        <v>2818900000000</v>
       </c>
       <c r="C71" t="n">
         <v>1</v>
@@ -1223,10 +1223,10 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>32051</v>
+        <v>32112</v>
       </c>
       <c r="B72" t="n">
-        <v>2814800000000</v>
+        <v>2826400000000</v>
       </c>
       <c r="C72" t="n">
         <v>1</v>
@@ -1234,10 +1234,10 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>32082</v>
+        <v>32143</v>
       </c>
       <c r="B73" t="n">
-        <v>2818900000000</v>
+        <v>2847400000000</v>
       </c>
       <c r="C73" t="n">
         <v>1</v>
@@ -1245,10 +1245,10 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>32112</v>
+        <v>32174</v>
       </c>
       <c r="B74" t="n">
-        <v>2826400000000</v>
+        <v>2870400000000</v>
       </c>
       <c r="C74" t="n">
         <v>1</v>
@@ -1256,10 +1256,10 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>32143</v>
+        <v>32203</v>
       </c>
       <c r="B75" t="n">
-        <v>2847400000000</v>
+        <v>2890700000000</v>
       </c>
       <c r="C75" t="n">
         <v>1</v>
@@ -1267,10 +1267,10 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>32174</v>
+        <v>32234</v>
       </c>
       <c r="B76" t="n">
-        <v>2870400000000</v>
+        <v>2910700000000</v>
       </c>
       <c r="C76" t="n">
         <v>1</v>
@@ -1278,10 +1278,10 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>32203</v>
+        <v>32264</v>
       </c>
       <c r="B77" t="n">
-        <v>2890700000000</v>
+        <v>2926000000000</v>
       </c>
       <c r="C77" t="n">
         <v>1</v>
@@ -1289,10 +1289,10 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>32234</v>
+        <v>32295</v>
       </c>
       <c r="B78" t="n">
-        <v>2910700000000</v>
+        <v>2938400000000</v>
       </c>
       <c r="C78" t="n">
         <v>1</v>
@@ -1300,10 +1300,10 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>32264</v>
+        <v>32325</v>
       </c>
       <c r="B79" t="n">
-        <v>2926000000000</v>
+        <v>2947200000000</v>
       </c>
       <c r="C79" t="n">
         <v>1</v>
@@ -1311,10 +1311,10 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>32295</v>
+        <v>32356</v>
       </c>
       <c r="B80" t="n">
-        <v>2938400000000</v>
+        <v>2952000000000</v>
       </c>
       <c r="C80" t="n">
         <v>1</v>
@@ -1322,10 +1322,10 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>32325</v>
+        <v>32387</v>
       </c>
       <c r="B81" t="n">
-        <v>2947200000000</v>
+        <v>2956900000000</v>
       </c>
       <c r="C81" t="n">
         <v>1</v>
@@ -1333,10 +1333,10 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>32356</v>
+        <v>32417</v>
       </c>
       <c r="B82" t="n">
-        <v>2952000000000</v>
+        <v>2965300000000</v>
       </c>
       <c r="C82" t="n">
         <v>1</v>
@@ -1344,10 +1344,10 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>32387</v>
+        <v>32448</v>
       </c>
       <c r="B83" t="n">
-        <v>2956900000000</v>
+        <v>2980200000000</v>
       </c>
       <c r="C83" t="n">
         <v>1</v>
@@ -1355,10 +1355,10 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>32417</v>
+        <v>32478</v>
       </c>
       <c r="B84" t="n">
-        <v>2965300000000</v>
+        <v>2988200000000</v>
       </c>
       <c r="C84" t="n">
         <v>1</v>
@@ -1366,10 +1366,10 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>32448</v>
+        <v>32509</v>
       </c>
       <c r="B85" t="n">
-        <v>2980200000000</v>
+        <v>2991700000000</v>
       </c>
       <c r="C85" t="n">
         <v>1</v>
@@ -1377,10 +1377,10 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>32478</v>
+        <v>32540</v>
       </c>
       <c r="B86" t="n">
-        <v>2988200000000</v>
+        <v>2992200000000</v>
       </c>
       <c r="C86" t="n">
         <v>1</v>
@@ -1388,10 +1388,10 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>32509</v>
+        <v>32568</v>
       </c>
       <c r="B87" t="n">
-        <v>2991700000000</v>
+        <v>2999700000000</v>
       </c>
       <c r="C87" t="n">
         <v>1</v>
@@ -1399,10 +1399,10 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>32540</v>
+        <v>32599</v>
       </c>
       <c r="B88" t="n">
-        <v>2992200000000</v>
+        <v>3006000000000</v>
       </c>
       <c r="C88" t="n">
         <v>1</v>
@@ -1410,10 +1410,10 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>32568</v>
+        <v>32629</v>
       </c>
       <c r="B89" t="n">
-        <v>2999700000000</v>
+        <v>3011600000000</v>
       </c>
       <c r="C89" t="n">
         <v>1</v>
@@ -1421,10 +1421,10 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>32599</v>
+        <v>32660</v>
       </c>
       <c r="B90" t="n">
-        <v>3006000000000</v>
+        <v>3027900000000</v>
       </c>
       <c r="C90" t="n">
         <v>1</v>
@@ -1432,10 +1432,10 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>32629</v>
+        <v>32690</v>
       </c>
       <c r="B91" t="n">
-        <v>3011600000000</v>
+        <v>3052400000000</v>
       </c>
       <c r="C91" t="n">
         <v>1</v>
@@ -1443,10 +1443,10 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>32660</v>
+        <v>32721</v>
       </c>
       <c r="B92" t="n">
-        <v>3027900000000</v>
+        <v>3074400000000</v>
       </c>
       <c r="C92" t="n">
         <v>1</v>
@@ -1454,10 +1454,10 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>32690</v>
+        <v>32752</v>
       </c>
       <c r="B93" t="n">
-        <v>3052400000000</v>
+        <v>3092500000000</v>
       </c>
       <c r="C93" t="n">
         <v>1</v>
@@ -1465,10 +1465,10 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>32721</v>
+        <v>32782</v>
       </c>
       <c r="B94" t="n">
-        <v>3074400000000</v>
+        <v>3114100000000</v>
       </c>
       <c r="C94" t="n">
         <v>1</v>
@@ -1476,10 +1476,10 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>32752</v>
+        <v>32813</v>
       </c>
       <c r="B95" t="n">
-        <v>3092500000000</v>
+        <v>3133300000000</v>
       </c>
       <c r="C95" t="n">
         <v>1</v>
@@ -1487,10 +1487,10 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>32782</v>
+        <v>32843</v>
       </c>
       <c r="B96" t="n">
-        <v>3114100000000</v>
+        <v>3152500000000</v>
       </c>
       <c r="C96" t="n">
         <v>1</v>
@@ -1498,10 +1498,10 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>32813</v>
+        <v>32874</v>
       </c>
       <c r="B97" t="n">
-        <v>3133300000000</v>
+        <v>3166800000000</v>
       </c>
       <c r="C97" t="n">
         <v>1</v>
@@ -1509,10 +1509,10 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>32843</v>
+        <v>32905</v>
       </c>
       <c r="B98" t="n">
-        <v>3152500000000</v>
+        <v>3179200000000</v>
       </c>
       <c r="C98" t="n">
         <v>1</v>
@@ -1520,10 +1520,10 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>32874</v>
+        <v>32933</v>
       </c>
       <c r="B99" t="n">
-        <v>3166800000000</v>
+        <v>3190100000000</v>
       </c>
       <c r="C99" t="n">
         <v>1</v>
@@ -1531,10 +1531,10 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>32905</v>
+        <v>32964</v>
       </c>
       <c r="B100" t="n">
-        <v>3179200000000</v>
+        <v>3201600000000</v>
       </c>
       <c r="C100" t="n">
         <v>1</v>
@@ -1542,10 +1542,10 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>32933</v>
+        <v>32994</v>
       </c>
       <c r="B101" t="n">
-        <v>3190100000000</v>
+        <v>3200600000000</v>
       </c>
       <c r="C101" t="n">
         <v>1</v>
@@ -1553,10 +1553,10 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
-        <v>32964</v>
+        <v>33025</v>
       </c>
       <c r="B102" t="n">
-        <v>3201600000000</v>
+        <v>3213700000000</v>
       </c>
       <c r="C102" t="n">
         <v>1</v>
@@ -1564,10 +1564,10 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
-        <v>32994</v>
+        <v>33055</v>
       </c>
       <c r="B103" t="n">
-        <v>3200600000000</v>
+        <v>3224500000000</v>
       </c>
       <c r="C103" t="n">
         <v>1</v>
@@ -1575,10 +1575,10 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
-        <v>33025</v>
+        <v>33086</v>
       </c>
       <c r="B104" t="n">
-        <v>3213700000000</v>
+        <v>3242000000000</v>
       </c>
       <c r="C104" t="n">
         <v>1</v>
@@ -1586,10 +1586,10 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
-        <v>33055</v>
+        <v>33117</v>
       </c>
       <c r="B105" t="n">
-        <v>3224500000000</v>
+        <v>3254600000000</v>
       </c>
       <c r="C105" t="n">
         <v>1</v>
@@ -1597,10 +1597,10 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
-        <v>33086</v>
+        <v>33147</v>
       </c>
       <c r="B106" t="n">
-        <v>3242000000000</v>
+        <v>3259300000000</v>
       </c>
       <c r="C106" t="n">
         <v>1</v>
@@ -1608,10 +1608,10 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
-        <v>33117</v>
+        <v>33178</v>
       </c>
       <c r="B107" t="n">
-        <v>3254600000000</v>
+        <v>3262600000000</v>
       </c>
       <c r="C107" t="n">
         <v>1</v>
@@ -1619,10 +1619,10 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
-        <v>33147</v>
+        <v>33208</v>
       </c>
       <c r="B108" t="n">
-        <v>3259300000000</v>
+        <v>3271800000000</v>
       </c>
       <c r="C108" t="n">
         <v>1</v>
@@ -1630,10 +1630,10 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
-        <v>33178</v>
+        <v>33239</v>
       </c>
       <c r="B109" t="n">
-        <v>3262600000000</v>
+        <v>3287700000000</v>
       </c>
       <c r="C109" t="n">
         <v>1</v>
@@ -1641,10 +1641,10 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
-        <v>33208</v>
+        <v>33270</v>
       </c>
       <c r="B110" t="n">
-        <v>3271800000000</v>
+        <v>3304500000000</v>
       </c>
       <c r="C110" t="n">
         <v>1</v>
@@ -1652,10 +1652,10 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
-        <v>33239</v>
+        <v>33298</v>
       </c>
       <c r="B111" t="n">
-        <v>3287700000000</v>
+        <v>3321900000000</v>
       </c>
       <c r="C111" t="n">
         <v>1</v>
@@ -1663,10 +1663,10 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
-        <v>33270</v>
+        <v>33329</v>
       </c>
       <c r="B112" t="n">
-        <v>3304500000000</v>
+        <v>3332400000000</v>
       </c>
       <c r="C112" t="n">
         <v>1</v>
@@ -1674,10 +1674,10 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
-        <v>33298</v>
+        <v>33359</v>
       </c>
       <c r="B113" t="n">
-        <v>3321900000000</v>
+        <v>3343000000000</v>
       </c>
       <c r="C113" t="n">
         <v>1</v>
@@ -1685,10 +1685,10 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
-        <v>33329</v>
+        <v>33390</v>
       </c>
       <c r="B114" t="n">
-        <v>3332400000000</v>
+        <v>3351900000000</v>
       </c>
       <c r="C114" t="n">
         <v>1</v>
@@ -1696,10 +1696,10 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
-        <v>33359</v>
+        <v>33420</v>
       </c>
       <c r="B115" t="n">
-        <v>3343000000000</v>
+        <v>3356100000000</v>
       </c>
       <c r="C115" t="n">
         <v>1</v>
@@ -1707,10 +1707,10 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
-        <v>33390</v>
+        <v>33451</v>
       </c>
       <c r="B116" t="n">
-        <v>3351900000000</v>
+        <v>3355000000000</v>
       </c>
       <c r="C116" t="n">
         <v>1</v>
@@ -1718,10 +1718,10 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
-        <v>33420</v>
+        <v>33482</v>
       </c>
       <c r="B117" t="n">
-        <v>3356100000000</v>
+        <v>3354900000000</v>
       </c>
       <c r="C117" t="n">
         <v>1</v>
@@ -1729,10 +1729,10 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
-        <v>33451</v>
+        <v>33512</v>
       </c>
       <c r="B118" t="n">
-        <v>3355000000000</v>
+        <v>3360100000000</v>
       </c>
       <c r="C118" t="n">
         <v>1</v>
@@ -1740,10 +1740,10 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
-        <v>33482</v>
+        <v>33543</v>
       </c>
       <c r="B119" t="n">
-        <v>3354900000000</v>
+        <v>3365500000000</v>
       </c>
       <c r="C119" t="n">
         <v>1</v>
@@ -1751,10 +1751,10 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
-        <v>33512</v>
+        <v>33573</v>
       </c>
       <c r="B120" t="n">
-        <v>3360100000000</v>
+        <v>3372200000000</v>
       </c>
       <c r="C120" t="n">
         <v>1</v>
@@ -1762,10 +1762,10 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
-        <v>33543</v>
+        <v>33604</v>
       </c>
       <c r="B121" t="n">
-        <v>3365500000000</v>
+        <v>3381200000000</v>
       </c>
       <c r="C121" t="n">
         <v>1</v>
@@ -1773,10 +1773,10 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
-        <v>33573</v>
+        <v>33635</v>
       </c>
       <c r="B122" t="n">
-        <v>3372200000000</v>
+        <v>3400000000000</v>
       </c>
       <c r="C122" t="n">
         <v>1</v>
@@ -1784,10 +1784,10 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
-        <v>33604</v>
+        <v>33664</v>
       </c>
       <c r="B123" t="n">
-        <v>3381200000000</v>
+        <v>3403900000000</v>
       </c>
       <c r="C123" t="n">
         <v>1</v>
@@ -1795,10 +1795,10 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
-        <v>33635</v>
+        <v>33695</v>
       </c>
       <c r="B124" t="n">
-        <v>3400000000000</v>
+        <v>3399700000000</v>
       </c>
       <c r="C124" t="n">
         <v>1</v>
@@ -1806,10 +1806,10 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
-        <v>33664</v>
+        <v>33725</v>
       </c>
       <c r="B125" t="n">
-        <v>3403900000000</v>
+        <v>3398600000000</v>
       </c>
       <c r="C125" t="n">
         <v>1</v>
@@ -1817,10 +1817,10 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
-        <v>33695</v>
+        <v>33756</v>
       </c>
       <c r="B126" t="n">
-        <v>3399700000000</v>
+        <v>3393400000000</v>
       </c>
       <c r="C126" t="n">
         <v>1</v>
@@ -1828,10 +1828,10 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="n">
-        <v>33725</v>
+        <v>33786</v>
       </c>
       <c r="B127" t="n">
-        <v>3398600000000</v>
+        <v>3393900000000</v>
       </c>
       <c r="C127" t="n">
         <v>1</v>
@@ -1839,10 +1839,10 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
-        <v>33756</v>
+        <v>33817</v>
       </c>
       <c r="B128" t="n">
-        <v>3393400000000</v>
+        <v>3398800000000</v>
       </c>
       <c r="C128" t="n">
         <v>1</v>
@@ -1850,10 +1850,10 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
-        <v>33786</v>
+        <v>33848</v>
       </c>
       <c r="B129" t="n">
-        <v>3393900000000</v>
+        <v>3410300000000</v>
       </c>
       <c r="C129" t="n">
         <v>1</v>
@@ -1861,10 +1861,10 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
-        <v>33817</v>
+        <v>33878</v>
       </c>
       <c r="B130" t="n">
-        <v>3398800000000</v>
+        <v>3423800000000</v>
       </c>
       <c r="C130" t="n">
         <v>1</v>
@@ -1872,10 +1872,10 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
-        <v>33848</v>
+        <v>33909</v>
       </c>
       <c r="B131" t="n">
-        <v>3410300000000</v>
+        <v>3426500000000</v>
       </c>
       <c r="C131" t="n">
         <v>1</v>
@@ -1883,10 +1883,10 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
-        <v>33878</v>
+        <v>33939</v>
       </c>
       <c r="B132" t="n">
-        <v>3423800000000</v>
+        <v>3424700000000</v>
       </c>
       <c r="C132" t="n">
         <v>1</v>
@@ -1894,10 +1894,10 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="n">
-        <v>33909</v>
+        <v>33970</v>
       </c>
       <c r="B133" t="n">
-        <v>3426500000000</v>
+        <v>3419100000000</v>
       </c>
       <c r="C133" t="n">
         <v>1</v>
@@ -1905,10 +1905,10 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="n">
-        <v>33939</v>
+        <v>34001</v>
       </c>
       <c r="B134" t="n">
-        <v>3424700000000</v>
+        <v>3414500000000</v>
       </c>
       <c r="C134" t="n">
         <v>1</v>
@@ -1916,10 +1916,10 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="n">
-        <v>33970</v>
+        <v>34029</v>
       </c>
       <c r="B135" t="n">
-        <v>3419100000000</v>
+        <v>3411700000000</v>
       </c>
       <c r="C135" t="n">
         <v>1</v>
@@ -1927,10 +1927,10 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="n">
-        <v>34001</v>
+        <v>34060</v>
       </c>
       <c r="B136" t="n">
-        <v>3414500000000</v>
+        <v>3411300000000</v>
       </c>
       <c r="C136" t="n">
         <v>1</v>
@@ -1938,10 +1938,10 @@
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
-        <v>34029</v>
+        <v>34090</v>
       </c>
       <c r="B137" t="n">
-        <v>3411700000000</v>
+        <v>3436900000000</v>
       </c>
       <c r="C137" t="n">
         <v>1</v>
@@ -1949,10 +1949,10 @@
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
-        <v>34060</v>
+        <v>34121</v>
       </c>
       <c r="B138" t="n">
-        <v>3411300000000</v>
+        <v>3442400000000</v>
       </c>
       <c r="C138" t="n">
         <v>1</v>
@@ -1960,10 +1960,10 @@
     </row>
     <row r="139">
       <c r="A139" s="2" t="n">
-        <v>34090</v>
+        <v>34151</v>
       </c>
       <c r="B139" t="n">
-        <v>3436900000000</v>
+        <v>3442000000000</v>
       </c>
       <c r="C139" t="n">
         <v>1</v>
@@ -1971,10 +1971,10 @@
     </row>
     <row r="140">
       <c r="A140" s="2" t="n">
-        <v>34121</v>
+        <v>34182</v>
       </c>
       <c r="B140" t="n">
-        <v>3442400000000</v>
+        <v>3445700000000</v>
       </c>
       <c r="C140" t="n">
         <v>1</v>
@@ -1982,10 +1982,10 @@
     </row>
     <row r="141">
       <c r="A141" s="2" t="n">
-        <v>34151</v>
+        <v>34213</v>
       </c>
       <c r="B141" t="n">
-        <v>3442000000000</v>
+        <v>3452200000000</v>
       </c>
       <c r="C141" t="n">
         <v>1</v>
@@ -1993,10 +1993,10 @@
     </row>
     <row r="142">
       <c r="A142" s="2" t="n">
-        <v>34182</v>
+        <v>34243</v>
       </c>
       <c r="B142" t="n">
-        <v>3445700000000</v>
+        <v>3456700000000</v>
       </c>
       <c r="C142" t="n">
         <v>1</v>
@@ -2004,10 +2004,10 @@
     </row>
     <row r="143">
       <c r="A143" s="2" t="n">
-        <v>34213</v>
+        <v>34274</v>
       </c>
       <c r="B143" t="n">
-        <v>3452200000000</v>
+        <v>3470100000000</v>
       </c>
       <c r="C143" t="n">
         <v>1</v>
@@ -2015,10 +2015,10 @@
     </row>
     <row r="144">
       <c r="A144" s="2" t="n">
-        <v>34243</v>
+        <v>34304</v>
       </c>
       <c r="B144" t="n">
-        <v>3456700000000</v>
+        <v>3474500000000</v>
       </c>
       <c r="C144" t="n">
         <v>1</v>
@@ -2026,10 +2026,10 @@
     </row>
     <row r="145">
       <c r="A145" s="2" t="n">
-        <v>34274</v>
+        <v>34335</v>
       </c>
       <c r="B145" t="n">
-        <v>3470100000000</v>
+        <v>3474900000000</v>
       </c>
       <c r="C145" t="n">
         <v>1</v>
@@ -2037,10 +2037,10 @@
     </row>
     <row r="146">
       <c r="A146" s="2" t="n">
-        <v>34304</v>
+        <v>34366</v>
       </c>
       <c r="B146" t="n">
-        <v>3474500000000</v>
+        <v>3475700000000</v>
       </c>
       <c r="C146" t="n">
         <v>1</v>
@@ -2048,10 +2048,10 @@
     </row>
     <row r="147">
       <c r="A147" s="2" t="n">
-        <v>34335</v>
+        <v>34394</v>
       </c>
       <c r="B147" t="n">
-        <v>3474900000000</v>
+        <v>3480100000000</v>
       </c>
       <c r="C147" t="n">
         <v>1</v>
@@ -2059,10 +2059,10 @@
     </row>
     <row r="148">
       <c r="A148" s="2" t="n">
-        <v>34366</v>
+        <v>34425</v>
       </c>
       <c r="B148" t="n">
-        <v>3475700000000</v>
+        <v>3481300000000</v>
       </c>
       <c r="C148" t="n">
         <v>1</v>
@@ -2070,10 +2070,10 @@
     </row>
     <row r="149">
       <c r="A149" s="2" t="n">
-        <v>34394</v>
+        <v>34455</v>
       </c>
       <c r="B149" t="n">
-        <v>3480100000000</v>
+        <v>3490800000000</v>
       </c>
       <c r="C149" t="n">
         <v>1</v>
@@ -2081,10 +2081,10 @@
     </row>
     <row r="150">
       <c r="A150" s="2" t="n">
-        <v>34425</v>
+        <v>34486</v>
       </c>
       <c r="B150" t="n">
-        <v>3481300000000</v>
+        <v>3479500000000</v>
       </c>
       <c r="C150" t="n">
         <v>1</v>
@@ -2092,10 +2092,10 @@
     </row>
     <row r="151">
       <c r="A151" s="2" t="n">
-        <v>34455</v>
+        <v>34516</v>
       </c>
       <c r="B151" t="n">
-        <v>3490800000000</v>
+        <v>3488200000000</v>
       </c>
       <c r="C151" t="n">
         <v>1</v>
@@ -2103,10 +2103,10 @@
     </row>
     <row r="152">
       <c r="A152" s="2" t="n">
-        <v>34486</v>
+        <v>34547</v>
       </c>
       <c r="B152" t="n">
-        <v>3479500000000</v>
+        <v>3485700000000</v>
       </c>
       <c r="C152" t="n">
         <v>1</v>
@@ -2114,10 +2114,10 @@
     </row>
     <row r="153">
       <c r="A153" s="2" t="n">
-        <v>34516</v>
+        <v>34578</v>
       </c>
       <c r="B153" t="n">
-        <v>3488200000000</v>
+        <v>3486100000000</v>
       </c>
       <c r="C153" t="n">
         <v>1</v>
@@ -2125,10 +2125,10 @@
     </row>
     <row r="154">
       <c r="A154" s="2" t="n">
-        <v>34547</v>
+        <v>34608</v>
       </c>
       <c r="B154" t="n">
-        <v>3485700000000</v>
+        <v>3484300000000</v>
       </c>
       <c r="C154" t="n">
         <v>1</v>
@@ -2136,10 +2136,10 @@
     </row>
     <row r="155">
       <c r="A155" s="2" t="n">
-        <v>34578</v>
+        <v>34639</v>
       </c>
       <c r="B155" t="n">
-        <v>3486100000000</v>
+        <v>3487200000000</v>
       </c>
       <c r="C155" t="n">
         <v>1</v>
@@ -2147,10 +2147,10 @@
     </row>
     <row r="156">
       <c r="A156" s="2" t="n">
-        <v>34608</v>
+        <v>34669</v>
       </c>
       <c r="B156" t="n">
-        <v>3484300000000</v>
+        <v>3486400000000</v>
       </c>
       <c r="C156" t="n">
         <v>1</v>
@@ -2158,10 +2158,10 @@
     </row>
     <row r="157">
       <c r="A157" s="2" t="n">
-        <v>34639</v>
+        <v>34700</v>
       </c>
       <c r="B157" t="n">
-        <v>3487200000000</v>
+        <v>3492400000000</v>
       </c>
       <c r="C157" t="n">
         <v>1</v>
@@ -2169,10 +2169,10 @@
     </row>
     <row r="158">
       <c r="A158" s="2" t="n">
-        <v>34669</v>
+        <v>34731</v>
       </c>
       <c r="B158" t="n">
-        <v>3486400000000</v>
+        <v>3489900000000</v>
       </c>
       <c r="C158" t="n">
         <v>1</v>
@@ -2180,10 +2180,10 @@
     </row>
     <row r="159">
       <c r="A159" s="2" t="n">
-        <v>34700</v>
+        <v>34759</v>
       </c>
       <c r="B159" t="n">
-        <v>3492400000000</v>
+        <v>3491100000000</v>
       </c>
       <c r="C159" t="n">
         <v>1</v>
@@ -2191,10 +2191,10 @@
     </row>
     <row r="160">
       <c r="A160" s="2" t="n">
-        <v>34731</v>
+        <v>34790</v>
       </c>
       <c r="B160" t="n">
-        <v>3489900000000</v>
+        <v>3499200000000</v>
       </c>
       <c r="C160" t="n">
         <v>1</v>
@@ -2202,10 +2202,10 @@
     </row>
     <row r="161">
       <c r="A161" s="2" t="n">
-        <v>34759</v>
+        <v>34820</v>
       </c>
       <c r="B161" t="n">
-        <v>3491100000000</v>
+        <v>3524200000000</v>
       </c>
       <c r="C161" t="n">
         <v>1</v>
@@ -2213,10 +2213,10 @@
     </row>
     <row r="162">
       <c r="A162" s="2" t="n">
-        <v>34790</v>
+        <v>34851</v>
       </c>
       <c r="B162" t="n">
-        <v>3499200000000</v>
+        <v>3548900000000</v>
       </c>
       <c r="C162" t="n">
         <v>1</v>
@@ -2224,10 +2224,10 @@
     </row>
     <row r="163">
       <c r="A163" s="2" t="n">
-        <v>34820</v>
+        <v>34881</v>
       </c>
       <c r="B163" t="n">
-        <v>3524200000000</v>
+        <v>3567400000000</v>
       </c>
       <c r="C163" t="n">
         <v>1</v>
@@ -2235,10 +2235,10 @@
     </row>
     <row r="164">
       <c r="A164" s="2" t="n">
-        <v>34851</v>
+        <v>34912</v>
       </c>
       <c r="B164" t="n">
-        <v>3548900000000</v>
+        <v>3589000000000</v>
       </c>
       <c r="C164" t="n">
         <v>1</v>
@@ -2246,10 +2246,10 @@
     </row>
     <row r="165">
       <c r="A165" s="2" t="n">
-        <v>34881</v>
+        <v>34943</v>
       </c>
       <c r="B165" t="n">
-        <v>3567400000000</v>
+        <v>3602100000000</v>
       </c>
       <c r="C165" t="n">
         <v>1</v>
@@ -2257,10 +2257,10 @@
     </row>
     <row r="166">
       <c r="A166" s="2" t="n">
-        <v>34912</v>
+        <v>34973</v>
       </c>
       <c r="B166" t="n">
-        <v>3589000000000</v>
+        <v>3613400000000</v>
       </c>
       <c r="C166" t="n">
         <v>1</v>
@@ -2268,10 +2268,10 @@
     </row>
     <row r="167">
       <c r="A167" s="2" t="n">
-        <v>34943</v>
+        <v>35004</v>
       </c>
       <c r="B167" t="n">
-        <v>3602100000000</v>
+        <v>3619900000000</v>
       </c>
       <c r="C167" t="n">
         <v>1</v>
@@ -2279,10 +2279,10 @@
     </row>
     <row r="168">
       <c r="A168" s="2" t="n">
-        <v>34973</v>
+        <v>35034</v>
       </c>
       <c r="B168" t="n">
-        <v>3613400000000</v>
+        <v>3629500000000</v>
       </c>
       <c r="C168" t="n">
         <v>1</v>
@@ -2290,10 +2290,10 @@
     </row>
     <row r="169">
       <c r="A169" s="2" t="n">
-        <v>35004</v>
+        <v>35065</v>
       </c>
       <c r="B169" t="n">
-        <v>3619900000000</v>
+        <v>3647900000000</v>
       </c>
       <c r="C169" t="n">
         <v>1</v>
@@ -2301,10 +2301,10 @@
     </row>
     <row r="170">
       <c r="A170" s="2" t="n">
-        <v>35034</v>
+        <v>35096</v>
       </c>
       <c r="B170" t="n">
-        <v>3629500000000</v>
+        <v>3661800000000</v>
       </c>
       <c r="C170" t="n">
         <v>1</v>
@@ -2312,10 +2312,10 @@
     </row>
     <row r="171">
       <c r="A171" s="2" t="n">
-        <v>35065</v>
+        <v>35125</v>
       </c>
       <c r="B171" t="n">
-        <v>3647900000000</v>
+        <v>3686900000000</v>
       </c>
       <c r="C171" t="n">
         <v>1</v>
@@ -2323,10 +2323,10 @@
     </row>
     <row r="172">
       <c r="A172" s="2" t="n">
-        <v>35096</v>
+        <v>35156</v>
       </c>
       <c r="B172" t="n">
-        <v>3661800000000</v>
+        <v>3697700000000</v>
       </c>
       <c r="C172" t="n">
         <v>1</v>
@@ -2334,10 +2334,10 @@
     </row>
     <row r="173">
       <c r="A173" s="2" t="n">
-        <v>35125</v>
+        <v>35186</v>
       </c>
       <c r="B173" t="n">
-        <v>3686900000000</v>
+        <v>3709600000000</v>
       </c>
       <c r="C173" t="n">
         <v>1</v>
@@ -2345,10 +2345,10 @@
     </row>
     <row r="174">
       <c r="A174" s="2" t="n">
-        <v>35156</v>
+        <v>35217</v>
       </c>
       <c r="B174" t="n">
-        <v>3697700000000</v>
+        <v>3722500000000</v>
       </c>
       <c r="C174" t="n">
         <v>1</v>
@@ -2356,10 +2356,10 @@
     </row>
     <row r="175">
       <c r="A175" s="2" t="n">
-        <v>35186</v>
+        <v>35247</v>
       </c>
       <c r="B175" t="n">
-        <v>3709600000000</v>
+        <v>3737100000000</v>
       </c>
       <c r="C175" t="n">
         <v>1</v>
@@ -2367,10 +2367,10 @@
     </row>
     <row r="176">
       <c r="A176" s="2" t="n">
-        <v>35217</v>
+        <v>35278</v>
       </c>
       <c r="B176" t="n">
-        <v>3722500000000</v>
+        <v>3744000000000</v>
       </c>
       <c r="C176" t="n">
         <v>1</v>
@@ -2378,10 +2378,10 @@
     </row>
     <row r="177">
       <c r="A177" s="2" t="n">
-        <v>35247</v>
+        <v>35309</v>
       </c>
       <c r="B177" t="n">
-        <v>3737100000000</v>
+        <v>3753400000000</v>
       </c>
       <c r="C177" t="n">
         <v>1</v>
@@ -2389,10 +2389,10 @@
     </row>
     <row r="178">
       <c r="A178" s="2" t="n">
-        <v>35278</v>
+        <v>35339</v>
       </c>
       <c r="B178" t="n">
-        <v>3744000000000</v>
+        <v>3772800000000</v>
       </c>
       <c r="C178" t="n">
         <v>1</v>
@@ -2400,10 +2400,10 @@
     </row>
     <row r="179">
       <c r="A179" s="2" t="n">
-        <v>35309</v>
+        <v>35370</v>
       </c>
       <c r="B179" t="n">
-        <v>3753400000000</v>
+        <v>3795100000000</v>
       </c>
       <c r="C179" t="n">
         <v>1</v>
@@ -2411,10 +2411,10 @@
     </row>
     <row r="180">
       <c r="A180" s="2" t="n">
-        <v>35339</v>
+        <v>35400</v>
       </c>
       <c r="B180" t="n">
-        <v>3772800000000</v>
+        <v>3818600000000</v>
       </c>
       <c r="C180" t="n">
         <v>1</v>
@@ -2422,10 +2422,10 @@
     </row>
     <row r="181">
       <c r="A181" s="2" t="n">
-        <v>35370</v>
+        <v>35431</v>
       </c>
       <c r="B181" t="n">
-        <v>3795100000000</v>
+        <v>3834600000000</v>
       </c>
       <c r="C181" t="n">
         <v>1</v>
@@ -2433,10 +2433,10 @@
     </row>
     <row r="182">
       <c r="A182" s="2" t="n">
-        <v>35400</v>
+        <v>35462</v>
       </c>
       <c r="B182" t="n">
-        <v>3818600000000</v>
+        <v>3846300000000</v>
       </c>
       <c r="C182" t="n">
         <v>1</v>
@@ -2444,10 +2444,10 @@
     </row>
     <row r="183">
       <c r="A183" s="2" t="n">
-        <v>35431</v>
+        <v>35490</v>
       </c>
       <c r="B183" t="n">
-        <v>3834600000000</v>
+        <v>3861200000000</v>
       </c>
       <c r="C183" t="n">
         <v>1</v>
@@ -2455,10 +2455,10 @@
     </row>
     <row r="184">
       <c r="A184" s="2" t="n">
-        <v>35462</v>
+        <v>35521</v>
       </c>
       <c r="B184" t="n">
-        <v>3846300000000</v>
+        <v>3877000000000</v>
       </c>
       <c r="C184" t="n">
         <v>1</v>
@@ -2466,10 +2466,10 @@
     </row>
     <row r="185">
       <c r="A185" s="2" t="n">
-        <v>35490</v>
+        <v>35551</v>
       </c>
       <c r="B185" t="n">
-        <v>3861200000000</v>
+        <v>3889200000000</v>
       </c>
       <c r="C185" t="n">
         <v>1</v>
@@ -2477,10 +2477,10 @@
     </row>
     <row r="186">
       <c r="A186" s="2" t="n">
-        <v>35521</v>
+        <v>35582</v>
       </c>
       <c r="B186" t="n">
-        <v>3877000000000</v>
+        <v>3906000000000</v>
       </c>
       <c r="C186" t="n">
         <v>1</v>
@@ -2488,10 +2488,10 @@
     </row>
     <row r="187">
       <c r="A187" s="2" t="n">
-        <v>35551</v>
+        <v>35612</v>
       </c>
       <c r="B187" t="n">
-        <v>3889200000000</v>
+        <v>3923900000000</v>
       </c>
       <c r="C187" t="n">
         <v>1</v>
@@ -2499,10 +2499,10 @@
     </row>
     <row r="188">
       <c r="A188" s="2" t="n">
-        <v>35582</v>
+        <v>35643</v>
       </c>
       <c r="B188" t="n">
-        <v>3906000000000</v>
+        <v>3957400000000</v>
       </c>
       <c r="C188" t="n">
         <v>1</v>
@@ -2510,10 +2510,10 @@
     </row>
     <row r="189">
       <c r="A189" s="2" t="n">
-        <v>35612</v>
+        <v>35674</v>
       </c>
       <c r="B189" t="n">
-        <v>3923900000000</v>
+        <v>3973100000000</v>
       </c>
       <c r="C189" t="n">
         <v>1</v>
@@ -2521,10 +2521,10 @@
     </row>
     <row r="190">
       <c r="A190" s="2" t="n">
-        <v>35643</v>
+        <v>35704</v>
       </c>
       <c r="B190" t="n">
-        <v>3957400000000</v>
+        <v>3992300000000</v>
       </c>
       <c r="C190" t="n">
         <v>1</v>
@@ -2532,10 +2532,10 @@
     </row>
     <row r="191">
       <c r="A191" s="2" t="n">
-        <v>35674</v>
+        <v>35735</v>
       </c>
       <c r="B191" t="n">
-        <v>3973100000000</v>
+        <v>4014800000000</v>
       </c>
       <c r="C191" t="n">
         <v>1</v>
@@ -2543,10 +2543,10 @@
     </row>
     <row r="192">
       <c r="A192" s="2" t="n">
-        <v>35704</v>
+        <v>35765</v>
       </c>
       <c r="B192" t="n">
-        <v>3992300000000</v>
+        <v>4032900000000</v>
       </c>
       <c r="C192" t="n">
         <v>1</v>
@@ -2554,10 +2554,10 @@
     </row>
     <row r="193">
       <c r="A193" s="2" t="n">
-        <v>35735</v>
+        <v>35796</v>
       </c>
       <c r="B193" t="n">
-        <v>4014800000000</v>
+        <v>4056200000000</v>
       </c>
       <c r="C193" t="n">
         <v>1</v>
@@ -2565,10 +2565,10 @@
     </row>
     <row r="194">
       <c r="A194" s="2" t="n">
-        <v>35765</v>
+        <v>35827</v>
       </c>
       <c r="B194" t="n">
-        <v>4032900000000</v>
+        <v>4088900000000</v>
       </c>
       <c r="C194" t="n">
         <v>1</v>
@@ -2576,10 +2576,10 @@
     </row>
     <row r="195">
       <c r="A195" s="2" t="n">
-        <v>35796</v>
+        <v>35855</v>
       </c>
       <c r="B195" t="n">
-        <v>4056200000000</v>
+        <v>4114300000000</v>
       </c>
       <c r="C195" t="n">
         <v>1</v>
@@ -2587,10 +2587,10 @@
     </row>
     <row r="196">
       <c r="A196" s="2" t="n">
-        <v>35827</v>
+        <v>35886</v>
       </c>
       <c r="B196" t="n">
-        <v>4088900000000</v>
+        <v>4140200000000</v>
       </c>
       <c r="C196" t="n">
         <v>1</v>
@@ -2598,10 +2598,10 @@
     </row>
     <row r="197">
       <c r="A197" s="2" t="n">
-        <v>35855</v>
+        <v>35916</v>
       </c>
       <c r="B197" t="n">
-        <v>4114300000000</v>
+        <v>4164400000000</v>
       </c>
       <c r="C197" t="n">
         <v>1</v>
@@ -2609,10 +2609,10 @@
     </row>
     <row r="198">
       <c r="A198" s="2" t="n">
-        <v>35886</v>
+        <v>35947</v>
       </c>
       <c r="B198" t="n">
-        <v>4140200000000</v>
+        <v>4184100000000</v>
       </c>
       <c r="C198" t="n">
         <v>1</v>
@@ -2620,10 +2620,10 @@
     </row>
     <row r="199">
       <c r="A199" s="2" t="n">
-        <v>35916</v>
+        <v>35977</v>
       </c>
       <c r="B199" t="n">
-        <v>4164400000000</v>
+        <v>4203800000000</v>
       </c>
       <c r="C199" t="n">
         <v>1</v>
@@ -2631,10 +2631,10 @@
     </row>
     <row r="200">
       <c r="A200" s="2" t="n">
-        <v>35947</v>
+        <v>36008</v>
       </c>
       <c r="B200" t="n">
-        <v>4184100000000</v>
+        <v>4228700000000</v>
       </c>
       <c r="C200" t="n">
         <v>1</v>
@@ -2642,10 +2642,10 @@
     </row>
     <row r="201">
       <c r="A201" s="2" t="n">
-        <v>35977</v>
+        <v>36039</v>
       </c>
       <c r="B201" t="n">
-        <v>4203800000000</v>
+        <v>4267600000000</v>
       </c>
       <c r="C201" t="n">
         <v>1</v>
@@ -2653,10 +2653,10 @@
     </row>
     <row r="202">
       <c r="A202" s="2" t="n">
-        <v>36008</v>
+        <v>36069</v>
       </c>
       <c r="B202" t="n">
-        <v>4228700000000</v>
+        <v>4307700000000</v>
       </c>
       <c r="C202" t="n">
         <v>1</v>
@@ -2664,10 +2664,10 @@
     </row>
     <row r="203">
       <c r="A203" s="2" t="n">
-        <v>36039</v>
+        <v>36100</v>
       </c>
       <c r="B203" t="n">
-        <v>4267600000000</v>
+        <v>4346400000000</v>
       </c>
       <c r="C203" t="n">
         <v>1</v>
@@ -2675,10 +2675,10 @@
     </row>
     <row r="204">
       <c r="A204" s="2" t="n">
-        <v>36069</v>
+        <v>36130</v>
       </c>
       <c r="B204" t="n">
-        <v>4307700000000</v>
+        <v>4375200000000</v>
       </c>
       <c r="C204" t="n">
         <v>1</v>
@@ -2686,10 +2686,10 @@
     </row>
     <row r="205">
       <c r="A205" s="2" t="n">
-        <v>36100</v>
+        <v>36161</v>
       </c>
       <c r="B205" t="n">
-        <v>4346400000000</v>
+        <v>4402600000000</v>
       </c>
       <c r="C205" t="n">
         <v>1</v>
@@ -2697,10 +2697,10 @@
     </row>
     <row r="206">
       <c r="A206" s="2" t="n">
-        <v>36130</v>
+        <v>36192</v>
       </c>
       <c r="B206" t="n">
-        <v>4375200000000</v>
+        <v>4425300000000</v>
       </c>
       <c r="C206" t="n">
         <v>1</v>
@@ -2708,10 +2708,10 @@
     </row>
     <row r="207">
       <c r="A207" s="2" t="n">
-        <v>36161</v>
+        <v>36220</v>
       </c>
       <c r="B207" t="n">
-        <v>4402600000000</v>
+        <v>4432100000000</v>
       </c>
       <c r="C207" t="n">
         <v>1</v>
@@ -2719,10 +2719,10 @@
     </row>
     <row r="208">
       <c r="A208" s="2" t="n">
-        <v>36192</v>
+        <v>36251</v>
       </c>
       <c r="B208" t="n">
-        <v>4425300000000</v>
+        <v>4460700000000</v>
       </c>
       <c r="C208" t="n">
         <v>1</v>
@@ -2730,10 +2730,10 @@
     </row>
     <row r="209">
       <c r="A209" s="2" t="n">
-        <v>36220</v>
+        <v>36281</v>
       </c>
       <c r="B209" t="n">
-        <v>4432100000000</v>
+        <v>4485300000000</v>
       </c>
       <c r="C209" t="n">
         <v>1</v>
@@ -2741,10 +2741,10 @@
     </row>
     <row r="210">
       <c r="A210" s="2" t="n">
-        <v>36251</v>
+        <v>36312</v>
       </c>
       <c r="B210" t="n">
-        <v>4460700000000</v>
+        <v>4507200000000</v>
       </c>
       <c r="C210" t="n">
         <v>1</v>
@@ -2752,10 +2752,10 @@
     </row>
     <row r="211">
       <c r="A211" s="2" t="n">
-        <v>36281</v>
+        <v>36342</v>
       </c>
       <c r="B211" t="n">
-        <v>4485300000000</v>
+        <v>4534500000000</v>
       </c>
       <c r="C211" t="n">
         <v>1</v>
@@ -2763,10 +2763,10 @@
     </row>
     <row r="212">
       <c r="A212" s="2" t="n">
-        <v>36312</v>
+        <v>36373</v>
       </c>
       <c r="B212" t="n">
-        <v>4507200000000</v>
+        <v>4551700000000</v>
       </c>
       <c r="C212" t="n">
         <v>1</v>
@@ -2774,10 +2774,10 @@
     </row>
     <row r="213">
       <c r="A213" s="2" t="n">
-        <v>36342</v>
+        <v>36404</v>
       </c>
       <c r="B213" t="n">
-        <v>4534500000000</v>
+        <v>4567700000000</v>
       </c>
       <c r="C213" t="n">
         <v>1</v>
@@ -2785,10 +2785,10 @@
     </row>
     <row r="214">
       <c r="A214" s="2" t="n">
-        <v>36373</v>
+        <v>36434</v>
       </c>
       <c r="B214" t="n">
-        <v>4551700000000</v>
+        <v>4591500000000</v>
       </c>
       <c r="C214" t="n">
         <v>1</v>
@@ -2796,10 +2796,10 @@
     </row>
     <row r="215">
       <c r="A215" s="2" t="n">
-        <v>36404</v>
+        <v>36465</v>
       </c>
       <c r="B215" t="n">
-        <v>4567700000000</v>
+        <v>4610500000000</v>
       </c>
       <c r="C215" t="n">
         <v>1</v>
@@ -2807,10 +2807,10 @@
     </row>
     <row r="216">
       <c r="A216" s="2" t="n">
-        <v>36434</v>
+        <v>36495</v>
       </c>
       <c r="B216" t="n">
-        <v>4591500000000</v>
+        <v>4638000000000</v>
       </c>
       <c r="C216" t="n">
         <v>1</v>
@@ -2818,10 +2818,10 @@
     </row>
     <row r="217">
       <c r="A217" s="2" t="n">
-        <v>36465</v>
+        <v>36526</v>
       </c>
       <c r="B217" t="n">
-        <v>4610500000000</v>
+        <v>4666200000000</v>
       </c>
       <c r="C217" t="n">
         <v>1</v>
@@ -2829,10 +2829,10 @@
     </row>
     <row r="218">
       <c r="A218" s="2" t="n">
-        <v>36495</v>
+        <v>36557</v>
       </c>
       <c r="B218" t="n">
-        <v>4638000000000</v>
+        <v>4679400000000</v>
       </c>
       <c r="C218" t="n">
         <v>1</v>
@@ -2840,10 +2840,10 @@
     </row>
     <row r="219">
       <c r="A219" s="2" t="n">
-        <v>36526</v>
+        <v>36586</v>
       </c>
       <c r="B219" t="n">
-        <v>4666200000000</v>
+        <v>4710200000000</v>
       </c>
       <c r="C219" t="n">
         <v>1</v>
@@ -2851,10 +2851,10 @@
     </row>
     <row r="220">
       <c r="A220" s="2" t="n">
-        <v>36557</v>
+        <v>36617</v>
       </c>
       <c r="B220" t="n">
-        <v>4679400000000</v>
+        <v>4766100000000</v>
       </c>
       <c r="C220" t="n">
         <v>1</v>
@@ -2862,10 +2862,10 @@
     </row>
     <row r="221">
       <c r="A221" s="2" t="n">
-        <v>36586</v>
+        <v>36647</v>
       </c>
       <c r="B221" t="n">
-        <v>4710200000000</v>
+        <v>4753900000000</v>
       </c>
       <c r="C221" t="n">
         <v>1</v>
@@ -2873,10 +2873,10 @@
     </row>
     <row r="222">
       <c r="A222" s="2" t="n">
-        <v>36617</v>
+        <v>36678</v>
       </c>
       <c r="B222" t="n">
-        <v>4766100000000</v>
+        <v>4771800000000</v>
       </c>
       <c r="C222" t="n">
         <v>1</v>
@@ -2884,10 +2884,10 @@
     </row>
     <row r="223">
       <c r="A223" s="2" t="n">
-        <v>36647</v>
+        <v>36708</v>
       </c>
       <c r="B223" t="n">
-        <v>4753900000000</v>
+        <v>4789400000000</v>
       </c>
       <c r="C223" t="n">
         <v>1</v>
@@ -2895,10 +2895,10 @@
     </row>
     <row r="224">
       <c r="A224" s="2" t="n">
-        <v>36678</v>
+        <v>36739</v>
       </c>
       <c r="B224" t="n">
-        <v>4771800000000</v>
+        <v>4817500000000</v>
       </c>
       <c r="C224" t="n">
         <v>1</v>
@@ -2906,10 +2906,10 @@
     </row>
     <row r="225">
       <c r="A225" s="2" t="n">
-        <v>36708</v>
+        <v>36770</v>
       </c>
       <c r="B225" t="n">
-        <v>4789400000000</v>
+        <v>4853200000000</v>
       </c>
       <c r="C225" t="n">
         <v>1</v>
@@ -2917,10 +2917,10 @@
     </row>
     <row r="226">
       <c r="A226" s="2" t="n">
-        <v>36739</v>
+        <v>36800</v>
       </c>
       <c r="B226" t="n">
-        <v>4817500000000</v>
+        <v>4869200000000</v>
       </c>
       <c r="C226" t="n">
         <v>1</v>
@@ -2928,10 +2928,10 @@
     </row>
     <row r="227">
       <c r="A227" s="2" t="n">
-        <v>36770</v>
+        <v>36831</v>
       </c>
       <c r="B227" t="n">
-        <v>4853200000000</v>
+        <v>4880300000000</v>
       </c>
       <c r="C227" t="n">
         <v>1</v>
@@ -2939,10 +2939,10 @@
     </row>
     <row r="228">
       <c r="A228" s="2" t="n">
-        <v>36800</v>
+        <v>36861</v>
       </c>
       <c r="B228" t="n">
-        <v>4869200000000</v>
+        <v>4925000000000</v>
       </c>
       <c r="C228" t="n">
         <v>1</v>
@@ -2950,10 +2950,10 @@
     </row>
     <row r="229">
       <c r="A229" s="2" t="n">
-        <v>36831</v>
+        <v>36892</v>
       </c>
       <c r="B229" t="n">
-        <v>4880300000000</v>
+        <v>4975700000000</v>
       </c>
       <c r="C229" t="n">
         <v>1</v>
@@ -2961,10 +2961,10 @@
     </row>
     <row r="230">
       <c r="A230" s="2" t="n">
-        <v>36861</v>
+        <v>36923</v>
       </c>
       <c r="B230" t="n">
-        <v>4925000000000</v>
+        <v>5014100000000</v>
       </c>
       <c r="C230" t="n">
         <v>1</v>
@@ -2972,10 +2972,10 @@
     </row>
     <row r="231">
       <c r="A231" s="2" t="n">
-        <v>36892</v>
+        <v>36951</v>
       </c>
       <c r="B231" t="n">
-        <v>4975700000000</v>
+        <v>5072000000000</v>
       </c>
       <c r="C231" t="n">
         <v>1</v>
@@ -2983,10 +2983,10 @@
     </row>
     <row r="232">
       <c r="A232" s="2" t="n">
-        <v>36923</v>
+        <v>36982</v>
       </c>
       <c r="B232" t="n">
-        <v>5014100000000</v>
+        <v>5135900000000</v>
       </c>
       <c r="C232" t="n">
         <v>1</v>
@@ -2994,10 +2994,10 @@
     </row>
     <row r="233">
       <c r="A233" s="2" t="n">
-        <v>36951</v>
+        <v>37012</v>
       </c>
       <c r="B233" t="n">
-        <v>5072000000000</v>
+        <v>5133000000000</v>
       </c>
       <c r="C233" t="n">
         <v>1</v>
@@ -3005,10 +3005,10 @@
     </row>
     <row r="234">
       <c r="A234" s="2" t="n">
-        <v>36982</v>
+        <v>37043</v>
       </c>
       <c r="B234" t="n">
-        <v>5135900000000</v>
+        <v>5173500000000</v>
       </c>
       <c r="C234" t="n">
         <v>1</v>
@@ -3016,10 +3016,10 @@
     </row>
     <row r="235">
       <c r="A235" s="2" t="n">
-        <v>37012</v>
+        <v>37073</v>
       </c>
       <c r="B235" t="n">
-        <v>5133000000000</v>
+        <v>5203400000000</v>
       </c>
       <c r="C235" t="n">
         <v>1</v>
@@ -3027,10 +3027,10 @@
     </row>
     <row r="236">
       <c r="A236" s="2" t="n">
-        <v>37043</v>
+        <v>37104</v>
       </c>
       <c r="B236" t="n">
-        <v>5173500000000</v>
+        <v>5237200000000</v>
       </c>
       <c r="C236" t="n">
         <v>1</v>
@@ -3038,10 +3038,10 @@
     </row>
     <row r="237">
       <c r="A237" s="2" t="n">
-        <v>37073</v>
+        <v>37135</v>
       </c>
       <c r="B237" t="n">
-        <v>5203400000000</v>
+        <v>5348400000000</v>
       </c>
       <c r="C237" t="n">
         <v>1</v>
@@ -3049,10 +3049,10 @@
     </row>
     <row r="238">
       <c r="A238" s="2" t="n">
-        <v>37104</v>
+        <v>37165</v>
       </c>
       <c r="B238" t="n">
-        <v>5237200000000</v>
+        <v>5337100000000</v>
       </c>
       <c r="C238" t="n">
         <v>1</v>
@@ -3060,10 +3060,10 @@
     </row>
     <row r="239">
       <c r="A239" s="2" t="n">
-        <v>37135</v>
+        <v>37196</v>
       </c>
       <c r="B239" t="n">
-        <v>5348400000000</v>
+        <v>5380800000000</v>
       </c>
       <c r="C239" t="n">
         <v>1</v>
@@ -3071,10 +3071,10 @@
     </row>
     <row r="240">
       <c r="A240" s="2" t="n">
-        <v>37165</v>
+        <v>37226</v>
       </c>
       <c r="B240" t="n">
-        <v>5337100000000</v>
+        <v>5433800000000</v>
       </c>
       <c r="C240" t="n">
         <v>1</v>
@@ -3082,10 +3082,10 @@
     </row>
     <row r="241">
       <c r="A241" s="2" t="n">
-        <v>37196</v>
+        <v>37257</v>
       </c>
       <c r="B241" t="n">
-        <v>5380800000000</v>
+        <v>5454100000000</v>
       </c>
       <c r="C241" t="n">
         <v>1</v>
@@ -3093,10 +3093,10 @@
     </row>
     <row r="242">
       <c r="A242" s="2" t="n">
-        <v>37226</v>
+        <v>37288</v>
       </c>
       <c r="B242" t="n">
-        <v>5433800000000</v>
+        <v>5483400000000</v>
       </c>
       <c r="C242" t="n">
         <v>1</v>
@@ -3104,10 +3104,10 @@
     </row>
     <row r="243">
       <c r="A243" s="2" t="n">
-        <v>37257</v>
+        <v>37316</v>
       </c>
       <c r="B243" t="n">
-        <v>5454100000000</v>
+        <v>5495200000000</v>
       </c>
       <c r="C243" t="n">
         <v>1</v>
@@ -3115,10 +3115,10 @@
     </row>
     <row r="244">
       <c r="A244" s="2" t="n">
-        <v>37288</v>
+        <v>37347</v>
       </c>
       <c r="B244" t="n">
-        <v>5483400000000</v>
+        <v>5495400000000</v>
       </c>
       <c r="C244" t="n">
         <v>1</v>
@@ -3126,10 +3126,10 @@
     </row>
     <row r="245">
       <c r="A245" s="2" t="n">
-        <v>37316</v>
+        <v>37377</v>
       </c>
       <c r="B245" t="n">
-        <v>5495200000000</v>
+        <v>5521500000000</v>
       </c>
       <c r="C245" t="n">
         <v>1</v>
@@ -3137,10 +3137,10 @@
     </row>
     <row r="246">
       <c r="A246" s="2" t="n">
-        <v>37347</v>
+        <v>37408</v>
       </c>
       <c r="B246" t="n">
-        <v>5495400000000</v>
+        <v>5546500000000</v>
       </c>
       <c r="C246" t="n">
         <v>1</v>
@@ -3148,10 +3148,10 @@
     </row>
     <row r="247">
       <c r="A247" s="2" t="n">
-        <v>37377</v>
+        <v>37438</v>
       </c>
       <c r="B247" t="n">
-        <v>5521500000000</v>
+        <v>5589100000000</v>
       </c>
       <c r="C247" t="n">
         <v>1</v>
@@ -3159,10 +3159,10 @@
     </row>
     <row r="248">
       <c r="A248" s="2" t="n">
-        <v>37408</v>
+        <v>37469</v>
       </c>
       <c r="B248" t="n">
-        <v>5546500000000</v>
+        <v>5631600000000</v>
       </c>
       <c r="C248" t="n">
         <v>1</v>
@@ -3170,10 +3170,10 @@
     </row>
     <row r="249">
       <c r="A249" s="2" t="n">
-        <v>37438</v>
+        <v>37500</v>
       </c>
       <c r="B249" t="n">
-        <v>5589100000000</v>
+        <v>5656000000000</v>
       </c>
       <c r="C249" t="n">
         <v>1</v>
@@ -3181,10 +3181,10 @@
     </row>
     <row r="250">
       <c r="A250" s="2" t="n">
-        <v>37469</v>
+        <v>37530</v>
       </c>
       <c r="B250" t="n">
-        <v>5631600000000</v>
+        <v>5700400000000</v>
       </c>
       <c r="C250" t="n">
         <v>1</v>
@@ -3192,10 +3192,10 @@
     </row>
     <row r="251">
       <c r="A251" s="2" t="n">
-        <v>37500</v>
+        <v>37561</v>
       </c>
       <c r="B251" t="n">
-        <v>5656000000000</v>
+        <v>5750600000000</v>
       </c>
       <c r="C251" t="n">
         <v>1</v>
@@ -3203,10 +3203,10 @@
     </row>
     <row r="252">
       <c r="A252" s="2" t="n">
-        <v>37530</v>
+        <v>37591</v>
       </c>
       <c r="B252" t="n">
-        <v>5700400000000</v>
+        <v>5772000000000</v>
       </c>
       <c r="C252" t="n">
         <v>1</v>
@@ -3214,10 +3214,10 @@
     </row>
     <row r="253">
       <c r="A253" s="2" t="n">
-        <v>37561</v>
+        <v>37622</v>
       </c>
       <c r="B253" t="n">
-        <v>5750600000000</v>
+        <v>5804600000000</v>
       </c>
       <c r="C253" t="n">
         <v>1</v>
@@ -3225,10 +3225,10 @@
     </row>
     <row r="254">
       <c r="A254" s="2" t="n">
-        <v>37591</v>
+        <v>37653</v>
       </c>
       <c r="B254" t="n">
-        <v>5772000000000</v>
+        <v>5840700000000</v>
       </c>
       <c r="C254" t="n">
         <v>1</v>
@@ -3236,10 +3236,10 @@
     </row>
     <row r="255">
       <c r="A255" s="2" t="n">
-        <v>37622</v>
+        <v>37681</v>
       </c>
       <c r="B255" t="n">
-        <v>5804600000000</v>
+        <v>5861400000000</v>
       </c>
       <c r="C255" t="n">
         <v>1</v>
@@ -3247,10 +3247,10 @@
     </row>
     <row r="256">
       <c r="A256" s="2" t="n">
-        <v>37653</v>
+        <v>37712</v>
       </c>
       <c r="B256" t="n">
-        <v>5840700000000</v>
+        <v>5898800000000</v>
       </c>
       <c r="C256" t="n">
         <v>1</v>
@@ -3258,10 +3258,10 @@
     </row>
     <row r="257">
       <c r="A257" s="2" t="n">
-        <v>37681</v>
+        <v>37742</v>
       </c>
       <c r="B257" t="n">
-        <v>5861400000000</v>
+        <v>5959300000000</v>
       </c>
       <c r="C257" t="n">
         <v>1</v>
@@ -3269,10 +3269,10 @@
     </row>
     <row r="258">
       <c r="A258" s="2" t="n">
-        <v>37712</v>
+        <v>37773</v>
       </c>
       <c r="B258" t="n">
-        <v>5898800000000</v>
+        <v>5996000000000</v>
       </c>
       <c r="C258" t="n">
         <v>1</v>
@@ -3280,10 +3280,10 @@
     </row>
     <row r="259">
       <c r="A259" s="2" t="n">
-        <v>37742</v>
+        <v>37803</v>
       </c>
       <c r="B259" t="n">
-        <v>5959300000000</v>
+        <v>6042700000000</v>
       </c>
       <c r="C259" t="n">
         <v>1</v>
@@ -3291,10 +3291,10 @@
     </row>
     <row r="260">
       <c r="A260" s="2" t="n">
-        <v>37773</v>
+        <v>37834</v>
       </c>
       <c r="B260" t="n">
-        <v>5996000000000</v>
+        <v>6100800000000</v>
       </c>
       <c r="C260" t="n">
         <v>1</v>
@@ -3302,10 +3302,10 @@
     </row>
     <row r="261">
       <c r="A261" s="2" t="n">
-        <v>37803</v>
+        <v>37865</v>
       </c>
       <c r="B261" t="n">
-        <v>6042700000000</v>
+        <v>6072800000000</v>
       </c>
       <c r="C261" t="n">
         <v>1</v>
@@ -3313,10 +3313,10 @@
     </row>
     <row r="262">
       <c r="A262" s="2" t="n">
-        <v>37834</v>
+        <v>37895</v>
       </c>
       <c r="B262" t="n">
-        <v>6100800000000</v>
+        <v>6063600000000</v>
       </c>
       <c r="C262" t="n">
         <v>1</v>
@@ -3324,10 +3324,10 @@
     </row>
     <row r="263">
       <c r="A263" s="2" t="n">
-        <v>37865</v>
+        <v>37926</v>
       </c>
       <c r="B263" t="n">
-        <v>6072800000000</v>
+        <v>6069100000000</v>
       </c>
       <c r="C263" t="n">
         <v>1</v>
@@ -3335,10 +3335,10 @@
     </row>
     <row r="264">
       <c r="A264" s="2" t="n">
-        <v>37895</v>
+        <v>37956</v>
       </c>
       <c r="B264" t="n">
-        <v>6063600000000</v>
+        <v>6067300000000</v>
       </c>
       <c r="C264" t="n">
         <v>1</v>
@@ -3346,10 +3346,10 @@
     </row>
     <row r="265">
       <c r="A265" s="2" t="n">
-        <v>37926</v>
+        <v>37987</v>
       </c>
       <c r="B265" t="n">
-        <v>6069100000000</v>
+        <v>6075500000000</v>
       </c>
       <c r="C265" t="n">
         <v>1</v>
@@ -3357,10 +3357,10 @@
     </row>
     <row r="266">
       <c r="A266" s="2" t="n">
-        <v>37956</v>
+        <v>38018</v>
       </c>
       <c r="B266" t="n">
-        <v>6067300000000</v>
+        <v>6114300000000</v>
       </c>
       <c r="C266" t="n">
         <v>1</v>
@@ -3368,10 +3368,10 @@
     </row>
     <row r="267">
       <c r="A267" s="2" t="n">
-        <v>37987</v>
+        <v>38047</v>
       </c>
       <c r="B267" t="n">
-        <v>6075500000000</v>
+        <v>6150100000000</v>
       </c>
       <c r="C267" t="n">
         <v>1</v>
@@ -3379,10 +3379,10 @@
     </row>
     <row r="268">
       <c r="A268" s="2" t="n">
-        <v>38018</v>
+        <v>38078</v>
       </c>
       <c r="B268" t="n">
-        <v>6114300000000</v>
+        <v>6191200000000</v>
       </c>
       <c r="C268" t="n">
         <v>1</v>
@@ -3390,10 +3390,10 @@
     </row>
     <row r="269">
       <c r="A269" s="2" t="n">
-        <v>38047</v>
+        <v>38108</v>
       </c>
       <c r="B269" t="n">
-        <v>6150100000000</v>
+        <v>6268100000000</v>
       </c>
       <c r="C269" t="n">
         <v>1</v>
@@ -3401,10 +3401,10 @@
     </row>
     <row r="270">
       <c r="A270" s="2" t="n">
-        <v>38078</v>
+        <v>38139</v>
       </c>
       <c r="B270" t="n">
-        <v>6191200000000</v>
+        <v>6270500000000</v>
       </c>
       <c r="C270" t="n">
         <v>1</v>
@@ -3412,10 +3412,10 @@
     </row>
     <row r="271">
       <c r="A271" s="2" t="n">
-        <v>38108</v>
+        <v>38169</v>
       </c>
       <c r="B271" t="n">
-        <v>6268100000000</v>
+        <v>6284300000000</v>
       </c>
       <c r="C271" t="n">
         <v>1</v>
@@ -3423,10 +3423,10 @@
     </row>
     <row r="272">
       <c r="A272" s="2" t="n">
-        <v>38139</v>
+        <v>38200</v>
       </c>
       <c r="B272" t="n">
-        <v>6270500000000</v>
+        <v>6310600000000</v>
       </c>
       <c r="C272" t="n">
         <v>1</v>
@@ -3434,10 +3434,10 @@
     </row>
     <row r="273">
       <c r="A273" s="2" t="n">
-        <v>38169</v>
+        <v>38231</v>
       </c>
       <c r="B273" t="n">
-        <v>6284300000000</v>
+        <v>6345300000000</v>
       </c>
       <c r="C273" t="n">
         <v>1</v>
@@ -3445,10 +3445,10 @@
     </row>
     <row r="274">
       <c r="A274" s="2" t="n">
-        <v>38200</v>
+        <v>38261</v>
       </c>
       <c r="B274" t="n">
-        <v>6310600000000</v>
+        <v>6373300000000</v>
       </c>
       <c r="C274" t="n">
         <v>1</v>
@@ -3456,10 +3456,10 @@
     </row>
     <row r="275">
       <c r="A275" s="2" t="n">
-        <v>38231</v>
+        <v>38292</v>
       </c>
       <c r="B275" t="n">
-        <v>6345300000000</v>
+        <v>6399800000000</v>
       </c>
       <c r="C275" t="n">
         <v>1</v>
@@ -3467,10 +3467,10 @@
     </row>
     <row r="276">
       <c r="A276" s="2" t="n">
-        <v>38261</v>
+        <v>38322</v>
       </c>
       <c r="B276" t="n">
-        <v>6373300000000</v>
+        <v>6418300000000</v>
       </c>
       <c r="C276" t="n">
         <v>1</v>
@@ -3478,10 +3478,10 @@
     </row>
     <row r="277">
       <c r="A277" s="2" t="n">
-        <v>38292</v>
+        <v>38353</v>
       </c>
       <c r="B277" t="n">
-        <v>6399800000000</v>
+        <v>6424500000000</v>
       </c>
       <c r="C277" t="n">
         <v>1</v>
@@ -3489,10 +3489,10 @@
     </row>
     <row r="278">
       <c r="A278" s="2" t="n">
-        <v>38322</v>
+        <v>38384</v>
       </c>
       <c r="B278" t="n">
-        <v>6418300000000</v>
+        <v>6432800000000</v>
       </c>
       <c r="C278" t="n">
         <v>1</v>
@@ -3500,10 +3500,10 @@
     </row>
     <row r="279">
       <c r="A279" s="2" t="n">
-        <v>38353</v>
+        <v>38412</v>
       </c>
       <c r="B279" t="n">
-        <v>6424500000000</v>
+        <v>6441900000000</v>
       </c>
       <c r="C279" t="n">
         <v>1</v>
@@ -3511,10 +3511,10 @@
     </row>
     <row r="280">
       <c r="A280" s="2" t="n">
-        <v>38384</v>
+        <v>38443</v>
       </c>
       <c r="B280" t="n">
-        <v>6432800000000</v>
+        <v>6455900000000</v>
       </c>
       <c r="C280" t="n">
         <v>1</v>
@@ -3522,10 +3522,10 @@
     </row>
     <row r="281">
       <c r="A281" s="2" t="n">
-        <v>38412</v>
+        <v>38473</v>
       </c>
       <c r="B281" t="n">
-        <v>6441900000000</v>
+        <v>6473300000000</v>
       </c>
       <c r="C281" t="n">
         <v>1</v>
@@ -3533,10 +3533,10 @@
     </row>
     <row r="282">
       <c r="A282" s="2" t="n">
-        <v>38443</v>
+        <v>38504</v>
       </c>
       <c r="B282" t="n">
-        <v>6455900000000</v>
+        <v>6505800000000</v>
       </c>
       <c r="C282" t="n">
         <v>1</v>
@@ -3544,10 +3544,10 @@
     </row>
     <row r="283">
       <c r="A283" s="2" t="n">
-        <v>38473</v>
+        <v>38534</v>
       </c>
       <c r="B283" t="n">
-        <v>6473300000000</v>
+        <v>6537400000000</v>
       </c>
       <c r="C283" t="n">
         <v>1</v>
@@ -3555,10 +3555,10 @@
     </row>
     <row r="284">
       <c r="A284" s="2" t="n">
-        <v>38504</v>
+        <v>38565</v>
       </c>
       <c r="B284" t="n">
-        <v>6505800000000</v>
+        <v>6570200000000</v>
       </c>
       <c r="C284" t="n">
         <v>1</v>
@@ -3566,10 +3566,10 @@
     </row>
     <row r="285">
       <c r="A285" s="2" t="n">
-        <v>38534</v>
+        <v>38596</v>
       </c>
       <c r="B285" t="n">
-        <v>6537400000000</v>
+        <v>6604300000000</v>
       </c>
       <c r="C285" t="n">
         <v>1</v>
@@ -3577,10 +3577,10 @@
     </row>
     <row r="286">
       <c r="A286" s="2" t="n">
-        <v>38565</v>
+        <v>38626</v>
       </c>
       <c r="B286" t="n">
-        <v>6570200000000</v>
+        <v>6638600000000</v>
       </c>
       <c r="C286" t="n">
         <v>1</v>
@@ -3588,10 +3588,10 @@
     </row>
     <row r="287">
       <c r="A287" s="2" t="n">
-        <v>38596</v>
+        <v>38657</v>
       </c>
       <c r="B287" t="n">
-        <v>6604300000000</v>
+        <v>6655000000000</v>
       </c>
       <c r="C287" t="n">
         <v>1</v>
@@ -3599,10 +3599,10 @@
     </row>
     <row r="288">
       <c r="A288" s="2" t="n">
-        <v>38626</v>
+        <v>38687</v>
       </c>
       <c r="B288" t="n">
-        <v>6638600000000</v>
+        <v>6681900000000</v>
       </c>
       <c r="C288" t="n">
         <v>1</v>
@@ -3610,10 +3610,10 @@
     </row>
     <row r="289">
       <c r="A289" s="2" t="n">
-        <v>38657</v>
+        <v>38718</v>
       </c>
       <c r="B289" t="n">
-        <v>6655000000000</v>
+        <v>6724300000000</v>
       </c>
       <c r="C289" t="n">
         <v>1</v>
@@ -3621,10 +3621,10 @@
     </row>
     <row r="290">
       <c r="A290" s="2" t="n">
-        <v>38687</v>
+        <v>38749</v>
       </c>
       <c r="B290" t="n">
-        <v>6681900000000</v>
+        <v>6748600000000</v>
       </c>
       <c r="C290" t="n">
         <v>1</v>
@@ -3632,10 +3632,10 @@
     </row>
     <row r="291">
       <c r="A291" s="2" t="n">
-        <v>38718</v>
+        <v>38777</v>
       </c>
       <c r="B291" t="n">
-        <v>6724300000000</v>
+        <v>6762900000000</v>
       </c>
       <c r="C291" t="n">
         <v>1</v>
@@ -3643,10 +3643,10 @@
     </row>
     <row r="292">
       <c r="A292" s="2" t="n">
-        <v>38749</v>
+        <v>38808</v>
       </c>
       <c r="B292" t="n">
-        <v>6748600000000</v>
+        <v>6800100000000</v>
       </c>
       <c r="C292" t="n">
         <v>1</v>
@@ -3654,10 +3654,10 @@
     </row>
     <row r="293">
       <c r="A293" s="2" t="n">
-        <v>38777</v>
+        <v>38838</v>
       </c>
       <c r="B293" t="n">
-        <v>6762900000000</v>
+        <v>6806900000000</v>
       </c>
       <c r="C293" t="n">
         <v>1</v>
@@ -3665,10 +3665,10 @@
     </row>
     <row r="294">
       <c r="A294" s="2" t="n">
-        <v>38808</v>
+        <v>38869</v>
       </c>
       <c r="B294" t="n">
-        <v>6800100000000</v>
+        <v>6844900000000</v>
       </c>
       <c r="C294" t="n">
         <v>1</v>
@@ -3676,10 +3676,10 @@
     </row>
     <row r="295">
       <c r="A295" s="2" t="n">
-        <v>38838</v>
+        <v>38899</v>
       </c>
       <c r="B295" t="n">
-        <v>6806900000000</v>
+        <v>6886300000000</v>
       </c>
       <c r="C295" t="n">
         <v>1</v>
@@ -3687,10 +3687,10 @@
     </row>
     <row r="296">
       <c r="A296" s="2" t="n">
-        <v>38869</v>
+        <v>38930</v>
       </c>
       <c r="B296" t="n">
-        <v>6844900000000</v>
+        <v>6917100000000</v>
       </c>
       <c r="C296" t="n">
         <v>1</v>
@@ -3698,10 +3698,10 @@
     </row>
     <row r="297">
       <c r="A297" s="2" t="n">
-        <v>38899</v>
+        <v>38961</v>
       </c>
       <c r="B297" t="n">
-        <v>6886300000000</v>
+        <v>6944200000000</v>
       </c>
       <c r="C297" t="n">
         <v>1</v>
@@ -3709,10 +3709,10 @@
     </row>
     <row r="298">
       <c r="A298" s="2" t="n">
-        <v>38930</v>
+        <v>38991</v>
       </c>
       <c r="B298" t="n">
-        <v>6917100000000</v>
+        <v>6993300000000</v>
       </c>
       <c r="C298" t="n">
         <v>1</v>
@@ -3720,10 +3720,10 @@
     </row>
     <row r="299">
       <c r="A299" s="2" t="n">
-        <v>38961</v>
+        <v>39022</v>
       </c>
       <c r="B299" t="n">
-        <v>6944200000000</v>
+        <v>7028400000000</v>
       </c>
       <c r="C299" t="n">
         <v>1</v>
@@ -3731,10 +3731,10 @@
     </row>
     <row r="300">
       <c r="A300" s="2" t="n">
-        <v>38991</v>
+        <v>39052</v>
       </c>
       <c r="B300" t="n">
-        <v>6993300000000</v>
+        <v>7071600000000</v>
       </c>
       <c r="C300" t="n">
         <v>1</v>
@@ -3742,10 +3742,10 @@
     </row>
     <row r="301">
       <c r="A301" s="2" t="n">
-        <v>39022</v>
+        <v>39083</v>
       </c>
       <c r="B301" t="n">
-        <v>7028400000000</v>
+        <v>7109600000000</v>
       </c>
       <c r="C301" t="n">
         <v>1</v>
@@ -3753,10 +3753,10 @@
     </row>
     <row r="302">
       <c r="A302" s="2" t="n">
-        <v>39052</v>
+        <v>39114</v>
       </c>
       <c r="B302" t="n">
-        <v>7071600000000</v>
+        <v>7125300000000</v>
       </c>
       <c r="C302" t="n">
         <v>1</v>
@@ -3764,10 +3764,10 @@
     </row>
     <row r="303">
       <c r="A303" s="2" t="n">
-        <v>39083</v>
+        <v>39142</v>
       </c>
       <c r="B303" t="n">
-        <v>7109600000000</v>
+        <v>7159100000000</v>
       </c>
       <c r="C303" t="n">
         <v>1</v>
@@ -3775,10 +3775,10 @@
     </row>
     <row r="304">
       <c r="A304" s="2" t="n">
-        <v>39114</v>
+        <v>39173</v>
       </c>
       <c r="B304" t="n">
-        <v>7125300000000</v>
+        <v>7231300000000</v>
       </c>
       <c r="C304" t="n">
         <v>1</v>
@@ -3786,10 +3786,10 @@
     </row>
     <row r="305">
       <c r="A305" s="2" t="n">
-        <v>39142</v>
+        <v>39203</v>
       </c>
       <c r="B305" t="n">
-        <v>7159100000000</v>
+        <v>7245400000000</v>
       </c>
       <c r="C305" t="n">
         <v>1</v>
@@ -3797,10 +3797,10 @@
     </row>
     <row r="306">
       <c r="A306" s="2" t="n">
-        <v>39173</v>
+        <v>39234</v>
       </c>
       <c r="B306" t="n">
-        <v>7231300000000</v>
+        <v>7278600000000</v>
       </c>
       <c r="C306" t="n">
         <v>1</v>
@@ -3808,10 +3808,10 @@
     </row>
     <row r="307">
       <c r="A307" s="2" t="n">
-        <v>39203</v>
+        <v>39264</v>
       </c>
       <c r="B307" t="n">
-        <v>7245400000000</v>
+        <v>7309000000000</v>
       </c>
       <c r="C307" t="n">
         <v>1</v>
@@ -3819,10 +3819,10 @@
     </row>
     <row r="308">
       <c r="A308" s="2" t="n">
-        <v>39234</v>
+        <v>39295</v>
       </c>
       <c r="B308" t="n">
-        <v>7278600000000</v>
+        <v>7385100000000</v>
       </c>
       <c r="C308" t="n">
         <v>1</v>
@@ -3830,10 +3830,10 @@
     </row>
     <row r="309">
       <c r="A309" s="2" t="n">
-        <v>39264</v>
+        <v>39326</v>
       </c>
       <c r="B309" t="n">
-        <v>7309000000000</v>
+        <v>7403200000000</v>
       </c>
       <c r="C309" t="n">
         <v>1</v>
@@ -3841,10 +3841,10 @@
     </row>
     <row r="310">
       <c r="A310" s="2" t="n">
-        <v>39295</v>
+        <v>39356</v>
       </c>
       <c r="B310" t="n">
-        <v>7385100000000</v>
+        <v>7417200000000</v>
       </c>
       <c r="C310" t="n">
         <v>1</v>
@@ -3852,10 +3852,10 @@
     </row>
     <row r="311">
       <c r="A311" s="2" t="n">
-        <v>39326</v>
+        <v>39387</v>
       </c>
       <c r="B311" t="n">
-        <v>7403200000000</v>
+        <v>7441800000000</v>
       </c>
       <c r="C311" t="n">
         <v>1</v>
@@ -3863,10 +3863,10 @@
     </row>
     <row r="312">
       <c r="A312" s="2" t="n">
-        <v>39356</v>
+        <v>39417</v>
       </c>
       <c r="B312" t="n">
-        <v>7417200000000</v>
+        <v>7471600000000</v>
       </c>
       <c r="C312" t="n">
         <v>1</v>
@@ -3874,10 +3874,10 @@
     </row>
     <row r="313">
       <c r="A313" s="2" t="n">
-        <v>39387</v>
+        <v>39448</v>
       </c>
       <c r="B313" t="n">
-        <v>7441800000000</v>
+        <v>7505500000000</v>
       </c>
       <c r="C313" t="n">
         <v>1</v>
@@ -3885,10 +3885,10 @@
     </row>
     <row r="314">
       <c r="A314" s="2" t="n">
-        <v>39417</v>
+        <v>39479</v>
       </c>
       <c r="B314" t="n">
-        <v>7471600000000</v>
+        <v>7590600000000</v>
       </c>
       <c r="C314" t="n">
         <v>1</v>
@@ -3896,10 +3896,10 @@
     </row>
     <row r="315">
       <c r="A315" s="2" t="n">
-        <v>39448</v>
+        <v>39508</v>
       </c>
       <c r="B315" t="n">
-        <v>7505500000000</v>
+        <v>7656200000000</v>
       </c>
       <c r="C315" t="n">
         <v>1</v>
@@ -3907,10 +3907,10 @@
     </row>
     <row r="316">
       <c r="A316" s="2" t="n">
-        <v>39479</v>
+        <v>39539</v>
       </c>
       <c r="B316" t="n">
-        <v>7590600000000</v>
+        <v>7699200000000</v>
       </c>
       <c r="C316" t="n">
         <v>1</v>
@@ -3918,10 +3918,10 @@
     </row>
     <row r="317">
       <c r="A317" s="2" t="n">
-        <v>39508</v>
+        <v>39569</v>
       </c>
       <c r="B317" t="n">
-        <v>7656200000000</v>
+        <v>7711200000000</v>
       </c>
       <c r="C317" t="n">
         <v>1</v>
@@ -3929,10 +3929,10 @@
     </row>
     <row r="318">
       <c r="A318" s="2" t="n">
-        <v>39539</v>
+        <v>39600</v>
       </c>
       <c r="B318" t="n">
-        <v>7699200000000</v>
+        <v>7728900000000</v>
       </c>
       <c r="C318" t="n">
         <v>1</v>
@@ -3940,10 +3940,10 @@
     </row>
     <row r="319">
       <c r="A319" s="2" t="n">
-        <v>39569</v>
+        <v>39630</v>
       </c>
       <c r="B319" t="n">
-        <v>7711200000000</v>
+        <v>7775400000000</v>
       </c>
       <c r="C319" t="n">
         <v>1</v>
@@ -3951,10 +3951,10 @@
     </row>
     <row r="320">
       <c r="A320" s="2" t="n">
-        <v>39600</v>
+        <v>39661</v>
       </c>
       <c r="B320" t="n">
-        <v>7728900000000</v>
+        <v>7790200000000</v>
       </c>
       <c r="C320" t="n">
         <v>1</v>
@@ -3962,10 +3962,10 @@
     </row>
     <row r="321">
       <c r="A321" s="2" t="n">
-        <v>39630</v>
+        <v>39692</v>
       </c>
       <c r="B321" t="n">
-        <v>7775400000000</v>
+        <v>7859500000000</v>
       </c>
       <c r="C321" t="n">
         <v>1</v>
@@ -3973,10 +3973,10 @@
     </row>
     <row r="322">
       <c r="A322" s="2" t="n">
-        <v>39661</v>
+        <v>39722</v>
       </c>
       <c r="B322" t="n">
-        <v>7790200000000</v>
+        <v>7965300000000</v>
       </c>
       <c r="C322" t="n">
         <v>1</v>
@@ -3984,10 +3984,10 @@
     </row>
     <row r="323">
       <c r="A323" s="2" t="n">
-        <v>39692</v>
+        <v>39753</v>
       </c>
       <c r="B323" t="n">
-        <v>7859500000000</v>
+        <v>8015800000000</v>
       </c>
       <c r="C323" t="n">
         <v>1</v>
@@ -3995,10 +3995,10 @@
     </row>
     <row r="324">
       <c r="A324" s="2" t="n">
-        <v>39722</v>
+        <v>39783</v>
       </c>
       <c r="B324" t="n">
-        <v>7965300000000</v>
+        <v>8192100000000</v>
       </c>
       <c r="C324" t="n">
         <v>1</v>
@@ -4006,10 +4006,10 @@
     </row>
     <row r="325">
       <c r="A325" s="2" t="n">
-        <v>39753</v>
+        <v>39814</v>
       </c>
       <c r="B325" t="n">
-        <v>8015800000000</v>
+        <v>8273700000000</v>
       </c>
       <c r="C325" t="n">
         <v>1</v>
@@ -4017,10 +4017,10 @@
     </row>
     <row r="326">
       <c r="A326" s="2" t="n">
-        <v>39783</v>
+        <v>39845</v>
       </c>
       <c r="B326" t="n">
-        <v>8192100000000</v>
+        <v>8303100000000</v>
       </c>
       <c r="C326" t="n">
         <v>1</v>
@@ -4028,10 +4028,10 @@
     </row>
     <row r="327">
       <c r="A327" s="2" t="n">
-        <v>39814</v>
+        <v>39873</v>
       </c>
       <c r="B327" t="n">
-        <v>8273700000000</v>
+        <v>8369300000000</v>
       </c>
       <c r="C327" t="n">
         <v>1</v>
@@ -4039,10 +4039,10 @@
     </row>
     <row r="328">
       <c r="A328" s="2" t="n">
-        <v>39845</v>
+        <v>39904</v>
       </c>
       <c r="B328" t="n">
-        <v>8303100000000</v>
+        <v>8372900000000</v>
       </c>
       <c r="C328" t="n">
         <v>1</v>
@@ -4050,10 +4050,10 @@
     </row>
     <row r="329">
       <c r="A329" s="2" t="n">
-        <v>39873</v>
+        <v>39934</v>
       </c>
       <c r="B329" t="n">
-        <v>8369300000000</v>
+        <v>8430700000000</v>
       </c>
       <c r="C329" t="n">
         <v>1</v>
@@ -4061,10 +4061,10 @@
     </row>
     <row r="330">
       <c r="A330" s="2" t="n">
-        <v>39904</v>
+        <v>39965</v>
       </c>
       <c r="B330" t="n">
-        <v>8372900000000</v>
+        <v>8440500000000</v>
       </c>
       <c r="C330" t="n">
         <v>1</v>
@@ -4072,10 +4072,10 @@
     </row>
     <row r="331">
       <c r="A331" s="2" t="n">
-        <v>39934</v>
+        <v>39995</v>
       </c>
       <c r="B331" t="n">
-        <v>8430700000000</v>
+        <v>8445100000000</v>
       </c>
       <c r="C331" t="n">
         <v>1</v>
@@ -4083,10 +4083,10 @@
     </row>
     <row r="332">
       <c r="A332" s="2" t="n">
-        <v>39965</v>
+        <v>40026</v>
       </c>
       <c r="B332" t="n">
-        <v>8440500000000</v>
+        <v>8445000000000</v>
       </c>
       <c r="C332" t="n">
         <v>1</v>
@@ -4094,10 +4094,10 @@
     </row>
     <row r="333">
       <c r="A333" s="2" t="n">
-        <v>39995</v>
+        <v>40057</v>
       </c>
       <c r="B333" t="n">
-        <v>8445100000000</v>
+        <v>8444200000000</v>
       </c>
       <c r="C333" t="n">
         <v>1</v>
@@ -4105,10 +4105,10 @@
     </row>
     <row r="334">
       <c r="A334" s="2" t="n">
-        <v>40026</v>
+        <v>40087</v>
       </c>
       <c r="B334" t="n">
-        <v>8445000000000</v>
+        <v>8471100000000</v>
       </c>
       <c r="C334" t="n">
         <v>1</v>
@@ -4116,10 +4116,10 @@
     </row>
     <row r="335">
       <c r="A335" s="2" t="n">
-        <v>40057</v>
+        <v>40118</v>
       </c>
       <c r="B335" t="n">
-        <v>8444200000000</v>
+        <v>8500800000000</v>
       </c>
       <c r="C335" t="n">
         <v>1</v>
@@ -4127,10 +4127,10 @@
     </row>
     <row r="336">
       <c r="A336" s="2" t="n">
-        <v>40087</v>
+        <v>40148</v>
       </c>
       <c r="B336" t="n">
-        <v>8471100000000</v>
+        <v>8496000000000</v>
       </c>
       <c r="C336" t="n">
         <v>1</v>
@@ -4138,10 +4138,10 @@
     </row>
     <row r="337">
       <c r="A337" s="2" t="n">
-        <v>40118</v>
+        <v>40179</v>
       </c>
       <c r="B337" t="n">
-        <v>8500800000000</v>
+        <v>8458100000000</v>
       </c>
       <c r="C337" t="n">
         <v>1</v>
@@ -4149,10 +4149,10 @@
     </row>
     <row r="338">
       <c r="A338" s="2" t="n">
-        <v>40148</v>
+        <v>40210</v>
       </c>
       <c r="B338" t="n">
-        <v>8496000000000</v>
+        <v>8507400000000</v>
       </c>
       <c r="C338" t="n">
         <v>1</v>
@@ -4160,10 +4160,10 @@
     </row>
     <row r="339">
       <c r="A339" s="2" t="n">
-        <v>40179</v>
+        <v>40238</v>
       </c>
       <c r="B339" t="n">
-        <v>8458100000000</v>
+        <v>8504500000000</v>
       </c>
       <c r="C339" t="n">
         <v>1</v>
@@ -4171,10 +4171,10 @@
     </row>
     <row r="340">
       <c r="A340" s="2" t="n">
-        <v>40210</v>
+        <v>40269</v>
       </c>
       <c r="B340" t="n">
-        <v>8507400000000</v>
+        <v>8535200000000</v>
       </c>
       <c r="C340" t="n">
         <v>1</v>
@@ -4182,10 +4182,10 @@
     </row>
     <row r="341">
       <c r="A341" s="2" t="n">
-        <v>40238</v>
+        <v>40299</v>
       </c>
       <c r="B341" t="n">
-        <v>8504500000000</v>
+        <v>8589900000000</v>
       </c>
       <c r="C341" t="n">
         <v>1</v>
@@ -4193,10 +4193,10 @@
     </row>
     <row r="342">
       <c r="A342" s="2" t="n">
-        <v>40269</v>
+        <v>40330</v>
       </c>
       <c r="B342" t="n">
-        <v>8535200000000</v>
+        <v>8609000000000</v>
       </c>
       <c r="C342" t="n">
         <v>1</v>
@@ -4204,10 +4204,10 @@
     </row>
     <row r="343">
       <c r="A343" s="2" t="n">
-        <v>40299</v>
+        <v>40360</v>
       </c>
       <c r="B343" t="n">
-        <v>8589900000000</v>
+        <v>8618800000000</v>
       </c>
       <c r="C343" t="n">
         <v>1</v>
@@ -4215,10 +4215,10 @@
     </row>
     <row r="344">
       <c r="A344" s="2" t="n">
-        <v>40330</v>
+        <v>40391</v>
       </c>
       <c r="B344" t="n">
-        <v>8609000000000</v>
+        <v>8669100000000</v>
       </c>
       <c r="C344" t="n">
         <v>1</v>
@@ -4226,10 +4226,10 @@
     </row>
     <row r="345">
       <c r="A345" s="2" t="n">
-        <v>40360</v>
+        <v>40422</v>
       </c>
       <c r="B345" t="n">
-        <v>8618800000000</v>
+        <v>8700100000000</v>
       </c>
       <c r="C345" t="n">
         <v>1</v>
@@ -4237,10 +4237,10 @@
     </row>
     <row r="346">
       <c r="A346" s="2" t="n">
-        <v>40391</v>
+        <v>40452</v>
       </c>
       <c r="B346" t="n">
-        <v>8669100000000</v>
+        <v>8749400000000</v>
       </c>
       <c r="C346" t="n">
         <v>1</v>
@@ -4248,10 +4248,10 @@
     </row>
     <row r="347">
       <c r="A347" s="2" t="n">
-        <v>40422</v>
+        <v>40483</v>
       </c>
       <c r="B347" t="n">
-        <v>8700100000000</v>
+        <v>8770000000000</v>
       </c>
       <c r="C347" t="n">
         <v>1</v>
@@ -4259,10 +4259,10 @@
     </row>
     <row r="348">
       <c r="A348" s="2" t="n">
-        <v>40452</v>
+        <v>40513</v>
       </c>
       <c r="B348" t="n">
-        <v>8749400000000</v>
+        <v>8801800000000</v>
       </c>
       <c r="C348" t="n">
         <v>1</v>
@@ -4270,10 +4270,10 @@
     </row>
     <row r="349">
       <c r="A349" s="2" t="n">
-        <v>40483</v>
+        <v>40544</v>
       </c>
       <c r="B349" t="n">
-        <v>8770000000000</v>
+        <v>8823100000000</v>
       </c>
       <c r="C349" t="n">
         <v>1</v>
@@ -4281,10 +4281,10 @@
     </row>
     <row r="350">
       <c r="A350" s="2" t="n">
-        <v>40513</v>
+        <v>40575</v>
       </c>
       <c r="B350" t="n">
-        <v>8801800000000</v>
+        <v>8886900000000</v>
       </c>
       <c r="C350" t="n">
         <v>1</v>
@@ -4292,10 +4292,10 @@
     </row>
     <row r="351">
       <c r="A351" s="2" t="n">
-        <v>40544</v>
+        <v>40603</v>
       </c>
       <c r="B351" t="n">
-        <v>8823100000000</v>
+        <v>8943500000000</v>
       </c>
       <c r="C351" t="n">
         <v>1</v>
@@ -4303,10 +4303,10 @@
     </row>
     <row r="352">
       <c r="A352" s="2" t="n">
-        <v>40575</v>
+        <v>40634</v>
       </c>
       <c r="B352" t="n">
-        <v>8886900000000</v>
+        <v>9004900000000</v>
       </c>
       <c r="C352" t="n">
         <v>1</v>
@@ -4314,10 +4314,10 @@
     </row>
     <row r="353">
       <c r="A353" s="2" t="n">
-        <v>40603</v>
+        <v>40664</v>
       </c>
       <c r="B353" t="n">
-        <v>8943500000000</v>
+        <v>9075500000000</v>
       </c>
       <c r="C353" t="n">
         <v>1</v>
@@ -4325,10 +4325,10 @@
     </row>
     <row r="354">
       <c r="A354" s="2" t="n">
-        <v>40634</v>
+        <v>40695</v>
       </c>
       <c r="B354" t="n">
-        <v>9004900000000</v>
+        <v>9151000000000</v>
       </c>
       <c r="C354" t="n">
         <v>1</v>
@@ -4336,10 +4336,10 @@
     </row>
     <row r="355">
       <c r="A355" s="2" t="n">
-        <v>40664</v>
+        <v>40725</v>
       </c>
       <c r="B355" t="n">
-        <v>9075500000000</v>
+        <v>9316600000000</v>
       </c>
       <c r="C355" t="n">
         <v>1</v>
@@ -4347,10 +4347,10 @@
     </row>
     <row r="356">
       <c r="A356" s="2" t="n">
-        <v>40695</v>
+        <v>40756</v>
       </c>
       <c r="B356" t="n">
-        <v>9151000000000</v>
+        <v>9507600000000</v>
       </c>
       <c r="C356" t="n">
         <v>1</v>
@@ -4358,10 +4358,10 @@
     </row>
     <row r="357">
       <c r="A357" s="2" t="n">
-        <v>40725</v>
+        <v>40787</v>
       </c>
       <c r="B357" t="n">
-        <v>9316600000000</v>
+        <v>9528300000000</v>
       </c>
       <c r="C357" t="n">
         <v>1</v>
@@ -4369,10 +4369,10 @@
     </row>
     <row r="358">
       <c r="A358" s="2" t="n">
-        <v>40756</v>
+        <v>40817</v>
       </c>
       <c r="B358" t="n">
-        <v>9507600000000</v>
+        <v>9562100000000</v>
       </c>
       <c r="C358" t="n">
         <v>1</v>
@@ -4380,10 +4380,10 @@
     </row>
     <row r="359">
       <c r="A359" s="2" t="n">
-        <v>40787</v>
+        <v>40848</v>
       </c>
       <c r="B359" t="n">
-        <v>9528300000000</v>
+        <v>9612600000000</v>
       </c>
       <c r="C359" t="n">
         <v>1</v>
@@ -4391,10 +4391,10 @@
     </row>
     <row r="360">
       <c r="A360" s="2" t="n">
-        <v>40817</v>
+        <v>40878</v>
       </c>
       <c r="B360" t="n">
-        <v>9562100000000</v>
+        <v>9660100000000</v>
       </c>
       <c r="C360" t="n">
         <v>1</v>
@@ -4402,10 +4402,10 @@
     </row>
     <row r="361">
       <c r="A361" s="2" t="n">
-        <v>40848</v>
+        <v>40909</v>
       </c>
       <c r="B361" t="n">
-        <v>9612600000000</v>
+        <v>9733300000000</v>
       </c>
       <c r="C361" t="n">
         <v>1</v>
@@ -4413,10 +4413,10 @@
     </row>
     <row r="362">
       <c r="A362" s="2" t="n">
-        <v>40878</v>
+        <v>40940</v>
       </c>
       <c r="B362" t="n">
-        <v>9660100000000</v>
+        <v>9785700000000</v>
       </c>
       <c r="C362" t="n">
         <v>1</v>
@@ -4424,10 +4424,10 @@
     </row>
     <row r="363">
       <c r="A363" s="2" t="n">
-        <v>40909</v>
+        <v>40969</v>
       </c>
       <c r="B363" t="n">
-        <v>9733300000000</v>
+        <v>9830600000000</v>
       </c>
       <c r="C363" t="n">
         <v>1</v>
@@ -4435,10 +4435,10 @@
     </row>
     <row r="364">
       <c r="A364" s="2" t="n">
-        <v>40940</v>
+        <v>41000</v>
       </c>
       <c r="B364" t="n">
-        <v>9785700000000</v>
+        <v>9884600000000</v>
       </c>
       <c r="C364" t="n">
         <v>1</v>
@@ -4446,10 +4446,10 @@
     </row>
     <row r="365">
       <c r="A365" s="2" t="n">
-        <v>40969</v>
+        <v>41030</v>
       </c>
       <c r="B365" t="n">
-        <v>9830600000000</v>
+        <v>9928400000000</v>
       </c>
       <c r="C365" t="n">
         <v>1</v>
@@ -4457,10 +4457,10 @@
     </row>
     <row r="366">
       <c r="A366" s="2" t="n">
-        <v>41000</v>
+        <v>41061</v>
       </c>
       <c r="B366" t="n">
-        <v>9884600000000</v>
+        <v>9999300000000</v>
       </c>
       <c r="C366" t="n">
         <v>1</v>
@@ -4468,10 +4468,10 @@
     </row>
     <row r="367">
       <c r="A367" s="2" t="n">
-        <v>41030</v>
+        <v>41091</v>
       </c>
       <c r="B367" t="n">
-        <v>9928400000000</v>
+        <v>10051800000000</v>
       </c>
       <c r="C367" t="n">
         <v>1</v>
@@ -4479,10 +4479,10 @@
     </row>
     <row r="368">
       <c r="A368" s="2" t="n">
-        <v>41061</v>
+        <v>41122</v>
       </c>
       <c r="B368" t="n">
-        <v>9999300000000</v>
+        <v>10121300000000</v>
       </c>
       <c r="C368" t="n">
         <v>1</v>
@@ -4490,10 +4490,10 @@
     </row>
     <row r="369">
       <c r="A369" s="2" t="n">
-        <v>41091</v>
+        <v>41153</v>
       </c>
       <c r="B369" t="n">
-        <v>10051800000000</v>
+        <v>10200800000000</v>
       </c>
       <c r="C369" t="n">
         <v>1</v>
@@ -4501,10 +4501,10 @@
     </row>
     <row r="370">
       <c r="A370" s="2" t="n">
-        <v>41122</v>
+        <v>41183</v>
       </c>
       <c r="B370" t="n">
-        <v>10121300000000</v>
+        <v>10267300000000</v>
       </c>
       <c r="C370" t="n">
         <v>1</v>
@@ -4512,10 +4512,10 @@
     </row>
     <row r="371">
       <c r="A371" s="2" t="n">
-        <v>41153</v>
+        <v>41214</v>
       </c>
       <c r="B371" t="n">
-        <v>10200800000000</v>
+        <v>10337600000000</v>
       </c>
       <c r="C371" t="n">
         <v>1</v>
@@ -4523,10 +4523,10 @@
     </row>
     <row r="372">
       <c r="A372" s="2" t="n">
-        <v>41183</v>
+        <v>41244</v>
       </c>
       <c r="B372" t="n">
-        <v>10267300000000</v>
+        <v>10459700000000</v>
       </c>
       <c r="C372" t="n">
         <v>1</v>
@@ -4534,10 +4534,10 @@
     </row>
     <row r="373">
       <c r="A373" s="2" t="n">
-        <v>41214</v>
+        <v>41275</v>
       </c>
       <c r="B373" t="n">
-        <v>10337600000000</v>
+        <v>10482900000000</v>
       </c>
       <c r="C373" t="n">
         <v>1</v>
@@ -4545,10 +4545,10 @@
     </row>
     <row r="374">
       <c r="A374" s="2" t="n">
-        <v>41244</v>
+        <v>41306</v>
       </c>
       <c r="B374" t="n">
-        <v>10459700000000</v>
+        <v>10501300000000</v>
       </c>
       <c r="C374" t="n">
         <v>1</v>
@@ -4556,10 +4556,10 @@
     </row>
     <row r="375">
       <c r="A375" s="2" t="n">
-        <v>41275</v>
+        <v>41334</v>
       </c>
       <c r="B375" t="n">
-        <v>10482900000000</v>
+        <v>10558300000000</v>
       </c>
       <c r="C375" t="n">
         <v>1</v>
@@ -4567,10 +4567,10 @@
     </row>
     <row r="376">
       <c r="A376" s="2" t="n">
-        <v>41306</v>
+        <v>41365</v>
       </c>
       <c r="B376" t="n">
-        <v>10501300000000</v>
+        <v>10586300000000</v>
       </c>
       <c r="C376" t="n">
         <v>1</v>
@@ -4578,10 +4578,10 @@
     </row>
     <row r="377">
       <c r="A377" s="2" t="n">
-        <v>41334</v>
+        <v>41395</v>
       </c>
       <c r="B377" t="n">
-        <v>10558300000000</v>
+        <v>10621000000000</v>
       </c>
       <c r="C377" t="n">
         <v>1</v>
@@ -4589,10 +4589,10 @@
     </row>
     <row r="378">
       <c r="A378" s="2" t="n">
-        <v>41365</v>
+        <v>41426</v>
       </c>
       <c r="B378" t="n">
-        <v>10586300000000</v>
+        <v>10678700000000</v>
       </c>
       <c r="C378" t="n">
         <v>1</v>
@@ -4600,10 +4600,10 @@
     </row>
     <row r="379">
       <c r="A379" s="2" t="n">
-        <v>41395</v>
+        <v>41456</v>
       </c>
       <c r="B379" t="n">
-        <v>10621000000000</v>
+        <v>10718400000000</v>
       </c>
       <c r="C379" t="n">
         <v>1</v>
@@ -4611,10 +4611,10 @@
     </row>
     <row r="380">
       <c r="A380" s="2" t="n">
-        <v>41426</v>
+        <v>41487</v>
       </c>
       <c r="B380" t="n">
-        <v>10678700000000</v>
+        <v>10776600000000</v>
       </c>
       <c r="C380" t="n">
         <v>1</v>
@@ -4622,10 +4622,10 @@
     </row>
     <row r="381">
       <c r="A381" s="2" t="n">
-        <v>41456</v>
+        <v>41518</v>
       </c>
       <c r="B381" t="n">
-        <v>10718400000000</v>
+        <v>10837200000000</v>
       </c>
       <c r="C381" t="n">
         <v>1</v>
@@ -4633,10 +4633,10 @@
     </row>
     <row r="382">
       <c r="A382" s="2" t="n">
-        <v>41487</v>
+        <v>41548</v>
       </c>
       <c r="B382" t="n">
-        <v>10776600000000</v>
+        <v>10961600000000</v>
       </c>
       <c r="C382" t="n">
         <v>1</v>
@@ -4644,10 +4644,10 @@
     </row>
     <row r="383">
       <c r="A383" s="2" t="n">
-        <v>41518</v>
+        <v>41579</v>
       </c>
       <c r="B383" t="n">
-        <v>10837200000000</v>
+        <v>10969700000000</v>
       </c>
       <c r="C383" t="n">
         <v>1</v>
@@ -4655,10 +4655,10 @@
     </row>
     <row r="384">
       <c r="A384" s="2" t="n">
-        <v>41548</v>
+        <v>41609</v>
       </c>
       <c r="B384" t="n">
-        <v>10961600000000</v>
+        <v>11035000000000</v>
       </c>
       <c r="C384" t="n">
         <v>1</v>
@@ -4666,10 +4666,10 @@
     </row>
     <row r="385">
       <c r="A385" s="2" t="n">
-        <v>41579</v>
+        <v>41640</v>
       </c>
       <c r="B385" t="n">
-        <v>10969700000000</v>
+        <v>11080800000000</v>
       </c>
       <c r="C385" t="n">
         <v>1</v>
@@ -4677,10 +4677,10 @@
     </row>
     <row r="386">
       <c r="A386" s="2" t="n">
-        <v>41609</v>
+        <v>41671</v>
       </c>
       <c r="B386" t="n">
-        <v>11035000000000</v>
+        <v>11178800000000</v>
       </c>
       <c r="C386" t="n">
         <v>1</v>
@@ -4688,10 +4688,10 @@
     </row>
     <row r="387">
       <c r="A387" s="2" t="n">
-        <v>41640</v>
+        <v>41699</v>
       </c>
       <c r="B387" t="n">
-        <v>11080800000000</v>
+        <v>11208100000000</v>
       </c>
       <c r="C387" t="n">
         <v>1</v>
@@ -4699,10 +4699,10 @@
     </row>
     <row r="388">
       <c r="A388" s="2" t="n">
-        <v>41671</v>
+        <v>41730</v>
       </c>
       <c r="B388" t="n">
-        <v>11178800000000</v>
+        <v>11257700000000</v>
       </c>
       <c r="C388" t="n">
         <v>1</v>
@@ -4710,10 +4710,10 @@
     </row>
     <row r="389">
       <c r="A389" s="2" t="n">
-        <v>41699</v>
+        <v>41760</v>
       </c>
       <c r="B389" t="n">
-        <v>11208100000000</v>
+        <v>11321000000000</v>
       </c>
       <c r="C389" t="n">
         <v>1</v>
@@ -4721,10 +4721,10 @@
     </row>
     <row r="390">
       <c r="A390" s="2" t="n">
-        <v>41730</v>
+        <v>41791</v>
       </c>
       <c r="B390" t="n">
-        <v>11257700000000</v>
+        <v>11374900000000</v>
       </c>
       <c r="C390" t="n">
         <v>1</v>
@@ -4732,10 +4732,10 @@
     </row>
     <row r="391">
       <c r="A391" s="2" t="n">
-        <v>41760</v>
+        <v>41821</v>
       </c>
       <c r="B391" t="n">
-        <v>11321000000000</v>
+        <v>11429900000000</v>
       </c>
       <c r="C391" t="n">
         <v>1</v>
@@ -4743,10 +4743,10 @@
     </row>
     <row r="392">
       <c r="A392" s="2" t="n">
-        <v>41791</v>
+        <v>41852</v>
       </c>
       <c r="B392" t="n">
-        <v>11374900000000</v>
+        <v>11458900000000</v>
       </c>
       <c r="C392" t="n">
         <v>1</v>
@@ -4754,10 +4754,10 @@
     </row>
     <row r="393">
       <c r="A393" s="2" t="n">
-        <v>41821</v>
+        <v>41883</v>
       </c>
       <c r="B393" t="n">
-        <v>11429900000000</v>
+        <v>11499800000000</v>
       </c>
       <c r="C393" t="n">
         <v>1</v>
@@ -4765,10 +4765,10 @@
     </row>
     <row r="394">
       <c r="A394" s="2" t="n">
-        <v>41852</v>
+        <v>41913</v>
       </c>
       <c r="B394" t="n">
-        <v>11458900000000</v>
+        <v>11566000000000</v>
       </c>
       <c r="C394" t="n">
         <v>1</v>
@@ -4776,10 +4776,10 @@
     </row>
     <row r="395">
       <c r="A395" s="2" t="n">
-        <v>41883</v>
+        <v>41944</v>
       </c>
       <c r="B395" t="n">
-        <v>11499800000000</v>
+        <v>11604800000000</v>
       </c>
       <c r="C395" t="n">
         <v>1</v>
@@ -4787,10 +4787,10 @@
     </row>
     <row r="396">
       <c r="A396" s="2" t="n">
-        <v>41913</v>
+        <v>41974</v>
       </c>
       <c r="B396" t="n">
-        <v>11566000000000</v>
+        <v>11684900000000</v>
       </c>
       <c r="C396" t="n">
         <v>1</v>
@@ -4798,10 +4798,10 @@
     </row>
     <row r="397">
       <c r="A397" s="2" t="n">
-        <v>41944</v>
+        <v>42005</v>
       </c>
       <c r="B397" t="n">
-        <v>11604800000000</v>
+        <v>11745600000000</v>
       </c>
       <c r="C397" t="n">
         <v>1</v>
@@ -4809,10 +4809,10 @@
     </row>
     <row r="398">
       <c r="A398" s="2" t="n">
-        <v>41974</v>
+        <v>42036</v>
       </c>
       <c r="B398" t="n">
-        <v>11684900000000</v>
+        <v>11879000000000</v>
       </c>
       <c r="C398" t="n">
         <v>1</v>
@@ -4820,10 +4820,10 @@
     </row>
     <row r="399">
       <c r="A399" s="2" t="n">
-        <v>42005</v>
+        <v>42064</v>
       </c>
       <c r="B399" t="n">
-        <v>11745600000000</v>
+        <v>11886800000000</v>
       </c>
       <c r="C399" t="n">
         <v>1</v>
@@ -4831,10 +4831,10 @@
     </row>
     <row r="400">
       <c r="A400" s="2" t="n">
-        <v>42036</v>
+        <v>42095</v>
       </c>
       <c r="B400" t="n">
-        <v>11879000000000</v>
+        <v>11928900000000</v>
       </c>
       <c r="C400" t="n">
         <v>1</v>
@@ -4842,10 +4842,10 @@
     </row>
     <row r="401">
       <c r="A401" s="2" t="n">
-        <v>42064</v>
+        <v>42125</v>
       </c>
       <c r="B401" t="n">
-        <v>11886800000000</v>
+        <v>11957900000000</v>
       </c>
       <c r="C401" t="n">
         <v>1</v>
@@ -4853,10 +4853,10 @@
     </row>
     <row r="402">
       <c r="A402" s="2" t="n">
-        <v>42095</v>
+        <v>42156</v>
       </c>
       <c r="B402" t="n">
-        <v>11928900000000</v>
+        <v>12001700000000</v>
       </c>
       <c r="C402" t="n">
         <v>1</v>
@@ -4864,10 +4864,10 @@
     </row>
     <row r="403">
       <c r="A403" s="2" t="n">
-        <v>42125</v>
+        <v>42186</v>
       </c>
       <c r="B403" t="n">
-        <v>11957900000000</v>
+        <v>12051300000000</v>
       </c>
       <c r="C403" t="n">
         <v>1</v>
@@ -4875,10 +4875,10 @@
     </row>
     <row r="404">
       <c r="A404" s="2" t="n">
-        <v>42156</v>
+        <v>42217</v>
       </c>
       <c r="B404" t="n">
-        <v>12001700000000</v>
+        <v>12101900000000</v>
       </c>
       <c r="C404" t="n">
         <v>1</v>
@@ -4886,10 +4886,10 @@
     </row>
     <row r="405">
       <c r="A405" s="2" t="n">
-        <v>42186</v>
+        <v>42248</v>
       </c>
       <c r="B405" t="n">
-        <v>12051300000000</v>
+        <v>12160800000000</v>
       </c>
       <c r="C405" t="n">
         <v>1</v>
@@ -4897,10 +4897,10 @@
     </row>
     <row r="406">
       <c r="A406" s="2" t="n">
-        <v>42217</v>
+        <v>42278</v>
       </c>
       <c r="B406" t="n">
-        <v>12101900000000</v>
+        <v>12195900000000</v>
       </c>
       <c r="C406" t="n">
         <v>1</v>
@@ -4908,10 +4908,10 @@
     </row>
     <row r="407">
       <c r="A407" s="2" t="n">
-        <v>42248</v>
+        <v>42309</v>
       </c>
       <c r="B407" t="n">
-        <v>12160800000000</v>
+        <v>12284600000000</v>
       </c>
       <c r="C407" t="n">
         <v>1</v>
@@ -4919,10 +4919,10 @@
     </row>
     <row r="408">
       <c r="A408" s="2" t="n">
-        <v>42278</v>
+        <v>42339</v>
       </c>
       <c r="B408" t="n">
-        <v>12195900000000</v>
+        <v>12346800000000</v>
       </c>
       <c r="C408" t="n">
         <v>1</v>
@@ -4930,10 +4930,10 @@
     </row>
     <row r="409">
       <c r="A409" s="2" t="n">
-        <v>42309</v>
+        <v>42370</v>
       </c>
       <c r="B409" t="n">
-        <v>12284600000000</v>
+        <v>12469900000000</v>
       </c>
       <c r="C409" t="n">
         <v>1</v>
@@ -4941,10 +4941,10 @@
     </row>
     <row r="410">
       <c r="A410" s="2" t="n">
-        <v>42339</v>
+        <v>42401</v>
       </c>
       <c r="B410" t="n">
-        <v>12346800000000</v>
+        <v>12556700000000</v>
       </c>
       <c r="C410" t="n">
         <v>1</v>
@@ -4952,10 +4952,10 @@
     </row>
     <row r="411">
       <c r="A411" s="2" t="n">
-        <v>42370</v>
+        <v>42430</v>
       </c>
       <c r="B411" t="n">
-        <v>12469900000000</v>
+        <v>12616700000000</v>
       </c>
       <c r="C411" t="n">
         <v>1</v>
@@ -4963,10 +4963,10 @@
     </row>
     <row r="412">
       <c r="A412" s="2" t="n">
-        <v>42401</v>
+        <v>42461</v>
       </c>
       <c r="B412" t="n">
-        <v>12556700000000</v>
+        <v>12700400000000</v>
       </c>
       <c r="C412" t="n">
         <v>1</v>
@@ -4974,10 +4974,10 @@
     </row>
     <row r="413">
       <c r="A413" s="2" t="n">
-        <v>42430</v>
+        <v>42491</v>
       </c>
       <c r="B413" t="n">
-        <v>12616700000000</v>
+        <v>12766200000000</v>
       </c>
       <c r="C413" t="n">
         <v>1</v>
@@ -4985,10 +4985,10 @@
     </row>
     <row r="414">
       <c r="A414" s="2" t="n">
-        <v>42461</v>
+        <v>42522</v>
       </c>
       <c r="B414" t="n">
-        <v>12700400000000</v>
+        <v>12829400000000</v>
       </c>
       <c r="C414" t="n">
         <v>1</v>
@@ -4996,10 +4996,10 @@
     </row>
     <row r="415">
       <c r="A415" s="2" t="n">
-        <v>42491</v>
+        <v>42552</v>
       </c>
       <c r="B415" t="n">
-        <v>12766200000000</v>
+        <v>12887700000000</v>
       </c>
       <c r="C415" t="n">
         <v>1</v>
@@ -5007,10 +5007,10 @@
     </row>
     <row r="416">
       <c r="A416" s="2" t="n">
-        <v>42522</v>
+        <v>42583</v>
       </c>
       <c r="B416" t="n">
-        <v>12829400000000</v>
+        <v>12972800000000</v>
       </c>
       <c r="C416" t="n">
         <v>1</v>
@@ -5018,10 +5018,10 @@
     </row>
     <row r="417">
       <c r="A417" s="2" t="n">
-        <v>42552</v>
+        <v>42614</v>
       </c>
       <c r="B417" t="n">
-        <v>12887700000000</v>
+        <v>13033600000000</v>
       </c>
       <c r="C417" t="n">
         <v>1</v>
@@ -5029,10 +5029,10 @@
     </row>
     <row r="418">
       <c r="A418" s="2" t="n">
-        <v>42583</v>
+        <v>42644</v>
       </c>
       <c r="B418" t="n">
-        <v>12972800000000</v>
+        <v>13100500000000</v>
       </c>
       <c r="C418" t="n">
         <v>1</v>
@@ -5040,10 +5040,10 @@
     </row>
     <row r="419">
       <c r="A419" s="2" t="n">
-        <v>42614</v>
+        <v>42675</v>
       </c>
       <c r="B419" t="n">
-        <v>13033600000000</v>
+        <v>13173400000000</v>
       </c>
       <c r="C419" t="n">
         <v>1</v>
@@ -5051,10 +5051,10 @@
     </row>
     <row r="420">
       <c r="A420" s="2" t="n">
-        <v>42644</v>
+        <v>42705</v>
       </c>
       <c r="B420" t="n">
-        <v>13100500000000</v>
+        <v>13213400000000</v>
       </c>
       <c r="C420" t="n">
         <v>1</v>
@@ -5062,10 +5062,10 @@
     </row>
     <row r="421">
       <c r="A421" s="2" t="n">
-        <v>42675</v>
+        <v>42736</v>
       </c>
       <c r="B421" t="n">
-        <v>13173400000000</v>
+        <v>13283400000000</v>
       </c>
       <c r="C421" t="n">
         <v>1</v>
@@ -5073,10 +5073,10 @@
     </row>
     <row r="422">
       <c r="A422" s="2" t="n">
-        <v>42705</v>
+        <v>42767</v>
       </c>
       <c r="B422" t="n">
-        <v>13213400000000</v>
+        <v>13358800000000</v>
       </c>
       <c r="C422" t="n">
         <v>1</v>
@@ -5084,10 +5084,10 @@
     </row>
     <row r="423">
       <c r="A423" s="2" t="n">
-        <v>42736</v>
+        <v>42795</v>
       </c>
       <c r="B423" t="n">
-        <v>13283400000000</v>
+        <v>13426900000000</v>
       </c>
       <c r="C423" t="n">
         <v>1</v>
@@ -5095,10 +5095,10 @@
     </row>
     <row r="424">
       <c r="A424" s="2" t="n">
-        <v>42767</v>
+        <v>42826</v>
       </c>
       <c r="B424" t="n">
-        <v>13358800000000</v>
+        <v>13484900000000</v>
       </c>
       <c r="C424" t="n">
         <v>1</v>
@@ -5106,10 +5106,10 @@
     </row>
     <row r="425">
       <c r="A425" s="2" t="n">
-        <v>42795</v>
+        <v>42856</v>
       </c>
       <c r="B425" t="n">
-        <v>13426900000000</v>
+        <v>13538100000000</v>
       </c>
       <c r="C425" t="n">
         <v>1</v>
@@ -5117,10 +5117,10 @@
     </row>
     <row r="426">
       <c r="A426" s="2" t="n">
-        <v>42826</v>
+        <v>42887</v>
       </c>
       <c r="B426" t="n">
-        <v>13484900000000</v>
+        <v>13559200000000</v>
       </c>
       <c r="C426" t="n">
         <v>1</v>
@@ -5128,10 +5128,10 @@
     </row>
     <row r="427">
       <c r="A427" s="2" t="n">
-        <v>42856</v>
+        <v>42917</v>
       </c>
       <c r="B427" t="n">
-        <v>13538100000000</v>
+        <v>13618700000000</v>
       </c>
       <c r="C427" t="n">
         <v>1</v>
@@ -5139,10 +5139,10 @@
     </row>
     <row r="428">
       <c r="A428" s="2" t="n">
-        <v>42887</v>
+        <v>42948</v>
       </c>
       <c r="B428" t="n">
-        <v>13559200000000</v>
+        <v>13673700000000</v>
       </c>
       <c r="C428" t="n">
         <v>1</v>
@@ -5150,10 +5150,10 @@
     </row>
     <row r="429">
       <c r="A429" s="2" t="n">
-        <v>42917</v>
+        <v>42979</v>
       </c>
       <c r="B429" t="n">
-        <v>13618700000000</v>
+        <v>13717900000000</v>
       </c>
       <c r="C429" t="n">
         <v>1</v>
@@ -5161,10 +5161,10 @@
     </row>
     <row r="430">
       <c r="A430" s="2" t="n">
-        <v>42948</v>
+        <v>43009</v>
       </c>
       <c r="B430" t="n">
-        <v>13673700000000</v>
+        <v>13770100000000</v>
       </c>
       <c r="C430" t="n">
         <v>1</v>
@@ -5172,10 +5172,10 @@
     </row>
     <row r="431">
       <c r="A431" s="2" t="n">
-        <v>42979</v>
+        <v>43040</v>
       </c>
       <c r="B431" t="n">
-        <v>13717900000000</v>
+        <v>13799900000000</v>
       </c>
       <c r="C431" t="n">
         <v>1</v>
@@ -5183,10 +5183,10 @@
     </row>
     <row r="432">
       <c r="A432" s="2" t="n">
-        <v>43009</v>
+        <v>43070</v>
       </c>
       <c r="B432" t="n">
-        <v>13770100000000</v>
+        <v>13857900000000</v>
       </c>
       <c r="C432" t="n">
         <v>1</v>
@@ -5194,10 +5194,10 @@
     </row>
     <row r="433">
       <c r="A433" s="2" t="n">
-        <v>43040</v>
+        <v>43101</v>
       </c>
       <c r="B433" t="n">
-        <v>13799900000000</v>
+        <v>13869700000000</v>
       </c>
       <c r="C433" t="n">
         <v>1</v>
@@ -5205,10 +5205,10 @@
     </row>
     <row r="434">
       <c r="A434" s="2" t="n">
-        <v>43070</v>
+        <v>43132</v>
       </c>
       <c r="B434" t="n">
-        <v>13857900000000</v>
+        <v>13912300000000</v>
       </c>
       <c r="C434" t="n">
         <v>1</v>
@@ -5216,10 +5216,10 @@
     </row>
     <row r="435">
       <c r="A435" s="2" t="n">
-        <v>43101</v>
+        <v>43160</v>
       </c>
       <c r="B435" t="n">
-        <v>13869700000000</v>
+        <v>13970200000000</v>
       </c>
       <c r="C435" t="n">
         <v>1</v>
@@ -5227,10 +5227,10 @@
     </row>
     <row r="436">
       <c r="A436" s="2" t="n">
-        <v>43132</v>
+        <v>43191</v>
       </c>
       <c r="B436" t="n">
-        <v>13912300000000</v>
+        <v>13988800000000</v>
       </c>
       <c r="C436" t="n">
         <v>1</v>
@@ -5238,10 +5238,10 @@
     </row>
     <row r="437">
       <c r="A437" s="2" t="n">
-        <v>43160</v>
+        <v>43221</v>
       </c>
       <c r="B437" t="n">
-        <v>13970200000000</v>
+        <v>14047200000000</v>
       </c>
       <c r="C437" t="n">
         <v>1</v>
@@ -5249,10 +5249,10 @@
     </row>
     <row r="438">
       <c r="A438" s="2" t="n">
-        <v>43191</v>
+        <v>43252</v>
       </c>
       <c r="B438" t="n">
-        <v>13988800000000</v>
+        <v>14103600000000</v>
       </c>
       <c r="C438" t="n">
         <v>1</v>
@@ -5260,10 +5260,10 @@
     </row>
     <row r="439">
       <c r="A439" s="2" t="n">
-        <v>43221</v>
+        <v>43282</v>
       </c>
       <c r="B439" t="n">
-        <v>14047200000000</v>
+        <v>14139200000000</v>
       </c>
       <c r="C439" t="n">
         <v>1</v>
@@ -5271,10 +5271,10 @@
     </row>
     <row r="440">
       <c r="A440" s="2" t="n">
-        <v>43252</v>
+        <v>43313</v>
       </c>
       <c r="B440" t="n">
-        <v>14103600000000</v>
+        <v>14181300000000</v>
       </c>
       <c r="C440" t="n">
         <v>1</v>
@@ -5282,10 +5282,10 @@
     </row>
     <row r="441">
       <c r="A441" s="2" t="n">
-        <v>43282</v>
+        <v>43344</v>
       </c>
       <c r="B441" t="n">
-        <v>14139200000000</v>
+        <v>14212900000000</v>
       </c>
       <c r="C441" t="n">
         <v>1</v>
@@ -5293,10 +5293,10 @@
     </row>
     <row r="442">
       <c r="A442" s="2" t="n">
-        <v>43313</v>
+        <v>43374</v>
       </c>
       <c r="B442" t="n">
-        <v>14181300000000</v>
+        <v>14222500000000</v>
       </c>
       <c r="C442" t="n">
         <v>1</v>
@@ -5304,10 +5304,10 @@
     </row>
     <row r="443">
       <c r="A443" s="2" t="n">
-        <v>43344</v>
+        <v>43405</v>
       </c>
       <c r="B443" t="n">
-        <v>14212900000000</v>
+        <v>14236800000000</v>
       </c>
       <c r="C443" t="n">
         <v>1</v>
@@ -5315,10 +5315,10 @@
     </row>
     <row r="444">
       <c r="A444" s="2" t="n">
-        <v>43374</v>
+        <v>43435</v>
       </c>
       <c r="B444" t="n">
-        <v>14222500000000</v>
+        <v>14362700000000</v>
       </c>
       <c r="C444" t="n">
         <v>1</v>
@@ -5326,10 +5326,10 @@
     </row>
     <row r="445">
       <c r="A445" s="2" t="n">
-        <v>43405</v>
+        <v>43466</v>
       </c>
       <c r="B445" t="n">
-        <v>14236800000000</v>
+        <v>14430000000000</v>
       </c>
       <c r="C445" t="n">
         <v>1</v>
@@ -5337,10 +5337,10 @@
     </row>
     <row r="446">
       <c r="A446" s="2" t="n">
-        <v>43435</v>
+        <v>43497</v>
       </c>
       <c r="B446" t="n">
-        <v>14362700000000</v>
+        <v>14469900000000</v>
       </c>
       <c r="C446" t="n">
         <v>1</v>
@@ -5348,10 +5348,10 @@
     </row>
     <row r="447">
       <c r="A447" s="2" t="n">
-        <v>43466</v>
+        <v>43525</v>
       </c>
       <c r="B447" t="n">
-        <v>14430000000000</v>
+        <v>14509900000000</v>
       </c>
       <c r="C447" t="n">
         <v>1</v>
@@ -5359,10 +5359,10 @@
     </row>
     <row r="448">
       <c r="A448" s="2" t="n">
-        <v>43497</v>
+        <v>43556</v>
       </c>
       <c r="B448" t="n">
-        <v>14469900000000</v>
+        <v>14541000000000</v>
       </c>
       <c r="C448" t="n">
         <v>1</v>
@@ -5370,10 +5370,10 @@
     </row>
     <row r="449">
       <c r="A449" s="2" t="n">
-        <v>43525</v>
+        <v>43586</v>
       </c>
       <c r="B449" t="n">
-        <v>14509900000000</v>
+        <v>14643200000000</v>
       </c>
       <c r="C449" t="n">
         <v>1</v>
@@ -5381,10 +5381,10 @@
     </row>
     <row r="450">
       <c r="A450" s="2" t="n">
-        <v>43556</v>
+        <v>43617</v>
       </c>
       <c r="B450" t="n">
-        <v>14541000000000</v>
+        <v>14757700000000</v>
       </c>
       <c r="C450" t="n">
         <v>1</v>
@@ -5392,10 +5392,10 @@
     </row>
     <row r="451">
       <c r="A451" s="2" t="n">
-        <v>43586</v>
+        <v>43647</v>
       </c>
       <c r="B451" t="n">
-        <v>14643200000000</v>
+        <v>14840600000000</v>
       </c>
       <c r="C451" t="n">
         <v>1</v>
@@ -5403,10 +5403,10 @@
     </row>
     <row r="452">
       <c r="A452" s="2" t="n">
-        <v>43617</v>
+        <v>43678</v>
       </c>
       <c r="B452" t="n">
-        <v>14757700000000</v>
+        <v>14914600000000</v>
       </c>
       <c r="C452" t="n">
         <v>1</v>
@@ -5414,10 +5414,10 @@
     </row>
     <row r="453">
       <c r="A453" s="2" t="n">
-        <v>43647</v>
+        <v>43709</v>
       </c>
       <c r="B453" t="n">
-        <v>14840600000000</v>
+        <v>15008100000000</v>
       </c>
       <c r="C453" t="n">
         <v>1</v>
@@ -5425,10 +5425,10 @@
     </row>
     <row r="454">
       <c r="A454" s="2" t="n">
-        <v>43678</v>
+        <v>43739</v>
       </c>
       <c r="B454" t="n">
-        <v>14914600000000</v>
+        <v>15140800000000</v>
       </c>
       <c r="C454" t="n">
         <v>1</v>
@@ -5436,10 +5436,10 @@
     </row>
     <row r="455">
       <c r="A455" s="2" t="n">
-        <v>43709</v>
+        <v>43770</v>
       </c>
       <c r="B455" t="n">
-        <v>15008100000000</v>
+        <v>15242200000000</v>
       </c>
       <c r="C455" t="n">
         <v>1</v>
@@ -5447,10 +5447,10 @@
     </row>
     <row r="456">
       <c r="A456" s="2" t="n">
-        <v>43739</v>
+        <v>43800</v>
       </c>
       <c r="B456" t="n">
-        <v>15140800000000</v>
+        <v>15320700000000</v>
       </c>
       <c r="C456" t="n">
         <v>1</v>
@@ -5458,10 +5458,10 @@
     </row>
     <row r="457">
       <c r="A457" s="2" t="n">
-        <v>43770</v>
+        <v>43831</v>
       </c>
       <c r="B457" t="n">
-        <v>15242200000000</v>
+        <v>15396000000000</v>
       </c>
       <c r="C457" t="n">
         <v>1</v>
@@ -5469,10 +5469,10 @@
     </row>
     <row r="458">
       <c r="A458" s="2" t="n">
-        <v>43800</v>
+        <v>43862</v>
       </c>
       <c r="B458" t="n">
-        <v>15320700000000</v>
+        <v>15450300000000</v>
       </c>
       <c r="C458" t="n">
         <v>1</v>
@@ -5480,10 +5480,10 @@
     </row>
     <row r="459">
       <c r="A459" s="2" t="n">
-        <v>43831</v>
+        <v>43891</v>
       </c>
       <c r="B459" t="n">
-        <v>15396000000000</v>
+        <v>15978700000000</v>
       </c>
       <c r="C459" t="n">
         <v>1</v>
@@ -5491,10 +5491,10 @@
     </row>
     <row r="460">
       <c r="A460" s="2" t="n">
-        <v>43862</v>
+        <v>43922</v>
       </c>
       <c r="B460" t="n">
-        <v>15450300000000</v>
+        <v>16997600000000</v>
       </c>
       <c r="C460" t="n">
         <v>1</v>
@@ -5502,10 +5502,10 @@
     </row>
     <row r="461">
       <c r="A461" s="2" t="n">
-        <v>43891</v>
+        <v>43952</v>
       </c>
       <c r="B461" t="n">
-        <v>15978700000000</v>
+        <v>17851100000000</v>
       </c>
       <c r="C461" t="n">
         <v>1</v>
@@ -5513,10 +5513,10 @@
     </row>
     <row r="462">
       <c r="A462" s="2" t="n">
-        <v>43922</v>
+        <v>43983</v>
       </c>
       <c r="B462" t="n">
-        <v>16997600000000</v>
+        <v>18131700000000</v>
       </c>
       <c r="C462" t="n">
         <v>1</v>
@@ -5524,10 +5524,10 @@
     </row>
     <row r="463">
       <c r="A463" s="2" t="n">
-        <v>43952</v>
+        <v>44013</v>
       </c>
       <c r="B463" t="n">
-        <v>17851100000000</v>
+        <v>18286300000000</v>
       </c>
       <c r="C463" t="n">
         <v>1</v>
@@ -5535,10 +5535,10 @@
     </row>
     <row r="464">
       <c r="A464" s="2" t="n">
-        <v>43983</v>
+        <v>44044</v>
       </c>
       <c r="B464" t="n">
-        <v>18131700000000</v>
+        <v>18346000000000</v>
       </c>
       <c r="C464" t="n">
         <v>1</v>
@@ -5546,10 +5546,10 @@
     </row>
     <row r="465">
       <c r="A465" s="2" t="n">
-        <v>44013</v>
+        <v>44075</v>
       </c>
       <c r="B465" t="n">
-        <v>18286300000000</v>
+        <v>18577300000000</v>
       </c>
       <c r="C465" t="n">
         <v>1</v>
@@ -5557,10 +5557,10 @@
     </row>
     <row r="466">
       <c r="A466" s="2" t="n">
-        <v>44044</v>
+        <v>44105</v>
       </c>
       <c r="B466" t="n">
-        <v>18346000000000</v>
+        <v>18729100000000</v>
       </c>
       <c r="C466" t="n">
         <v>1</v>
@@ -5568,10 +5568,10 @@
     </row>
     <row r="467">
       <c r="A467" s="2" t="n">
-        <v>44075</v>
+        <v>44136</v>
       </c>
       <c r="B467" t="n">
-        <v>18577300000000</v>
+        <v>18949300000000</v>
       </c>
       <c r="C467" t="n">
         <v>1</v>
@@ -5579,10 +5579,10 @@
     </row>
     <row r="468">
       <c r="A468" s="2" t="n">
-        <v>44105</v>
+        <v>44166</v>
       </c>
       <c r="B468" t="n">
-        <v>18729100000000</v>
+        <v>19114400000000</v>
       </c>
       <c r="C468" t="n">
         <v>1</v>
@@ -5590,10 +5590,10 @@
     </row>
     <row r="469">
       <c r="A469" s="2" t="n">
-        <v>44136</v>
+        <v>44197</v>
       </c>
       <c r="B469" t="n">
-        <v>18949300000000</v>
+        <v>19357000000000</v>
       </c>
       <c r="C469" t="n">
         <v>1</v>
@@ -5601,10 +5601,10 @@
     </row>
     <row r="470">
       <c r="A470" s="2" t="n">
-        <v>44166</v>
+        <v>44228</v>
       </c>
       <c r="B470" t="n">
-        <v>19114400000000</v>
+        <v>19600500000000</v>
       </c>
       <c r="C470" t="n">
         <v>1</v>
@@ -5612,10 +5612,10 @@
     </row>
     <row r="471">
       <c r="A471" s="2" t="n">
-        <v>44197</v>
+        <v>44256</v>
       </c>
       <c r="B471" t="n">
-        <v>19356900000000</v>
+        <v>19841000000000</v>
       </c>
       <c r="C471" t="n">
         <v>1</v>
@@ -5623,10 +5623,10 @@
     </row>
     <row r="472">
       <c r="A472" s="2" t="n">
-        <v>44228</v>
+        <v>44287</v>
       </c>
       <c r="B472" t="n">
-        <v>19600400000000</v>
+        <v>20116900000000</v>
       </c>
       <c r="C472" t="n">
         <v>1</v>
@@ -5634,10 +5634,10 @@
     </row>
     <row r="473">
       <c r="A473" s="2" t="n">
-        <v>44256</v>
+        <v>44317</v>
       </c>
       <c r="B473" t="n">
-        <v>19841000000000</v>
+        <v>20431100000000</v>
       </c>
       <c r="C473" t="n">
         <v>1</v>
@@ -5645,10 +5645,10 @@
     </row>
     <row r="474">
       <c r="A474" s="2" t="n">
-        <v>44287</v>
+        <v>44348</v>
       </c>
       <c r="B474" t="n">
-        <v>20116900000000</v>
+        <v>20506600000000</v>
       </c>
       <c r="C474" t="n">
         <v>1</v>
@@ -5656,10 +5656,10 @@
     </row>
     <row r="475">
       <c r="A475" s="2" t="n">
-        <v>44317</v>
+        <v>44378</v>
       </c>
       <c r="B475" t="n">
-        <v>20431100000000</v>
+        <v>20663000000000</v>
       </c>
       <c r="C475" t="n">
         <v>1</v>
@@ -5667,10 +5667,10 @@
     </row>
     <row r="476">
       <c r="A476" s="2" t="n">
-        <v>44348</v>
+        <v>44409</v>
       </c>
       <c r="B476" t="n">
-        <v>20506500000000</v>
+        <v>20847900000000</v>
       </c>
       <c r="C476" t="n">
         <v>1</v>
@@ -5678,10 +5678,10 @@
     </row>
     <row r="477">
       <c r="A477" s="2" t="n">
-        <v>44378</v>
+        <v>44440</v>
       </c>
       <c r="B477" t="n">
-        <v>20663000000000</v>
+        <v>20964300000000</v>
       </c>
       <c r="C477" t="n">
         <v>1</v>
@@ -5689,10 +5689,10 @@
     </row>
     <row r="478">
       <c r="A478" s="2" t="n">
-        <v>44409</v>
+        <v>44470</v>
       </c>
       <c r="B478" t="n">
-        <v>20847800000000</v>
+        <v>21116300000000</v>
       </c>
       <c r="C478" t="n">
         <v>1</v>
@@ -5700,10 +5700,10 @@
     </row>
     <row r="479">
       <c r="A479" s="2" t="n">
-        <v>44440</v>
+        <v>44501</v>
       </c>
       <c r="B479" t="n">
-        <v>20964300000000</v>
+        <v>21316300000000</v>
       </c>
       <c r="C479" t="n">
         <v>1</v>
@@ -5711,10 +5711,10 @@
     </row>
     <row r="480">
       <c r="A480" s="2" t="n">
-        <v>44470</v>
+        <v>44531</v>
       </c>
       <c r="B480" t="n">
-        <v>21116300000000</v>
+        <v>21549300000000</v>
       </c>
       <c r="C480" t="n">
         <v>1</v>
@@ -5722,10 +5722,10 @@
     </row>
     <row r="481">
       <c r="A481" s="2" t="n">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="B481" t="n">
-        <v>21316300000000</v>
+        <v>21562100000000</v>
       </c>
       <c r="C481" t="n">
         <v>1</v>
@@ -5733,10 +5733,10 @@
     </row>
     <row r="482">
       <c r="A482" s="2" t="n">
-        <v>44531</v>
+        <v>44593</v>
       </c>
       <c r="B482" t="n">
-        <v>21549200000000</v>
+        <v>21570500000000</v>
       </c>
       <c r="C482" t="n">
         <v>1</v>
@@ -5744,10 +5744,10 @@
     </row>
     <row r="483">
       <c r="A483" s="2" t="n">
-        <v>44562</v>
+        <v>44621</v>
       </c>
       <c r="B483" t="n">
-        <v>21561900000000</v>
+        <v>21697600000000</v>
       </c>
       <c r="C483" t="n">
         <v>1</v>
@@ -5755,10 +5755,10 @@
     </row>
     <row r="484">
       <c r="A484" s="2" t="n">
-        <v>44593</v>
+        <v>44652</v>
       </c>
       <c r="B484" t="n">
-        <v>21570400000000</v>
+        <v>21677200000000</v>
       </c>
       <c r="C484" t="n">
         <v>1</v>
@@ -5766,10 +5766,10 @@
     </row>
     <row r="485">
       <c r="A485" s="2" t="n">
-        <v>44621</v>
+        <v>44682</v>
       </c>
       <c r="B485" t="n">
-        <v>21697500000000</v>
+        <v>21665600000000</v>
       </c>
       <c r="C485" t="n">
         <v>1</v>
@@ -5777,10 +5777,10 @@
     </row>
     <row r="486">
       <c r="A486" s="2" t="n">
-        <v>44652</v>
+        <v>44713</v>
       </c>
       <c r="B486" t="n">
-        <v>21677200000000</v>
+        <v>21666400000000</v>
       </c>
       <c r="C486" t="n">
         <v>1</v>
@@ -5788,10 +5788,10 @@
     </row>
     <row r="487">
       <c r="A487" s="2" t="n">
-        <v>44682</v>
+        <v>44743</v>
       </c>
       <c r="B487" t="n">
-        <v>21665500000000</v>
+        <v>21703600000000</v>
       </c>
       <c r="C487" t="n">
         <v>1</v>
@@ -5799,10 +5799,10 @@
     </row>
     <row r="488">
       <c r="A488" s="2" t="n">
-        <v>44713</v>
+        <v>44774</v>
       </c>
       <c r="B488" t="n">
-        <v>21666400000000</v>
+        <v>21659900000000</v>
       </c>
       <c r="C488" t="n">
         <v>1</v>
@@ -5810,10 +5810,10 @@
     </row>
     <row r="489">
       <c r="A489" s="2" t="n">
-        <v>44743</v>
+        <v>44805</v>
       </c>
       <c r="B489" t="n">
-        <v>21703600000000</v>
+        <v>21525200000000</v>
       </c>
       <c r="C489" t="n">
         <v>1</v>
@@ -5821,10 +5821,10 @@
     </row>
     <row r="490">
       <c r="A490" s="2" t="n">
-        <v>44774</v>
+        <v>44835</v>
       </c>
       <c r="B490" t="n">
-        <v>21659900000000</v>
+        <v>21433300000000</v>
       </c>
       <c r="C490" t="n">
         <v>1</v>
@@ -5832,10 +5832,10 @@
     </row>
     <row r="491">
       <c r="A491" s="2" t="n">
-        <v>44805</v>
+        <v>44866</v>
       </c>
       <c r="B491" t="n">
-        <v>21525200000000</v>
+        <v>21399300000000</v>
       </c>
       <c r="C491" t="n">
         <v>1</v>
@@ -5843,10 +5843,10 @@
     </row>
     <row r="492">
       <c r="A492" s="2" t="n">
-        <v>44835</v>
+        <v>44896</v>
       </c>
       <c r="B492" t="n">
-        <v>21432700000000</v>
+        <v>21358200000000</v>
       </c>
       <c r="C492" t="n">
         <v>1</v>
@@ -5854,10 +5854,10 @@
     </row>
     <row r="493">
       <c r="A493" s="2" t="n">
-        <v>44866</v>
+        <v>44927</v>
       </c>
       <c r="B493" t="n">
-        <v>21398700000000</v>
+        <v>21222300000000</v>
       </c>
       <c r="C493" t="n">
         <v>1</v>
@@ -5865,10 +5865,10 @@
     </row>
     <row r="494">
       <c r="A494" s="2" t="n">
-        <v>44896</v>
+        <v>44958</v>
       </c>
       <c r="B494" t="n">
-        <v>21357600000000</v>
+        <v>21100900000000</v>
       </c>
       <c r="C494" t="n">
         <v>1</v>
@@ -5876,10 +5876,10 @@
     </row>
     <row r="495">
       <c r="A495" s="2" t="n">
-        <v>44927</v>
+        <v>44986</v>
       </c>
       <c r="B495" t="n">
-        <v>21221800000000</v>
+        <v>20876300000000</v>
       </c>
       <c r="C495" t="n">
         <v>1</v>
@@ -5887,10 +5887,10 @@
     </row>
     <row r="496">
       <c r="A496" s="2" t="n">
-        <v>44958</v>
+        <v>45017</v>
       </c>
       <c r="B496" t="n">
-        <v>21100700000000</v>
+        <v>20705700000000</v>
       </c>
       <c r="C496" t="n">
         <v>1</v>
@@ -5898,10 +5898,10 @@
     </row>
     <row r="497">
       <c r="A497" s="2" t="n">
-        <v>44986</v>
+        <v>45047</v>
       </c>
       <c r="B497" t="n">
-        <v>20876100000000</v>
+        <v>20820400000000</v>
       </c>
       <c r="C497" t="n">
         <v>1</v>
@@ -5909,10 +5909,10 @@
     </row>
     <row r="498">
       <c r="A498" s="2" t="n">
-        <v>45017</v>
+        <v>45078</v>
       </c>
       <c r="B498" t="n">
-        <v>20712100000000</v>
+        <v>20854400000000</v>
       </c>
       <c r="C498" t="n">
         <v>1</v>
@@ -5920,10 +5920,10 @@
     </row>
     <row r="499">
       <c r="A499" s="2" t="n">
-        <v>45047</v>
+        <v>45108</v>
       </c>
       <c r="B499" t="n">
-        <v>20841700000000</v>
+        <v>20863700000000</v>
       </c>
       <c r="C499" t="n">
         <v>1</v>
@@ -5931,10 +5931,10 @@
     </row>
     <row r="500">
       <c r="A500" s="2" t="n">
-        <v>45078</v>
+        <v>45139</v>
       </c>
       <c r="B500" t="n">
-        <v>20890000000000</v>
+        <v>20825300000000</v>
       </c>
       <c r="C500" t="n">
         <v>1</v>
@@ -5942,10 +5942,10 @@
     </row>
     <row r="501">
       <c r="A501" s="2" t="n">
-        <v>45108</v>
+        <v>45170</v>
       </c>
       <c r="B501" t="n">
-        <v>20902700000000</v>
+        <v>20754900000000</v>
       </c>
       <c r="C501" t="n">
         <v>1</v>

--- a/Global_M2/TVDataFeed/FinalData/United States.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/United States.xlsx
@@ -399,10 +399,10 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2">
-        <v>29983</v>
+        <v>30011</v>
       </c>
       <c r="B2">
-        <v>1774500000000</v>
+        <v>1786500000000</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -410,10 +410,10 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="2">
-        <v>30011</v>
+        <v>30042</v>
       </c>
       <c r="B3">
-        <v>1786500000000</v>
+        <v>1803900000000</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -421,10 +421,10 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="2">
-        <v>30042</v>
+        <v>30072</v>
       </c>
       <c r="B4">
-        <v>1803900000000</v>
+        <v>1815400000000</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -432,10 +432,10 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="2">
-        <v>30072</v>
+        <v>30103</v>
       </c>
       <c r="B5">
-        <v>1815400000000</v>
+        <v>1826000000000</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -443,10 +443,10 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="2">
-        <v>30103</v>
+        <v>30133</v>
       </c>
       <c r="B6">
-        <v>1826000000000</v>
+        <v>1831500000000</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -454,10 +454,10 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="2">
-        <v>30133</v>
+        <v>30164</v>
       </c>
       <c r="B7">
-        <v>1831500000000</v>
+        <v>1845200000000</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -465,10 +465,10 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="2">
-        <v>30164</v>
+        <v>30195</v>
       </c>
       <c r="B8">
-        <v>1845200000000</v>
+        <v>1858400000000</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -476,10 +476,10 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="2">
-        <v>30195</v>
+        <v>30225</v>
       </c>
       <c r="B9">
-        <v>1858400000000</v>
+        <v>1869700000000</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -487,10 +487,10 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="2">
-        <v>30225</v>
+        <v>30256</v>
       </c>
       <c r="B10">
-        <v>1869700000000</v>
+        <v>1883700000000</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -498,10 +498,10 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="2">
-        <v>30256</v>
+        <v>30286</v>
       </c>
       <c r="B11">
-        <v>1883700000000</v>
+        <v>1905900000000</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -509,10 +509,10 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="2">
-        <v>30286</v>
+        <v>30317</v>
       </c>
       <c r="B12">
-        <v>1905900000000</v>
+        <v>1959400000000</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -520,10 +520,10 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="2">
-        <v>30317</v>
+        <v>30348</v>
       </c>
       <c r="B13">
-        <v>1959400000000</v>
+        <v>1996800000000</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -531,10 +531,10 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="2">
-        <v>30348</v>
+        <v>30376</v>
       </c>
       <c r="B14">
-        <v>1996800000000</v>
+        <v>2015200000000</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -542,10 +542,10 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="2">
-        <v>30376</v>
+        <v>30407</v>
       </c>
       <c r="B15">
-        <v>2015200000000</v>
+        <v>2028600000000</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -553,10 +553,10 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2">
-        <v>30407</v>
+        <v>30437</v>
       </c>
       <c r="B16">
-        <v>2028600000000</v>
+        <v>2043100000000</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -564,10 +564,10 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2">
-        <v>30437</v>
+        <v>30468</v>
       </c>
       <c r="B17">
-        <v>2043100000000</v>
+        <v>2053500000000</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -575,10 +575,10 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2">
-        <v>30468</v>
+        <v>30498</v>
       </c>
       <c r="B18">
-        <v>2053500000000</v>
+        <v>2064800000000</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -586,10 +586,10 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2">
-        <v>30498</v>
+        <v>30529</v>
       </c>
       <c r="B19">
-        <v>2064800000000</v>
+        <v>2074000000000</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -597,10 +597,10 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="2">
-        <v>30529</v>
+        <v>30560</v>
       </c>
       <c r="B20">
-        <v>2074000000000</v>
+        <v>2083200000000</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -608,10 +608,10 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="2">
-        <v>30560</v>
+        <v>30590</v>
       </c>
       <c r="B21">
-        <v>2083200000000</v>
+        <v>2099200000000</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -619,10 +619,10 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="2">
-        <v>30590</v>
+        <v>30621</v>
       </c>
       <c r="B22">
-        <v>2099200000000</v>
+        <v>2112300000000</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -630,10 +630,10 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="2">
-        <v>30621</v>
+        <v>30651</v>
       </c>
       <c r="B23">
-        <v>2112300000000</v>
+        <v>2123500000000</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -641,10 +641,10 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="2">
-        <v>30651</v>
+        <v>30682</v>
       </c>
       <c r="B24">
-        <v>2123500000000</v>
+        <v>2138200000000</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -652,10 +652,10 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="2">
-        <v>30682</v>
+        <v>30713</v>
       </c>
       <c r="B25">
-        <v>2138200000000</v>
+        <v>2158200000000</v>
       </c>
       <c r="C25">
         <v>1</v>
@@ -663,10 +663,10 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="2">
-        <v>30713</v>
+        <v>30742</v>
       </c>
       <c r="B26">
-        <v>2158200000000</v>
+        <v>2175200000000</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -674,10 +674,10 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="2">
-        <v>30742</v>
+        <v>30773</v>
       </c>
       <c r="B27">
-        <v>2175200000000</v>
+        <v>2191700000000</v>
       </c>
       <c r="C27">
         <v>1</v>
@@ -685,10 +685,10 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="2">
-        <v>30773</v>
+        <v>30803</v>
       </c>
       <c r="B28">
-        <v>2191700000000</v>
+        <v>2204100000000</v>
       </c>
       <c r="C28">
         <v>1</v>
@@ -696,10 +696,10 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="2">
-        <v>30803</v>
+        <v>30834</v>
       </c>
       <c r="B29">
-        <v>2204100000000</v>
+        <v>2215100000000</v>
       </c>
       <c r="C29">
         <v>1</v>
@@ -707,10 +707,10 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="2">
-        <v>30834</v>
+        <v>30864</v>
       </c>
       <c r="B30">
-        <v>2215100000000</v>
+        <v>2223500000000</v>
       </c>
       <c r="C30">
         <v>1</v>
@@ -718,10 +718,10 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="2">
-        <v>30864</v>
+        <v>30895</v>
       </c>
       <c r="B31">
-        <v>2223500000000</v>
+        <v>2230400000000</v>
       </c>
       <c r="C31">
         <v>1</v>
@@ -729,10 +729,10 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="2">
-        <v>30895</v>
+        <v>30926</v>
       </c>
       <c r="B32">
-        <v>2230400000000</v>
+        <v>2244400000000</v>
       </c>
       <c r="C32">
         <v>1</v>
@@ -740,10 +740,10 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="2">
-        <v>30926</v>
+        <v>30956</v>
       </c>
       <c r="B33">
-        <v>2244400000000</v>
+        <v>2258900000000</v>
       </c>
       <c r="C33">
         <v>1</v>
@@ -751,10 +751,10 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="2">
-        <v>30956</v>
+        <v>30987</v>
       </c>
       <c r="B34">
-        <v>2258900000000</v>
+        <v>2281400000000</v>
       </c>
       <c r="C34">
         <v>1</v>
@@ -762,10 +762,10 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="2">
-        <v>30987</v>
+        <v>31017</v>
       </c>
       <c r="B35">
-        <v>2281400000000</v>
+        <v>2306400000000</v>
       </c>
       <c r="C35">
         <v>1</v>
@@ -773,10 +773,10 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="2">
-        <v>31017</v>
+        <v>31048</v>
       </c>
       <c r="B36">
-        <v>2306400000000</v>
+        <v>2332400000000</v>
       </c>
       <c r="C36">
         <v>1</v>
@@ -784,10 +784,10 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="2">
-        <v>31048</v>
+        <v>31079</v>
       </c>
       <c r="B37">
-        <v>2332400000000</v>
+        <v>2354100000000</v>
       </c>
       <c r="C37">
         <v>1</v>
@@ -795,10 +795,10 @@
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="2">
-        <v>31079</v>
+        <v>31107</v>
       </c>
       <c r="B38">
-        <v>2354100000000</v>
+        <v>2366200000000</v>
       </c>
       <c r="C38">
         <v>1</v>
@@ -806,10 +806,10 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="2">
-        <v>31107</v>
+        <v>31138</v>
       </c>
       <c r="B39">
-        <v>2366200000000</v>
+        <v>2375400000000</v>
       </c>
       <c r="C39">
         <v>1</v>
@@ -817,10 +817,10 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="2">
-        <v>31138</v>
+        <v>31168</v>
       </c>
       <c r="B40">
-        <v>2375400000000</v>
+        <v>2389500000000</v>
       </c>
       <c r="C40">
         <v>1</v>
@@ -828,10 +828,10 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="2">
-        <v>31168</v>
+        <v>31199</v>
       </c>
       <c r="B41">
-        <v>2389500000000</v>
+        <v>2412600000000</v>
       </c>
       <c r="C41">
         <v>1</v>
@@ -839,10 +839,10 @@
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="2">
-        <v>31199</v>
+        <v>31229</v>
       </c>
       <c r="B42">
-        <v>2412600000000</v>
+        <v>2429500000000</v>
       </c>
       <c r="C42">
         <v>1</v>
@@ -850,10 +850,10 @@
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="2">
-        <v>31229</v>
+        <v>31260</v>
       </c>
       <c r="B43">
-        <v>2429500000000</v>
+        <v>2444000000000</v>
       </c>
       <c r="C43">
         <v>1</v>
@@ -861,10 +861,10 @@
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="2">
-        <v>31260</v>
+        <v>31291</v>
       </c>
       <c r="B44">
-        <v>2444000000000</v>
+        <v>2456400000000</v>
       </c>
       <c r="C44">
         <v>1</v>
@@ -872,10 +872,10 @@
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="2">
-        <v>31291</v>
+        <v>31321</v>
       </c>
       <c r="B45">
-        <v>2456400000000</v>
+        <v>2468000000000</v>
       </c>
       <c r="C45">
         <v>1</v>
@@ -883,10 +883,10 @@
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="2">
-        <v>31321</v>
+        <v>31352</v>
       </c>
       <c r="B46">
-        <v>2468000000000</v>
+        <v>2477800000000</v>
       </c>
       <c r="C46">
         <v>1</v>
@@ -894,10 +894,10 @@
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="2">
-        <v>31352</v>
+        <v>31382</v>
       </c>
       <c r="B47">
-        <v>2477800000000</v>
+        <v>2492100000000</v>
       </c>
       <c r="C47">
         <v>1</v>
@@ -905,10 +905,10 @@
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="2">
-        <v>31382</v>
+        <v>31413</v>
       </c>
       <c r="B48">
-        <v>2492100000000</v>
+        <v>2502100000000</v>
       </c>
       <c r="C48">
         <v>1</v>
@@ -916,10 +916,10 @@
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="2">
-        <v>31413</v>
+        <v>31444</v>
       </c>
       <c r="B49">
-        <v>2502100000000</v>
+        <v>2512900000000</v>
       </c>
       <c r="C49">
         <v>1</v>
@@ -927,10 +927,10 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="2">
-        <v>31444</v>
+        <v>31472</v>
       </c>
       <c r="B50">
-        <v>2512900000000</v>
+        <v>2533100000000</v>
       </c>
       <c r="C50">
         <v>1</v>
@@ -938,10 +938,10 @@
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="2">
-        <v>31472</v>
+        <v>31503</v>
       </c>
       <c r="B51">
-        <v>2533100000000</v>
+        <v>2557800000000</v>
       </c>
       <c r="C51">
         <v>1</v>
@@ -949,10 +949,10 @@
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="2">
-        <v>31503</v>
+        <v>31533</v>
       </c>
       <c r="B52">
-        <v>2557800000000</v>
+        <v>2584800000000</v>
       </c>
       <c r="C52">
         <v>1</v>
@@ -960,10 +960,10 @@
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="2">
-        <v>31533</v>
+        <v>31564</v>
       </c>
       <c r="B53">
-        <v>2584800000000</v>
+        <v>2605000000000</v>
       </c>
       <c r="C53">
         <v>1</v>
@@ -971,10 +971,10 @@
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="2">
-        <v>31564</v>
+        <v>31594</v>
       </c>
       <c r="B54">
-        <v>2605000000000</v>
+        <v>2626600000000</v>
       </c>
       <c r="C54">
         <v>1</v>
@@ -982,10 +982,10 @@
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="2">
-        <v>31594</v>
+        <v>31625</v>
       </c>
       <c r="B55">
-        <v>2626600000000</v>
+        <v>2646500000000</v>
       </c>
       <c r="C55">
         <v>1</v>
@@ -993,10 +993,10 @@
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="2">
-        <v>31625</v>
+        <v>31656</v>
       </c>
       <c r="B56">
-        <v>2646500000000</v>
+        <v>2667800000000</v>
       </c>
       <c r="C56">
         <v>1</v>
@@ -1004,10 +1004,10 @@
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="2">
-        <v>31656</v>
+        <v>31686</v>
       </c>
       <c r="B57">
-        <v>2667800000000</v>
+        <v>2687400000000</v>
       </c>
       <c r="C57">
         <v>1</v>
@@ -1015,10 +1015,10 @@
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="2">
-        <v>31686</v>
+        <v>31717</v>
       </c>
       <c r="B58">
-        <v>2687400000000</v>
+        <v>2701300000000</v>
       </c>
       <c r="C58">
         <v>1</v>
@@ -1026,10 +1026,10 @@
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="2">
-        <v>31717</v>
+        <v>31747</v>
       </c>
       <c r="B59">
-        <v>2701300000000</v>
+        <v>2728000000000</v>
       </c>
       <c r="C59">
         <v>1</v>
@@ -1037,10 +1037,10 @@
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="2">
-        <v>31747</v>
+        <v>31778</v>
       </c>
       <c r="B60">
-        <v>2728000000000</v>
+        <v>2743900000000</v>
       </c>
       <c r="C60">
         <v>1</v>
@@ -1048,10 +1048,10 @@
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="2">
-        <v>31778</v>
+        <v>31809</v>
       </c>
       <c r="B61">
-        <v>2743900000000</v>
+        <v>2747500000000</v>
       </c>
       <c r="C61">
         <v>1</v>
@@ -1059,10 +1059,10 @@
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="2">
-        <v>31809</v>
+        <v>31837</v>
       </c>
       <c r="B62">
-        <v>2747500000000</v>
+        <v>2753700000000</v>
       </c>
       <c r="C62">
         <v>1</v>
@@ -1070,10 +1070,10 @@
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="2">
-        <v>31837</v>
+        <v>31868</v>
       </c>
       <c r="B63">
-        <v>2753700000000</v>
+        <v>2767700000000</v>
       </c>
       <c r="C63">
         <v>1</v>
@@ -1081,10 +1081,10 @@
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="2">
-        <v>31868</v>
+        <v>31898</v>
       </c>
       <c r="B64">
-        <v>2767700000000</v>
+        <v>2772900000000</v>
       </c>
       <c r="C64">
         <v>1</v>
@@ -1092,10 +1092,10 @@
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="2">
-        <v>31898</v>
+        <v>31929</v>
       </c>
       <c r="B65">
-        <v>2772900000000</v>
+        <v>2774600000000</v>
       </c>
       <c r="C65">
         <v>1</v>
@@ -1103,10 +1103,10 @@
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="2">
-        <v>31929</v>
+        <v>31959</v>
       </c>
       <c r="B66">
-        <v>2774600000000</v>
+        <v>2779000000000</v>
       </c>
       <c r="C66">
         <v>1</v>
@@ -1114,10 +1114,10 @@
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="2">
-        <v>31959</v>
+        <v>31990</v>
       </c>
       <c r="B67">
-        <v>2779000000000</v>
+        <v>2788200000000</v>
       </c>
       <c r="C67">
         <v>1</v>
@@ -1125,10 +1125,10 @@
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="2">
-        <v>31990</v>
+        <v>32021</v>
       </c>
       <c r="B68">
-        <v>2788200000000</v>
+        <v>2799500000000</v>
       </c>
       <c r="C68">
         <v>1</v>
@@ -1136,10 +1136,10 @@
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="2">
-        <v>32021</v>
+        <v>32051</v>
       </c>
       <c r="B69">
-        <v>2799500000000</v>
+        <v>2814800000000</v>
       </c>
       <c r="C69">
         <v>1</v>
@@ -1147,10 +1147,10 @@
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="2">
-        <v>32051</v>
+        <v>32082</v>
       </c>
       <c r="B70">
-        <v>2814800000000</v>
+        <v>2818900000000</v>
       </c>
       <c r="C70">
         <v>1</v>
@@ -1158,10 +1158,10 @@
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="2">
-        <v>32082</v>
+        <v>32112</v>
       </c>
       <c r="B71">
-        <v>2818900000000</v>
+        <v>2826400000000</v>
       </c>
       <c r="C71">
         <v>1</v>
@@ -1169,10 +1169,10 @@
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="2">
-        <v>32112</v>
+        <v>32143</v>
       </c>
       <c r="B72">
-        <v>2826400000000</v>
+        <v>2847400000000</v>
       </c>
       <c r="C72">
         <v>1</v>
@@ -1180,10 +1180,10 @@
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="2">
-        <v>32143</v>
+        <v>32174</v>
       </c>
       <c r="B73">
-        <v>2847400000000</v>
+        <v>2870400000000</v>
       </c>
       <c r="C73">
         <v>1</v>
@@ -1191,10 +1191,10 @@
     </row>
     <row r="74" spans="1:3">
       <c r="A74" s="2">
-        <v>32174</v>
+        <v>32203</v>
       </c>
       <c r="B74">
-        <v>2870400000000</v>
+        <v>2890700000000</v>
       </c>
       <c r="C74">
         <v>1</v>
@@ -1202,10 +1202,10 @@
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="2">
-        <v>32203</v>
+        <v>32234</v>
       </c>
       <c r="B75">
-        <v>2890700000000</v>
+        <v>2910700000000</v>
       </c>
       <c r="C75">
         <v>1</v>
@@ -1213,10 +1213,10 @@
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="2">
-        <v>32234</v>
+        <v>32264</v>
       </c>
       <c r="B76">
-        <v>2910700000000</v>
+        <v>2926000000000</v>
       </c>
       <c r="C76">
         <v>1</v>
@@ -1224,10 +1224,10 @@
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="2">
-        <v>32264</v>
+        <v>32295</v>
       </c>
       <c r="B77">
-        <v>2926000000000</v>
+        <v>2938400000000</v>
       </c>
       <c r="C77">
         <v>1</v>
@@ -1235,10 +1235,10 @@
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="2">
-        <v>32295</v>
+        <v>32325</v>
       </c>
       <c r="B78">
-        <v>2938400000000</v>
+        <v>2947200000000</v>
       </c>
       <c r="C78">
         <v>1</v>
@@ -1246,10 +1246,10 @@
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="2">
-        <v>32325</v>
+        <v>32356</v>
       </c>
       <c r="B79">
-        <v>2947200000000</v>
+        <v>2952000000000</v>
       </c>
       <c r="C79">
         <v>1</v>
@@ -1257,10 +1257,10 @@
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="2">
-        <v>32356</v>
+        <v>32387</v>
       </c>
       <c r="B80">
-        <v>2952000000000</v>
+        <v>2956900000000</v>
       </c>
       <c r="C80">
         <v>1</v>
@@ -1268,10 +1268,10 @@
     </row>
     <row r="81" spans="1:3">
       <c r="A81" s="2">
-        <v>32387</v>
+        <v>32417</v>
       </c>
       <c r="B81">
-        <v>2956900000000</v>
+        <v>2965300000000</v>
       </c>
       <c r="C81">
         <v>1</v>
@@ -1279,10 +1279,10 @@
     </row>
     <row r="82" spans="1:3">
       <c r="A82" s="2">
-        <v>32417</v>
+        <v>32448</v>
       </c>
       <c r="B82">
-        <v>2965300000000</v>
+        <v>2980200000000</v>
       </c>
       <c r="C82">
         <v>1</v>
@@ -1290,10 +1290,10 @@
     </row>
     <row r="83" spans="1:3">
       <c r="A83" s="2">
-        <v>32448</v>
+        <v>32478</v>
       </c>
       <c r="B83">
-        <v>2980200000000</v>
+        <v>2988200000000</v>
       </c>
       <c r="C83">
         <v>1</v>
@@ -1301,10 +1301,10 @@
     </row>
     <row r="84" spans="1:3">
       <c r="A84" s="2">
-        <v>32478</v>
+        <v>32509</v>
       </c>
       <c r="B84">
-        <v>2988200000000</v>
+        <v>2991700000000</v>
       </c>
       <c r="C84">
         <v>1</v>
@@ -1312,10 +1312,10 @@
     </row>
     <row r="85" spans="1:3">
       <c r="A85" s="2">
-        <v>32509</v>
+        <v>32540</v>
       </c>
       <c r="B85">
-        <v>2991700000000</v>
+        <v>2992200000000</v>
       </c>
       <c r="C85">
         <v>1</v>
@@ -1323,10 +1323,10 @@
     </row>
     <row r="86" spans="1:3">
       <c r="A86" s="2">
-        <v>32540</v>
+        <v>32568</v>
       </c>
       <c r="B86">
-        <v>2992200000000</v>
+        <v>2999700000000</v>
       </c>
       <c r="C86">
         <v>1</v>
@@ -1334,10 +1334,10 @@
     </row>
     <row r="87" spans="1:3">
       <c r="A87" s="2">
-        <v>32568</v>
+        <v>32599</v>
       </c>
       <c r="B87">
-        <v>2999700000000</v>
+        <v>3006000000000</v>
       </c>
       <c r="C87">
         <v>1</v>
@@ -1345,10 +1345,10 @@
     </row>
     <row r="88" spans="1:3">
       <c r="A88" s="2">
-        <v>32599</v>
+        <v>32629</v>
       </c>
       <c r="B88">
-        <v>3006000000000</v>
+        <v>3011600000000</v>
       </c>
       <c r="C88">
         <v>1</v>
@@ -1356,10 +1356,10 @@
     </row>
     <row r="89" spans="1:3">
       <c r="A89" s="2">
-        <v>32629</v>
+        <v>32660</v>
       </c>
       <c r="B89">
-        <v>3011600000000</v>
+        <v>3027900000000</v>
       </c>
       <c r="C89">
         <v>1</v>
@@ -1367,10 +1367,10 @@
     </row>
     <row r="90" spans="1:3">
       <c r="A90" s="2">
-        <v>32660</v>
+        <v>32690</v>
       </c>
       <c r="B90">
-        <v>3027900000000</v>
+        <v>3052400000000</v>
       </c>
       <c r="C90">
         <v>1</v>
@@ -1378,10 +1378,10 @@
     </row>
     <row r="91" spans="1:3">
       <c r="A91" s="2">
-        <v>32690</v>
+        <v>32721</v>
       </c>
       <c r="B91">
-        <v>3052400000000</v>
+        <v>3074400000000</v>
       </c>
       <c r="C91">
         <v>1</v>
@@ -1389,10 +1389,10 @@
     </row>
     <row r="92" spans="1:3">
       <c r="A92" s="2">
-        <v>32721</v>
+        <v>32752</v>
       </c>
       <c r="B92">
-        <v>3074400000000</v>
+        <v>3092500000000</v>
       </c>
       <c r="C92">
         <v>1</v>
@@ -1400,10 +1400,10 @@
     </row>
     <row r="93" spans="1:3">
       <c r="A93" s="2">
-        <v>32752</v>
+        <v>32782</v>
       </c>
       <c r="B93">
-        <v>3092500000000</v>
+        <v>3114100000000</v>
       </c>
       <c r="C93">
         <v>1</v>
@@ -1411,10 +1411,10 @@
     </row>
     <row r="94" spans="1:3">
       <c r="A94" s="2">
-        <v>32782</v>
+        <v>32813</v>
       </c>
       <c r="B94">
-        <v>3114100000000</v>
+        <v>3133300000000</v>
       </c>
       <c r="C94">
         <v>1</v>
@@ -1422,10 +1422,10 @@
     </row>
     <row r="95" spans="1:3">
       <c r="A95" s="2">
-        <v>32813</v>
+        <v>32843</v>
       </c>
       <c r="B95">
-        <v>3133300000000</v>
+        <v>3152500000000</v>
       </c>
       <c r="C95">
         <v>1</v>
@@ -1433,10 +1433,10 @@
     </row>
     <row r="96" spans="1:3">
       <c r="A96" s="2">
-        <v>32843</v>
+        <v>32874</v>
       </c>
       <c r="B96">
-        <v>3152500000000</v>
+        <v>3166800000000</v>
       </c>
       <c r="C96">
         <v>1</v>
@@ -1444,10 +1444,10 @@
     </row>
     <row r="97" spans="1:3">
       <c r="A97" s="2">
-        <v>32874</v>
+        <v>32905</v>
       </c>
       <c r="B97">
-        <v>3166800000000</v>
+        <v>3179200000000</v>
       </c>
       <c r="C97">
         <v>1</v>
@@ -1455,10 +1455,10 @@
     </row>
     <row r="98" spans="1:3">
       <c r="A98" s="2">
-        <v>32905</v>
+        <v>32933</v>
       </c>
       <c r="B98">
-        <v>3179200000000</v>
+        <v>3190100000000</v>
       </c>
       <c r="C98">
         <v>1</v>
@@ -1466,10 +1466,10 @@
     </row>
     <row r="99" spans="1:3">
       <c r="A99" s="2">
-        <v>32933</v>
+        <v>32964</v>
       </c>
       <c r="B99">
-        <v>3190100000000</v>
+        <v>3201600000000</v>
       </c>
       <c r="C99">
         <v>1</v>
@@ -1477,10 +1477,10 @@
     </row>
     <row r="100" spans="1:3">
       <c r="A100" s="2">
-        <v>32964</v>
+        <v>32994</v>
       </c>
       <c r="B100">
-        <v>3201600000000</v>
+        <v>3200600000000</v>
       </c>
       <c r="C100">
         <v>1</v>
@@ -1488,10 +1488,10 @@
     </row>
     <row r="101" spans="1:3">
       <c r="A101" s="2">
-        <v>32994</v>
+        <v>33025</v>
       </c>
       <c r="B101">
-        <v>3200600000000</v>
+        <v>3213700000000</v>
       </c>
       <c r="C101">
         <v>1</v>
@@ -1499,10 +1499,10 @@
     </row>
     <row r="102" spans="1:3">
       <c r="A102" s="2">
-        <v>33025</v>
+        <v>33055</v>
       </c>
       <c r="B102">
-        <v>3213700000000</v>
+        <v>3224500000000</v>
       </c>
       <c r="C102">
         <v>1</v>
@@ -1510,10 +1510,10 @@
     </row>
     <row r="103" spans="1:3">
       <c r="A103" s="2">
-        <v>33055</v>
+        <v>33086</v>
       </c>
       <c r="B103">
-        <v>3224500000000</v>
+        <v>3242000000000</v>
       </c>
       <c r="C103">
         <v>1</v>
@@ -1521,10 +1521,10 @@
     </row>
     <row r="104" spans="1:3">
       <c r="A104" s="2">
-        <v>33086</v>
+        <v>33117</v>
       </c>
       <c r="B104">
-        <v>3242000000000</v>
+        <v>3254600000000</v>
       </c>
       <c r="C104">
         <v>1</v>
@@ -1532,10 +1532,10 @@
     </row>
     <row r="105" spans="1:3">
       <c r="A105" s="2">
-        <v>33117</v>
+        <v>33147</v>
       </c>
       <c r="B105">
-        <v>3254600000000</v>
+        <v>3259300000000</v>
       </c>
       <c r="C105">
         <v>1</v>
@@ -1543,10 +1543,10 @@
     </row>
     <row r="106" spans="1:3">
       <c r="A106" s="2">
-        <v>33147</v>
+        <v>33178</v>
       </c>
       <c r="B106">
-        <v>3259300000000</v>
+        <v>3262600000000</v>
       </c>
       <c r="C106">
         <v>1</v>
@@ -1554,10 +1554,10 @@
     </row>
     <row r="107" spans="1:3">
       <c r="A107" s="2">
-        <v>33178</v>
+        <v>33208</v>
       </c>
       <c r="B107">
-        <v>3262600000000</v>
+        <v>3271800000000</v>
       </c>
       <c r="C107">
         <v>1</v>
@@ -1565,10 +1565,10 @@
     </row>
     <row r="108" spans="1:3">
       <c r="A108" s="2">
-        <v>33208</v>
+        <v>33239</v>
       </c>
       <c r="B108">
-        <v>3271800000000</v>
+        <v>3287700000000</v>
       </c>
       <c r="C108">
         <v>1</v>
@@ -1576,10 +1576,10 @@
     </row>
     <row r="109" spans="1:3">
       <c r="A109" s="2">
-        <v>33239</v>
+        <v>33270</v>
       </c>
       <c r="B109">
-        <v>3287700000000</v>
+        <v>3304500000000</v>
       </c>
       <c r="C109">
         <v>1</v>
@@ -1587,10 +1587,10 @@
     </row>
     <row r="110" spans="1:3">
       <c r="A110" s="2">
-        <v>33270</v>
+        <v>33298</v>
       </c>
       <c r="B110">
-        <v>3304500000000</v>
+        <v>3321900000000</v>
       </c>
       <c r="C110">
         <v>1</v>
@@ -1598,10 +1598,10 @@
     </row>
     <row r="111" spans="1:3">
       <c r="A111" s="2">
-        <v>33298</v>
+        <v>33329</v>
       </c>
       <c r="B111">
-        <v>3321900000000</v>
+        <v>3332400000000</v>
       </c>
       <c r="C111">
         <v>1</v>
@@ -1609,10 +1609,10 @@
     </row>
     <row r="112" spans="1:3">
       <c r="A112" s="2">
-        <v>33329</v>
+        <v>33359</v>
       </c>
       <c r="B112">
-        <v>3332400000000</v>
+        <v>3343000000000</v>
       </c>
       <c r="C112">
         <v>1</v>
@@ -1620,10 +1620,10 @@
     </row>
     <row r="113" spans="1:3">
       <c r="A113" s="2">
-        <v>33359</v>
+        <v>33390</v>
       </c>
       <c r="B113">
-        <v>3343000000000</v>
+        <v>3351900000000</v>
       </c>
       <c r="C113">
         <v>1</v>
@@ -1631,10 +1631,10 @@
     </row>
     <row r="114" spans="1:3">
       <c r="A114" s="2">
-        <v>33390</v>
+        <v>33420</v>
       </c>
       <c r="B114">
-        <v>3351900000000</v>
+        <v>3356100000000</v>
       </c>
       <c r="C114">
         <v>1</v>
@@ -1642,10 +1642,10 @@
     </row>
     <row r="115" spans="1:3">
       <c r="A115" s="2">
-        <v>33420</v>
+        <v>33451</v>
       </c>
       <c r="B115">
-        <v>3356100000000</v>
+        <v>3355000000000</v>
       </c>
       <c r="C115">
         <v>1</v>
@@ -1653,10 +1653,10 @@
     </row>
     <row r="116" spans="1:3">
       <c r="A116" s="2">
-        <v>33451</v>
+        <v>33482</v>
       </c>
       <c r="B116">
-        <v>3355000000000</v>
+        <v>3354900000000</v>
       </c>
       <c r="C116">
         <v>1</v>
@@ -1664,10 +1664,10 @@
     </row>
     <row r="117" spans="1:3">
       <c r="A117" s="2">
-        <v>33482</v>
+        <v>33512</v>
       </c>
       <c r="B117">
-        <v>3354900000000</v>
+        <v>3360100000000</v>
       </c>
       <c r="C117">
         <v>1</v>
@@ -1675,10 +1675,10 @@
     </row>
     <row r="118" spans="1:3">
       <c r="A118" s="2">
-        <v>33512</v>
+        <v>33543</v>
       </c>
       <c r="B118">
-        <v>3360100000000</v>
+        <v>3365500000000</v>
       </c>
       <c r="C118">
         <v>1</v>
@@ -1686,10 +1686,10 @@
     </row>
     <row r="119" spans="1:3">
       <c r="A119" s="2">
-        <v>33543</v>
+        <v>33573</v>
       </c>
       <c r="B119">
-        <v>3365500000000</v>
+        <v>3372200000000</v>
       </c>
       <c r="C119">
         <v>1</v>
@@ -1697,10 +1697,10 @@
     </row>
     <row r="120" spans="1:3">
       <c r="A120" s="2">
-        <v>33573</v>
+        <v>33604</v>
       </c>
       <c r="B120">
-        <v>3372200000000</v>
+        <v>3381200000000</v>
       </c>
       <c r="C120">
         <v>1</v>
@@ -1708,10 +1708,10 @@
     </row>
     <row r="121" spans="1:3">
       <c r="A121" s="2">
-        <v>33604</v>
+        <v>33635</v>
       </c>
       <c r="B121">
-        <v>3381200000000</v>
+        <v>3400000000000</v>
       </c>
       <c r="C121">
         <v>1</v>
@@ -1719,10 +1719,10 @@
     </row>
     <row r="122" spans="1:3">
       <c r="A122" s="2">
-        <v>33635</v>
+        <v>33664</v>
       </c>
       <c r="B122">
-        <v>3400000000000</v>
+        <v>3403900000000</v>
       </c>
       <c r="C122">
         <v>1</v>
@@ -1730,10 +1730,10 @@
     </row>
     <row r="123" spans="1:3">
       <c r="A123" s="2">
-        <v>33664</v>
+        <v>33695</v>
       </c>
       <c r="B123">
-        <v>3403900000000</v>
+        <v>3399700000000</v>
       </c>
       <c r="C123">
         <v>1</v>
@@ -1741,10 +1741,10 @@
     </row>
     <row r="124" spans="1:3">
       <c r="A124" s="2">
-        <v>33695</v>
+        <v>33725</v>
       </c>
       <c r="B124">
-        <v>3399700000000</v>
+        <v>3398600000000</v>
       </c>
       <c r="C124">
         <v>1</v>
@@ -1752,10 +1752,10 @@
     </row>
     <row r="125" spans="1:3">
       <c r="A125" s="2">
-        <v>33725</v>
+        <v>33756</v>
       </c>
       <c r="B125">
-        <v>3398600000000</v>
+        <v>3393400000000</v>
       </c>
       <c r="C125">
         <v>1</v>
@@ -1763,10 +1763,10 @@
     </row>
     <row r="126" spans="1:3">
       <c r="A126" s="2">
-        <v>33756</v>
+        <v>33786</v>
       </c>
       <c r="B126">
-        <v>3393400000000</v>
+        <v>3393900000000</v>
       </c>
       <c r="C126">
         <v>1</v>
@@ -1774,10 +1774,10 @@
     </row>
     <row r="127" spans="1:3">
       <c r="A127" s="2">
-        <v>33786</v>
+        <v>33817</v>
       </c>
       <c r="B127">
-        <v>3393900000000</v>
+        <v>3398800000000</v>
       </c>
       <c r="C127">
         <v>1</v>
@@ -1785,10 +1785,10 @@
     </row>
     <row r="128" spans="1:3">
       <c r="A128" s="2">
-        <v>33817</v>
+        <v>33848</v>
       </c>
       <c r="B128">
-        <v>3398800000000</v>
+        <v>3410300000000</v>
       </c>
       <c r="C128">
         <v>1</v>
@@ -1796,10 +1796,10 @@
     </row>
     <row r="129" spans="1:3">
       <c r="A129" s="2">
-        <v>33848</v>
+        <v>33878</v>
       </c>
       <c r="B129">
-        <v>3410300000000</v>
+        <v>3423800000000</v>
       </c>
       <c r="C129">
         <v>1</v>
@@ -1807,10 +1807,10 @@
     </row>
     <row r="130" spans="1:3">
       <c r="A130" s="2">
-        <v>33878</v>
+        <v>33909</v>
       </c>
       <c r="B130">
-        <v>3423800000000</v>
+        <v>3426500000000</v>
       </c>
       <c r="C130">
         <v>1</v>
@@ -1818,10 +1818,10 @@
     </row>
     <row r="131" spans="1:3">
       <c r="A131" s="2">
-        <v>33909</v>
+        <v>33939</v>
       </c>
       <c r="B131">
-        <v>3426500000000</v>
+        <v>3424700000000</v>
       </c>
       <c r="C131">
         <v>1</v>
@@ -1829,10 +1829,10 @@
     </row>
     <row r="132" spans="1:3">
       <c r="A132" s="2">
-        <v>33939</v>
+        <v>33970</v>
       </c>
       <c r="B132">
-        <v>3424700000000</v>
+        <v>3419100000000</v>
       </c>
       <c r="C132">
         <v>1</v>
@@ -1840,10 +1840,10 @@
     </row>
     <row r="133" spans="1:3">
       <c r="A133" s="2">
-        <v>33970</v>
+        <v>34001</v>
       </c>
       <c r="B133">
-        <v>3419100000000</v>
+        <v>3414500000000</v>
       </c>
       <c r="C133">
         <v>1</v>
@@ -1851,10 +1851,10 @@
     </row>
     <row r="134" spans="1:3">
       <c r="A134" s="2">
-        <v>34001</v>
+        <v>34029</v>
       </c>
       <c r="B134">
-        <v>3414500000000</v>
+        <v>3411700000000</v>
       </c>
       <c r="C134">
         <v>1</v>
@@ -1862,10 +1862,10 @@
     </row>
     <row r="135" spans="1:3">
       <c r="A135" s="2">
-        <v>34029</v>
+        <v>34060</v>
       </c>
       <c r="B135">
-        <v>3411700000000</v>
+        <v>3411300000000</v>
       </c>
       <c r="C135">
         <v>1</v>
@@ -1873,10 +1873,10 @@
     </row>
     <row r="136" spans="1:3">
       <c r="A136" s="2">
-        <v>34060</v>
+        <v>34090</v>
       </c>
       <c r="B136">
-        <v>3411300000000</v>
+        <v>3436900000000</v>
       </c>
       <c r="C136">
         <v>1</v>
@@ -1884,10 +1884,10 @@
     </row>
     <row r="137" spans="1:3">
       <c r="A137" s="2">
-        <v>34090</v>
+        <v>34121</v>
       </c>
       <c r="B137">
-        <v>3436900000000</v>
+        <v>3442400000000</v>
       </c>
       <c r="C137">
         <v>1</v>
@@ -1895,10 +1895,10 @@
     </row>
     <row r="138" spans="1:3">
       <c r="A138" s="2">
-        <v>34121</v>
+        <v>34151</v>
       </c>
       <c r="B138">
-        <v>3442400000000</v>
+        <v>3442000000000</v>
       </c>
       <c r="C138">
         <v>1</v>
@@ -1906,10 +1906,10 @@
     </row>
     <row r="139" spans="1:3">
       <c r="A139" s="2">
-        <v>34151</v>
+        <v>34182</v>
       </c>
       <c r="B139">
-        <v>3442000000000</v>
+        <v>3445700000000</v>
       </c>
       <c r="C139">
         <v>1</v>
@@ -1917,10 +1917,10 @@
     </row>
     <row r="140" spans="1:3">
       <c r="A140" s="2">
-        <v>34182</v>
+        <v>34213</v>
       </c>
       <c r="B140">
-        <v>3445700000000</v>
+        <v>3452200000000</v>
       </c>
       <c r="C140">
         <v>1</v>
@@ -1928,10 +1928,10 @@
     </row>
     <row r="141" spans="1:3">
       <c r="A141" s="2">
-        <v>34213</v>
+        <v>34243</v>
       </c>
       <c r="B141">
-        <v>3452200000000</v>
+        <v>3456700000000</v>
       </c>
       <c r="C141">
         <v>1</v>
@@ -1939,10 +1939,10 @@
     </row>
     <row r="142" spans="1:3">
       <c r="A142" s="2">
-        <v>34243</v>
+        <v>34274</v>
       </c>
       <c r="B142">
-        <v>3456700000000</v>
+        <v>3470100000000</v>
       </c>
       <c r="C142">
         <v>1</v>
@@ -1950,10 +1950,10 @@
     </row>
     <row r="143" spans="1:3">
       <c r="A143" s="2">
-        <v>34274</v>
+        <v>34304</v>
       </c>
       <c r="B143">
-        <v>3470100000000</v>
+        <v>3474500000000</v>
       </c>
       <c r="C143">
         <v>1</v>
@@ -1961,10 +1961,10 @@
     </row>
     <row r="144" spans="1:3">
       <c r="A144" s="2">
-        <v>34304</v>
+        <v>34335</v>
       </c>
       <c r="B144">
-        <v>3474500000000</v>
+        <v>3474900000000</v>
       </c>
       <c r="C144">
         <v>1</v>
@@ -1972,10 +1972,10 @@
     </row>
     <row r="145" spans="1:3">
       <c r="A145" s="2">
-        <v>34335</v>
+        <v>34366</v>
       </c>
       <c r="B145">
-        <v>3474900000000</v>
+        <v>3475700000000</v>
       </c>
       <c r="C145">
         <v>1</v>
@@ -1983,10 +1983,10 @@
     </row>
     <row r="146" spans="1:3">
       <c r="A146" s="2">
-        <v>34366</v>
+        <v>34394</v>
       </c>
       <c r="B146">
-        <v>3475700000000</v>
+        <v>3480100000000</v>
       </c>
       <c r="C146">
         <v>1</v>
@@ -1994,10 +1994,10 @@
     </row>
     <row r="147" spans="1:3">
       <c r="A147" s="2">
-        <v>34394</v>
+        <v>34425</v>
       </c>
       <c r="B147">
-        <v>3480100000000</v>
+        <v>3481300000000</v>
       </c>
       <c r="C147">
         <v>1</v>
@@ -2005,10 +2005,10 @@
     </row>
     <row r="148" spans="1:3">
       <c r="A148" s="2">
-        <v>34425</v>
+        <v>34455</v>
       </c>
       <c r="B148">
-        <v>3481300000000</v>
+        <v>3490800000000</v>
       </c>
       <c r="C148">
         <v>1</v>
@@ -2016,10 +2016,10 @@
     </row>
     <row r="149" spans="1:3">
       <c r="A149" s="2">
-        <v>34455</v>
+        <v>34486</v>
       </c>
       <c r="B149">
-        <v>3490800000000</v>
+        <v>3479500000000</v>
       </c>
       <c r="C149">
         <v>1</v>
@@ -2027,10 +2027,10 @@
     </row>
     <row r="150" spans="1:3">
       <c r="A150" s="2">
-        <v>34486</v>
+        <v>34516</v>
       </c>
       <c r="B150">
-        <v>3479500000000</v>
+        <v>3488200000000</v>
       </c>
       <c r="C150">
         <v>1</v>
@@ -2038,10 +2038,10 @@
     </row>
     <row r="151" spans="1:3">
       <c r="A151" s="2">
-        <v>34516</v>
+        <v>34547</v>
       </c>
       <c r="B151">
-        <v>3488200000000</v>
+        <v>3485700000000</v>
       </c>
       <c r="C151">
         <v>1</v>
@@ -2049,10 +2049,10 @@
     </row>
     <row r="152" spans="1:3">
       <c r="A152" s="2">
-        <v>34547</v>
+        <v>34578</v>
       </c>
       <c r="B152">
-        <v>3485700000000</v>
+        <v>3486100000000</v>
       </c>
       <c r="C152">
         <v>1</v>
@@ -2060,10 +2060,10 @@
     </row>
     <row r="153" spans="1:3">
       <c r="A153" s="2">
-        <v>34578</v>
+        <v>34608</v>
       </c>
       <c r="B153">
-        <v>3486100000000</v>
+        <v>3484300000000</v>
       </c>
       <c r="C153">
         <v>1</v>
@@ -2071,10 +2071,10 @@
     </row>
     <row r="154" spans="1:3">
       <c r="A154" s="2">
-        <v>34608</v>
+        <v>34639</v>
       </c>
       <c r="B154">
-        <v>3484300000000</v>
+        <v>3487200000000</v>
       </c>
       <c r="C154">
         <v>1</v>
@@ -2082,10 +2082,10 @@
     </row>
     <row r="155" spans="1:3">
       <c r="A155" s="2">
-        <v>34639</v>
+        <v>34669</v>
       </c>
       <c r="B155">
-        <v>3487200000000</v>
+        <v>3486400000000</v>
       </c>
       <c r="C155">
         <v>1</v>
@@ -2093,10 +2093,10 @@
     </row>
     <row r="156" spans="1:3">
       <c r="A156" s="2">
-        <v>34669</v>
+        <v>34700</v>
       </c>
       <c r="B156">
-        <v>3486400000000</v>
+        <v>3492400000000</v>
       </c>
       <c r="C156">
         <v>1</v>
@@ -2104,10 +2104,10 @@
     </row>
     <row r="157" spans="1:3">
       <c r="A157" s="2">
-        <v>34700</v>
+        <v>34731</v>
       </c>
       <c r="B157">
-        <v>3492400000000</v>
+        <v>3489900000000</v>
       </c>
       <c r="C157">
         <v>1</v>
@@ -2115,10 +2115,10 @@
     </row>
     <row r="158" spans="1:3">
       <c r="A158" s="2">
-        <v>34731</v>
+        <v>34759</v>
       </c>
       <c r="B158">
-        <v>3489900000000</v>
+        <v>3491100000000</v>
       </c>
       <c r="C158">
         <v>1</v>
@@ -2126,10 +2126,10 @@
     </row>
     <row r="159" spans="1:3">
       <c r="A159" s="2">
-        <v>34759</v>
+        <v>34790</v>
       </c>
       <c r="B159">
-        <v>3491100000000</v>
+        <v>3499200000000</v>
       </c>
       <c r="C159">
         <v>1</v>
@@ -2137,10 +2137,10 @@
     </row>
     <row r="160" spans="1:3">
       <c r="A160" s="2">
-        <v>34790</v>
+        <v>34820</v>
       </c>
       <c r="B160">
-        <v>3499200000000</v>
+        <v>3524200000000</v>
       </c>
       <c r="C160">
         <v>1</v>
@@ -2148,10 +2148,10 @@
     </row>
     <row r="161" spans="1:3">
       <c r="A161" s="2">
-        <v>34820</v>
+        <v>34851</v>
       </c>
       <c r="B161">
-        <v>3524200000000</v>
+        <v>3548900000000</v>
       </c>
       <c r="C161">
         <v>1</v>
@@ -2159,10 +2159,10 @@
     </row>
     <row r="162" spans="1:3">
       <c r="A162" s="2">
-        <v>34851</v>
+        <v>34881</v>
       </c>
       <c r="B162">
-        <v>3548900000000</v>
+        <v>3567400000000</v>
       </c>
       <c r="C162">
         <v>1</v>
@@ -2170,10 +2170,10 @@
     </row>
     <row r="163" spans="1:3">
       <c r="A163" s="2">
-        <v>34881</v>
+        <v>34912</v>
       </c>
       <c r="B163">
-        <v>3567400000000</v>
+        <v>3589000000000</v>
       </c>
       <c r="C163">
         <v>1</v>
@@ -2181,10 +2181,10 @@
     </row>
     <row r="164" spans="1:3">
       <c r="A164" s="2">
-        <v>34912</v>
+        <v>34943</v>
       </c>
       <c r="B164">
-        <v>3589000000000</v>
+        <v>3602100000000</v>
       </c>
       <c r="C164">
         <v>1</v>
@@ -2192,10 +2192,10 @@
     </row>
     <row r="165" spans="1:3">
       <c r="A165" s="2">
-        <v>34943</v>
+        <v>34973</v>
       </c>
       <c r="B165">
-        <v>3602100000000</v>
+        <v>3613400000000</v>
       </c>
       <c r="C165">
         <v>1</v>
@@ -2203,10 +2203,10 @@
     </row>
     <row r="166" spans="1:3">
       <c r="A166" s="2">
-        <v>34973</v>
+        <v>35004</v>
       </c>
       <c r="B166">
-        <v>3613400000000</v>
+        <v>3619900000000</v>
       </c>
       <c r="C166">
         <v>1</v>
@@ -2214,10 +2214,10 @@
     </row>
     <row r="167" spans="1:3">
       <c r="A167" s="2">
-        <v>35004</v>
+        <v>35034</v>
       </c>
       <c r="B167">
-        <v>3619900000000</v>
+        <v>3629500000000</v>
       </c>
       <c r="C167">
         <v>1</v>
@@ -2225,10 +2225,10 @@
     </row>
     <row r="168" spans="1:3">
       <c r="A168" s="2">
-        <v>35034</v>
+        <v>35065</v>
       </c>
       <c r="B168">
-        <v>3629500000000</v>
+        <v>3647900000000</v>
       </c>
       <c r="C168">
         <v>1</v>
@@ -2236,10 +2236,10 @@
     </row>
     <row r="169" spans="1:3">
       <c r="A169" s="2">
-        <v>35065</v>
+        <v>35096</v>
       </c>
       <c r="B169">
-        <v>3647900000000</v>
+        <v>3661800000000</v>
       </c>
       <c r="C169">
         <v>1</v>
@@ -2247,10 +2247,10 @@
     </row>
     <row r="170" spans="1:3">
       <c r="A170" s="2">
-        <v>35096</v>
+        <v>35125</v>
       </c>
       <c r="B170">
-        <v>3661800000000</v>
+        <v>3686900000000</v>
       </c>
       <c r="C170">
         <v>1</v>
@@ -2258,10 +2258,10 @@
     </row>
     <row r="171" spans="1:3">
       <c r="A171" s="2">
-        <v>35125</v>
+        <v>35156</v>
       </c>
       <c r="B171">
-        <v>3686900000000</v>
+        <v>3697700000000</v>
       </c>
       <c r="C171">
         <v>1</v>
@@ -2269,10 +2269,10 @@
     </row>
     <row r="172" spans="1:3">
       <c r="A172" s="2">
-        <v>35156</v>
+        <v>35186</v>
       </c>
       <c r="B172">
-        <v>3697700000000</v>
+        <v>3709600000000</v>
       </c>
       <c r="C172">
         <v>1</v>
@@ -2280,10 +2280,10 @@
     </row>
     <row r="173" spans="1:3">
       <c r="A173" s="2">
-        <v>35186</v>
+        <v>35217</v>
       </c>
       <c r="B173">
-        <v>3709600000000</v>
+        <v>3722500000000</v>
       </c>
       <c r="C173">
         <v>1</v>
@@ -2291,10 +2291,10 @@
     </row>
     <row r="174" spans="1:3">
       <c r="A174" s="2">
-        <v>35217</v>
+        <v>35247</v>
       </c>
       <c r="B174">
-        <v>3722500000000</v>
+        <v>3737100000000</v>
       </c>
       <c r="C174">
         <v>1</v>
@@ -2302,10 +2302,10 @@
     </row>
     <row r="175" spans="1:3">
       <c r="A175" s="2">
-        <v>35247</v>
+        <v>35278</v>
       </c>
       <c r="B175">
-        <v>3737100000000</v>
+        <v>3744000000000</v>
       </c>
       <c r="C175">
         <v>1</v>
@@ -2313,10 +2313,10 @@
     </row>
     <row r="176" spans="1:3">
       <c r="A176" s="2">
-        <v>35278</v>
+        <v>35309</v>
       </c>
       <c r="B176">
-        <v>3744000000000</v>
+        <v>3753400000000</v>
       </c>
       <c r="C176">
         <v>1</v>
@@ -2324,10 +2324,10 @@
     </row>
     <row r="177" spans="1:3">
       <c r="A177" s="2">
-        <v>35309</v>
+        <v>35339</v>
       </c>
       <c r="B177">
-        <v>3753400000000</v>
+        <v>3772800000000</v>
       </c>
       <c r="C177">
         <v>1</v>
@@ -2335,10 +2335,10 @@
     </row>
     <row r="178" spans="1:3">
       <c r="A178" s="2">
-        <v>35339</v>
+        <v>35370</v>
       </c>
       <c r="B178">
-        <v>3772800000000</v>
+        <v>3795100000000</v>
       </c>
       <c r="C178">
         <v>1</v>
@@ -2346,10 +2346,10 @@
     </row>
     <row r="179" spans="1:3">
       <c r="A179" s="2">
-        <v>35370</v>
+        <v>35400</v>
       </c>
       <c r="B179">
-        <v>3795100000000</v>
+        <v>3818600000000</v>
       </c>
       <c r="C179">
         <v>1</v>
@@ -2357,10 +2357,10 @@
     </row>
     <row r="180" spans="1:3">
       <c r="A180" s="2">
-        <v>35400</v>
+        <v>35431</v>
       </c>
       <c r="B180">
-        <v>3818600000000</v>
+        <v>3834600000000</v>
       </c>
       <c r="C180">
         <v>1</v>
@@ -2368,10 +2368,10 @@
     </row>
     <row r="181" spans="1:3">
       <c r="A181" s="2">
-        <v>35431</v>
+        <v>35462</v>
       </c>
       <c r="B181">
-        <v>3834600000000</v>
+        <v>3846300000000</v>
       </c>
       <c r="C181">
         <v>1</v>
@@ -2379,10 +2379,10 @@
     </row>
     <row r="182" spans="1:3">
       <c r="A182" s="2">
-        <v>35462</v>
+        <v>35490</v>
       </c>
       <c r="B182">
-        <v>3846300000000</v>
+        <v>3861200000000</v>
       </c>
       <c r="C182">
         <v>1</v>
@@ -2390,10 +2390,10 @@
     </row>
     <row r="183" spans="1:3">
       <c r="A183" s="2">
-        <v>35490</v>
+        <v>35521</v>
       </c>
       <c r="B183">
-        <v>3861200000000</v>
+        <v>3877000000000</v>
       </c>
       <c r="C183">
         <v>1</v>
@@ -2401,10 +2401,10 @@
     </row>
     <row r="184" spans="1:3">
       <c r="A184" s="2">
-        <v>35521</v>
+        <v>35551</v>
       </c>
       <c r="B184">
-        <v>3877000000000</v>
+        <v>3889200000000</v>
       </c>
       <c r="C184">
         <v>1</v>
@@ -2412,10 +2412,10 @@
     </row>
     <row r="185" spans="1:3">
       <c r="A185" s="2">
-        <v>35551</v>
+        <v>35582</v>
       </c>
       <c r="B185">
-        <v>3889200000000</v>
+        <v>3906000000000</v>
       </c>
       <c r="C185">
         <v>1</v>
@@ -2423,10 +2423,10 @@
     </row>
     <row r="186" spans="1:3">
       <c r="A186" s="2">
-        <v>35582</v>
+        <v>35612</v>
       </c>
       <c r="B186">
-        <v>3906000000000</v>
+        <v>3923900000000</v>
       </c>
       <c r="C186">
         <v>1</v>
@@ -2434,10 +2434,10 @@
     </row>
     <row r="187" spans="1:3">
       <c r="A187" s="2">
-        <v>35612</v>
+        <v>35643</v>
       </c>
       <c r="B187">
-        <v>3923900000000</v>
+        <v>3957400000000</v>
       </c>
       <c r="C187">
         <v>1</v>
@@ -2445,10 +2445,10 @@
     </row>
     <row r="188" spans="1:3">
       <c r="A188" s="2">
-        <v>35643</v>
+        <v>35674</v>
       </c>
       <c r="B188">
-        <v>3957400000000</v>
+        <v>3973100000000</v>
       </c>
       <c r="C188">
         <v>1</v>
@@ -2456,10 +2456,10 @@
     </row>
     <row r="189" spans="1:3">
       <c r="A189" s="2">
-        <v>35674</v>
+        <v>35704</v>
       </c>
       <c r="B189">
-        <v>3973100000000</v>
+        <v>3992300000000</v>
       </c>
       <c r="C189">
         <v>1</v>
@@ -2467,10 +2467,10 @@
     </row>
     <row r="190" spans="1:3">
       <c r="A190" s="2">
-        <v>35704</v>
+        <v>35735</v>
       </c>
       <c r="B190">
-        <v>3992300000000</v>
+        <v>4014800000000</v>
       </c>
       <c r="C190">
         <v>1</v>
@@ -2478,10 +2478,10 @@
     </row>
     <row r="191" spans="1:3">
       <c r="A191" s="2">
-        <v>35735</v>
+        <v>35765</v>
       </c>
       <c r="B191">
-        <v>4014800000000</v>
+        <v>4032900000000</v>
       </c>
       <c r="C191">
         <v>1</v>
@@ -2489,10 +2489,10 @@
     </row>
     <row r="192" spans="1:3">
       <c r="A192" s="2">
-        <v>35765</v>
+        <v>35796</v>
       </c>
       <c r="B192">
-        <v>4032900000000</v>
+        <v>4056200000000</v>
       </c>
       <c r="C192">
         <v>1</v>
@@ -2500,10 +2500,10 @@
     </row>
     <row r="193" spans="1:3">
       <c r="A193" s="2">
-        <v>35796</v>
+        <v>35827</v>
       </c>
       <c r="B193">
-        <v>4056200000000</v>
+        <v>4088900000000</v>
       </c>
       <c r="C193">
         <v>1</v>
@@ -2511,10 +2511,10 @@
     </row>
     <row r="194" spans="1:3">
       <c r="A194" s="2">
-        <v>35827</v>
+        <v>35855</v>
       </c>
       <c r="B194">
-        <v>4088900000000</v>
+        <v>4114300000000</v>
       </c>
       <c r="C194">
         <v>1</v>
@@ -2522,10 +2522,10 @@
     </row>
     <row r="195" spans="1:3">
       <c r="A195" s="2">
-        <v>35855</v>
+        <v>35886</v>
       </c>
       <c r="B195">
-        <v>4114300000000</v>
+        <v>4140200000000</v>
       </c>
       <c r="C195">
         <v>1</v>
@@ -2533,10 +2533,10 @@
     </row>
     <row r="196" spans="1:3">
       <c r="A196" s="2">
-        <v>35886</v>
+        <v>35916</v>
       </c>
       <c r="B196">
-        <v>4140200000000</v>
+        <v>4164400000000</v>
       </c>
       <c r="C196">
         <v>1</v>
@@ -2544,10 +2544,10 @@
     </row>
     <row r="197" spans="1:3">
       <c r="A197" s="2">
-        <v>35916</v>
+        <v>35947</v>
       </c>
       <c r="B197">
-        <v>4164400000000</v>
+        <v>4184100000000</v>
       </c>
       <c r="C197">
         <v>1</v>
@@ -2555,10 +2555,10 @@
     </row>
     <row r="198" spans="1:3">
       <c r="A198" s="2">
-        <v>35947</v>
+        <v>35977</v>
       </c>
       <c r="B198">
-        <v>4184100000000</v>
+        <v>4203800000000</v>
       </c>
       <c r="C198">
         <v>1</v>
@@ -2566,10 +2566,10 @@
     </row>
     <row r="199" spans="1:3">
       <c r="A199" s="2">
-        <v>35977</v>
+        <v>36008</v>
       </c>
       <c r="B199">
-        <v>4203800000000</v>
+        <v>4228700000000</v>
       </c>
       <c r="C199">
         <v>1</v>
@@ -2577,10 +2577,10 @@
     </row>
     <row r="200" spans="1:3">
       <c r="A200" s="2">
-        <v>36008</v>
+        <v>36039</v>
       </c>
       <c r="B200">
-        <v>4228700000000</v>
+        <v>4267600000000</v>
       </c>
       <c r="C200">
         <v>1</v>
@@ -2588,10 +2588,10 @@
     </row>
     <row r="201" spans="1:3">
       <c r="A201" s="2">
-        <v>36039</v>
+        <v>36069</v>
       </c>
       <c r="B201">
-        <v>4267600000000</v>
+        <v>4307700000000</v>
       </c>
       <c r="C201">
         <v>1</v>
@@ -2599,10 +2599,10 @@
     </row>
     <row r="202" spans="1:3">
       <c r="A202" s="2">
-        <v>36069</v>
+        <v>36100</v>
       </c>
       <c r="B202">
-        <v>4307700000000</v>
+        <v>4346400000000</v>
       </c>
       <c r="C202">
         <v>1</v>
@@ -2610,10 +2610,10 @@
     </row>
     <row r="203" spans="1:3">
       <c r="A203" s="2">
-        <v>36100</v>
+        <v>36130</v>
       </c>
       <c r="B203">
-        <v>4346400000000</v>
+        <v>4375200000000</v>
       </c>
       <c r="C203">
         <v>1</v>
@@ -2621,10 +2621,10 @@
     </row>
     <row r="204" spans="1:3">
       <c r="A204" s="2">
-        <v>36130</v>
+        <v>36161</v>
       </c>
       <c r="B204">
-        <v>4375200000000</v>
+        <v>4402600000000</v>
       </c>
       <c r="C204">
         <v>1</v>
@@ -2632,10 +2632,10 @@
     </row>
     <row r="205" spans="1:3">
       <c r="A205" s="2">
-        <v>36161</v>
+        <v>36192</v>
       </c>
       <c r="B205">
-        <v>4402600000000</v>
+        <v>4425300000000</v>
       </c>
       <c r="C205">
         <v>1</v>
@@ -2643,10 +2643,10 @@
     </row>
     <row r="206" spans="1:3">
       <c r="A206" s="2">
-        <v>36192</v>
+        <v>36220</v>
       </c>
       <c r="B206">
-        <v>4425300000000</v>
+        <v>4432100000000</v>
       </c>
       <c r="C206">
         <v>1</v>
@@ -2654,10 +2654,10 @@
     </row>
     <row r="207" spans="1:3">
       <c r="A207" s="2">
-        <v>36220</v>
+        <v>36251</v>
       </c>
       <c r="B207">
-        <v>4432100000000</v>
+        <v>4460700000000</v>
       </c>
       <c r="C207">
         <v>1</v>
@@ -2665,10 +2665,10 @@
     </row>
     <row r="208" spans="1:3">
       <c r="A208" s="2">
-        <v>36251</v>
+        <v>36281</v>
       </c>
       <c r="B208">
-        <v>4460700000000</v>
+        <v>4485300000000</v>
       </c>
       <c r="C208">
         <v>1</v>
@@ -2676,10 +2676,10 @@
     </row>
     <row r="209" spans="1:3">
       <c r="A209" s="2">
-        <v>36281</v>
+        <v>36312</v>
       </c>
       <c r="B209">
-        <v>4485300000000</v>
+        <v>4507200000000</v>
       </c>
       <c r="C209">
         <v>1</v>
@@ -2687,10 +2687,10 @@
     </row>
     <row r="210" spans="1:3">
       <c r="A210" s="2">
-        <v>36312</v>
+        <v>36342</v>
       </c>
       <c r="B210">
-        <v>4507200000000</v>
+        <v>4534500000000</v>
       </c>
       <c r="C210">
         <v>1</v>
@@ -2698,10 +2698,10 @@
     </row>
     <row r="211" spans="1:3">
       <c r="A211" s="2">
-        <v>36342</v>
+        <v>36373</v>
       </c>
       <c r="B211">
-        <v>4534500000000</v>
+        <v>4551700000000</v>
       </c>
       <c r="C211">
         <v>1</v>
@@ -2709,10 +2709,10 @@
     </row>
     <row r="212" spans="1:3">
       <c r="A212" s="2">
-        <v>36373</v>
+        <v>36404</v>
       </c>
       <c r="B212">
-        <v>4551700000000</v>
+        <v>4567700000000</v>
       </c>
       <c r="C212">
         <v>1</v>
@@ -2720,10 +2720,10 @@
     </row>
     <row r="213" spans="1:3">
       <c r="A213" s="2">
-        <v>36404</v>
+        <v>36434</v>
       </c>
       <c r="B213">
-        <v>4567700000000</v>
+        <v>4591500000000</v>
       </c>
       <c r="C213">
         <v>1</v>
@@ -2731,10 +2731,10 @@
     </row>
     <row r="214" spans="1:3">
       <c r="A214" s="2">
-        <v>36434</v>
+        <v>36465</v>
       </c>
       <c r="B214">
-        <v>4591500000000</v>
+        <v>4610500000000</v>
       </c>
       <c r="C214">
         <v>1</v>
@@ -2742,10 +2742,10 @@
     </row>
     <row r="215" spans="1:3">
       <c r="A215" s="2">
-        <v>36465</v>
+        <v>36495</v>
       </c>
       <c r="B215">
-        <v>4610500000000</v>
+        <v>4638000000000</v>
       </c>
       <c r="C215">
         <v>1</v>
@@ -2753,10 +2753,10 @@
     </row>
     <row r="216" spans="1:3">
       <c r="A216" s="2">
-        <v>36495</v>
+        <v>36526</v>
       </c>
       <c r="B216">
-        <v>4638000000000</v>
+        <v>4666200000000</v>
       </c>
       <c r="C216">
         <v>1</v>
@@ -2764,10 +2764,10 @@
     </row>
     <row r="217" spans="1:3">
       <c r="A217" s="2">
-        <v>36526</v>
+        <v>36557</v>
       </c>
       <c r="B217">
-        <v>4666200000000</v>
+        <v>4679400000000</v>
       </c>
       <c r="C217">
         <v>1</v>
@@ -2775,10 +2775,10 @@
     </row>
     <row r="218" spans="1:3">
       <c r="A218" s="2">
-        <v>36557</v>
+        <v>36586</v>
       </c>
       <c r="B218">
-        <v>4679400000000</v>
+        <v>4710200000000</v>
       </c>
       <c r="C218">
         <v>1</v>
@@ -2786,10 +2786,10 @@
     </row>
     <row r="219" spans="1:3">
       <c r="A219" s="2">
-        <v>36586</v>
+        <v>36617</v>
       </c>
       <c r="B219">
-        <v>4710200000000</v>
+        <v>4766100000000</v>
       </c>
       <c r="C219">
         <v>1</v>
@@ -2797,10 +2797,10 @@
     </row>
     <row r="220" spans="1:3">
       <c r="A220" s="2">
-        <v>36617</v>
+        <v>36647</v>
       </c>
       <c r="B220">
-        <v>4766100000000</v>
+        <v>4753900000000</v>
       </c>
       <c r="C220">
         <v>1</v>
@@ -2808,10 +2808,10 @@
     </row>
     <row r="221" spans="1:3">
       <c r="A221" s="2">
-        <v>36647</v>
+        <v>36678</v>
       </c>
       <c r="B221">
-        <v>4753900000000</v>
+        <v>4771800000000</v>
       </c>
       <c r="C221">
         <v>1</v>
@@ -2819,10 +2819,10 @@
     </row>
     <row r="222" spans="1:3">
       <c r="A222" s="2">
-        <v>36678</v>
+        <v>36708</v>
       </c>
       <c r="B222">
-        <v>4771800000000</v>
+        <v>4789400000000</v>
       </c>
       <c r="C222">
         <v>1</v>
@@ -2830,10 +2830,10 @@
     </row>
     <row r="223" spans="1:3">
       <c r="A223" s="2">
-        <v>36708</v>
+        <v>36739</v>
       </c>
       <c r="B223">
-        <v>4789400000000</v>
+        <v>4817500000000</v>
       </c>
       <c r="C223">
         <v>1</v>
@@ -2841,10 +2841,10 @@
     </row>
     <row r="224" spans="1:3">
       <c r="A224" s="2">
-        <v>36739</v>
+        <v>36770</v>
       </c>
       <c r="B224">
-        <v>4817500000000</v>
+        <v>4853200000000</v>
       </c>
       <c r="C224">
         <v>1</v>
@@ -2852,10 +2852,10 @@
     </row>
     <row r="225" spans="1:3">
       <c r="A225" s="2">
-        <v>36770</v>
+        <v>36800</v>
       </c>
       <c r="B225">
-        <v>4853200000000</v>
+        <v>4869200000000</v>
       </c>
       <c r="C225">
         <v>1</v>
@@ -2863,10 +2863,10 @@
     </row>
     <row r="226" spans="1:3">
       <c r="A226" s="2">
-        <v>36800</v>
+        <v>36831</v>
       </c>
       <c r="B226">
-        <v>4869200000000</v>
+        <v>4880300000000</v>
       </c>
       <c r="C226">
         <v>1</v>
@@ -2874,10 +2874,10 @@
     </row>
     <row r="227" spans="1:3">
       <c r="A227" s="2">
-        <v>36831</v>
+        <v>36861</v>
       </c>
       <c r="B227">
-        <v>4880300000000</v>
+        <v>4925000000000</v>
       </c>
       <c r="C227">
         <v>1</v>
@@ -2885,10 +2885,10 @@
     </row>
     <row r="228" spans="1:3">
       <c r="A228" s="2">
-        <v>36861</v>
+        <v>36892</v>
       </c>
       <c r="B228">
-        <v>4925000000000</v>
+        <v>4975700000000</v>
       </c>
       <c r="C228">
         <v>1</v>
@@ -2896,10 +2896,10 @@
     </row>
     <row r="229" spans="1:3">
       <c r="A229" s="2">
-        <v>36892</v>
+        <v>36923</v>
       </c>
       <c r="B229">
-        <v>4975700000000</v>
+        <v>5014100000000</v>
       </c>
       <c r="C229">
         <v>1</v>
@@ -2907,10 +2907,10 @@
     </row>
     <row r="230" spans="1:3">
       <c r="A230" s="2">
-        <v>36923</v>
+        <v>36951</v>
       </c>
       <c r="B230">
-        <v>5014100000000</v>
+        <v>5072000000000</v>
       </c>
       <c r="C230">
         <v>1</v>
@@ -2918,10 +2918,10 @@
     </row>
     <row r="231" spans="1:3">
       <c r="A231" s="2">
-        <v>36951</v>
+        <v>36982</v>
       </c>
       <c r="B231">
-        <v>5072000000000</v>
+        <v>5135900000000</v>
       </c>
       <c r="C231">
         <v>1</v>
@@ -2929,10 +2929,10 @@
     </row>
     <row r="232" spans="1:3">
       <c r="A232" s="2">
-        <v>36982</v>
+        <v>37012</v>
       </c>
       <c r="B232">
-        <v>5135900000000</v>
+        <v>5133000000000</v>
       </c>
       <c r="C232">
         <v>1</v>
@@ -2940,10 +2940,10 @@
     </row>
     <row r="233" spans="1:3">
       <c r="A233" s="2">
-        <v>37012</v>
+        <v>37043</v>
       </c>
       <c r="B233">
-        <v>5133000000000</v>
+        <v>5173500000000</v>
       </c>
       <c r="C233">
         <v>1</v>
@@ -2951,10 +2951,10 @@
     </row>
     <row r="234" spans="1:3">
       <c r="A234" s="2">
-        <v>37043</v>
+        <v>37073</v>
       </c>
       <c r="B234">
-        <v>5173500000000</v>
+        <v>5203400000000</v>
       </c>
       <c r="C234">
         <v>1</v>
@@ -2962,10 +2962,10 @@
     </row>
     <row r="235" spans="1:3">
       <c r="A235" s="2">
-        <v>37073</v>
+        <v>37104</v>
       </c>
       <c r="B235">
-        <v>5203400000000</v>
+        <v>5237200000000</v>
       </c>
       <c r="C235">
         <v>1</v>
@@ -2973,10 +2973,10 @@
     </row>
     <row r="236" spans="1:3">
       <c r="A236" s="2">
-        <v>37104</v>
+        <v>37135</v>
       </c>
       <c r="B236">
-        <v>5237200000000</v>
+        <v>5348400000000</v>
       </c>
       <c r="C236">
         <v>1</v>
@@ -2984,10 +2984,10 @@
     </row>
     <row r="237" spans="1:3">
       <c r="A237" s="2">
-        <v>37135</v>
+        <v>37165</v>
       </c>
       <c r="B237">
-        <v>5348400000000</v>
+        <v>5337100000000</v>
       </c>
       <c r="C237">
         <v>1</v>
@@ -2995,10 +2995,10 @@
     </row>
     <row r="238" spans="1:3">
       <c r="A238" s="2">
-        <v>37165</v>
+        <v>37196</v>
       </c>
       <c r="B238">
-        <v>5337100000000</v>
+        <v>5380800000000</v>
       </c>
       <c r="C238">
         <v>1</v>
@@ -3006,10 +3006,10 @@
     </row>
     <row r="239" spans="1:3">
       <c r="A239" s="2">
-        <v>37196</v>
+        <v>37226</v>
       </c>
       <c r="B239">
-        <v>5380800000000</v>
+        <v>5433800000000</v>
       </c>
       <c r="C239">
         <v>1</v>
@@ -3017,10 +3017,10 @@
     </row>
     <row r="240" spans="1:3">
       <c r="A240" s="2">
-        <v>37226</v>
+        <v>37257</v>
       </c>
       <c r="B240">
-        <v>5433800000000</v>
+        <v>5454100000000</v>
       </c>
       <c r="C240">
         <v>1</v>
@@ -3028,10 +3028,10 @@
     </row>
     <row r="241" spans="1:3">
       <c r="A241" s="2">
-        <v>37257</v>
+        <v>37288</v>
       </c>
       <c r="B241">
-        <v>5454100000000</v>
+        <v>5483400000000</v>
       </c>
       <c r="C241">
         <v>1</v>
@@ -3039,10 +3039,10 @@
     </row>
     <row r="242" spans="1:3">
       <c r="A242" s="2">
-        <v>37288</v>
+        <v>37316</v>
       </c>
       <c r="B242">
-        <v>5483400000000</v>
+        <v>5495200000000</v>
       </c>
       <c r="C242">
         <v>1</v>
@@ -3050,10 +3050,10 @@
     </row>
     <row r="243" spans="1:3">
       <c r="A243" s="2">
-        <v>37316</v>
+        <v>37347</v>
       </c>
       <c r="B243">
-        <v>5495200000000</v>
+        <v>5495400000000</v>
       </c>
       <c r="C243">
         <v>1</v>
@@ -3061,10 +3061,10 @@
     </row>
     <row r="244" spans="1:3">
       <c r="A244" s="2">
-        <v>37347</v>
+        <v>37377</v>
       </c>
       <c r="B244">
-        <v>5495400000000</v>
+        <v>5521500000000</v>
       </c>
       <c r="C244">
         <v>1</v>
@@ -3072,10 +3072,10 @@
     </row>
     <row r="245" spans="1:3">
       <c r="A245" s="2">
-        <v>37377</v>
+        <v>37408</v>
       </c>
       <c r="B245">
-        <v>5521500000000</v>
+        <v>5546500000000</v>
       </c>
       <c r="C245">
         <v>1</v>
@@ -3083,10 +3083,10 @@
     </row>
     <row r="246" spans="1:3">
       <c r="A246" s="2">
-        <v>37408</v>
+        <v>37438</v>
       </c>
       <c r="B246">
-        <v>5546500000000</v>
+        <v>5589100000000</v>
       </c>
       <c r="C246">
         <v>1</v>
@@ -3094,10 +3094,10 @@
     </row>
     <row r="247" spans="1:3">
       <c r="A247" s="2">
-        <v>37438</v>
+        <v>37469</v>
       </c>
       <c r="B247">
-        <v>5589100000000</v>
+        <v>5631600000000</v>
       </c>
       <c r="C247">
         <v>1</v>
@@ -3105,10 +3105,10 @@
     </row>
     <row r="248" spans="1:3">
       <c r="A248" s="2">
-        <v>37469</v>
+        <v>37500</v>
       </c>
       <c r="B248">
-        <v>5631600000000</v>
+        <v>5656000000000</v>
       </c>
       <c r="C248">
         <v>1</v>
@@ -3116,10 +3116,10 @@
     </row>
     <row r="249" spans="1:3">
       <c r="A249" s="2">
-        <v>37500</v>
+        <v>37530</v>
       </c>
       <c r="B249">
-        <v>5656000000000</v>
+        <v>5700400000000</v>
       </c>
       <c r="C249">
         <v>1</v>
@@ -3127,10 +3127,10 @@
     </row>
     <row r="250" spans="1:3">
       <c r="A250" s="2">
-        <v>37530</v>
+        <v>37561</v>
       </c>
       <c r="B250">
-        <v>5700400000000</v>
+        <v>5750600000000</v>
       </c>
       <c r="C250">
         <v>1</v>
@@ -3138,10 +3138,10 @@
     </row>
     <row r="251" spans="1:3">
       <c r="A251" s="2">
-        <v>37561</v>
+        <v>37591</v>
       </c>
       <c r="B251">
-        <v>5750600000000</v>
+        <v>5772000000000</v>
       </c>
       <c r="C251">
         <v>1</v>
@@ -3149,10 +3149,10 @@
     </row>
     <row r="252" spans="1:3">
       <c r="A252" s="2">
-        <v>37591</v>
+        <v>37622</v>
       </c>
       <c r="B252">
-        <v>5772000000000</v>
+        <v>5804600000000</v>
       </c>
       <c r="C252">
         <v>1</v>
@@ -3160,10 +3160,10 @@
     </row>
     <row r="253" spans="1:3">
       <c r="A253" s="2">
-        <v>37622</v>
+        <v>37653</v>
       </c>
       <c r="B253">
-        <v>5804600000000</v>
+        <v>5840700000000</v>
       </c>
       <c r="C253">
         <v>1</v>
@@ -3171,10 +3171,10 @@
     </row>
     <row r="254" spans="1:3">
       <c r="A254" s="2">
-        <v>37653</v>
+        <v>37681</v>
       </c>
       <c r="B254">
-        <v>5840700000000</v>
+        <v>5861400000000</v>
       </c>
       <c r="C254">
         <v>1</v>
@@ -3182,10 +3182,10 @@
     </row>
     <row r="255" spans="1:3">
       <c r="A255" s="2">
-        <v>37681</v>
+        <v>37712</v>
       </c>
       <c r="B255">
-        <v>5861400000000</v>
+        <v>5898800000000</v>
       </c>
       <c r="C255">
         <v>1</v>
@@ -3193,10 +3193,10 @@
     </row>
     <row r="256" spans="1:3">
       <c r="A256" s="2">
-        <v>37712</v>
+        <v>37742</v>
       </c>
       <c r="B256">
-        <v>5898800000000</v>
+        <v>5959300000000</v>
       </c>
       <c r="C256">
         <v>1</v>
@@ -3204,10 +3204,10 @@
     </row>
     <row r="257" spans="1:3">
       <c r="A257" s="2">
-        <v>37742</v>
+        <v>37773</v>
       </c>
       <c r="B257">
-        <v>5959300000000</v>
+        <v>5996000000000</v>
       </c>
       <c r="C257">
         <v>1</v>
@@ -3215,10 +3215,10 @@
     </row>
     <row r="258" spans="1:3">
       <c r="A258" s="2">
-        <v>37773</v>
+        <v>37803</v>
       </c>
       <c r="B258">
-        <v>5996000000000</v>
+        <v>6042700000000</v>
       </c>
       <c r="C258">
         <v>1</v>
@@ -3226,10 +3226,10 @@
     </row>
     <row r="259" spans="1:3">
       <c r="A259" s="2">
-        <v>37803</v>
+        <v>37834</v>
       </c>
       <c r="B259">
-        <v>6042700000000</v>
+        <v>6100800000000</v>
       </c>
       <c r="C259">
         <v>1</v>
@@ -3237,10 +3237,10 @@
     </row>
     <row r="260" spans="1:3">
       <c r="A260" s="2">
-        <v>37834</v>
+        <v>37865</v>
       </c>
       <c r="B260">
-        <v>6100800000000</v>
+        <v>6072800000000</v>
       </c>
       <c r="C260">
         <v>1</v>
@@ -3248,10 +3248,10 @@
     </row>
     <row r="261" spans="1:3">
       <c r="A261" s="2">
-        <v>37865</v>
+        <v>37895</v>
       </c>
       <c r="B261">
-        <v>6072800000000</v>
+        <v>6063600000000</v>
       </c>
       <c r="C261">
         <v>1</v>
@@ -3259,10 +3259,10 @@
     </row>
     <row r="262" spans="1:3">
       <c r="A262" s="2">
-        <v>37895</v>
+        <v>37926</v>
       </c>
       <c r="B262">
-        <v>6063600000000</v>
+        <v>6069100000000</v>
       </c>
       <c r="C262">
         <v>1</v>
@@ -3270,10 +3270,10 @@
     </row>
     <row r="263" spans="1:3">
       <c r="A263" s="2">
-        <v>37926</v>
+        <v>37956</v>
       </c>
       <c r="B263">
-        <v>6069100000000</v>
+        <v>6067300000000</v>
       </c>
       <c r="C263">
         <v>1</v>
@@ -3281,10 +3281,10 @@
     </row>
     <row r="264" spans="1:3">
       <c r="A264" s="2">
-        <v>37956</v>
+        <v>37987</v>
       </c>
       <c r="B264">
-        <v>6067300000000</v>
+        <v>6075500000000</v>
       </c>
       <c r="C264">
         <v>1</v>
@@ -3292,10 +3292,10 @@
     </row>
     <row r="265" spans="1:3">
       <c r="A265" s="2">
-        <v>37987</v>
+        <v>38018</v>
       </c>
       <c r="B265">
-        <v>6075500000000</v>
+        <v>6114300000000</v>
       </c>
       <c r="C265">
         <v>1</v>
@@ -3303,10 +3303,10 @@
     </row>
     <row r="266" spans="1:3">
       <c r="A266" s="2">
-        <v>38018</v>
+        <v>38047</v>
       </c>
       <c r="B266">
-        <v>6114300000000</v>
+        <v>6150100000000</v>
       </c>
       <c r="C266">
         <v>1</v>
@@ -3314,10 +3314,10 @@
     </row>
     <row r="267" spans="1:3">
       <c r="A267" s="2">
-        <v>38047</v>
+        <v>38078</v>
       </c>
       <c r="B267">
-        <v>6150100000000</v>
+        <v>6191200000000</v>
       </c>
       <c r="C267">
         <v>1</v>
@@ -3325,10 +3325,10 @@
     </row>
     <row r="268" spans="1:3">
       <c r="A268" s="2">
-        <v>38078</v>
+        <v>38108</v>
       </c>
       <c r="B268">
-        <v>6191200000000</v>
+        <v>6268100000000</v>
       </c>
       <c r="C268">
         <v>1</v>
@@ -3336,10 +3336,10 @@
     </row>
     <row r="269" spans="1:3">
       <c r="A269" s="2">
-        <v>38108</v>
+        <v>38139</v>
       </c>
       <c r="B269">
-        <v>6268100000000</v>
+        <v>6270500000000</v>
       </c>
       <c r="C269">
         <v>1</v>
@@ -3347,10 +3347,10 @@
     </row>
     <row r="270" spans="1:3">
       <c r="A270" s="2">
-        <v>38139</v>
+        <v>38169</v>
       </c>
       <c r="B270">
-        <v>6270500000000</v>
+        <v>6284300000000</v>
       </c>
       <c r="C270">
         <v>1</v>
@@ -3358,10 +3358,10 @@
     </row>
     <row r="271" spans="1:3">
       <c r="A271" s="2">
-        <v>38169</v>
+        <v>38200</v>
       </c>
       <c r="B271">
-        <v>6284300000000</v>
+        <v>6310600000000</v>
       </c>
       <c r="C271">
         <v>1</v>
@@ -3369,10 +3369,10 @@
     </row>
     <row r="272" spans="1:3">
       <c r="A272" s="2">
-        <v>38200</v>
+        <v>38231</v>
       </c>
       <c r="B272">
-        <v>6310600000000</v>
+        <v>6345300000000</v>
       </c>
       <c r="C272">
         <v>1</v>
@@ -3380,10 +3380,10 @@
     </row>
     <row r="273" spans="1:3">
       <c r="A273" s="2">
-        <v>38231</v>
+        <v>38261</v>
       </c>
       <c r="B273">
-        <v>6345300000000</v>
+        <v>6373300000000</v>
       </c>
       <c r="C273">
         <v>1</v>
@@ -3391,10 +3391,10 @@
     </row>
     <row r="274" spans="1:3">
       <c r="A274" s="2">
-        <v>38261</v>
+        <v>38292</v>
       </c>
       <c r="B274">
-        <v>6373300000000</v>
+        <v>6399800000000</v>
       </c>
       <c r="C274">
         <v>1</v>
@@ -3402,10 +3402,10 @@
     </row>
     <row r="275" spans="1:3">
       <c r="A275" s="2">
-        <v>38292</v>
+        <v>38322</v>
       </c>
       <c r="B275">
-        <v>6399800000000</v>
+        <v>6418300000000</v>
       </c>
       <c r="C275">
         <v>1</v>
@@ -3413,10 +3413,10 @@
     </row>
     <row r="276" spans="1:3">
       <c r="A276" s="2">
-        <v>38322</v>
+        <v>38353</v>
       </c>
       <c r="B276">
-        <v>6418300000000</v>
+        <v>6424500000000</v>
       </c>
       <c r="C276">
         <v>1</v>
@@ -3424,10 +3424,10 @@
     </row>
     <row r="277" spans="1:3">
       <c r="A277" s="2">
-        <v>38353</v>
+        <v>38384</v>
       </c>
       <c r="B277">
-        <v>6424500000000</v>
+        <v>6432800000000</v>
       </c>
       <c r="C277">
         <v>1</v>
@@ -3435,10 +3435,10 @@
     </row>
     <row r="278" spans="1:3">
       <c r="A278" s="2">
-        <v>38384</v>
+        <v>38412</v>
       </c>
       <c r="B278">
-        <v>6432800000000</v>
+        <v>6441900000000</v>
       </c>
       <c r="C278">
         <v>1</v>
@@ -3446,10 +3446,10 @@
     </row>
     <row r="279" spans="1:3">
       <c r="A279" s="2">
-        <v>38412</v>
+        <v>38443</v>
       </c>
       <c r="B279">
-        <v>6441900000000</v>
+        <v>6455900000000</v>
       </c>
       <c r="C279">
         <v>1</v>
@@ -3457,10 +3457,10 @@
     </row>
     <row r="280" spans="1:3">
       <c r="A280" s="2">
-        <v>38443</v>
+        <v>38473</v>
       </c>
       <c r="B280">
-        <v>6455900000000</v>
+        <v>6473300000000</v>
       </c>
       <c r="C280">
         <v>1</v>
@@ -3468,10 +3468,10 @@
     </row>
     <row r="281" spans="1:3">
       <c r="A281" s="2">
-        <v>38473</v>
+        <v>38504</v>
       </c>
       <c r="B281">
-        <v>6473300000000</v>
+        <v>6505800000000</v>
       </c>
       <c r="C281">
         <v>1</v>
@@ -3479,10 +3479,10 @@
     </row>
     <row r="282" spans="1:3">
       <c r="A282" s="2">
-        <v>38504</v>
+        <v>38534</v>
       </c>
       <c r="B282">
-        <v>6505800000000</v>
+        <v>6537400000000</v>
       </c>
       <c r="C282">
         <v>1</v>
@@ -3490,10 +3490,10 @@
     </row>
     <row r="283" spans="1:3">
       <c r="A283" s="2">
-        <v>38534</v>
+        <v>38565</v>
       </c>
       <c r="B283">
-        <v>6537400000000</v>
+        <v>6570200000000</v>
       </c>
       <c r="C283">
         <v>1</v>
@@ -3501,10 +3501,10 @@
     </row>
     <row r="284" spans="1:3">
       <c r="A284" s="2">
-        <v>38565</v>
+        <v>38596</v>
       </c>
       <c r="B284">
-        <v>6570200000000</v>
+        <v>6604300000000</v>
       </c>
       <c r="C284">
         <v>1</v>
@@ -3512,10 +3512,10 @@
     </row>
     <row r="285" spans="1:3">
       <c r="A285" s="2">
-        <v>38596</v>
+        <v>38626</v>
       </c>
       <c r="B285">
-        <v>6604300000000</v>
+        <v>6638600000000</v>
       </c>
       <c r="C285">
         <v>1</v>
@@ -3523,10 +3523,10 @@
     </row>
     <row r="286" spans="1:3">
       <c r="A286" s="2">
-        <v>38626</v>
+        <v>38657</v>
       </c>
       <c r="B286">
-        <v>6638600000000</v>
+        <v>6655000000000</v>
       </c>
       <c r="C286">
         <v>1</v>
@@ -3534,10 +3534,10 @@
     </row>
     <row r="287" spans="1:3">
       <c r="A287" s="2">
-        <v>38657</v>
+        <v>38687</v>
       </c>
       <c r="B287">
-        <v>6655000000000</v>
+        <v>6681900000000</v>
       </c>
       <c r="C287">
         <v>1</v>
@@ -3545,10 +3545,10 @@
     </row>
     <row r="288" spans="1:3">
       <c r="A288" s="2">
-        <v>38687</v>
+        <v>38718</v>
       </c>
       <c r="B288">
-        <v>6681900000000</v>
+        <v>6724300000000</v>
       </c>
       <c r="C288">
         <v>1</v>
@@ -3556,10 +3556,10 @@
     </row>
     <row r="289" spans="1:3">
       <c r="A289" s="2">
-        <v>38718</v>
+        <v>38749</v>
       </c>
       <c r="B289">
-        <v>6724300000000</v>
+        <v>6748600000000</v>
       </c>
       <c r="C289">
         <v>1</v>
@@ -3567,10 +3567,10 @@
     </row>
     <row r="290" spans="1:3">
       <c r="A290" s="2">
-        <v>38749</v>
+        <v>38777</v>
       </c>
       <c r="B290">
-        <v>6748600000000</v>
+        <v>6762900000000</v>
       </c>
       <c r="C290">
         <v>1</v>
@@ -3578,10 +3578,10 @@
     </row>
     <row r="291" spans="1:3">
       <c r="A291" s="2">
-        <v>38777</v>
+        <v>38808</v>
       </c>
       <c r="B291">
-        <v>6762900000000</v>
+        <v>6800100000000</v>
       </c>
       <c r="C291">
         <v>1</v>
@@ -3589,10 +3589,10 @@
     </row>
     <row r="292" spans="1:3">
       <c r="A292" s="2">
-        <v>38808</v>
+        <v>38838</v>
       </c>
       <c r="B292">
-        <v>6800100000000</v>
+        <v>6806900000000</v>
       </c>
       <c r="C292">
         <v>1</v>
@@ -3600,10 +3600,10 @@
     </row>
     <row r="293" spans="1:3">
       <c r="A293" s="2">
-        <v>38838</v>
+        <v>38869</v>
       </c>
       <c r="B293">
-        <v>6806900000000</v>
+        <v>6844900000000</v>
       </c>
       <c r="C293">
         <v>1</v>
@@ -3611,10 +3611,10 @@
     </row>
     <row r="294" spans="1:3">
       <c r="A294" s="2">
-        <v>38869</v>
+        <v>38899</v>
       </c>
       <c r="B294">
-        <v>6844900000000</v>
+        <v>6886300000000</v>
       </c>
       <c r="C294">
         <v>1</v>
@@ -3622,10 +3622,10 @@
     </row>
     <row r="295" spans="1:3">
       <c r="A295" s="2">
-        <v>38899</v>
+        <v>38930</v>
       </c>
       <c r="B295">
-        <v>6886300000000</v>
+        <v>6917100000000</v>
       </c>
       <c r="C295">
         <v>1</v>
@@ -3633,10 +3633,10 @@
     </row>
     <row r="296" spans="1:3">
       <c r="A296" s="2">
-        <v>38930</v>
+        <v>38961</v>
       </c>
       <c r="B296">
-        <v>6917100000000</v>
+        <v>6944200000000</v>
       </c>
       <c r="C296">
         <v>1</v>
@@ -3644,10 +3644,10 @@
     </row>
     <row r="297" spans="1:3">
       <c r="A297" s="2">
-        <v>38961</v>
+        <v>38991</v>
       </c>
       <c r="B297">
-        <v>6944200000000</v>
+        <v>6993300000000</v>
       </c>
       <c r="C297">
         <v>1</v>
@@ -3655,10 +3655,10 @@
     </row>
     <row r="298" spans="1:3">
       <c r="A298" s="2">
-        <v>38991</v>
+        <v>39022</v>
       </c>
       <c r="B298">
-        <v>6993300000000</v>
+        <v>7028400000000</v>
       </c>
       <c r="C298">
         <v>1</v>
@@ -3666,10 +3666,10 @@
     </row>
     <row r="299" spans="1:3">
       <c r="A299" s="2">
-        <v>39022</v>
+        <v>39052</v>
       </c>
       <c r="B299">
-        <v>7028400000000</v>
+        <v>7071600000000</v>
       </c>
       <c r="C299">
         <v>1</v>
@@ -3677,10 +3677,10 @@
     </row>
     <row r="300" spans="1:3">
       <c r="A300" s="2">
-        <v>39052</v>
+        <v>39083</v>
       </c>
       <c r="B300">
-        <v>7071600000000</v>
+        <v>7109600000000</v>
       </c>
       <c r="C300">
         <v>1</v>
@@ -3688,10 +3688,10 @@
     </row>
     <row r="301" spans="1:3">
       <c r="A301" s="2">
-        <v>39083</v>
+        <v>39114</v>
       </c>
       <c r="B301">
-        <v>7109600000000</v>
+        <v>7125300000000</v>
       </c>
       <c r="C301">
         <v>1</v>
@@ -3699,10 +3699,10 @@
     </row>
     <row r="302" spans="1:3">
       <c r="A302" s="2">
-        <v>39114</v>
+        <v>39142</v>
       </c>
       <c r="B302">
-        <v>7125300000000</v>
+        <v>7159100000000</v>
       </c>
       <c r="C302">
         <v>1</v>
@@ -3710,10 +3710,10 @@
     </row>
     <row r="303" spans="1:3">
       <c r="A303" s="2">
-        <v>39142</v>
+        <v>39173</v>
       </c>
       <c r="B303">
-        <v>7159100000000</v>
+        <v>7231300000000</v>
       </c>
       <c r="C303">
         <v>1</v>
@@ -3721,10 +3721,10 @@
     </row>
     <row r="304" spans="1:3">
       <c r="A304" s="2">
-        <v>39173</v>
+        <v>39203</v>
       </c>
       <c r="B304">
-        <v>7231300000000</v>
+        <v>7245400000000</v>
       </c>
       <c r="C304">
         <v>1</v>
@@ -3732,10 +3732,10 @@
     </row>
     <row r="305" spans="1:3">
       <c r="A305" s="2">
-        <v>39203</v>
+        <v>39234</v>
       </c>
       <c r="B305">
-        <v>7245400000000</v>
+        <v>7278600000000</v>
       </c>
       <c r="C305">
         <v>1</v>
@@ -3743,10 +3743,10 @@
     </row>
     <row r="306" spans="1:3">
       <c r="A306" s="2">
-        <v>39234</v>
+        <v>39264</v>
       </c>
       <c r="B306">
-        <v>7278600000000</v>
+        <v>7309000000000</v>
       </c>
       <c r="C306">
         <v>1</v>
@@ -3754,10 +3754,10 @@
     </row>
     <row r="307" spans="1:3">
       <c r="A307" s="2">
-        <v>39264</v>
+        <v>39295</v>
       </c>
       <c r="B307">
-        <v>7309000000000</v>
+        <v>7385100000000</v>
       </c>
       <c r="C307">
         <v>1</v>
@@ -3765,10 +3765,10 @@
     </row>
     <row r="308" spans="1:3">
       <c r="A308" s="2">
-        <v>39295</v>
+        <v>39326</v>
       </c>
       <c r="B308">
-        <v>7385100000000</v>
+        <v>7403200000000</v>
       </c>
       <c r="C308">
         <v>1</v>
@@ -3776,10 +3776,10 @@
     </row>
     <row r="309" spans="1:3">
       <c r="A309" s="2">
-        <v>39326</v>
+        <v>39356</v>
       </c>
       <c r="B309">
-        <v>7403200000000</v>
+        <v>7417200000000</v>
       </c>
       <c r="C309">
         <v>1</v>
@@ -3787,10 +3787,10 @@
     </row>
     <row r="310" spans="1:3">
       <c r="A310" s="2">
-        <v>39356</v>
+        <v>39387</v>
       </c>
       <c r="B310">
-        <v>7417200000000</v>
+        <v>7441800000000</v>
       </c>
       <c r="C310">
         <v>1</v>
@@ -3798,10 +3798,10 @@
     </row>
     <row r="311" spans="1:3">
       <c r="A311" s="2">
-        <v>39387</v>
+        <v>39417</v>
       </c>
       <c r="B311">
-        <v>7441800000000</v>
+        <v>7471600000000</v>
       </c>
       <c r="C311">
         <v>1</v>
@@ -3809,10 +3809,10 @@
     </row>
     <row r="312" spans="1:3">
       <c r="A312" s="2">
-        <v>39417</v>
+        <v>39448</v>
       </c>
       <c r="B312">
-        <v>7471600000000</v>
+        <v>7505500000000</v>
       </c>
       <c r="C312">
         <v>1</v>
@@ -3820,10 +3820,10 @@
     </row>
     <row r="313" spans="1:3">
       <c r="A313" s="2">
-        <v>39448</v>
+        <v>39479</v>
       </c>
       <c r="B313">
-        <v>7505500000000</v>
+        <v>7590600000000</v>
       </c>
       <c r="C313">
         <v>1</v>
@@ -3831,10 +3831,10 @@
     </row>
     <row r="314" spans="1:3">
       <c r="A314" s="2">
-        <v>39479</v>
+        <v>39508</v>
       </c>
       <c r="B314">
-        <v>7590600000000</v>
+        <v>7656200000000</v>
       </c>
       <c r="C314">
         <v>1</v>
@@ -3842,10 +3842,10 @@
     </row>
     <row r="315" spans="1:3">
       <c r="A315" s="2">
-        <v>39508</v>
+        <v>39539</v>
       </c>
       <c r="B315">
-        <v>7656200000000</v>
+        <v>7699200000000</v>
       </c>
       <c r="C315">
         <v>1</v>
@@ -3853,10 +3853,10 @@
     </row>
     <row r="316" spans="1:3">
       <c r="A316" s="2">
-        <v>39539</v>
+        <v>39569</v>
       </c>
       <c r="B316">
-        <v>7699200000000</v>
+        <v>7711200000000</v>
       </c>
       <c r="C316">
         <v>1</v>
@@ -3864,10 +3864,10 @@
     </row>
     <row r="317" spans="1:3">
       <c r="A317" s="2">
-        <v>39569</v>
+        <v>39600</v>
       </c>
       <c r="B317">
-        <v>7711200000000</v>
+        <v>7728900000000</v>
       </c>
       <c r="C317">
         <v>1</v>
@@ -3875,10 +3875,10 @@
     </row>
     <row r="318" spans="1:3">
       <c r="A318" s="2">
-        <v>39600</v>
+        <v>39630</v>
       </c>
       <c r="B318">
-        <v>7728900000000</v>
+        <v>7775400000000</v>
       </c>
       <c r="C318">
         <v>1</v>
@@ -3886,10 +3886,10 @@
     </row>
     <row r="319" spans="1:3">
       <c r="A319" s="2">
-        <v>39630</v>
+        <v>39661</v>
       </c>
       <c r="B319">
-        <v>7775400000000</v>
+        <v>7790200000000</v>
       </c>
       <c r="C319">
         <v>1</v>
@@ -3897,10 +3897,10 @@
     </row>
     <row r="320" spans="1:3">
       <c r="A320" s="2">
-        <v>39661</v>
+        <v>39692</v>
       </c>
       <c r="B320">
-        <v>7790200000000</v>
+        <v>7859500000000</v>
       </c>
       <c r="C320">
         <v>1</v>
@@ -3908,10 +3908,10 @@
     </row>
     <row r="321" spans="1:3">
       <c r="A321" s="2">
-        <v>39692</v>
+        <v>39722</v>
       </c>
       <c r="B321">
-        <v>7859500000000</v>
+        <v>7965300000000</v>
       </c>
       <c r="C321">
         <v>1</v>
@@ -3919,10 +3919,10 @@
     </row>
     <row r="322" spans="1:3">
       <c r="A322" s="2">
-        <v>39722</v>
+        <v>39753</v>
       </c>
       <c r="B322">
-        <v>7965300000000</v>
+        <v>8015800000000</v>
       </c>
       <c r="C322">
         <v>1</v>
@@ -3930,10 +3930,10 @@
     </row>
     <row r="323" spans="1:3">
       <c r="A323" s="2">
-        <v>39753</v>
+        <v>39783</v>
       </c>
       <c r="B323">
-        <v>8015800000000</v>
+        <v>8192100000000</v>
       </c>
       <c r="C323">
         <v>1</v>
@@ -3941,10 +3941,10 @@
     </row>
     <row r="324" spans="1:3">
       <c r="A324" s="2">
-        <v>39783</v>
+        <v>39814</v>
       </c>
       <c r="B324">
-        <v>8192100000000</v>
+        <v>8273700000000</v>
       </c>
       <c r="C324">
         <v>1</v>
@@ -3952,10 +3952,10 @@
     </row>
     <row r="325" spans="1:3">
       <c r="A325" s="2">
-        <v>39814</v>
+        <v>39845</v>
       </c>
       <c r="B325">
-        <v>8273700000000</v>
+        <v>8303100000000</v>
       </c>
       <c r="C325">
         <v>1</v>
@@ -3963,10 +3963,10 @@
     </row>
     <row r="326" spans="1:3">
       <c r="A326" s="2">
-        <v>39845</v>
+        <v>39873</v>
       </c>
       <c r="B326">
-        <v>8303100000000</v>
+        <v>8369300000000</v>
       </c>
       <c r="C326">
         <v>1</v>
@@ -3974,10 +3974,10 @@
     </row>
     <row r="327" spans="1:3">
       <c r="A327" s="2">
-        <v>39873</v>
+        <v>39904</v>
       </c>
       <c r="B327">
-        <v>8369300000000</v>
+        <v>8372900000000</v>
       </c>
       <c r="C327">
         <v>1</v>
@@ -3985,10 +3985,10 @@
     </row>
     <row r="328" spans="1:3">
       <c r="A328" s="2">
-        <v>39904</v>
+        <v>39934</v>
       </c>
       <c r="B328">
-        <v>8372900000000</v>
+        <v>8430700000000</v>
       </c>
       <c r="C328">
         <v>1</v>
@@ -3996,10 +3996,10 @@
     </row>
     <row r="329" spans="1:3">
       <c r="A329" s="2">
-        <v>39934</v>
+        <v>39965</v>
       </c>
       <c r="B329">
-        <v>8430700000000</v>
+        <v>8440500000000</v>
       </c>
       <c r="C329">
         <v>1</v>
@@ -4007,10 +4007,10 @@
     </row>
     <row r="330" spans="1:3">
       <c r="A330" s="2">
-        <v>39965</v>
+        <v>39995</v>
       </c>
       <c r="B330">
-        <v>8440500000000</v>
+        <v>8445100000000</v>
       </c>
       <c r="C330">
         <v>1</v>
@@ -4018,10 +4018,10 @@
     </row>
     <row r="331" spans="1:3">
       <c r="A331" s="2">
-        <v>39995</v>
+        <v>40026</v>
       </c>
       <c r="B331">
-        <v>8445100000000</v>
+        <v>8445000000000</v>
       </c>
       <c r="C331">
         <v>1</v>
@@ -4029,10 +4029,10 @@
     </row>
     <row r="332" spans="1:3">
       <c r="A332" s="2">
-        <v>40026</v>
+        <v>40057</v>
       </c>
       <c r="B332">
-        <v>8445000000000</v>
+        <v>8444200000000</v>
       </c>
       <c r="C332">
         <v>1</v>
@@ -4040,10 +4040,10 @@
     </row>
     <row r="333" spans="1:3">
       <c r="A333" s="2">
-        <v>40057</v>
+        <v>40087</v>
       </c>
       <c r="B333">
-        <v>8444200000000</v>
+        <v>8471100000000</v>
       </c>
       <c r="C333">
         <v>1</v>
@@ -4051,10 +4051,10 @@
     </row>
     <row r="334" spans="1:3">
       <c r="A334" s="2">
-        <v>40087</v>
+        <v>40118</v>
       </c>
       <c r="B334">
-        <v>8471100000000</v>
+        <v>8500800000000</v>
       </c>
       <c r="C334">
         <v>1</v>
@@ -4062,10 +4062,10 @@
     </row>
     <row r="335" spans="1:3">
       <c r="A335" s="2">
-        <v>40118</v>
+        <v>40148</v>
       </c>
       <c r="B335">
-        <v>8500800000000</v>
+        <v>8496000000000</v>
       </c>
       <c r="C335">
         <v>1</v>
@@ -4073,10 +4073,10 @@
     </row>
     <row r="336" spans="1:3">
       <c r="A336" s="2">
-        <v>40148</v>
+        <v>40179</v>
       </c>
       <c r="B336">
-        <v>8496000000000</v>
+        <v>8458100000000</v>
       </c>
       <c r="C336">
         <v>1</v>
@@ -4084,10 +4084,10 @@
     </row>
     <row r="337" spans="1:3">
       <c r="A337" s="2">
-        <v>40179</v>
+        <v>40210</v>
       </c>
       <c r="B337">
-        <v>8458100000000</v>
+        <v>8507400000000</v>
       </c>
       <c r="C337">
         <v>1</v>
@@ -4095,10 +4095,10 @@
     </row>
     <row r="338" spans="1:3">
       <c r="A338" s="2">
-        <v>40210</v>
+        <v>40238</v>
       </c>
       <c r="B338">
-        <v>8507400000000</v>
+        <v>8504500000000</v>
       </c>
       <c r="C338">
         <v>1</v>
@@ -4106,10 +4106,10 @@
     </row>
     <row r="339" spans="1:3">
       <c r="A339" s="2">
-        <v>40238</v>
+        <v>40269</v>
       </c>
       <c r="B339">
-        <v>8504500000000</v>
+        <v>8535200000000</v>
       </c>
       <c r="C339">
         <v>1</v>
@@ -4117,10 +4117,10 @@
     </row>
     <row r="340" spans="1:3">
       <c r="A340" s="2">
-        <v>40269</v>
+        <v>40299</v>
       </c>
       <c r="B340">
-        <v>8535200000000</v>
+        <v>8589900000000</v>
       </c>
       <c r="C340">
         <v>1</v>
@@ -4128,10 +4128,10 @@
     </row>
     <row r="341" spans="1:3">
       <c r="A341" s="2">
-        <v>40299</v>
+        <v>40330</v>
       </c>
       <c r="B341">
-        <v>8589900000000</v>
+        <v>8609000000000</v>
       </c>
       <c r="C341">
         <v>1</v>
@@ -4139,10 +4139,10 @@
     </row>
     <row r="342" spans="1:3">
       <c r="A342" s="2">
-        <v>40330</v>
+        <v>40360</v>
       </c>
       <c r="B342">
-        <v>8609000000000</v>
+        <v>8618800000000</v>
       </c>
       <c r="C342">
         <v>1</v>
@@ -4150,10 +4150,10 @@
     </row>
     <row r="343" spans="1:3">
       <c r="A343" s="2">
-        <v>40360</v>
+        <v>40391</v>
       </c>
       <c r="B343">
-        <v>8618800000000</v>
+        <v>8669100000000</v>
       </c>
       <c r="C343">
         <v>1</v>
@@ -4161,10 +4161,10 @@
     </row>
     <row r="344" spans="1:3">
       <c r="A344" s="2">
-        <v>40391</v>
+        <v>40422</v>
       </c>
       <c r="B344">
-        <v>8669100000000</v>
+        <v>8700100000000</v>
       </c>
       <c r="C344">
         <v>1</v>
@@ -4172,10 +4172,10 @@
     </row>
     <row r="345" spans="1:3">
       <c r="A345" s="2">
-        <v>40422</v>
+        <v>40452</v>
       </c>
       <c r="B345">
-        <v>8700100000000</v>
+        <v>8749400000000</v>
       </c>
       <c r="C345">
         <v>1</v>
@@ -4183,10 +4183,10 @@
     </row>
     <row r="346" spans="1:3">
       <c r="A346" s="2">
-        <v>40452</v>
+        <v>40483</v>
       </c>
       <c r="B346">
-        <v>8749400000000</v>
+        <v>8770000000000</v>
       </c>
       <c r="C346">
         <v>1</v>
@@ -4194,10 +4194,10 @@
     </row>
     <row r="347" spans="1:3">
       <c r="A347" s="2">
-        <v>40483</v>
+        <v>40513</v>
       </c>
       <c r="B347">
-        <v>8770000000000</v>
+        <v>8801800000000</v>
       </c>
       <c r="C347">
         <v>1</v>
@@ -4205,10 +4205,10 @@
     </row>
     <row r="348" spans="1:3">
       <c r="A348" s="2">
-        <v>40513</v>
+        <v>40544</v>
       </c>
       <c r="B348">
-        <v>8801800000000</v>
+        <v>8823100000000</v>
       </c>
       <c r="C348">
         <v>1</v>
@@ -4216,10 +4216,10 @@
     </row>
     <row r="349" spans="1:3">
       <c r="A349" s="2">
-        <v>40544</v>
+        <v>40575</v>
       </c>
       <c r="B349">
-        <v>8823100000000</v>
+        <v>8886900000000</v>
       </c>
       <c r="C349">
         <v>1</v>
@@ -4227,10 +4227,10 @@
     </row>
     <row r="350" spans="1:3">
       <c r="A350" s="2">
-        <v>40575</v>
+        <v>40603</v>
       </c>
       <c r="B350">
-        <v>8886900000000</v>
+        <v>8943500000000</v>
       </c>
       <c r="C350">
         <v>1</v>
@@ -4238,10 +4238,10 @@
     </row>
     <row r="351" spans="1:3">
       <c r="A351" s="2">
-        <v>40603</v>
+        <v>40634</v>
       </c>
       <c r="B351">
-        <v>8943500000000</v>
+        <v>9004900000000</v>
       </c>
       <c r="C351">
         <v>1</v>
@@ -4249,10 +4249,10 @@
     </row>
     <row r="352" spans="1:3">
       <c r="A352" s="2">
-        <v>40634</v>
+        <v>40664</v>
       </c>
       <c r="B352">
-        <v>9004900000000</v>
+        <v>9075500000000</v>
       </c>
       <c r="C352">
         <v>1</v>
@@ -4260,10 +4260,10 @@
     </row>
     <row r="353" spans="1:3">
       <c r="A353" s="2">
-        <v>40664</v>
+        <v>40695</v>
       </c>
       <c r="B353">
-        <v>9075500000000</v>
+        <v>9151000000000</v>
       </c>
       <c r="C353">
         <v>1</v>
@@ -4271,10 +4271,10 @@
     </row>
     <row r="354" spans="1:3">
       <c r="A354" s="2">
-        <v>40695</v>
+        <v>40725</v>
       </c>
       <c r="B354">
-        <v>9151000000000</v>
+        <v>9316600000000</v>
       </c>
       <c r="C354">
         <v>1</v>
@@ -4282,10 +4282,10 @@
     </row>
     <row r="355" spans="1:3">
       <c r="A355" s="2">
-        <v>40725</v>
+        <v>40756</v>
       </c>
       <c r="B355">
-        <v>9316600000000</v>
+        <v>9507600000000</v>
       </c>
       <c r="C355">
         <v>1</v>
@@ -4293,10 +4293,10 @@
     </row>
     <row r="356" spans="1:3">
       <c r="A356" s="2">
-        <v>40756</v>
+        <v>40787</v>
       </c>
       <c r="B356">
-        <v>9507600000000</v>
+        <v>9528300000000</v>
       </c>
       <c r="C356">
         <v>1</v>
@@ -4304,10 +4304,10 @@
     </row>
     <row r="357" spans="1:3">
       <c r="A357" s="2">
-        <v>40787</v>
+        <v>40817</v>
       </c>
       <c r="B357">
-        <v>9528300000000</v>
+        <v>9562100000000</v>
       </c>
       <c r="C357">
         <v>1</v>
@@ -4315,10 +4315,10 @@
     </row>
     <row r="358" spans="1:3">
       <c r="A358" s="2">
-        <v>40817</v>
+        <v>40848</v>
       </c>
       <c r="B358">
-        <v>9562100000000</v>
+        <v>9612600000000</v>
       </c>
       <c r="C358">
         <v>1</v>
@@ -4326,10 +4326,10 @@
     </row>
     <row r="359" spans="1:3">
       <c r="A359" s="2">
-        <v>40848</v>
+        <v>40878</v>
       </c>
       <c r="B359">
-        <v>9612600000000</v>
+        <v>9660100000000</v>
       </c>
       <c r="C359">
         <v>1</v>
@@ -4337,10 +4337,10 @@
     </row>
     <row r="360" spans="1:3">
       <c r="A360" s="2">
-        <v>40878</v>
+        <v>40909</v>
       </c>
       <c r="B360">
-        <v>9660100000000</v>
+        <v>9733300000000</v>
       </c>
       <c r="C360">
         <v>1</v>
@@ -4348,10 +4348,10 @@
     </row>
     <row r="361" spans="1:3">
       <c r="A361" s="2">
-        <v>40909</v>
+        <v>40940</v>
       </c>
       <c r="B361">
-        <v>9733300000000</v>
+        <v>9785700000000</v>
       </c>
       <c r="C361">
         <v>1</v>
@@ -4359,10 +4359,10 @@
     </row>
     <row r="362" spans="1:3">
       <c r="A362" s="2">
-        <v>40940</v>
+        <v>40969</v>
       </c>
       <c r="B362">
-        <v>9785700000000</v>
+        <v>9830600000000</v>
       </c>
       <c r="C362">
         <v>1</v>
@@ -4370,10 +4370,10 @@
     </row>
     <row r="363" spans="1:3">
       <c r="A363" s="2">
-        <v>40969</v>
+        <v>41000</v>
       </c>
       <c r="B363">
-        <v>9830600000000</v>
+        <v>9884600000000</v>
       </c>
       <c r="C363">
         <v>1</v>
@@ -4381,10 +4381,10 @@
     </row>
     <row r="364" spans="1:3">
       <c r="A364" s="2">
-        <v>41000</v>
+        <v>41030</v>
       </c>
       <c r="B364">
-        <v>9884600000000</v>
+        <v>9928400000000</v>
       </c>
       <c r="C364">
         <v>1</v>
@@ -4392,10 +4392,10 @@
     </row>
     <row r="365" spans="1:3">
       <c r="A365" s="2">
-        <v>41030</v>
+        <v>41061</v>
       </c>
       <c r="B365">
-        <v>9928400000000</v>
+        <v>9999300000000</v>
       </c>
       <c r="C365">
         <v>1</v>
@@ -4403,10 +4403,10 @@
     </row>
     <row r="366" spans="1:3">
       <c r="A366" s="2">
-        <v>41061</v>
+        <v>41091</v>
       </c>
       <c r="B366">
-        <v>9999300000000</v>
+        <v>10051800000000</v>
       </c>
       <c r="C366">
         <v>1</v>
@@ -4414,10 +4414,10 @@
     </row>
     <row r="367" spans="1:3">
       <c r="A367" s="2">
-        <v>41091</v>
+        <v>41122</v>
       </c>
       <c r="B367">
-        <v>10051800000000</v>
+        <v>10121300000000</v>
       </c>
       <c r="C367">
         <v>1</v>
@@ -4425,10 +4425,10 @@
     </row>
     <row r="368" spans="1:3">
       <c r="A368" s="2">
-        <v>41122</v>
+        <v>41153</v>
       </c>
       <c r="B368">
-        <v>10121300000000</v>
+        <v>10200800000000</v>
       </c>
       <c r="C368">
         <v>1</v>
@@ -4436,10 +4436,10 @@
     </row>
     <row r="369" spans="1:3">
       <c r="A369" s="2">
-        <v>41153</v>
+        <v>41183</v>
       </c>
       <c r="B369">
-        <v>10200800000000</v>
+        <v>10267300000000</v>
       </c>
       <c r="C369">
         <v>1</v>
@@ -4447,10 +4447,10 @@
     </row>
     <row r="370" spans="1:3">
       <c r="A370" s="2">
-        <v>41183</v>
+        <v>41214</v>
       </c>
       <c r="B370">
-        <v>10267300000000</v>
+        <v>10337600000000</v>
       </c>
       <c r="C370">
         <v>1</v>
@@ -4458,10 +4458,10 @@
     </row>
     <row r="371" spans="1:3">
       <c r="A371" s="2">
-        <v>41214</v>
+        <v>41244</v>
       </c>
       <c r="B371">
-        <v>10337600000000</v>
+        <v>10459700000000</v>
       </c>
       <c r="C371">
         <v>1</v>
@@ -4469,10 +4469,10 @@
     </row>
     <row r="372" spans="1:3">
       <c r="A372" s="2">
-        <v>41244</v>
+        <v>41275</v>
       </c>
       <c r="B372">
-        <v>10459700000000</v>
+        <v>10482900000000</v>
       </c>
       <c r="C372">
         <v>1</v>
@@ -4480,10 +4480,10 @@
     </row>
     <row r="373" spans="1:3">
       <c r="A373" s="2">
-        <v>41275</v>
+        <v>41306</v>
       </c>
       <c r="B373">
-        <v>10482900000000</v>
+        <v>10501300000000</v>
       </c>
       <c r="C373">
         <v>1</v>
@@ -4491,10 +4491,10 @@
     </row>
     <row r="374" spans="1:3">
       <c r="A374" s="2">
-        <v>41306</v>
+        <v>41334</v>
       </c>
       <c r="B374">
-        <v>10501300000000</v>
+        <v>10558300000000</v>
       </c>
       <c r="C374">
         <v>1</v>
@@ -4502,10 +4502,10 @@
     </row>
     <row r="375" spans="1:3">
       <c r="A375" s="2">
-        <v>41334</v>
+        <v>41365</v>
       </c>
       <c r="B375">
-        <v>10558300000000</v>
+        <v>10586300000000</v>
       </c>
       <c r="C375">
         <v>1</v>
@@ -4513,10 +4513,10 @@
     </row>
     <row r="376" spans="1:3">
       <c r="A376" s="2">
-        <v>41365</v>
+        <v>41395</v>
       </c>
       <c r="B376">
-        <v>10586300000000</v>
+        <v>10621000000000</v>
       </c>
       <c r="C376">
         <v>1</v>
@@ -4524,10 +4524,10 @@
     </row>
     <row r="377" spans="1:3">
       <c r="A377" s="2">
-        <v>41395</v>
+        <v>41426</v>
       </c>
       <c r="B377">
-        <v>10621000000000</v>
+        <v>10678700000000</v>
       </c>
       <c r="C377">
         <v>1</v>
@@ -4535,10 +4535,10 @@
     </row>
     <row r="378" spans="1:3">
       <c r="A378" s="2">
-        <v>41426</v>
+        <v>41456</v>
       </c>
       <c r="B378">
-        <v>10678700000000</v>
+        <v>10718400000000</v>
       </c>
       <c r="C378">
         <v>1</v>
@@ -4546,10 +4546,10 @@
     </row>
     <row r="379" spans="1:3">
       <c r="A379" s="2">
-        <v>41456</v>
+        <v>41487</v>
       </c>
       <c r="B379">
-        <v>10718400000000</v>
+        <v>10776600000000</v>
       </c>
       <c r="C379">
         <v>1</v>
@@ -4557,10 +4557,10 @@
     </row>
     <row r="380" spans="1:3">
       <c r="A380" s="2">
-        <v>41487</v>
+        <v>41518</v>
       </c>
       <c r="B380">
-        <v>10776600000000</v>
+        <v>10837200000000</v>
       </c>
       <c r="C380">
         <v>1</v>
@@ -4568,10 +4568,10 @@
     </row>
     <row r="381" spans="1:3">
       <c r="A381" s="2">
-        <v>41518</v>
+        <v>41548</v>
       </c>
       <c r="B381">
-        <v>10837200000000</v>
+        <v>10961600000000</v>
       </c>
       <c r="C381">
         <v>1</v>
@@ -4579,10 +4579,10 @@
     </row>
     <row r="382" spans="1:3">
       <c r="A382" s="2">
-        <v>41548</v>
+        <v>41579</v>
       </c>
       <c r="B382">
-        <v>10961600000000</v>
+        <v>10969700000000</v>
       </c>
       <c r="C382">
         <v>1</v>
@@ -4590,10 +4590,10 @@
     </row>
     <row r="383" spans="1:3">
       <c r="A383" s="2">
-        <v>41579</v>
+        <v>41609</v>
       </c>
       <c r="B383">
-        <v>10969700000000</v>
+        <v>11035000000000</v>
       </c>
       <c r="C383">
         <v>1</v>
@@ -4601,10 +4601,10 @@
     </row>
     <row r="384" spans="1:3">
       <c r="A384" s="2">
-        <v>41609</v>
+        <v>41640</v>
       </c>
       <c r="B384">
-        <v>11035000000000</v>
+        <v>11080800000000</v>
       </c>
       <c r="C384">
         <v>1</v>
@@ -4612,10 +4612,10 @@
     </row>
     <row r="385" spans="1:3">
       <c r="A385" s="2">
-        <v>41640</v>
+        <v>41671</v>
       </c>
       <c r="B385">
-        <v>11080800000000</v>
+        <v>11178800000000</v>
       </c>
       <c r="C385">
         <v>1</v>
@@ -4623,10 +4623,10 @@
     </row>
     <row r="386" spans="1:3">
       <c r="A386" s="2">
-        <v>41671</v>
+        <v>41699</v>
       </c>
       <c r="B386">
-        <v>11178800000000</v>
+        <v>11208100000000</v>
       </c>
       <c r="C386">
         <v>1</v>
@@ -4634,10 +4634,10 @@
     </row>
     <row r="387" spans="1:3">
       <c r="A387" s="2">
-        <v>41699</v>
+        <v>41730</v>
       </c>
       <c r="B387">
-        <v>11208100000000</v>
+        <v>11257700000000</v>
       </c>
       <c r="C387">
         <v>1</v>
@@ -4645,10 +4645,10 @@
     </row>
     <row r="388" spans="1:3">
       <c r="A388" s="2">
-        <v>41730</v>
+        <v>41760</v>
       </c>
       <c r="B388">
-        <v>11257700000000</v>
+        <v>11321000000000</v>
       </c>
       <c r="C388">
         <v>1</v>
@@ -4656,10 +4656,10 @@
     </row>
     <row r="389" spans="1:3">
       <c r="A389" s="2">
-        <v>41760</v>
+        <v>41791</v>
       </c>
       <c r="B389">
-        <v>11321000000000</v>
+        <v>11374900000000</v>
       </c>
       <c r="C389">
         <v>1</v>
@@ -4667,10 +4667,10 @@
     </row>
     <row r="390" spans="1:3">
       <c r="A390" s="2">
-        <v>41791</v>
+        <v>41821</v>
       </c>
       <c r="B390">
-        <v>11374900000000</v>
+        <v>11429900000000</v>
       </c>
       <c r="C390">
         <v>1</v>
@@ -4678,10 +4678,10 @@
     </row>
     <row r="391" spans="1:3">
       <c r="A391" s="2">
-        <v>41821</v>
+        <v>41852</v>
       </c>
       <c r="B391">
-        <v>11429900000000</v>
+        <v>11458900000000</v>
       </c>
       <c r="C391">
         <v>1</v>
@@ -4689,10 +4689,10 @@
     </row>
     <row r="392" spans="1:3">
       <c r="A392" s="2">
-        <v>41852</v>
+        <v>41883</v>
       </c>
       <c r="B392">
-        <v>11458900000000</v>
+        <v>11499800000000</v>
       </c>
       <c r="C392">
         <v>1</v>
@@ -4700,10 +4700,10 @@
     </row>
     <row r="393" spans="1:3">
       <c r="A393" s="2">
-        <v>41883</v>
+        <v>41913</v>
       </c>
       <c r="B393">
-        <v>11499800000000</v>
+        <v>11566000000000</v>
       </c>
       <c r="C393">
         <v>1</v>
@@ -4711,10 +4711,10 @@
     </row>
     <row r="394" spans="1:3">
       <c r="A394" s="2">
-        <v>41913</v>
+        <v>41944</v>
       </c>
       <c r="B394">
-        <v>11566000000000</v>
+        <v>11604800000000</v>
       </c>
       <c r="C394">
         <v>1</v>
@@ -4722,10 +4722,10 @@
     </row>
     <row r="395" spans="1:3">
       <c r="A395" s="2">
-        <v>41944</v>
+        <v>41974</v>
       </c>
       <c r="B395">
-        <v>11604800000000</v>
+        <v>11684900000000</v>
       </c>
       <c r="C395">
         <v>1</v>
@@ -4733,10 +4733,10 @@
     </row>
     <row r="396" spans="1:3">
       <c r="A396" s="2">
-        <v>41974</v>
+        <v>42005</v>
       </c>
       <c r="B396">
-        <v>11684900000000</v>
+        <v>11745600000000</v>
       </c>
       <c r="C396">
         <v>1</v>
@@ -4744,10 +4744,10 @@
     </row>
     <row r="397" spans="1:3">
       <c r="A397" s="2">
-        <v>42005</v>
+        <v>42036</v>
       </c>
       <c r="B397">
-        <v>11745600000000</v>
+        <v>11879000000000</v>
       </c>
       <c r="C397">
         <v>1</v>
@@ -4755,10 +4755,10 @@
     </row>
     <row r="398" spans="1:3">
       <c r="A398" s="2">
-        <v>42036</v>
+        <v>42064</v>
       </c>
       <c r="B398">
-        <v>11879000000000</v>
+        <v>11886800000000</v>
       </c>
       <c r="C398">
         <v>1</v>
@@ -4766,10 +4766,10 @@
     </row>
     <row r="399" spans="1:3">
       <c r="A399" s="2">
-        <v>42064</v>
+        <v>42095</v>
       </c>
       <c r="B399">
-        <v>11886800000000</v>
+        <v>11928900000000</v>
       </c>
       <c r="C399">
         <v>1</v>
@@ -4777,10 +4777,10 @@
     </row>
     <row r="400" spans="1:3">
       <c r="A400" s="2">
-        <v>42095</v>
+        <v>42125</v>
       </c>
       <c r="B400">
-        <v>11928900000000</v>
+        <v>11957900000000</v>
       </c>
       <c r="C400">
         <v>1</v>
@@ -4788,10 +4788,10 @@
     </row>
     <row r="401" spans="1:3">
       <c r="A401" s="2">
-        <v>42125</v>
+        <v>42156</v>
       </c>
       <c r="B401">
-        <v>11957900000000</v>
+        <v>12001700000000</v>
       </c>
       <c r="C401">
         <v>1</v>
@@ -4799,10 +4799,10 @@
     </row>
     <row r="402" spans="1:3">
       <c r="A402" s="2">
-        <v>42156</v>
+        <v>42186</v>
       </c>
       <c r="B402">
-        <v>12001700000000</v>
+        <v>12051300000000</v>
       </c>
       <c r="C402">
         <v>1</v>
@@ -4810,10 +4810,10 @@
     </row>
     <row r="403" spans="1:3">
       <c r="A403" s="2">
-        <v>42186</v>
+        <v>42217</v>
       </c>
       <c r="B403">
-        <v>12051300000000</v>
+        <v>12101900000000</v>
       </c>
       <c r="C403">
         <v>1</v>
@@ -4821,10 +4821,10 @@
     </row>
     <row r="404" spans="1:3">
       <c r="A404" s="2">
-        <v>42217</v>
+        <v>42248</v>
       </c>
       <c r="B404">
-        <v>12101900000000</v>
+        <v>12160800000000</v>
       </c>
       <c r="C404">
         <v>1</v>
@@ -4832,10 +4832,10 @@
     </row>
     <row r="405" spans="1:3">
       <c r="A405" s="2">
-        <v>42248</v>
+        <v>42278</v>
       </c>
       <c r="B405">
-        <v>12160800000000</v>
+        <v>12195900000000</v>
       </c>
       <c r="C405">
         <v>1</v>
@@ -4843,10 +4843,10 @@
     </row>
     <row r="406" spans="1:3">
       <c r="A406" s="2">
-        <v>42278</v>
+        <v>42309</v>
       </c>
       <c r="B406">
-        <v>12195900000000</v>
+        <v>12284600000000</v>
       </c>
       <c r="C406">
         <v>1</v>
@@ -4854,10 +4854,10 @@
     </row>
     <row r="407" spans="1:3">
       <c r="A407" s="2">
-        <v>42309</v>
+        <v>42339</v>
       </c>
       <c r="B407">
-        <v>12284600000000</v>
+        <v>12346800000000</v>
       </c>
       <c r="C407">
         <v>1</v>
@@ -4865,10 +4865,10 @@
     </row>
     <row r="408" spans="1:3">
       <c r="A408" s="2">
-        <v>42339</v>
+        <v>42370</v>
       </c>
       <c r="B408">
-        <v>12346800000000</v>
+        <v>12469900000000</v>
       </c>
       <c r="C408">
         <v>1</v>
@@ -4876,10 +4876,10 @@
     </row>
     <row r="409" spans="1:3">
       <c r="A409" s="2">
-        <v>42370</v>
+        <v>42401</v>
       </c>
       <c r="B409">
-        <v>12469900000000</v>
+        <v>12556700000000</v>
       </c>
       <c r="C409">
         <v>1</v>
@@ -4887,10 +4887,10 @@
     </row>
     <row r="410" spans="1:3">
       <c r="A410" s="2">
-        <v>42401</v>
+        <v>42430</v>
       </c>
       <c r="B410">
-        <v>12556700000000</v>
+        <v>12616700000000</v>
       </c>
       <c r="C410">
         <v>1</v>
@@ -4898,10 +4898,10 @@
     </row>
     <row r="411" spans="1:3">
       <c r="A411" s="2">
-        <v>42430</v>
+        <v>42461</v>
       </c>
       <c r="B411">
-        <v>12616700000000</v>
+        <v>12700400000000</v>
       </c>
       <c r="C411">
         <v>1</v>
@@ -4909,10 +4909,10 @@
     </row>
     <row r="412" spans="1:3">
       <c r="A412" s="2">
-        <v>42461</v>
+        <v>42491</v>
       </c>
       <c r="B412">
-        <v>12700400000000</v>
+        <v>12766200000000</v>
       </c>
       <c r="C412">
         <v>1</v>
@@ -4920,10 +4920,10 @@
     </row>
     <row r="413" spans="1:3">
       <c r="A413" s="2">
-        <v>42491</v>
+        <v>42522</v>
       </c>
       <c r="B413">
-        <v>12766200000000</v>
+        <v>12829400000000</v>
       </c>
       <c r="C413">
         <v>1</v>
@@ -4931,10 +4931,10 @@
     </row>
     <row r="414" spans="1:3">
       <c r="A414" s="2">
-        <v>42522</v>
+        <v>42552</v>
       </c>
       <c r="B414">
-        <v>12829400000000</v>
+        <v>12887700000000</v>
       </c>
       <c r="C414">
         <v>1</v>
@@ -4942,10 +4942,10 @@
     </row>
     <row r="415" spans="1:3">
       <c r="A415" s="2">
-        <v>42552</v>
+        <v>42583</v>
       </c>
       <c r="B415">
-        <v>12887700000000</v>
+        <v>12972800000000</v>
       </c>
       <c r="C415">
         <v>1</v>
@@ -4953,10 +4953,10 @@
     </row>
     <row r="416" spans="1:3">
       <c r="A416" s="2">
-        <v>42583</v>
+        <v>42614</v>
       </c>
       <c r="B416">
-        <v>12972800000000</v>
+        <v>13033600000000</v>
       </c>
       <c r="C416">
         <v>1</v>
@@ -4964,10 +4964,10 @@
     </row>
     <row r="417" spans="1:3">
       <c r="A417" s="2">
-        <v>42614</v>
+        <v>42644</v>
       </c>
       <c r="B417">
-        <v>13033600000000</v>
+        <v>13100500000000</v>
       </c>
       <c r="C417">
         <v>1</v>
@@ -4975,10 +4975,10 @@
     </row>
     <row r="418" spans="1:3">
       <c r="A418" s="2">
-        <v>42644</v>
+        <v>42675</v>
       </c>
       <c r="B418">
-        <v>13100500000000</v>
+        <v>13173400000000</v>
       </c>
       <c r="C418">
         <v>1</v>
@@ -4986,10 +4986,10 @@
     </row>
     <row r="419" spans="1:3">
       <c r="A419" s="2">
-        <v>42675</v>
+        <v>42705</v>
       </c>
       <c r="B419">
-        <v>13173400000000</v>
+        <v>13213400000000</v>
       </c>
       <c r="C419">
         <v>1</v>
@@ -4997,10 +4997,10 @@
     </row>
     <row r="420" spans="1:3">
       <c r="A420" s="2">
-        <v>42705</v>
+        <v>42736</v>
       </c>
       <c r="B420">
-        <v>13213400000000</v>
+        <v>13283400000000</v>
       </c>
       <c r="C420">
         <v>1</v>
@@ -5008,10 +5008,10 @@
     </row>
     <row r="421" spans="1:3">
       <c r="A421" s="2">
-        <v>42736</v>
+        <v>42767</v>
       </c>
       <c r="B421">
-        <v>13283400000000</v>
+        <v>13358800000000</v>
       </c>
       <c r="C421">
         <v>1</v>
@@ -5019,10 +5019,10 @@
     </row>
     <row r="422" spans="1:3">
       <c r="A422" s="2">
-        <v>42767</v>
+        <v>42795</v>
       </c>
       <c r="B422">
-        <v>13358800000000</v>
+        <v>13426900000000</v>
       </c>
       <c r="C422">
         <v>1</v>
@@ -5030,10 +5030,10 @@
     </row>
     <row r="423" spans="1:3">
       <c r="A423" s="2">
-        <v>42795</v>
+        <v>42826</v>
       </c>
       <c r="B423">
-        <v>13426900000000</v>
+        <v>13484900000000</v>
       </c>
       <c r="C423">
         <v>1</v>
@@ -5041,10 +5041,10 @@
     </row>
     <row r="424" spans="1:3">
       <c r="A424" s="2">
-        <v>42826</v>
+        <v>42856</v>
       </c>
       <c r="B424">
-        <v>13484900000000</v>
+        <v>13538100000000</v>
       </c>
       <c r="C424">
         <v>1</v>
@@ -5052,10 +5052,10 @@
     </row>
     <row r="425" spans="1:3">
       <c r="A425" s="2">
-        <v>42856</v>
+        <v>42887</v>
       </c>
       <c r="B425">
-        <v>13538100000000</v>
+        <v>13559200000000</v>
       </c>
       <c r="C425">
         <v>1</v>
@@ -5063,10 +5063,10 @@
     </row>
     <row r="426" spans="1:3">
       <c r="A426" s="2">
-        <v>42887</v>
+        <v>42917</v>
       </c>
       <c r="B426">
-        <v>13559200000000</v>
+        <v>13618700000000</v>
       </c>
       <c r="C426">
         <v>1</v>
@@ -5074,10 +5074,10 @@
     </row>
     <row r="427" spans="1:3">
       <c r="A427" s="2">
-        <v>42917</v>
+        <v>42948</v>
       </c>
       <c r="B427">
-        <v>13618700000000</v>
+        <v>13673700000000</v>
       </c>
       <c r="C427">
         <v>1</v>
@@ -5085,10 +5085,10 @@
     </row>
     <row r="428" spans="1:3">
       <c r="A428" s="2">
-        <v>42948</v>
+        <v>42979</v>
       </c>
       <c r="B428">
-        <v>13673700000000</v>
+        <v>13717900000000</v>
       </c>
       <c r="C428">
         <v>1</v>
@@ -5096,10 +5096,10 @@
     </row>
     <row r="429" spans="1:3">
       <c r="A429" s="2">
-        <v>42979</v>
+        <v>43009</v>
       </c>
       <c r="B429">
-        <v>13717900000000</v>
+        <v>13770100000000</v>
       </c>
       <c r="C429">
         <v>1</v>
@@ -5107,10 +5107,10 @@
     </row>
     <row r="430" spans="1:3">
       <c r="A430" s="2">
-        <v>43009</v>
+        <v>43040</v>
       </c>
       <c r="B430">
-        <v>13770100000000</v>
+        <v>13799900000000</v>
       </c>
       <c r="C430">
         <v>1</v>
@@ -5118,10 +5118,10 @@
     </row>
     <row r="431" spans="1:3">
       <c r="A431" s="2">
-        <v>43040</v>
+        <v>43070</v>
       </c>
       <c r="B431">
-        <v>13799900000000</v>
+        <v>13857900000000</v>
       </c>
       <c r="C431">
         <v>1</v>
@@ -5129,10 +5129,10 @@
     </row>
     <row r="432" spans="1:3">
       <c r="A432" s="2">
-        <v>43070</v>
+        <v>43101</v>
       </c>
       <c r="B432">
-        <v>13857900000000</v>
+        <v>13869700000000</v>
       </c>
       <c r="C432">
         <v>1</v>
@@ -5140,10 +5140,10 @@
     </row>
     <row r="433" spans="1:3">
       <c r="A433" s="2">
-        <v>43101</v>
+        <v>43132</v>
       </c>
       <c r="B433">
-        <v>13869700000000</v>
+        <v>13912300000000</v>
       </c>
       <c r="C433">
         <v>1</v>
@@ -5151,10 +5151,10 @@
     </row>
     <row r="434" spans="1:3">
       <c r="A434" s="2">
-        <v>43132</v>
+        <v>43160</v>
       </c>
       <c r="B434">
-        <v>13912300000000</v>
+        <v>13970200000000</v>
       </c>
       <c r="C434">
         <v>1</v>
@@ -5162,10 +5162,10 @@
     </row>
     <row r="435" spans="1:3">
       <c r="A435" s="2">
-        <v>43160</v>
+        <v>43191</v>
       </c>
       <c r="B435">
-        <v>13970200000000</v>
+        <v>13988800000000</v>
       </c>
       <c r="C435">
         <v>1</v>
@@ -5173,10 +5173,10 @@
     </row>
     <row r="436" spans="1:3">
       <c r="A436" s="2">
-        <v>43191</v>
+        <v>43221</v>
       </c>
       <c r="B436">
-        <v>13988800000000</v>
+        <v>14047200000000</v>
       </c>
       <c r="C436">
         <v>1</v>
@@ -5184,10 +5184,10 @@
     </row>
     <row r="437" spans="1:3">
       <c r="A437" s="2">
-        <v>43221</v>
+        <v>43252</v>
       </c>
       <c r="B437">
-        <v>14047200000000</v>
+        <v>14103600000000</v>
       </c>
       <c r="C437">
         <v>1</v>
@@ -5195,10 +5195,10 @@
     </row>
     <row r="438" spans="1:3">
       <c r="A438" s="2">
-        <v>43252</v>
+        <v>43282</v>
       </c>
       <c r="B438">
-        <v>14103600000000</v>
+        <v>14139200000000</v>
       </c>
       <c r="C438">
         <v>1</v>
@@ -5206,10 +5206,10 @@
     </row>
     <row r="439" spans="1:3">
       <c r="A439" s="2">
-        <v>43282</v>
+        <v>43313</v>
       </c>
       <c r="B439">
-        <v>14139200000000</v>
+        <v>14181300000000</v>
       </c>
       <c r="C439">
         <v>1</v>
@@ -5217,10 +5217,10 @@
     </row>
     <row r="440" spans="1:3">
       <c r="A440" s="2">
-        <v>43313</v>
+        <v>43344</v>
       </c>
       <c r="B440">
-        <v>14181300000000</v>
+        <v>14212900000000</v>
       </c>
       <c r="C440">
         <v>1</v>
@@ -5228,10 +5228,10 @@
     </row>
     <row r="441" spans="1:3">
       <c r="A441" s="2">
-        <v>43344</v>
+        <v>43374</v>
       </c>
       <c r="B441">
-        <v>14212900000000</v>
+        <v>14222500000000</v>
       </c>
       <c r="C441">
         <v>1</v>
@@ -5239,10 +5239,10 @@
     </row>
     <row r="442" spans="1:3">
       <c r="A442" s="2">
-        <v>43374</v>
+        <v>43405</v>
       </c>
       <c r="B442">
-        <v>14222500000000</v>
+        <v>14236800000000</v>
       </c>
       <c r="C442">
         <v>1</v>
@@ -5250,10 +5250,10 @@
     </row>
     <row r="443" spans="1:3">
       <c r="A443" s="2">
-        <v>43405</v>
+        <v>43435</v>
       </c>
       <c r="B443">
-        <v>14236800000000</v>
+        <v>14362700000000</v>
       </c>
       <c r="C443">
         <v>1</v>
@@ -5261,10 +5261,10 @@
     </row>
     <row r="444" spans="1:3">
       <c r="A444" s="2">
-        <v>43435</v>
+        <v>43466</v>
       </c>
       <c r="B444">
-        <v>14362700000000</v>
+        <v>14430000000000</v>
       </c>
       <c r="C444">
         <v>1</v>
@@ -5272,10 +5272,10 @@
     </row>
     <row r="445" spans="1:3">
       <c r="A445" s="2">
-        <v>43466</v>
+        <v>43497</v>
       </c>
       <c r="B445">
-        <v>14430000000000</v>
+        <v>14469900000000</v>
       </c>
       <c r="C445">
         <v>1</v>
@@ -5283,10 +5283,10 @@
     </row>
     <row r="446" spans="1:3">
       <c r="A446" s="2">
-        <v>43497</v>
+        <v>43525</v>
       </c>
       <c r="B446">
-        <v>14469900000000</v>
+        <v>14509900000000</v>
       </c>
       <c r="C446">
         <v>1</v>
@@ -5294,10 +5294,10 @@
     </row>
     <row r="447" spans="1:3">
       <c r="A447" s="2">
-        <v>43525</v>
+        <v>43556</v>
       </c>
       <c r="B447">
-        <v>14509900000000</v>
+        <v>14541000000000</v>
       </c>
       <c r="C447">
         <v>1</v>
@@ -5305,10 +5305,10 @@
     </row>
     <row r="448" spans="1:3">
       <c r="A448" s="2">
-        <v>43556</v>
+        <v>43586</v>
       </c>
       <c r="B448">
-        <v>14541000000000</v>
+        <v>14643200000000</v>
       </c>
       <c r="C448">
         <v>1</v>
@@ -5316,10 +5316,10 @@
     </row>
     <row r="449" spans="1:3">
       <c r="A449" s="2">
-        <v>43586</v>
+        <v>43617</v>
       </c>
       <c r="B449">
-        <v>14643200000000</v>
+        <v>14757700000000</v>
       </c>
       <c r="C449">
         <v>1</v>
@@ -5327,10 +5327,10 @@
     </row>
     <row r="450" spans="1:3">
       <c r="A450" s="2">
-        <v>43617</v>
+        <v>43647</v>
       </c>
       <c r="B450">
-        <v>14757700000000</v>
+        <v>14840600000000</v>
       </c>
       <c r="C450">
         <v>1</v>
@@ -5338,10 +5338,10 @@
     </row>
     <row r="451" spans="1:3">
       <c r="A451" s="2">
-        <v>43647</v>
+        <v>43678</v>
       </c>
       <c r="B451">
-        <v>14840600000000</v>
+        <v>14914600000000</v>
       </c>
       <c r="C451">
         <v>1</v>
@@ -5349,10 +5349,10 @@
     </row>
     <row r="452" spans="1:3">
       <c r="A452" s="2">
-        <v>43678</v>
+        <v>43709</v>
       </c>
       <c r="B452">
-        <v>14914600000000</v>
+        <v>15008100000000</v>
       </c>
       <c r="C452">
         <v>1</v>
@@ -5360,10 +5360,10 @@
     </row>
     <row r="453" spans="1:3">
       <c r="A453" s="2">
-        <v>43709</v>
+        <v>43739</v>
       </c>
       <c r="B453">
-        <v>15008100000000</v>
+        <v>15140800000000</v>
       </c>
       <c r="C453">
         <v>1</v>
@@ -5371,10 +5371,10 @@
     </row>
     <row r="454" spans="1:3">
       <c r="A454" s="2">
-        <v>43739</v>
+        <v>43770</v>
       </c>
       <c r="B454">
-        <v>15140800000000</v>
+        <v>15242200000000</v>
       </c>
       <c r="C454">
         <v>1</v>
@@ -5382,10 +5382,10 @@
     </row>
     <row r="455" spans="1:3">
       <c r="A455" s="2">
-        <v>43770</v>
+        <v>43800</v>
       </c>
       <c r="B455">
-        <v>15242200000000</v>
+        <v>15320700000000</v>
       </c>
       <c r="C455">
         <v>1</v>
@@ -5393,10 +5393,10 @@
     </row>
     <row r="456" spans="1:3">
       <c r="A456" s="2">
-        <v>43800</v>
+        <v>43831</v>
       </c>
       <c r="B456">
-        <v>15320700000000</v>
+        <v>15396000000000</v>
       </c>
       <c r="C456">
         <v>1</v>
@@ -5404,10 +5404,10 @@
     </row>
     <row r="457" spans="1:3">
       <c r="A457" s="2">
-        <v>43831</v>
+        <v>43862</v>
       </c>
       <c r="B457">
-        <v>15396000000000</v>
+        <v>15450300000000</v>
       </c>
       <c r="C457">
         <v>1</v>
@@ -5415,10 +5415,10 @@
     </row>
     <row r="458" spans="1:3">
       <c r="A458" s="2">
-        <v>43862</v>
+        <v>43891</v>
       </c>
       <c r="B458">
-        <v>15450300000000</v>
+        <v>15978700000000</v>
       </c>
       <c r="C458">
         <v>1</v>
@@ -5426,10 +5426,10 @@
     </row>
     <row r="459" spans="1:3">
       <c r="A459" s="2">
-        <v>43891</v>
+        <v>43922</v>
       </c>
       <c r="B459">
-        <v>15978700000000</v>
+        <v>16997600000000</v>
       </c>
       <c r="C459">
         <v>1</v>
@@ -5437,10 +5437,10 @@
     </row>
     <row r="460" spans="1:3">
       <c r="A460" s="2">
-        <v>43922</v>
+        <v>43952</v>
       </c>
       <c r="B460">
-        <v>16997600000000</v>
+        <v>17851100000000</v>
       </c>
       <c r="C460">
         <v>1</v>
@@ -5448,10 +5448,10 @@
     </row>
     <row r="461" spans="1:3">
       <c r="A461" s="2">
-        <v>43952</v>
+        <v>43983</v>
       </c>
       <c r="B461">
-        <v>17851100000000</v>
+        <v>18131700000000</v>
       </c>
       <c r="C461">
         <v>1</v>
@@ -5459,10 +5459,10 @@
     </row>
     <row r="462" spans="1:3">
       <c r="A462" s="2">
-        <v>43983</v>
+        <v>44013</v>
       </c>
       <c r="B462">
-        <v>18131700000000</v>
+        <v>18286300000000</v>
       </c>
       <c r="C462">
         <v>1</v>
@@ -5470,10 +5470,10 @@
     </row>
     <row r="463" spans="1:3">
       <c r="A463" s="2">
-        <v>44013</v>
+        <v>44044</v>
       </c>
       <c r="B463">
-        <v>18286300000000</v>
+        <v>18346000000000</v>
       </c>
       <c r="C463">
         <v>1</v>
@@ -5481,10 +5481,10 @@
     </row>
     <row r="464" spans="1:3">
       <c r="A464" s="2">
-        <v>44044</v>
+        <v>44075</v>
       </c>
       <c r="B464">
-        <v>18346000000000</v>
+        <v>18577300000000</v>
       </c>
       <c r="C464">
         <v>1</v>
@@ -5492,10 +5492,10 @@
     </row>
     <row r="465" spans="1:3">
       <c r="A465" s="2">
-        <v>44075</v>
+        <v>44105</v>
       </c>
       <c r="B465">
-        <v>18577300000000</v>
+        <v>18729100000000</v>
       </c>
       <c r="C465">
         <v>1</v>
@@ -5503,10 +5503,10 @@
     </row>
     <row r="466" spans="1:3">
       <c r="A466" s="2">
-        <v>44105</v>
+        <v>44136</v>
       </c>
       <c r="B466">
-        <v>18729100000000</v>
+        <v>18949300000000</v>
       </c>
       <c r="C466">
         <v>1</v>
@@ -5514,10 +5514,10 @@
     </row>
     <row r="467" spans="1:3">
       <c r="A467" s="2">
-        <v>44136</v>
+        <v>44166</v>
       </c>
       <c r="B467">
-        <v>18949300000000</v>
+        <v>19114400000000</v>
       </c>
       <c r="C467">
         <v>1</v>
@@ -5525,10 +5525,10 @@
     </row>
     <row r="468" spans="1:3">
       <c r="A468" s="2">
-        <v>44166</v>
+        <v>44197</v>
       </c>
       <c r="B468">
-        <v>19114400000000</v>
+        <v>19357000000000</v>
       </c>
       <c r="C468">
         <v>1</v>
@@ -5536,10 +5536,10 @@
     </row>
     <row r="469" spans="1:3">
       <c r="A469" s="2">
-        <v>44197</v>
+        <v>44228</v>
       </c>
       <c r="B469">
-        <v>19357000000000</v>
+        <v>19600400000000</v>
       </c>
       <c r="C469">
         <v>1</v>
@@ -5547,10 +5547,10 @@
     </row>
     <row r="470" spans="1:3">
       <c r="A470" s="2">
-        <v>44228</v>
+        <v>44256</v>
       </c>
       <c r="B470">
-        <v>19600500000000</v>
+        <v>19841000000000</v>
       </c>
       <c r="C470">
         <v>1</v>
@@ -5558,10 +5558,10 @@
     </row>
     <row r="471" spans="1:3">
       <c r="A471" s="2">
-        <v>44256</v>
+        <v>44287</v>
       </c>
       <c r="B471">
-        <v>19841000000000</v>
+        <v>20116900000000</v>
       </c>
       <c r="C471">
         <v>1</v>
@@ -5569,10 +5569,10 @@
     </row>
     <row r="472" spans="1:3">
       <c r="A472" s="2">
-        <v>44287</v>
+        <v>44317</v>
       </c>
       <c r="B472">
-        <v>20116900000000</v>
+        <v>20431000000000</v>
       </c>
       <c r="C472">
         <v>1</v>
@@ -5580,10 +5580,10 @@
     </row>
     <row r="473" spans="1:3">
       <c r="A473" s="2">
-        <v>44317</v>
+        <v>44348</v>
       </c>
       <c r="B473">
-        <v>20431100000000</v>
+        <v>20506600000000</v>
       </c>
       <c r="C473">
         <v>1</v>
@@ -5591,10 +5591,10 @@
     </row>
     <row r="474" spans="1:3">
       <c r="A474" s="2">
-        <v>44348</v>
+        <v>44378</v>
       </c>
       <c r="B474">
-        <v>20506600000000</v>
+        <v>20663000000000</v>
       </c>
       <c r="C474">
         <v>1</v>
@@ -5602,10 +5602,10 @@
     </row>
     <row r="475" spans="1:3">
       <c r="A475" s="2">
-        <v>44378</v>
+        <v>44409</v>
       </c>
       <c r="B475">
-        <v>20663000000000</v>
+        <v>20847900000000</v>
       </c>
       <c r="C475">
         <v>1</v>
@@ -5613,10 +5613,10 @@
     </row>
     <row r="476" spans="1:3">
       <c r="A476" s="2">
-        <v>44409</v>
+        <v>44440</v>
       </c>
       <c r="B476">
-        <v>20847900000000</v>
+        <v>20964300000000</v>
       </c>
       <c r="C476">
         <v>1</v>
@@ -5624,10 +5624,10 @@
     </row>
     <row r="477" spans="1:3">
       <c r="A477" s="2">
-        <v>44440</v>
+        <v>44470</v>
       </c>
       <c r="B477">
-        <v>20964300000000</v>
+        <v>21116300000000</v>
       </c>
       <c r="C477">
         <v>1</v>
@@ -5635,10 +5635,10 @@
     </row>
     <row r="478" spans="1:3">
       <c r="A478" s="2">
-        <v>44470</v>
+        <v>44501</v>
       </c>
       <c r="B478">
-        <v>21116300000000</v>
+        <v>21316300000000</v>
       </c>
       <c r="C478">
         <v>1</v>
@@ -5646,10 +5646,10 @@
     </row>
     <row r="479" spans="1:3">
       <c r="A479" s="2">
-        <v>44501</v>
+        <v>44531</v>
       </c>
       <c r="B479">
-        <v>21316300000000</v>
+        <v>21549400000000</v>
       </c>
       <c r="C479">
         <v>1</v>
@@ -5657,10 +5657,10 @@
     </row>
     <row r="480" spans="1:3">
       <c r="A480" s="2">
-        <v>44531</v>
+        <v>44562</v>
       </c>
       <c r="B480">
-        <v>21549300000000</v>
+        <v>21562100000000</v>
       </c>
       <c r="C480">
         <v>1</v>
@@ -5668,10 +5668,10 @@
     </row>
     <row r="481" spans="1:3">
       <c r="A481" s="2">
-        <v>44562</v>
+        <v>44593</v>
       </c>
       <c r="B481">
-        <v>21562100000000</v>
+        <v>21570400000000</v>
       </c>
       <c r="C481">
         <v>1</v>
@@ -5679,10 +5679,10 @@
     </row>
     <row r="482" spans="1:3">
       <c r="A482" s="2">
-        <v>44593</v>
+        <v>44621</v>
       </c>
       <c r="B482">
-        <v>21570500000000</v>
+        <v>21697500000000</v>
       </c>
       <c r="C482">
         <v>1</v>
@@ -5690,10 +5690,10 @@
     </row>
     <row r="483" spans="1:3">
       <c r="A483" s="2">
-        <v>44621</v>
+        <v>44652</v>
       </c>
       <c r="B483">
-        <v>21697600000000</v>
+        <v>21677200000000</v>
       </c>
       <c r="C483">
         <v>1</v>
@@ -5701,10 +5701,10 @@
     </row>
     <row r="484" spans="1:3">
       <c r="A484" s="2">
-        <v>44652</v>
+        <v>44682</v>
       </c>
       <c r="B484">
-        <v>21677200000000</v>
+        <v>21665600000000</v>
       </c>
       <c r="C484">
         <v>1</v>
@@ -5712,10 +5712,10 @@
     </row>
     <row r="485" spans="1:3">
       <c r="A485" s="2">
-        <v>44682</v>
+        <v>44713</v>
       </c>
       <c r="B485">
-        <v>21665600000000</v>
+        <v>21666400000000</v>
       </c>
       <c r="C485">
         <v>1</v>
@@ -5723,10 +5723,10 @@
     </row>
     <row r="486" spans="1:3">
       <c r="A486" s="2">
-        <v>44713</v>
+        <v>44743</v>
       </c>
       <c r="B486">
-        <v>21666400000000</v>
+        <v>21703600000000</v>
       </c>
       <c r="C486">
         <v>1</v>
@@ -5734,10 +5734,10 @@
     </row>
     <row r="487" spans="1:3">
       <c r="A487" s="2">
-        <v>44743</v>
+        <v>44774</v>
       </c>
       <c r="B487">
-        <v>21703600000000</v>
+        <v>21660000000000</v>
       </c>
       <c r="C487">
         <v>1</v>
@@ -5745,10 +5745,10 @@
     </row>
     <row r="488" spans="1:3">
       <c r="A488" s="2">
-        <v>44774</v>
+        <v>44805</v>
       </c>
       <c r="B488">
-        <v>21659900000000</v>
+        <v>21525300000000</v>
       </c>
       <c r="C488">
         <v>1</v>
@@ -5756,10 +5756,10 @@
     </row>
     <row r="489" spans="1:3">
       <c r="A489" s="2">
-        <v>44805</v>
+        <v>44835</v>
       </c>
       <c r="B489">
-        <v>21525200000000</v>
+        <v>21433300000000</v>
       </c>
       <c r="C489">
         <v>1</v>
@@ -5767,10 +5767,10 @@
     </row>
     <row r="490" spans="1:3">
       <c r="A490" s="2">
-        <v>44835</v>
+        <v>44866</v>
       </c>
       <c r="B490">
-        <v>21433300000000</v>
+        <v>21399300000000</v>
       </c>
       <c r="C490">
         <v>1</v>
@@ -5778,10 +5778,10 @@
     </row>
     <row r="491" spans="1:3">
       <c r="A491" s="2">
-        <v>44866</v>
+        <v>44896</v>
       </c>
       <c r="B491">
-        <v>21399300000000</v>
+        <v>21358300000000</v>
       </c>
       <c r="C491">
         <v>1</v>
@@ -5789,10 +5789,10 @@
     </row>
     <row r="492" spans="1:3">
       <c r="A492" s="2">
-        <v>44896</v>
+        <v>44927</v>
       </c>
       <c r="B492">
-        <v>21358200000000</v>
+        <v>21222200000000</v>
       </c>
       <c r="C492">
         <v>1</v>
@@ -5800,10 +5800,10 @@
     </row>
     <row r="493" spans="1:3">
       <c r="A493" s="2">
-        <v>44927</v>
+        <v>44958</v>
       </c>
       <c r="B493">
-        <v>21222300000000</v>
+        <v>21100700000000</v>
       </c>
       <c r="C493">
         <v>1</v>
@@ -5811,10 +5811,10 @@
     </row>
     <row r="494" spans="1:3">
       <c r="A494" s="2">
-        <v>44958</v>
+        <v>44986</v>
       </c>
       <c r="B494">
-        <v>21100900000000</v>
+        <v>20876200000000</v>
       </c>
       <c r="C494">
         <v>1</v>
@@ -5822,10 +5822,10 @@
     </row>
     <row r="495" spans="1:3">
       <c r="A495" s="2">
-        <v>44986</v>
+        <v>45017</v>
       </c>
       <c r="B495">
-        <v>20876300000000</v>
+        <v>20705600000000</v>
       </c>
       <c r="C495">
         <v>1</v>
@@ -5833,10 +5833,10 @@
     </row>
     <row r="496" spans="1:3">
       <c r="A496" s="2">
-        <v>45017</v>
+        <v>45047</v>
       </c>
       <c r="B496">
-        <v>20705700000000</v>
+        <v>20820300000000</v>
       </c>
       <c r="C496">
         <v>1</v>
@@ -5844,10 +5844,10 @@
     </row>
     <row r="497" spans="1:3">
       <c r="A497" s="2">
-        <v>45047</v>
+        <v>45078</v>
       </c>
       <c r="B497">
-        <v>20820400000000</v>
+        <v>20854300000000</v>
       </c>
       <c r="C497">
         <v>1</v>
@@ -5855,10 +5855,10 @@
     </row>
     <row r="498" spans="1:3">
       <c r="A498" s="2">
-        <v>45078</v>
+        <v>45108</v>
       </c>
       <c r="B498">
-        <v>20854400000000</v>
+        <v>20863700000000</v>
       </c>
       <c r="C498">
         <v>1</v>
@@ -5866,10 +5866,10 @@
     </row>
     <row r="499" spans="1:3">
       <c r="A499" s="2">
-        <v>45108</v>
+        <v>45139</v>
       </c>
       <c r="B499">
-        <v>20863700000000</v>
+        <v>20825300000000</v>
       </c>
       <c r="C499">
         <v>1</v>
@@ -5877,10 +5877,10 @@
     </row>
     <row r="500" spans="1:3">
       <c r="A500" s="2">
-        <v>45139</v>
+        <v>45170</v>
       </c>
       <c r="B500">
-        <v>20825300000000</v>
+        <v>20755100000000</v>
       </c>
       <c r="C500">
         <v>1</v>
@@ -5888,10 +5888,10 @@
     </row>
     <row r="501" spans="1:3">
       <c r="A501" s="2">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="B501">
-        <v>20754900000000</v>
+        <v>20725600000000</v>
       </c>
       <c r="C501">
         <v>1</v>
